--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive - Salotto, S.A. de C.V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06568B43-1394-4AA1-8123-67E180094354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B07E53-023B-40F8-8B0C-3C757A21D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIZ_USUA" sheetId="44" r:id="rId1"/>
@@ -46,11 +46,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resumen!$B$4:$G$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SAP!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">CORREOS!$B$2:$F$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Resumen!$B$1:$G$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Resumen!$B$1:$G$112</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">CORREOS!$2:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Resumen!$1:$4</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
     <author>Vicente Cueva R</author>
   </authors>
   <commentList>
-    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{50352394-33D4-489B-8420-BC6A185C2547}">
+    <comment ref="F77" authorId="0" shapeId="0" xr:uid="{50352394-33D4-489B-8420-BC6A185C2547}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="0" shapeId="0" xr:uid="{820A8547-3E55-4D53-8E77-C748D0572664}">
+    <comment ref="G77" authorId="0" shapeId="0" xr:uid="{820A8547-3E55-4D53-8E77-C748D0572664}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1597">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5069,6 +5069,66 @@
   <si>
     <t>Mesa de Control InBest.
 CORREO: soporte@inbest.enterprises</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>Clave que usa sistemas en varios equipos</t>
+  </si>
+  <si>
+    <t>KASPERKY</t>
+  </si>
+  <si>
+    <t>KLAdmin</t>
+  </si>
+  <si>
+    <t>@Nt1v1&amp;u5</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Consola Kasperky</t>
+  </si>
+  <si>
+    <t>ZARKIN-067 / Vicente Cueva Ramirez</t>
+  </si>
+  <si>
+    <t>883 769 045</t>
+  </si>
+  <si>
+    <t>ESCRITORIO REMOTO</t>
+  </si>
+  <si>
+    <t>PC: 187.189.177.39:1013</t>
+  </si>
+  <si>
+    <t>ZARKIN-011\SISTEMAS</t>
+  </si>
+  <si>
+    <t>Este escritorio lo Utilizara Alberto Jimenez.</t>
+  </si>
+  <si>
+    <t>ZARKIN-011\SISTEMA2</t>
+  </si>
+  <si>
+    <t>Nuevo Escritorio solo yo.</t>
+  </si>
+  <si>
+    <t>Cuenta para Oficce 365 que traigo asignada.</t>
+  </si>
+  <si>
+    <t>IP: 187.189.177.39</t>
+  </si>
+  <si>
+    <t>Z&amp;k*2021</t>
+  </si>
+  <si>
+    <t>Registrada en Escritorio Remoto.</t>
+  </si>
+  <si>
+    <t>POR VALIDAR Y VER QUE NO ESTE DUPLICADO</t>
   </si>
 </sst>
 </file>
@@ -5478,7 +5538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5617,8 +5677,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -6383,6 +6449,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6401,7 +6491,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7118,15 +7208,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7285,6 +7366,12 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7307,12 +7394,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7372,6 +7453,55 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="66" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="67" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -7389,6 +7519,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF33"/>
       <color rgb="FF99FF33"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
@@ -12335,13 +12466,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>414892</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>83787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12379,13 +12510,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>632114</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019245</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>486580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12423,13 +12554,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1310411</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>65492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12511,13 +12642,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>587990</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>142736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14530,8 +14661,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="323" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="324" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="320" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="321" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="261" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="265" hidden="1" customWidth="1"/>
@@ -14542,53 +14673,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="332" t="s">
+      <c r="B2" s="329" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="330" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="334">
+      <c r="B4" s="331">
         <v>44459</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="335"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="321" t="s">
+      <c r="B6" s="318" t="s">
         <v>1537</v>
       </c>
       <c r="C6" s="260" t="s">
@@ -14614,10 +14745,10 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="322">
+      <c r="B7" s="319">
         <v>23</v>
       </c>
-      <c r="C7" s="302">
+      <c r="C7" s="299">
         <v>81</v>
       </c>
       <c r="D7" s="257" t="s">
@@ -14636,10 +14767,10 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="322">
+      <c r="B8" s="319">
         <v>24</v>
       </c>
-      <c r="C8" s="302">
+      <c r="C8" s="299">
         <v>82</v>
       </c>
       <c r="D8" s="257" t="s">
@@ -14658,10 +14789,10 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="322">
+      <c r="B9" s="319">
         <v>25</v>
       </c>
-      <c r="C9" s="302">
+      <c r="C9" s="299">
         <v>80</v>
       </c>
       <c r="D9" s="257" t="s">
@@ -14680,10 +14811,10 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="322">
+      <c r="B10" s="319">
         <v>1771</v>
       </c>
-      <c r="C10" s="302">
+      <c r="C10" s="299">
         <v>24</v>
       </c>
       <c r="D10" s="257" t="s">
@@ -14702,10 +14833,10 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="322">
+      <c r="B11" s="319">
         <v>2182</v>
       </c>
-      <c r="C11" s="302">
+      <c r="C11" s="299">
         <v>98</v>
       </c>
       <c r="D11" s="257" t="s">
@@ -14724,8 +14855,8 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="322"/>
-      <c r="C12" s="302"/>
+      <c r="B12" s="319"/>
+      <c r="C12" s="299"/>
       <c r="D12" s="257"/>
       <c r="E12" s="263"/>
       <c r="F12" s="290"/>
@@ -14734,10 +14865,10 @@
       <c r="I12" s="258"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="322" t="s">
+      <c r="B13" s="319" t="s">
         <v>1568</v>
       </c>
-      <c r="C13" s="302">
+      <c r="C13" s="299">
         <v>3</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -14750,16 +14881,16 @@
       <c r="G13" s="264" t="s">
         <v>1559</v>
       </c>
-      <c r="H13" s="325"/>
+      <c r="H13" s="322"/>
       <c r="I13" s="292" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="322" t="s">
+      <c r="B14" s="319" t="s">
         <v>1520</v>
       </c>
-      <c r="C14" s="302">
+      <c r="C14" s="299">
         <v>1</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -14782,10 +14913,10 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="322" t="s">
+      <c r="B15" s="319" t="s">
         <v>1570</v>
       </c>
-      <c r="C15" s="302">
+      <c r="C15" s="299">
         <v>4</v>
       </c>
       <c r="D15" s="257" t="s">
@@ -14806,10 +14937,10 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="322" t="s">
+      <c r="B16" s="319" t="s">
         <v>1572</v>
       </c>
-      <c r="C16" s="302">
+      <c r="C16" s="299">
         <v>5</v>
       </c>
       <c r="D16" s="257" t="s">
@@ -14828,8 +14959,8 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="322"/>
-      <c r="C17" s="302"/>
+      <c r="B17" s="319"/>
+      <c r="C17" s="299"/>
       <c r="D17" s="257"/>
       <c r="E17" s="263"/>
       <c r="F17" s="288"/>
@@ -14838,8 +14969,8 @@
       <c r="I17" s="258"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="322"/>
-      <c r="C18" s="302"/>
+      <c r="B18" s="319"/>
+      <c r="C18" s="299"/>
       <c r="D18" s="257"/>
       <c r="E18" s="263"/>
       <c r="F18" s="288"/>
@@ -14914,31 +15045,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="340" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="342" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="347">
+      <c r="B4" s="344">
         <v>43396</v>
       </c>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="347"/>
-      <c r="F4" s="347"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -18952,71 +19083,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="356" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="359" t="s">
+      <c r="C2" s="358" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="361" t="s">
+      <c r="E2" s="360" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="363" t="s">
+      <c r="F2" s="352" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="363" t="s">
+      <c r="G2" s="352" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="355" t="s">
+      <c r="H2" s="354" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="363" t="s">
+      <c r="I2" s="352" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
-      <c r="L2" s="355" t="s">
+      <c r="J2" s="352"/>
+      <c r="K2" s="352"/>
+      <c r="L2" s="354" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="355" t="s">
+      <c r="M2" s="354" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="363" t="s">
+      <c r="N2" s="352" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="363" t="s">
+      <c r="O2" s="352" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="355" t="s">
+      <c r="P2" s="354" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="363" t="s">
+      <c r="Q2" s="352" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="363" t="s">
+      <c r="R2" s="352" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="355" t="s">
+      <c r="S2" s="354" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="358"/>
+      <c r="A3" s="357"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="360"/>
+      <c r="C3" s="359"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="356"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="355"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -19026,14 +19157,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="364"/>
-      <c r="O3" s="364"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="364"/>
-      <c r="R3" s="364"/>
-      <c r="S3" s="356"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="355"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -22976,6 +23107,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -22985,12 +23122,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -23952,19 +24083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="362" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -24584,43 +24715,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="363" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -24674,43 +24805,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="363" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -24762,7 +24893,7 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E16"/>
     </sheetView>
@@ -24781,46 +24912,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25">
-      <c r="B2" s="332" t="s">
+      <c r="B2" s="329" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
     </row>
     <row r="3" spans="2:8" ht="18">
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="330" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="334">
+      <c r="B4" s="331">
         <v>44316</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="335"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
     </row>
     <row r="6" spans="2:8" ht="30">
       <c r="B6" s="267" t="s">
@@ -25099,43 +25230,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="363" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -25188,51 +25319,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="368" t="s">
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="365" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
-      <c r="M3" s="368"/>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="365"/>
+      <c r="O3" s="365"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -25295,43 +25426,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="363" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -25462,16 +25593,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="375"/>
-      <c r="D10" s="376"/>
-      <c r="E10" s="377"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="374"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="378" t="s">
+      <c r="C11" s="375" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="379"/>
-      <c r="E11" s="380"/>
+      <c r="D11" s="376"/>
+      <c r="E11" s="377"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -25519,47 +25650,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="381"/>
-      <c r="D17" s="382"/>
-      <c r="E17" s="383"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="379"/>
+      <c r="E17" s="380"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="378" t="s">
+      <c r="C18" s="375" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="379"/>
-      <c r="E18" s="380"/>
+      <c r="D18" s="376"/>
+      <c r="E18" s="377"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="381"/>
-      <c r="D19" s="382"/>
-      <c r="E19" s="383"/>
+      <c r="C19" s="378"/>
+      <c r="D19" s="379"/>
+      <c r="E19" s="380"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="378" t="s">
+      <c r="C20" s="375" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="379"/>
-      <c r="E20" s="380"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="377"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="369"/>
-      <c r="D21" s="370"/>
-      <c r="E21" s="371"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="367"/>
+      <c r="E21" s="368"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="372" t="s">
+      <c r="C22" s="369" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="373"/>
-      <c r="E22" s="374"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="371"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="372" t="s">
+      <c r="C23" s="369" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="373"/>
-      <c r="E23" s="374"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="371"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -25991,12 +26122,12 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J253"/>
+  <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21:H22"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -26018,3692 +26149,4111 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="342" t="s">
+      <c r="B1" s="339" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="344" t="s">
+      <c r="B2" s="341" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="346">
+      <c r="B3" s="343">
         <v>44133</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="21"/>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="395" t="s">
         <v>1447</v>
       </c>
-      <c r="C4" s="297" t="s">
+      <c r="C4" s="396" t="s">
         <v>1448</v>
       </c>
-      <c r="D4" s="297" t="s">
+      <c r="D4" s="396" t="s">
         <v>1449</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="396" t="s">
         <v>1336</v>
       </c>
-      <c r="F4" s="298" t="s">
+      <c r="F4" s="397" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="297" t="s">
+      <c r="G4" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="297" t="s">
+      <c r="H4" s="396" t="s">
         <v>1263</v>
       </c>
       <c r="J4" s="84"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="299">
-        <v>44165</v>
-      </c>
-      <c r="C5" s="259" t="s">
+    <row r="5" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B5" s="382">
+        <v>44581</v>
+      </c>
+      <c r="C5" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D5" s="383" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E5" s="384"/>
+      <c r="F5" s="385" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="323" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H5" s="386" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B6" s="382">
+        <v>44640</v>
+      </c>
+      <c r="C6" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D6" s="383" t="s">
+        <v>942</v>
+      </c>
+      <c r="E6" s="384" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F6" s="385" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G6" s="387" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H6" s="386" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B7" s="382">
+        <v>44640</v>
+      </c>
+      <c r="C7" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D7" s="383" t="s">
+        <v>942</v>
+      </c>
+      <c r="E7" s="384" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F7" s="323" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="387" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H7" s="386" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B8" s="382">
+        <v>44563</v>
+      </c>
+      <c r="C8" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D8" s="383" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E8" s="384" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F8" s="385" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G8" s="387" t="s">
+        <v>979</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B9" s="382">
+        <v>44581</v>
+      </c>
+      <c r="C9" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D9" s="383" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E9" s="384" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F9" s="385" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G9" s="387" t="s">
+        <v>979</v>
+      </c>
+      <c r="H9" s="386"/>
+    </row>
+    <row r="10" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B10" s="382">
+        <v>44581</v>
+      </c>
+      <c r="C10" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D10" s="383" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E10" s="384" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F10" s="385" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G10" s="387" t="s">
+        <v>895</v>
+      </c>
+      <c r="H10" s="386" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B11" s="382">
+        <v>44581</v>
+      </c>
+      <c r="C11" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D11" s="383" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E11" s="384" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F11" s="385" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G11" s="387" t="s">
+        <v>979</v>
+      </c>
+      <c r="H11" s="386" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B12" s="382">
+        <v>44606</v>
+      </c>
+      <c r="C12" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D12" s="383" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E12" s="384" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F12" s="385" t="s">
+        <v>975</v>
+      </c>
+      <c r="G12" s="387" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H12" s="386" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B13" s="382">
+        <v>44661</v>
+      </c>
+      <c r="C13" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D13" s="383" t="s">
         <v>1450</v>
       </c>
-      <c r="D5" s="259" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E5" s="300" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F5" s="263" t="s">
+      <c r="E13" s="384" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F13" s="385" t="s">
         <v>1453</v>
       </c>
-      <c r="G5" s="263" t="s">
+      <c r="G13" s="387" t="s">
         <v>1454</v>
       </c>
-      <c r="H5" s="266" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="299">
-        <v>44165</v>
-      </c>
-      <c r="C6" s="259" t="s">
+      <c r="H13" s="386"/>
+    </row>
+    <row r="14" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B14" s="382">
+        <v>44139</v>
+      </c>
+      <c r="C14" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D14" s="383" t="s">
         <v>1450</v>
       </c>
-      <c r="D6" s="259" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E6" s="300" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F6" s="263" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G6" s="263" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H6" s="258" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="84"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="301" t="s">
+      <c r="E14" s="384" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F14" s="385" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="387" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H14" s="386" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B15" s="388"/>
+      <c r="C15" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D15" s="383" t="s">
         <v>1450</v>
       </c>
-      <c r="D7" s="301" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E7" s="301" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F7" s="302" t="s">
-        <v>882</v>
-      </c>
-      <c r="G7" s="264" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H7" s="301"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="84"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="9">
-        <v>44139</v>
-      </c>
-      <c r="C8" s="303" t="s">
+      <c r="E15" s="386" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F15" s="389" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G15" s="387" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H15" s="386"/>
+    </row>
+    <row r="16" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B16" s="388"/>
+      <c r="C16" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D16" s="383" t="s">
         <v>1450</v>
       </c>
-      <c r="D8" s="303" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E8" s="304"/>
-      <c r="F8" s="263" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="264" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H8" s="301" t="s">
-        <v>1460</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="84"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="301" t="s">
+      <c r="E16" s="386" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F16" s="389" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G16" s="387" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H16" s="386"/>
+    </row>
+    <row r="17" spans="1:10" s="381" customFormat="1" ht="15">
+      <c r="B17" s="382">
+        <v>44652</v>
+      </c>
+      <c r="C17" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D17" s="383" t="s">
+        <v>751</v>
+      </c>
+      <c r="E17" s="384" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F17" s="385" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="386" t="s">
         <v>1450</v>
       </c>
-      <c r="D9" s="301" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E9" s="301" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F9" s="302" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G9" s="264" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H9" s="301"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="84"/>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="301" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D10" s="301" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E10" s="301" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F10" s="302" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G10" s="264" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H10" s="301"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="84"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="9">
-        <v>44140</v>
-      </c>
-      <c r="C11" s="303" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D11" s="303" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E11" s="304"/>
-      <c r="F11" s="263" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G11" s="264" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H11" s="301" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="9">
-        <v>44511</v>
-      </c>
-      <c r="C12" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D12" s="303" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E12" s="304" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F12" s="326" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="264" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="84"/>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="84"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="84"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="84"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="84"/>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="21"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="301" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D18" s="301" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E18" s="301"/>
-      <c r="F18" s="302" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G18" s="305" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="301"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="382">
+        <v>44144</v>
+      </c>
+      <c r="C18" s="383" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D18" s="383" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E18" s="384" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F18" s="385" t="s">
+        <v>951</v>
+      </c>
+      <c r="G18" s="387" t="s">
+        <v>953</v>
+      </c>
+      <c r="H18" s="386" t="s">
+        <v>1490</v>
+      </c>
       <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="21"/>
-      <c r="B19" s="3">
-        <v>44343</v>
-      </c>
-      <c r="C19" s="301" t="s">
+      <c r="B19" s="382">
+        <v>44676</v>
+      </c>
+      <c r="C19" s="383" t="s">
         <v>1477</v>
       </c>
-      <c r="D19" s="301" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E19" s="301" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F19" s="305" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G19" s="306" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="301"/>
-      <c r="I19" s="21"/>
+      <c r="D19" s="383" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E19" s="384" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F19" s="323" t="s">
+        <v>975</v>
+      </c>
+      <c r="G19" s="390" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H19" s="391" t="s">
+        <v>1595</v>
+      </c>
       <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="21"/>
-      <c r="B20" s="268">
-        <v>44133</v>
-      </c>
-      <c r="C20" s="259" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D20" s="259" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E20" s="304" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F20" s="264" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G20" s="264" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="266" t="s">
-        <v>1481</v>
-      </c>
-      <c r="I20" s="21"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
+      <c r="D20" s="383"/>
+      <c r="E20" s="384"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="387"/>
+      <c r="H20" s="386"/>
       <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="21"/>
-      <c r="B21" s="327">
-        <v>44329</v>
-      </c>
-      <c r="C21" s="328" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D21" s="328" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E21" s="328" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F21" s="329" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G21" s="330" t="s">
-        <v>979</v>
-      </c>
-      <c r="H21" s="331" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I21" s="21"/>
+      <c r="B21" s="382"/>
+      <c r="C21" s="383"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="387"/>
+      <c r="H21" s="386"/>
       <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="21"/>
-      <c r="B22" s="327">
-        <v>44329</v>
-      </c>
-      <c r="C22" s="328" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D22" s="328" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E22" s="328" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F22" s="329" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="330" t="s">
-        <v>895</v>
-      </c>
-      <c r="H22" s="331" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I22" s="21"/>
+      <c r="B22" s="382"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="383"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="387"/>
+      <c r="H22" s="386"/>
       <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="21"/>
-      <c r="B23" s="268">
-        <v>44144</v>
-      </c>
-      <c r="C23" s="259" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D23" s="259" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E23" s="304" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F23" s="307" t="s">
-        <v>951</v>
-      </c>
-      <c r="G23" s="264" t="s">
-        <v>953</v>
-      </c>
-      <c r="H23" s="266" t="s">
-        <v>1490</v>
-      </c>
-      <c r="I23" s="21"/>
+      <c r="B23" s="382"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="387"/>
+      <c r="H23" s="386"/>
       <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="21"/>
-      <c r="B24" s="268">
-        <v>44144</v>
-      </c>
-      <c r="C24" s="259" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D24" s="259" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E24" s="304" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F24" s="304" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G24" s="263" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H24" s="266" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="21"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="385"/>
+      <c r="G24" s="387"/>
+      <c r="H24" s="386"/>
       <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="21"/>
-      <c r="B25" s="9">
-        <v>44369</v>
-      </c>
-      <c r="C25" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D25" s="303" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E25" s="304" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F25" s="308" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G25" s="309" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="301" t="s">
-        <v>1496</v>
-      </c>
-      <c r="I25" s="21"/>
+      <c r="B25" s="382"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="385"/>
+      <c r="G25" s="387"/>
+      <c r="H25" s="386"/>
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="9">
-        <v>44334</v>
-      </c>
-      <c r="C26" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D26" s="303" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E26" s="304" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F26" s="263" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G26" s="264" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H26" s="301"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="392" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C26" s="393"/>
+      <c r="D26" s="393"/>
+      <c r="E26" s="393"/>
+      <c r="F26" s="393"/>
+      <c r="G26" s="393"/>
+      <c r="H26" s="394"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="21"/>
-      <c r="B27" s="268">
-        <v>44105</v>
+      <c r="B27" s="296">
+        <v>44165</v>
       </c>
       <c r="C27" s="259" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D27" s="304" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E27" s="304" t="s">
-        <v>1501</v>
+        <v>1450</v>
+      </c>
+      <c r="D27" s="259" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E27" s="297" t="s">
+        <v>1452</v>
       </c>
       <c r="F27" s="263" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G27" s="264" t="s">
-        <v>979</v>
-      </c>
-      <c r="H27" s="304" t="s">
-        <v>1500</v>
+        <v>1453</v>
+      </c>
+      <c r="G27" s="263" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H27" s="266" t="s">
+        <v>1455</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="21"/>
-      <c r="B28" s="9">
-        <v>44354</v>
-      </c>
-      <c r="C28" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D28" s="303" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="303"/>
+      <c r="B28" s="296">
+        <v>44165</v>
+      </c>
+      <c r="C28" s="259" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D28" s="259" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E28" s="297" t="s">
+        <v>1456</v>
+      </c>
       <c r="F28" s="263" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G28" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="301"/>
+        <v>1453</v>
+      </c>
+      <c r="G28" s="263" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H28" s="258" t="s">
+        <v>1457</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="21"/>
-      <c r="B29" s="9">
-        <v>44329</v>
-      </c>
-      <c r="C29" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D29" s="303" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E29" s="310" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F29" s="263" t="s">
-        <v>1374</v>
+      <c r="B29" s="3"/>
+      <c r="C29" s="298" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D29" s="298" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E29" s="298" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F29" s="299" t="s">
+        <v>882</v>
       </c>
       <c r="G29" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="301" t="s">
-        <v>1505</v>
-      </c>
+        <v>1387</v>
+      </c>
+      <c r="H29" s="298"/>
       <c r="I29" s="21"/>
       <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="21"/>
       <c r="B30" s="9">
-        <v>44329</v>
-      </c>
-      <c r="C30" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D30" s="303" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E30" s="304" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F30" s="311" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G30" s="265" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="301" t="s">
-        <v>1506</v>
+        <v>44139</v>
+      </c>
+      <c r="C30" s="300" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D30" s="300" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E30" s="301"/>
+      <c r="F30" s="263" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="264" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H30" s="298" t="s">
+        <v>1460</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="21"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="303" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D31" s="303" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E31" s="303" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F31" s="263" t="s">
-        <v>975</v>
+      <c r="B31" s="3"/>
+      <c r="C31" s="298" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D31" s="298" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E31" s="298" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F31" s="299" t="s">
+        <v>1410</v>
       </c>
       <c r="G31" s="264" t="s">
-        <v>953</v>
-      </c>
-      <c r="H31" s="301" t="s">
-        <v>1490</v>
-      </c>
+        <v>1409</v>
+      </c>
+      <c r="H31" s="298"/>
       <c r="I31" s="21"/>
       <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="21"/>
-      <c r="B32" s="268">
-        <v>44162</v>
-      </c>
-      <c r="C32" s="259" t="s">
-        <v>751</v>
-      </c>
-      <c r="D32" s="259" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E32" s="263" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F32" s="263" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="263" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H32" s="258"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="298" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D32" s="298" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E32" s="298" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F32" s="299" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G32" s="264" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H32" s="298"/>
       <c r="I32" s="21"/>
       <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="21"/>
-      <c r="B33" s="299">
-        <v>44302</v>
-      </c>
-      <c r="C33" s="259" t="s">
-        <v>751</v>
-      </c>
-      <c r="D33" s="259" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E33" s="263" t="s">
-        <v>1500</v>
-      </c>
+      <c r="B33" s="9">
+        <v>44140</v>
+      </c>
+      <c r="C33" s="300" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D33" s="300" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E33" s="301"/>
       <c r="F33" s="263" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G33" s="263" t="s">
-        <v>845</v>
-      </c>
-      <c r="H33" s="266" t="s">
-        <v>1511</v>
+        <v>1453</v>
+      </c>
+      <c r="G33" s="264" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H33" s="298" t="s">
+        <v>1464</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="84"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="43.5" customHeight="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="259" t="s">
-        <v>751</v>
-      </c>
-      <c r="D34" s="259" t="s">
-        <v>748</v>
-      </c>
-      <c r="E34" s="263" t="s">
-        <v>748</v>
-      </c>
-      <c r="F34" s="263" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="263" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="266" t="s">
-        <v>1512</v>
+      <c r="B34" s="9">
+        <v>44511</v>
+      </c>
+      <c r="C34" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D34" s="300" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E34" s="301" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F34" s="323" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="264" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1576</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="21"/>
-      <c r="B35" s="299">
-        <v>44139</v>
-      </c>
-      <c r="C35" s="259" t="s">
-        <v>751</v>
-      </c>
-      <c r="D35" s="259" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E35" s="263" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F35" s="263" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="263" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="266" t="s">
-        <v>1514</v>
+      <c r="B35" s="3"/>
+      <c r="C35" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>1467</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="84"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="25.5">
       <c r="A36" s="21"/>
-      <c r="B36" s="268">
-        <v>43945</v>
-      </c>
-      <c r="C36" s="259" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D36" s="259" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E36" s="263" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F36" s="263" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G36" s="263" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H36" s="304" t="s">
-        <v>1500</v>
+      <c r="B36" s="3"/>
+      <c r="C36" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>1469</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="84"/>
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="21"/>
-      <c r="B37" s="9">
-        <v>44295</v>
-      </c>
-      <c r="C37" s="303" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D37" s="303" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E37" s="304" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F37" s="263" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G37" s="264" t="s">
-        <v>845</v>
-      </c>
-      <c r="H37" s="301" t="s">
-        <v>1521</v>
-      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="21"/>
       <c r="J37" s="84"/>
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="21"/>
-      <c r="B38" s="9">
-        <v>44295</v>
-      </c>
-      <c r="C38" s="303" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D38" s="303" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E38" s="304" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F38" s="263" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G38" s="264" t="s">
-        <v>845</v>
-      </c>
-      <c r="H38" s="301" t="s">
-        <v>1523</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H38" s="7"/>
       <c r="I38" s="21"/>
       <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="21"/>
-      <c r="B39" s="9">
-        <v>44147</v>
-      </c>
-      <c r="C39" s="303" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D39" s="303" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E39" s="304" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F39" s="263" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G39" s="264" t="s">
-        <v>845</v>
-      </c>
-      <c r="H39" s="301" t="s">
-        <v>1526</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H39" s="7"/>
       <c r="I39" s="21"/>
       <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="21"/>
-      <c r="B40" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C40" s="301" t="s">
-        <v>754</v>
-      </c>
-      <c r="D40" s="301" t="s">
-        <v>882</v>
-      </c>
-      <c r="E40" s="301" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F40" s="263">
-        <v>1059</v>
-      </c>
-      <c r="G40" s="305" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="301" t="s">
-        <v>1528</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D40" s="298" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E40" s="298"/>
+      <c r="F40" s="299" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G40" s="302" t="s">
+        <v>845</v>
+      </c>
+      <c r="H40" s="298"/>
       <c r="I40" s="21"/>
       <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="21"/>
       <c r="B41" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C41" s="301" t="s">
-        <v>754</v>
-      </c>
-      <c r="D41" s="301" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="301" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F41" s="263" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>883</v>
-      </c>
-      <c r="H41" s="301" t="s">
-        <v>1528</v>
-      </c>
+        <v>44343</v>
+      </c>
+      <c r="C41" s="298" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D41" s="298" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E41" s="298" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F41" s="302" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G41" s="303" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="298"/>
       <c r="I41" s="21"/>
       <c r="J41" s="84"/>
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="21"/>
-      <c r="B42" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C42" s="301" t="s">
-        <v>754</v>
-      </c>
-      <c r="D42" s="301" t="s">
-        <v>118</v>
+      <c r="B42" s="268">
+        <v>44133</v>
+      </c>
+      <c r="C42" s="259" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D42" s="259" t="s">
+        <v>1480</v>
       </c>
       <c r="E42" s="301" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F42" s="263">
-        <v>1023</v>
-      </c>
-      <c r="G42" s="264"/>
-      <c r="H42" s="301" t="s">
-        <v>1528</v>
+        <v>1383</v>
+      </c>
+      <c r="F42" s="264" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G42" s="264" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="266" t="s">
+        <v>1481</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="84"/>
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="21"/>
-      <c r="B43" s="299">
-        <v>44133</v>
-      </c>
-      <c r="C43" s="312" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D43" s="313" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E43" s="314" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F43" s="314" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G43" s="315" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="316" t="s">
-        <v>1481</v>
+      <c r="B43" s="324">
+        <v>44329</v>
+      </c>
+      <c r="C43" s="325" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D43" s="325" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E43" s="325" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F43" s="326" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G43" s="327" t="s">
+        <v>979</v>
+      </c>
+      <c r="H43" s="328" t="s">
+        <v>1485</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="84"/>
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="21"/>
-      <c r="B44" s="299">
-        <v>44108</v>
-      </c>
-      <c r="C44" s="259" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D44" s="259" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E44" s="263" t="s">
-        <v>944</v>
-      </c>
-      <c r="F44" s="264"/>
-      <c r="G44" s="264"/>
-      <c r="H44" s="266" t="s">
-        <v>1533</v>
+      <c r="B44" s="324">
+        <v>44329</v>
+      </c>
+      <c r="C44" s="325" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D44" s="325" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E44" s="325" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F44" s="326" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="327" t="s">
+        <v>895</v>
+      </c>
+      <c r="H44" s="328" t="s">
+        <v>1487</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="84"/>
     </row>
-    <row r="45" spans="1:10" ht="76.5">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="21"/>
-      <c r="B45" s="3">
-        <v>44188</v>
-      </c>
-      <c r="C45" s="303" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E45" s="317" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F45" s="264" t="s">
-        <v>718</v>
+      <c r="B45" s="268">
+        <v>44144</v>
+      </c>
+      <c r="C45" s="259" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D45" s="259" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E45" s="301" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F45" s="304" t="s">
+        <v>951</v>
       </c>
       <c r="G45" s="264" t="s">
-        <v>895</v>
-      </c>
-      <c r="H45" s="318" t="s">
-        <v>1304</v>
+        <v>953</v>
+      </c>
+      <c r="H45" s="266" t="s">
+        <v>1490</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="84"/>
     </row>
     <row r="46" spans="1:10" ht="15">
       <c r="A46" s="21"/>
-      <c r="B46" s="3">
-        <v>44295</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D46" s="200" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E46" s="319" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F46" s="320" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="H46" s="301" t="s">
-        <v>1535</v>
+      <c r="B46" s="268">
+        <v>44144</v>
+      </c>
+      <c r="C46" s="259" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D46" s="259" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E46" s="301" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F46" s="301" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G46" s="263" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H46" s="266" t="s">
+        <v>128</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="84"/>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="21"/>
-      <c r="B47" s="3">
-        <v>44295</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D47" s="200" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="319" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>1536</v>
+      <c r="B47" s="9">
+        <v>44369</v>
+      </c>
+      <c r="C47" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D47" s="300" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E47" s="301" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F47" s="305" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G47" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="298" t="s">
+        <v>1496</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="84"/>
     </row>
     <row r="48" spans="1:10" ht="15">
       <c r="A48" s="21"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="303"/>
-      <c r="D48" s="303"/>
-      <c r="E48" s="303"/>
-      <c r="F48" s="263"/>
-      <c r="G48" s="264"/>
-      <c r="H48" s="301"/>
+      <c r="B48" s="9">
+        <v>44334</v>
+      </c>
+      <c r="C48" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D48" s="300" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E48" s="301" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F48" s="263" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G48" s="264" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H48" s="298"/>
       <c r="I48" s="21"/>
       <c r="J48" s="84"/>
     </row>
-    <row r="49" spans="2:10" ht="15">
-      <c r="B49" s="9"/>
-      <c r="C49" s="303"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="264"/>
-      <c r="H49" s="301"/>
+    <row r="49" spans="1:10" ht="15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="268">
+        <v>44105</v>
+      </c>
+      <c r="C49" s="259" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D49" s="301" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="301" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F49" s="263" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G49" s="264" t="s">
+        <v>979</v>
+      </c>
+      <c r="H49" s="301" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I49" s="21"/>
       <c r="J49" s="84"/>
     </row>
-    <row r="50" spans="2:10" ht="15">
-      <c r="B50" s="9"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="263"/>
-      <c r="G50" s="264"/>
-      <c r="H50" s="301"/>
+    <row r="50" spans="1:10" ht="15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="9">
+        <v>44354</v>
+      </c>
+      <c r="C50" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D50" s="300" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E50" s="300"/>
+      <c r="F50" s="263" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G50" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="298"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="84"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75">
-      <c r="B51" s="209" t="s">
+    <row r="51" spans="1:10" ht="15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="9">
+        <v>44329</v>
+      </c>
+      <c r="C51" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D51" s="300" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E51" s="307" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F51" s="263" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G51" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="298" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="84"/>
+    </row>
+    <row r="52" spans="1:10" ht="15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="9">
+        <v>44329</v>
+      </c>
+      <c r="C52" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D52" s="300" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E52" s="301" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F52" s="308" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G52" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="298" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="84"/>
+    </row>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D53" s="300" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E53" s="300" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F53" s="263" t="s">
+        <v>975</v>
+      </c>
+      <c r="G53" s="264" t="s">
+        <v>953</v>
+      </c>
+      <c r="H53" s="298" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="84"/>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="268">
+        <v>44162</v>
+      </c>
+      <c r="C54" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="D54" s="259" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E54" s="263" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F54" s="263" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="263" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H54" s="258"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="84"/>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="296">
+        <v>44302</v>
+      </c>
+      <c r="C55" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="D55" s="259" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E55" s="263" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F55" s="263" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G55" s="263" t="s">
+        <v>845</v>
+      </c>
+      <c r="H55" s="266" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="84"/>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="21"/>
+      <c r="B56" s="268"/>
+      <c r="C56" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="D56" s="259" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="263" t="s">
+        <v>748</v>
+      </c>
+      <c r="F56" s="263" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="263" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="266" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="84"/>
+    </row>
+    <row r="57" spans="1:10" ht="15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="296">
+        <v>44139</v>
+      </c>
+      <c r="C57" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="D57" s="259" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E57" s="263" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F57" s="263" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="263" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="266" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="84"/>
+    </row>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="268">
+        <v>43945</v>
+      </c>
+      <c r="C58" s="259" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D58" s="259" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E58" s="263" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F58" s="263" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G58" s="263" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H58" s="301" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="84"/>
+    </row>
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="9">
+        <v>44295</v>
+      </c>
+      <c r="C59" s="300" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D59" s="300" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E59" s="301" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F59" s="263" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G59" s="264" t="s">
+        <v>845</v>
+      </c>
+      <c r="H59" s="298" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="84"/>
+    </row>
+    <row r="60" spans="1:10" ht="15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="9">
+        <v>44295</v>
+      </c>
+      <c r="C60" s="300" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D60" s="300" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E60" s="301" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F60" s="263" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G60" s="264" t="s">
+        <v>845</v>
+      </c>
+      <c r="H60" s="298" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="84"/>
+    </row>
+    <row r="61" spans="1:10" ht="15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="9">
+        <v>44147</v>
+      </c>
+      <c r="C61" s="300" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D61" s="300" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E61" s="301" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F61" s="263" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G61" s="264" t="s">
+        <v>845</v>
+      </c>
+      <c r="H61" s="298" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="84"/>
+    </row>
+    <row r="62" spans="1:10" ht="15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C62" s="298" t="s">
+        <v>754</v>
+      </c>
+      <c r="D62" s="298" t="s">
+        <v>882</v>
+      </c>
+      <c r="E62" s="298" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F62" s="263">
+        <v>1059</v>
+      </c>
+      <c r="G62" s="302" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="298" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="84"/>
+    </row>
+    <row r="63" spans="1:10" ht="15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C63" s="298" t="s">
+        <v>754</v>
+      </c>
+      <c r="D63" s="298" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="298" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F63" s="263" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="H63" s="298" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="J63" s="84"/>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C64" s="298" t="s">
+        <v>754</v>
+      </c>
+      <c r="D64" s="298" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="298" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F64" s="263">
+        <v>1023</v>
+      </c>
+      <c r="G64" s="264"/>
+      <c r="H64" s="298" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I64" s="21"/>
+      <c r="J64" s="84"/>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="296">
+        <v>44133</v>
+      </c>
+      <c r="C65" s="309" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D65" s="310" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E65" s="311" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F65" s="311" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G65" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="313" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="84"/>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="296">
+        <v>44108</v>
+      </c>
+      <c r="C66" s="259" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D66" s="259" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E66" s="263" t="s">
+        <v>944</v>
+      </c>
+      <c r="F66" s="264"/>
+      <c r="G66" s="264"/>
+      <c r="H66" s="266" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="J66" s="84"/>
+    </row>
+    <row r="67" spans="1:10" ht="76.5">
+      <c r="A67" s="21"/>
+      <c r="B67" s="3">
+        <v>44188</v>
+      </c>
+      <c r="C67" s="300" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E67" s="314" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F67" s="264" t="s">
+        <v>718</v>
+      </c>
+      <c r="G67" s="264" t="s">
+        <v>895</v>
+      </c>
+      <c r="H67" s="315" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="84"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D68" s="200" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E68" s="316" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F68" s="317" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="H68" s="298" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="84"/>
+    </row>
+    <row r="69" spans="1:10" ht="30">
+      <c r="A69" s="21"/>
+      <c r="B69" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D69" s="200" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="316" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="84"/>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
+      <c r="E70" s="300"/>
+      <c r="F70" s="263"/>
+      <c r="G70" s="264"/>
+      <c r="H70" s="298"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="84"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="B71" s="9"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="300"/>
+      <c r="E71" s="300"/>
+      <c r="F71" s="263"/>
+      <c r="G71" s="264"/>
+      <c r="H71" s="298"/>
+      <c r="J71" s="84"/>
+    </row>
+    <row r="72" spans="1:10" ht="15">
+      <c r="B72" s="9"/>
+      <c r="C72" s="300"/>
+      <c r="D72" s="300"/>
+      <c r="E72" s="300"/>
+      <c r="F72" s="263"/>
+      <c r="G72" s="264"/>
+      <c r="H72" s="298"/>
+      <c r="J72" s="84"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="B73" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="210" t="s">
+      <c r="C73" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="210" t="s">
+      <c r="D73" s="210" t="s">
         <v>1336</v>
       </c>
-      <c r="E51" s="210" t="s">
+      <c r="E73" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="F51" s="174" t="s">
+      <c r="F73" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="174" t="s">
+      <c r="G73" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="174" t="s">
+      <c r="H73" s="174" t="s">
         <v>1328</v>
       </c>
-      <c r="J51" s="84"/>
-    </row>
-    <row r="52" spans="2:10" ht="99.75">
-      <c r="B52" s="17" t="s">
+      <c r="J73" s="84"/>
+    </row>
+    <row r="74" spans="1:10" ht="99.75">
+      <c r="B74" s="17" t="s">
         <v>1253</v>
       </c>
-      <c r="C52" s="200" t="s">
+      <c r="C74" s="200" t="s">
         <v>1254</v>
       </c>
-      <c r="D52" s="200"/>
-      <c r="E52" s="8" t="s">
+      <c r="D74" s="200"/>
+      <c r="E74" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="G52" s="211" t="s">
+      <c r="G74" s="211" t="s">
         <v>1255</v>
       </c>
-      <c r="H52" s="181">
+      <c r="H74" s="181">
         <v>44000</v>
       </c>
-      <c r="J52" s="84"/>
-    </row>
-    <row r="53" spans="2:10" ht="15">
-      <c r="B53" s="17" t="s">
+      <c r="J74" s="84"/>
+    </row>
+    <row r="75" spans="1:10" ht="15">
+      <c r="B75" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="C53" s="200"/>
-      <c r="D53" s="200" t="s">
+      <c r="C75" s="200"/>
+      <c r="D75" s="200" t="s">
         <v>887</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="G53" s="211"/>
-      <c r="H53" s="181"/>
-      <c r="J53" s="84"/>
-    </row>
-    <row r="54" spans="2:10" ht="25.5">
-      <c r="B54" s="17" t="s">
+      <c r="G75" s="211"/>
+      <c r="H75" s="181"/>
+      <c r="J75" s="84"/>
+    </row>
+    <row r="76" spans="1:10" ht="25.5">
+      <c r="B76" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="8" t="s">
         <v>1234</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="H54" s="181"/>
-      <c r="J54" s="84"/>
-    </row>
-    <row r="55" spans="2:10" ht="63.75">
-      <c r="B55" s="17" t="s">
+      <c r="H76" s="181"/>
+      <c r="J76" s="84"/>
+    </row>
+    <row r="77" spans="1:10" ht="63.75">
+      <c r="B77" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C77" s="22" t="s">
         <v>1247</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="117" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="117" t="s">
         <v>844</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="H55" s="181"/>
-      <c r="J55" s="84"/>
-    </row>
-    <row r="56" spans="2:10" ht="51">
-      <c r="B56" s="17" t="s">
+      <c r="H77" s="181"/>
+      <c r="J77" s="84"/>
+    </row>
+    <row r="78" spans="1:10" ht="51">
+      <c r="B78" s="17" t="s">
         <v>1332</v>
       </c>
-      <c r="C56" s="200" t="s">
+      <c r="C78" s="200" t="s">
         <v>1376</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="181"/>
-      <c r="J56" s="164"/>
-    </row>
-    <row r="57" spans="2:10" ht="28.5">
-      <c r="B57" s="17" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C57" s="200" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="181"/>
-      <c r="J57" s="164"/>
-    </row>
-    <row r="58" spans="2:10" ht="25.5">
-      <c r="B58" s="17" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C58" s="200" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E58" s="204" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="181"/>
-      <c r="J58" s="164"/>
-    </row>
-    <row r="59" spans="2:10" ht="14.25">
-      <c r="B59" s="17"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="181"/>
-      <c r="J59" s="164"/>
-    </row>
-    <row r="60" spans="2:10" ht="14.25">
-      <c r="B60" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="181"/>
-      <c r="J60" s="164"/>
-    </row>
-    <row r="61" spans="2:10" ht="14.25">
-      <c r="B61" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="181"/>
-      <c r="J61" s="164"/>
-    </row>
-    <row r="62" spans="2:10" ht="14.25">
-      <c r="B62" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="181"/>
-      <c r="J62" s="164"/>
-    </row>
-    <row r="63" spans="2:10" ht="25.5">
-      <c r="B63" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H63" s="181"/>
-      <c r="J63" s="164"/>
-    </row>
-    <row r="64" spans="2:10" ht="14.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="181"/>
-      <c r="J64" s="164"/>
-    </row>
-    <row r="65" spans="2:10" ht="14.25">
-      <c r="B65" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="181"/>
-      <c r="J65" s="164"/>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1">
-      <c r="B66" s="17"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="181"/>
-      <c r="J66" s="164"/>
-    </row>
-    <row r="67" spans="2:10" ht="14.25">
-      <c r="B67" s="17"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="181"/>
-      <c r="J67" s="164"/>
-    </row>
-    <row r="68" spans="2:10" ht="14.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="181"/>
-      <c r="J68" s="164"/>
-    </row>
-    <row r="69" spans="2:10" ht="14.25">
-      <c r="B69" s="351" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C69" s="352"/>
-      <c r="D69" s="352"/>
-      <c r="E69" s="352"/>
-      <c r="F69" s="352"/>
-      <c r="G69" s="353"/>
-      <c r="H69" s="181"/>
-      <c r="J69" s="164"/>
-    </row>
-    <row r="70" spans="2:10" ht="38.25">
-      <c r="B70" s="17" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C70" s="200" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H70" s="181"/>
-      <c r="J70" s="164"/>
-    </row>
-    <row r="71" spans="2:10" ht="38.25">
-      <c r="B71" s="17" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C71" s="200" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H71" s="181"/>
-    </row>
-    <row r="72" spans="2:10" ht="51">
-      <c r="B72" s="17" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C72" s="200" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H72" s="181"/>
-      <c r="J72" s="164"/>
-    </row>
-    <row r="73" spans="2:10" ht="51">
-      <c r="B73" s="17" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C73" s="200" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H73" s="181"/>
-      <c r="J73" s="84"/>
-    </row>
-    <row r="74" spans="2:10" ht="25.5">
-      <c r="B74" s="238" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C74" s="239" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D74" s="242"/>
-      <c r="E74" s="240" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F74" s="240" t="s">
-        <v>935</v>
-      </c>
-      <c r="G74" s="241" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H74" s="238">
-        <v>44000</v>
-      </c>
-      <c r="J74" s="84"/>
-    </row>
-    <row r="75" spans="2:10" ht="38.25">
-      <c r="B75" s="17" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H75" s="181"/>
-      <c r="J75" s="164"/>
-    </row>
-    <row r="76" spans="2:10" ht="14.25">
-      <c r="B76" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F76" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="H76" s="181"/>
-      <c r="J76" s="164"/>
-    </row>
-    <row r="77" spans="2:10" ht="14.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="207"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="181"/>
-      <c r="J77" s="164"/>
-    </row>
-    <row r="78" spans="2:10" ht="25.5">
-      <c r="B78" s="17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="9"/>
       <c r="G78" s="7"/>
       <c r="H78" s="181"/>
       <c r="J78" s="164"/>
     </row>
-    <row r="79" spans="2:10" ht="14.25">
-      <c r="B79" s="17"/>
-      <c r="C79" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="7"/>
+    <row r="79" spans="1:10" ht="28.5">
+      <c r="B79" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C79" s="200" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="22"/>
       <c r="H79" s="181"/>
       <c r="J79" s="164"/>
     </row>
-    <row r="80" spans="2:10" ht="14.25">
-      <c r="B80" s="17"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="9"/>
+    <row r="80" spans="1:10" ht="25.5">
+      <c r="B80" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C80" s="200" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E80" s="204" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>845</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="181"/>
       <c r="J80" s="164"/>
     </row>
-    <row r="81" spans="2:10" ht="51">
-      <c r="B81" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="200" t="s">
-        <v>939</v>
-      </c>
-      <c r="D81" s="200"/>
-      <c r="E81" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>1250</v>
-      </c>
+    <row r="81" spans="2:10" ht="14.25">
+      <c r="B81" s="17"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="7"/>
       <c r="H81" s="181"/>
       <c r="J81" s="164"/>
     </row>
-    <row r="82" spans="2:10" ht="25.5">
+    <row r="82" spans="2:10" ht="14.25">
       <c r="B82" s="17" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C82" s="200" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D82" s="200"/>
-      <c r="E82" s="213" t="s">
-        <v>1271</v>
+        <v>1346</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>1349</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1272</v>
+        <v>979</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="181"/>
       <c r="J82" s="164"/>
     </row>
-    <row r="83" spans="2:10" ht="15">
-      <c r="B83" s="28" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C83" s="200" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D83" s="243"/>
-      <c r="E83" s="82" t="s">
-        <v>1331</v>
+    <row r="83" spans="2:10" ht="14.25">
+      <c r="B83" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>1352</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1237</v>
+        <v>979</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="181"/>
       <c r="J83" s="164"/>
     </row>
     <row r="84" spans="2:10" ht="14.25">
-      <c r="B84" s="17"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="B84" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>979</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="181"/>
       <c r="J84" s="164"/>
     </row>
-    <row r="85" spans="2:10" ht="42.75">
+    <row r="85" spans="2:10" ht="25.5">
       <c r="B85" s="17" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="8">
-        <v>246</v>
+        <v>1346</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>1502</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="G85" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1357</v>
+      </c>
       <c r="H85" s="181"/>
       <c r="J85" s="164"/>
     </row>
-    <row r="86" spans="2:10" ht="42.75">
-      <c r="B86" s="17" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D86" s="244"/>
-      <c r="E86" s="206">
-        <v>246</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>845</v>
-      </c>
+    <row r="86" spans="2:10" ht="14.25">
+      <c r="B86" s="17"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="7"/>
       <c r="H86" s="181"/>
       <c r="J86" s="164"/>
     </row>
-    <row r="87" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B87" s="17"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
+    <row r="87" spans="2:10" ht="14.25">
+      <c r="B87" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>1367</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="181"/>
-    </row>
-    <row r="88" spans="2:10" ht="37.5" customHeight="1">
+      <c r="J87" s="164"/>
+    </row>
+    <row r="88" spans="2:10" ht="15" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="7"/>
       <c r="H88" s="181"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="196"/>
-      <c r="C89" s="197"/>
-      <c r="D89" s="197"/>
-      <c r="E89" s="198"/>
-      <c r="F89" s="199"/>
-      <c r="G89" s="197"/>
+      <c r="J88" s="164"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25">
+      <c r="B89" s="17"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="7"/>
       <c r="H89" s="181"/>
-    </row>
-    <row r="90" spans="2:10" ht="89.25">
-      <c r="B90" s="165" t="s">
+      <c r="J89" s="164"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25">
+      <c r="B90" s="17"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="181"/>
+      <c r="J90" s="164"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25">
+      <c r="B91" s="348" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C91" s="349"/>
+      <c r="D91" s="349"/>
+      <c r="E91" s="349"/>
+      <c r="F91" s="349"/>
+      <c r="G91" s="350"/>
+      <c r="H91" s="181"/>
+      <c r="J91" s="164"/>
+    </row>
+    <row r="92" spans="2:10" ht="38.25">
+      <c r="B92" s="17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C92" s="200" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H92" s="181"/>
+      <c r="J92" s="164"/>
+    </row>
+    <row r="93" spans="2:10" ht="38.25">
+      <c r="B93" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C93" s="200" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H93" s="181"/>
+    </row>
+    <row r="94" spans="2:10" ht="51">
+      <c r="B94" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C94" s="200" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H94" s="181"/>
+      <c r="J94" s="164"/>
+    </row>
+    <row r="95" spans="2:10" ht="51">
+      <c r="B95" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C95" s="200" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H95" s="181"/>
+      <c r="J95" s="84"/>
+    </row>
+    <row r="96" spans="2:10" ht="25.5">
+      <c r="B96" s="238" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C96" s="239" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D96" s="242"/>
+      <c r="E96" s="240" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F96" s="240" t="s">
+        <v>935</v>
+      </c>
+      <c r="G96" s="241" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H96" s="238">
+        <v>44000</v>
+      </c>
+      <c r="J96" s="84"/>
+    </row>
+    <row r="97" spans="2:10" ht="38.25">
+      <c r="B97" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H97" s="181"/>
+      <c r="J97" s="164"/>
+    </row>
+    <row r="98" spans="2:10" ht="14.25">
+      <c r="B98" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F98" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="H98" s="181"/>
+      <c r="J98" s="164"/>
+    </row>
+    <row r="99" spans="2:10" ht="14.25">
+      <c r="B99" s="17"/>
+      <c r="C99" s="206"/>
+      <c r="D99" s="206"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="207"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="181"/>
+      <c r="J99" s="164"/>
+    </row>
+    <row r="100" spans="2:10" ht="25.5">
+      <c r="B100" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="181"/>
+      <c r="J100" s="164"/>
+    </row>
+    <row r="101" spans="2:10" ht="14.25">
+      <c r="B101" s="17"/>
+      <c r="C101" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="181"/>
+      <c r="J101" s="164"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25">
+      <c r="B102" s="17"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="181"/>
+      <c r="J102" s="164"/>
+    </row>
+    <row r="103" spans="2:10" ht="51">
+      <c r="B103" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="200" t="s">
+        <v>939</v>
+      </c>
+      <c r="D103" s="200"/>
+      <c r="E103" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H103" s="181"/>
+      <c r="J103" s="164"/>
+    </row>
+    <row r="104" spans="2:10" ht="25.5">
+      <c r="B104" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C104" s="200" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D104" s="200"/>
+      <c r="E104" s="213" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="181"/>
+      <c r="J104" s="164"/>
+    </row>
+    <row r="105" spans="2:10" ht="15">
+      <c r="B105" s="28" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C105" s="200" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D105" s="243"/>
+      <c r="E105" s="82" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="181"/>
+      <c r="J105" s="164"/>
+    </row>
+    <row r="106" spans="2:10" ht="14.25">
+      <c r="B106" s="17"/>
+      <c r="C106" s="200"/>
+      <c r="D106" s="200"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="181"/>
+      <c r="J106" s="164"/>
+    </row>
+    <row r="107" spans="2:10" ht="42.75">
+      <c r="B107" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D107" s="22"/>
+      <c r="E107" s="8">
+        <v>246</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="181"/>
+      <c r="J107" s="164"/>
+    </row>
+    <row r="108" spans="2:10" ht="42.75">
+      <c r="B108" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D108" s="244"/>
+      <c r="E108" s="206">
+        <v>246</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="181"/>
+      <c r="J108" s="164"/>
+    </row>
+    <row r="109" spans="2:10" ht="37.5" customHeight="1">
+      <c r="B109" s="17"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="181"/>
+    </row>
+    <row r="110" spans="2:10" ht="37.5" customHeight="1">
+      <c r="B110" s="17"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="181"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="196"/>
+      <c r="C111" s="197"/>
+      <c r="D111" s="197"/>
+      <c r="E111" s="198"/>
+      <c r="F111" s="199"/>
+      <c r="G111" s="197"/>
+      <c r="H111" s="181"/>
+    </row>
+    <row r="112" spans="2:10" ht="89.25">
+      <c r="B112" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="166" t="s">
+      <c r="C112" s="166" t="s">
         <v>974</v>
       </c>
-      <c r="D90" s="166"/>
-      <c r="E90" s="167" t="s">
+      <c r="D112" s="166"/>
+      <c r="E112" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F90" s="168" t="s">
+      <c r="F112" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="G90" s="169" t="s">
+      <c r="G112" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="H90" s="181"/>
-    </row>
-    <row r="91" spans="2:10" ht="42.75">
-      <c r="B91" s="165" t="s">
+      <c r="H112" s="181"/>
+    </row>
+    <row r="113" spans="2:8" ht="42.75">
+      <c r="B113" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="166" t="s">
+      <c r="C113" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="166"/>
-      <c r="E91" s="167" t="s">
+      <c r="D113" s="166"/>
+      <c r="E113" s="167" t="s">
         <v>971</v>
       </c>
-      <c r="F91" s="168" t="s">
+      <c r="F113" s="168" t="s">
         <v>972</v>
       </c>
-      <c r="G91" s="195" t="s">
+      <c r="G113" s="195" t="s">
         <v>973</v>
       </c>
-      <c r="H91" s="181"/>
-    </row>
-    <row r="92" spans="2:10" ht="89.25">
-      <c r="B92" s="17" t="s">
+      <c r="H113" s="181"/>
+    </row>
+    <row r="114" spans="2:8" ht="89.25">
+      <c r="B114" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H92" s="181"/>
-    </row>
-    <row r="93" spans="2:10" ht="51">
-      <c r="B93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="181"/>
-    </row>
-    <row r="94" spans="2:10" ht="42.75">
-      <c r="B94" s="17"/>
-      <c r="C94" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H94" s="181"/>
-    </row>
-    <row r="95" spans="2:10" ht="28.5">
-      <c r="B95" s="222"/>
-      <c r="C95" s="244" t="s">
-        <v>975</v>
-      </c>
-      <c r="D95" s="244"/>
-      <c r="E95" s="206" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="H95" s="181"/>
-    </row>
-    <row r="96" spans="2:10" ht="14.25">
-      <c r="B96" s="222"/>
-      <c r="C96" s="244"/>
-      <c r="D96" s="244"/>
-      <c r="E96" s="206"/>
-      <c r="F96" s="208"/>
-      <c r="G96" s="223"/>
-      <c r="H96" s="181"/>
-    </row>
-    <row r="97" spans="2:8" ht="63.75">
-      <c r="B97" s="222" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E97" s="255" t="s">
-        <v>951</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H97" s="181"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="222"/>
-      <c r="C98" s="223"/>
-      <c r="D98" s="223"/>
-      <c r="E98" s="256"/>
-      <c r="F98" s="208"/>
-      <c r="G98" s="223"/>
-      <c r="H98" s="181"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="222"/>
-      <c r="C99" s="223"/>
-      <c r="D99" s="223"/>
-      <c r="E99" s="256"/>
-      <c r="F99" s="208"/>
-      <c r="G99" s="223"/>
-      <c r="H99" s="181"/>
-    </row>
-    <row r="100" spans="2:8" ht="14.25">
-      <c r="B100" s="222"/>
-      <c r="C100" s="244"/>
-      <c r="D100" s="244"/>
-      <c r="E100" s="206"/>
-      <c r="F100" s="208"/>
-      <c r="G100" s="223"/>
-      <c r="H100" s="181"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="H101" s="181"/>
-    </row>
-    <row r="102" spans="2:8" ht="38.25">
-      <c r="B102" s="17"/>
-      <c r="C102" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="H102" s="181"/>
-    </row>
-    <row r="103" spans="2:8" ht="38.25">
-      <c r="B103" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H103" s="181"/>
-    </row>
-    <row r="104" spans="2:8" ht="25.5">
-      <c r="B104" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="142"/>
-      <c r="E104" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="H104" s="181"/>
-    </row>
-    <row r="105" spans="2:8" ht="38.25">
-      <c r="B105" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="181"/>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="142" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="142"/>
-      <c r="E106" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F106" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" s="142" t="s">
-        <v>110</v>
-      </c>
-      <c r="H106" s="181"/>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="142" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" s="142"/>
-      <c r="E107" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" s="142" t="s">
-        <v>110</v>
-      </c>
-      <c r="H107" s="181"/>
-    </row>
-    <row r="108" spans="2:8" ht="25.5">
-      <c r="B108" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="H108" s="181"/>
-    </row>
-    <row r="109" spans="2:8" ht="25.5">
-      <c r="B109" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="80"/>
-      <c r="E109" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="81" t="s">
-        <v>725</v>
-      </c>
-      <c r="G109" s="80" t="s">
-        <v>726</v>
-      </c>
-      <c r="H109" s="181"/>
-    </row>
-    <row r="110" spans="2:8" ht="51">
-      <c r="B110" s="17"/>
-      <c r="C110" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H110" s="181"/>
-    </row>
-    <row r="111" spans="2:8" ht="25.5">
-      <c r="B111" s="17"/>
-      <c r="C111" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" s="181"/>
-    </row>
-    <row r="112" spans="2:8" ht="38.25">
-      <c r="B112" s="17"/>
-      <c r="C112" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="H112" s="181"/>
-    </row>
-    <row r="113" spans="2:8" ht="38.25">
-      <c r="B113" s="17"/>
-      <c r="C113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" s="181"/>
-    </row>
-    <row r="114" spans="2:8" ht="51">
-      <c r="B114" s="17"/>
-      <c r="C114" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="H114" s="181"/>
     </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="17"/>
+    <row r="115" spans="2:8" ht="51">
+      <c r="B115" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="C115" s="7" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G115" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H115" s="181"/>
     </row>
-    <row r="116" spans="2:8" ht="15">
+    <row r="116" spans="2:8" ht="42.75">
       <c r="B116" s="17"/>
-      <c r="C116" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="D116" s="223"/>
-      <c r="E116" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="F116" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" s="84" t="s">
-        <v>731</v>
+      <c r="C116" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D116" s="22"/>
+      <c r="E116" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>1386</v>
       </c>
       <c r="H116" s="181"/>
     </row>
-    <row r="117" spans="2:8" ht="38.25">
-      <c r="B117" s="17"/>
-      <c r="C117" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="7"/>
+    <row r="117" spans="2:8" ht="28.5">
+      <c r="B117" s="222"/>
+      <c r="C117" s="244" t="s">
+        <v>975</v>
+      </c>
+      <c r="D117" s="244"/>
+      <c r="E117" s="206" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>952</v>
+      </c>
       <c r="H117" s="181"/>
     </row>
-    <row r="118" spans="2:8" ht="25.5">
-      <c r="B118" s="17"/>
-      <c r="C118" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>32</v>
-      </c>
+    <row r="118" spans="2:8" ht="14.25">
+      <c r="B118" s="222"/>
+      <c r="C118" s="244"/>
+      <c r="D118" s="244"/>
+      <c r="E118" s="206"/>
+      <c r="F118" s="208"/>
+      <c r="G118" s="223"/>
       <c r="H118" s="181"/>
     </row>
-    <row r="119" spans="2:8" ht="38.25">
-      <c r="B119" s="17" t="s">
-        <v>84</v>
+    <row r="119" spans="2:8" ht="63.75">
+      <c r="B119" s="222" t="s">
+        <v>1379</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="8" t="s">
-        <v>1</v>
+        <v>1377</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E119" s="255" t="s">
+        <v>951</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>55</v>
+        <v>953</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>1380</v>
       </c>
       <c r="H119" s="181"/>
     </row>
-    <row r="120" spans="2:8" ht="38.25">
-      <c r="B120" s="220" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" s="119" t="s">
-        <v>878</v>
-      </c>
-      <c r="D120" s="119"/>
-      <c r="E120" s="216" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="G120" s="119"/>
+    <row r="120" spans="2:8">
+      <c r="B120" s="222"/>
+      <c r="C120" s="223"/>
+      <c r="D120" s="223"/>
+      <c r="E120" s="256"/>
+      <c r="F120" s="208"/>
+      <c r="G120" s="223"/>
       <c r="H120" s="181"/>
     </row>
-    <row r="121" spans="2:8" ht="13.5" thickBot="1">
+    <row r="121" spans="2:8">
       <c r="B121" s="222"/>
       <c r="C121" s="223"/>
       <c r="D121" s="223"/>
-      <c r="E121" s="206"/>
+      <c r="E121" s="256"/>
       <c r="F121" s="208"/>
       <c r="G121" s="223"/>
       <c r="H121" s="181"/>
     </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="247" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" s="248" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D122" s="248" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E122" s="249" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F122" s="250"/>
-      <c r="G122" s="251" t="s">
-        <v>1294</v>
-      </c>
+    <row r="122" spans="2:8" ht="14.25">
+      <c r="B122" s="222"/>
+      <c r="C122" s="244"/>
+      <c r="D122" s="244"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="208"/>
+      <c r="G122" s="223"/>
       <c r="H122" s="181"/>
     </row>
-    <row r="123" spans="2:8" ht="25.5">
-      <c r="B123" s="276"/>
-      <c r="C123" s="277"/>
-      <c r="D123" s="277"/>
-      <c r="E123" s="279" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F123" s="282" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G123" s="281" t="s">
-        <v>1299</v>
-      </c>
+    <row r="123" spans="2:8">
       <c r="H123" s="181"/>
     </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="276"/>
-      <c r="C124" s="277"/>
-      <c r="D124" s="277"/>
-      <c r="E124" s="279" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F124" s="282" t="s">
-        <v>979</v>
-      </c>
-      <c r="G124" s="281" t="s">
-        <v>1362</v>
+    <row r="124" spans="2:8" ht="38.25">
+      <c r="B124" s="17"/>
+      <c r="C124" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="7" t="s">
+        <v>977</v>
       </c>
       <c r="H124" s="181"/>
     </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="276"/>
-      <c r="C125" s="277"/>
-      <c r="D125" s="277"/>
-      <c r="E125" s="279"/>
-      <c r="F125" s="282"/>
-      <c r="G125" s="281" t="s">
-        <v>751</v>
+    <row r="125" spans="2:8" ht="38.25">
+      <c r="B125" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H125" s="181"/>
     </row>
-    <row r="126" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B126" s="283"/>
-      <c r="C126" s="284"/>
-      <c r="D126" s="284"/>
-      <c r="E126" s="286" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F126" s="286" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G126" s="287"/>
+    <row r="126" spans="2:8" ht="25.5">
+      <c r="B126" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="142"/>
+      <c r="E126" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" s="142" t="s">
+        <v>38</v>
+      </c>
       <c r="H126" s="181"/>
     </row>
-    <row r="127" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B127" s="222"/>
-      <c r="C127" s="223"/>
-      <c r="D127" s="223"/>
-      <c r="E127" s="206"/>
-      <c r="F127" s="208"/>
-      <c r="G127" s="223"/>
+    <row r="127" spans="2:8" ht="38.25">
+      <c r="B127" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="H127" s="181"/>
     </row>
     <row r="128" spans="2:8">
-      <c r="B128" s="270" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C128" s="271" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D128" s="272" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E128" s="273" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F128" s="274" t="s">
-        <v>0</v>
-      </c>
-      <c r="G128" s="275" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H128" s="181">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="25.5">
-      <c r="B129" s="276"/>
-      <c r="C129" s="277"/>
-      <c r="D129" s="278"/>
-      <c r="E129" s="279"/>
-      <c r="F129" s="280"/>
-      <c r="G129" s="281" t="s">
-        <v>1381</v>
+      <c r="B128" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="142"/>
+      <c r="E128" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F128" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" s="142" t="s">
+        <v>110</v>
+      </c>
+      <c r="H128" s="181"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="142"/>
+      <c r="E129" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129" s="142" t="s">
+        <v>110</v>
       </c>
       <c r="H129" s="181"/>
     </row>
     <row r="130" spans="2:8" ht="25.5">
-      <c r="B130" s="276"/>
-      <c r="C130" s="277"/>
-      <c r="D130" s="278"/>
-      <c r="E130" s="279" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F130" s="280" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="281" t="s">
-        <v>1369</v>
+      <c r="B130" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>724</v>
       </c>
       <c r="H130" s="181"/>
     </row>
     <row r="131" spans="2:8" ht="25.5">
-      <c r="B131" s="276"/>
-      <c r="C131" s="277"/>
-      <c r="D131" s="278"/>
-      <c r="E131" s="279" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F131" s="282" t="s">
+      <c r="B131" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="80"/>
+      <c r="E131" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F131" s="81" t="s">
+        <v>725</v>
+      </c>
+      <c r="G131" s="80" t="s">
+        <v>726</v>
+      </c>
+      <c r="H131" s="181"/>
+    </row>
+    <row r="132" spans="2:8" ht="51">
+      <c r="B132" s="17"/>
+      <c r="C132" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="181"/>
+    </row>
+    <row r="133" spans="2:8" ht="25.5">
+      <c r="B133" s="17"/>
+      <c r="C133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H133" s="181"/>
+    </row>
+    <row r="134" spans="2:8" ht="38.25">
+      <c r="B134" s="17"/>
+      <c r="C134" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G131" s="281" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H131" s="181">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="276"/>
-      <c r="C132" s="277"/>
-      <c r="D132" s="278"/>
-      <c r="E132" s="279" t="s">
-        <v>28</v>
-      </c>
-      <c r="F132" s="282"/>
-      <c r="G132" s="281" t="s">
-        <v>751</v>
-      </c>
-      <c r="H132" s="181"/>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="276"/>
-      <c r="C133" s="277"/>
-      <c r="D133" s="278"/>
-      <c r="E133" s="279" t="s">
-        <v>47</v>
-      </c>
-      <c r="F133" s="282"/>
-      <c r="G133" s="281" t="s">
-        <v>752</v>
-      </c>
-      <c r="H133" s="181"/>
-    </row>
-    <row r="134" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B134" s="283"/>
-      <c r="C134" s="284"/>
-      <c r="D134" s="285"/>
-      <c r="E134" s="286"/>
-      <c r="F134" s="286"/>
-      <c r="G134" s="287"/>
+      <c r="G134" s="7" t="s">
+        <v>970</v>
+      </c>
       <c r="H134" s="181"/>
     </row>
-    <row r="135" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B135" s="222"/>
-      <c r="C135" s="223"/>
-      <c r="D135" s="223"/>
-      <c r="E135" s="206"/>
-      <c r="F135" s="208"/>
-      <c r="G135" s="223"/>
+    <row r="135" spans="2:8" ht="38.25">
+      <c r="B135" s="17"/>
+      <c r="C135" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H135" s="181"/>
     </row>
-    <row r="136" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B136" s="224" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C136" s="225" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D136" s="225" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E136" s="225"/>
-      <c r="F136" s="226"/>
-      <c r="G136" s="227"/>
+    <row r="136" spans="2:8" ht="51">
+      <c r="B136" s="17"/>
+      <c r="C136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H136" s="181"/>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="222"/>
-      <c r="C137" s="223"/>
-      <c r="D137" s="223" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E137" s="206"/>
-      <c r="F137" s="208"/>
-      <c r="G137" s="223"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G137" s="7"/>
       <c r="H137" s="181"/>
     </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="221"/>
-      <c r="C138" s="217"/>
-      <c r="D138" s="217"/>
-      <c r="E138" s="218"/>
-      <c r="F138" s="219"/>
-      <c r="G138" s="217"/>
+    <row r="138" spans="2:8" ht="15">
+      <c r="B138" s="17"/>
+      <c r="C138" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D138" s="223"/>
+      <c r="E138" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="F138" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="G138" s="84" t="s">
+        <v>731</v>
+      </c>
       <c r="H138" s="181"/>
     </row>
     <row r="139" spans="2:8" ht="38.25">
-      <c r="B139" s="17" t="s">
-        <v>754</v>
-      </c>
+      <c r="B139" s="17"/>
       <c r="C139" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="8">
-        <v>1059</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>1342</v>
-      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="181"/>
     </row>
     <row r="140" spans="2:8" ht="25.5">
       <c r="B140" s="17"/>
       <c r="C140" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="181"/>
+    </row>
+    <row r="141" spans="2:8" ht="38.25">
+      <c r="B141" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H141" s="181"/>
+    </row>
+    <row r="142" spans="2:8" ht="38.25">
+      <c r="B142" s="220" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="119" t="s">
+        <v>878</v>
+      </c>
+      <c r="D142" s="119"/>
+      <c r="E142" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="119"/>
+      <c r="H142" s="181"/>
+    </row>
+    <row r="143" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B143" s="222"/>
+      <c r="C143" s="223"/>
+      <c r="D143" s="223"/>
+      <c r="E143" s="206"/>
+      <c r="F143" s="208"/>
+      <c r="G143" s="223"/>
+      <c r="H143" s="181"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="247" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="248" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D144" s="248" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E144" s="249" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F144" s="250"/>
+      <c r="G144" s="251" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H144" s="181"/>
+    </row>
+    <row r="145" spans="2:8" ht="25.5">
+      <c r="B145" s="276"/>
+      <c r="C145" s="277"/>
+      <c r="D145" s="277"/>
+      <c r="E145" s="279" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F145" s="282" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G145" s="281" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H145" s="181"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="276"/>
+      <c r="C146" s="277"/>
+      <c r="D146" s="277"/>
+      <c r="E146" s="279" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F146" s="282" t="s">
+        <v>979</v>
+      </c>
+      <c r="G146" s="281" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H146" s="181"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="276"/>
+      <c r="C147" s="277"/>
+      <c r="D147" s="277"/>
+      <c r="E147" s="279"/>
+      <c r="F147" s="282"/>
+      <c r="G147" s="281" t="s">
+        <v>751</v>
+      </c>
+      <c r="H147" s="181"/>
+    </row>
+    <row r="148" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B148" s="283"/>
+      <c r="C148" s="284"/>
+      <c r="D148" s="284"/>
+      <c r="E148" s="286" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F148" s="286" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G148" s="287"/>
+      <c r="H148" s="181"/>
+    </row>
+    <row r="149" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B149" s="222"/>
+      <c r="C149" s="223"/>
+      <c r="D149" s="223"/>
+      <c r="E149" s="206"/>
+      <c r="F149" s="208"/>
+      <c r="G149" s="223"/>
+      <c r="H149" s="181"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="270" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C150" s="271" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D150" s="272" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E150" s="273" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F150" s="274" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="275" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H150" s="181">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="25.5">
+      <c r="B151" s="276"/>
+      <c r="C151" s="277"/>
+      <c r="D151" s="278"/>
+      <c r="E151" s="279"/>
+      <c r="F151" s="280"/>
+      <c r="G151" s="281" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H151" s="181"/>
+    </row>
+    <row r="152" spans="2:8" ht="25.5">
+      <c r="B152" s="276"/>
+      <c r="C152" s="277"/>
+      <c r="D152" s="278"/>
+      <c r="E152" s="279" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F152" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="281" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H152" s="181"/>
+    </row>
+    <row r="153" spans="2:8" ht="25.5">
+      <c r="B153" s="276"/>
+      <c r="C153" s="277"/>
+      <c r="D153" s="278"/>
+      <c r="E153" s="279" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F153" s="282" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" s="281" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H153" s="181">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="276"/>
+      <c r="C154" s="277"/>
+      <c r="D154" s="278"/>
+      <c r="E154" s="279" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="282"/>
+      <c r="G154" s="281" t="s">
+        <v>751</v>
+      </c>
+      <c r="H154" s="181"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="276"/>
+      <c r="C155" s="277"/>
+      <c r="D155" s="278"/>
+      <c r="E155" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="282"/>
+      <c r="G155" s="281" t="s">
+        <v>752</v>
+      </c>
+      <c r="H155" s="181"/>
+    </row>
+    <row r="156" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B156" s="283"/>
+      <c r="C156" s="284"/>
+      <c r="D156" s="285"/>
+      <c r="E156" s="286"/>
+      <c r="F156" s="286"/>
+      <c r="G156" s="287"/>
+      <c r="H156" s="181"/>
+    </row>
+    <row r="157" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B157" s="222"/>
+      <c r="C157" s="223"/>
+      <c r="D157" s="223"/>
+      <c r="E157" s="206"/>
+      <c r="F157" s="208"/>
+      <c r="G157" s="223"/>
+      <c r="H157" s="181"/>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B158" s="224" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C158" s="225" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D158" s="225" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E158" s="225"/>
+      <c r="F158" s="226"/>
+      <c r="G158" s="227"/>
+      <c r="H158" s="181"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="222"/>
+      <c r="C159" s="223"/>
+      <c r="D159" s="223" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E159" s="206"/>
+      <c r="F159" s="208"/>
+      <c r="G159" s="223"/>
+      <c r="H159" s="181"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="221"/>
+      <c r="C160" s="217"/>
+      <c r="D160" s="217"/>
+      <c r="E160" s="218"/>
+      <c r="F160" s="219"/>
+      <c r="G160" s="217"/>
+      <c r="H160" s="181"/>
+    </row>
+    <row r="161" spans="2:8" ht="38.25">
+      <c r="B161" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8">
+        <v>1059</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H161" s="181"/>
+    </row>
+    <row r="162" spans="2:8" ht="25.5">
+      <c r="B162" s="17"/>
+      <c r="C162" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H140" s="181"/>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="234" t="s">
+      <c r="H162" s="181"/>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="234" t="s">
         <v>1321</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="245"/>
-      <c r="E141" s="235" t="s">
+      <c r="D163" s="245"/>
+      <c r="E163" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="F141" s="236" t="s">
+      <c r="F163" s="236" t="s">
         <v>1228</v>
       </c>
-      <c r="G141" s="237" t="s">
+      <c r="G163" s="237" t="s">
         <v>1320</v>
       </c>
-      <c r="H141" s="181"/>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="351" t="s">
+      <c r="H163" s="181"/>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="348" t="s">
         <v>1261</v>
       </c>
-      <c r="C142" s="352"/>
-      <c r="D142" s="352"/>
-      <c r="E142" s="352"/>
-      <c r="F142" s="352"/>
-      <c r="G142" s="353"/>
-      <c r="H142" s="181"/>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="17"/>
-      <c r="C143" s="7" t="s">
+      <c r="C164" s="349"/>
+      <c r="D164" s="349"/>
+      <c r="E164" s="349"/>
+      <c r="F164" s="349"/>
+      <c r="G164" s="350"/>
+      <c r="H164" s="181"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="17"/>
+      <c r="C165" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="8" t="s">
+      <c r="D165" s="7"/>
+      <c r="E165" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F165" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="G165" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="H143" s="181"/>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="17"/>
-      <c r="C144" s="7" t="s">
+      <c r="H165" s="181"/>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="17"/>
+      <c r="C166" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="8" t="s">
+      <c r="D166" s="7"/>
+      <c r="E166" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F166" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="G166" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H144" s="181"/>
-    </row>
-    <row r="145" spans="2:8" ht="25.5">
-      <c r="B145" s="17"/>
-      <c r="C145" s="7" t="s">
+      <c r="H166" s="181"/>
+    </row>
+    <row r="167" spans="2:8" ht="25.5">
+      <c r="B167" s="17"/>
+      <c r="C167" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="25" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F167" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G167" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H145" s="181"/>
-    </row>
-    <row r="146" spans="2:8" ht="25.5">
-      <c r="B146" s="17"/>
-      <c r="C146" s="7" t="s">
+      <c r="H167" s="181"/>
+    </row>
+    <row r="168" spans="2:8" ht="25.5">
+      <c r="B168" s="17"/>
+      <c r="C168" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="24" t="s">
+      <c r="D168" s="7"/>
+      <c r="E168" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F168" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="G168" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H146" s="181"/>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="17"/>
-      <c r="C147" s="7" t="s">
+      <c r="H168" s="181"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="17"/>
+      <c r="C169" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="25" t="s">
+      <c r="D169" s="7"/>
+      <c r="E169" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F169" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="181"/>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="17"/>
-      <c r="C148" s="7" t="s">
+      <c r="G169" s="7"/>
+      <c r="H169" s="181"/>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="17"/>
+      <c r="C170" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="8" t="s">
+      <c r="D170" s="7"/>
+      <c r="E170" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F170" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="181"/>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="17"/>
-      <c r="C149" s="7" t="s">
+      <c r="G170" s="7"/>
+      <c r="H170" s="181"/>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="17"/>
+      <c r="C171" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="8" t="s">
+      <c r="D171" s="7"/>
+      <c r="E171" s="8" t="s">
         <v>1210</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F171" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="G149" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="H149" s="181"/>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="17"/>
-      <c r="C150" s="7" t="s">
+      <c r="H171" s="181"/>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="17"/>
+      <c r="C172" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="24" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F172" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="181"/>
-    </row>
-    <row r="151" spans="2:8" ht="39" customHeight="1">
-      <c r="B151" s="18"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="24" t="s">
+      <c r="G172" s="7"/>
+      <c r="H172" s="181"/>
+    </row>
+    <row r="173" spans="2:8" ht="39" customHeight="1">
+      <c r="B173" s="18"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F173" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G151" s="2"/>
-      <c r="H151" s="181"/>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="351" t="s">
+      <c r="G173" s="2"/>
+      <c r="H173" s="181"/>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="348" t="s">
         <v>1261</v>
       </c>
-      <c r="C152" s="352"/>
-      <c r="D152" s="352"/>
-      <c r="E152" s="352"/>
-      <c r="F152" s="352"/>
-      <c r="G152" s="353"/>
-      <c r="H152" s="181"/>
-    </row>
-    <row r="153" spans="2:8" ht="14.25">
-      <c r="B153" s="118"/>
-      <c r="C153" s="119" t="s">
+      <c r="C174" s="349"/>
+      <c r="D174" s="349"/>
+      <c r="E174" s="349"/>
+      <c r="F174" s="349"/>
+      <c r="G174" s="350"/>
+      <c r="H174" s="181"/>
+    </row>
+    <row r="175" spans="2:8" ht="14.25">
+      <c r="B175" s="118"/>
+      <c r="C175" s="119" t="s">
         <v>733</v>
       </c>
-      <c r="D153" s="223"/>
-      <c r="E153" s="83" t="s">
+      <c r="D175" s="223"/>
+      <c r="E175" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="F153" s="120"/>
-      <c r="G153" s="121"/>
-      <c r="H153" s="181"/>
-    </row>
-    <row r="154" spans="2:8" ht="38.25">
-      <c r="B154" s="122">
+      <c r="F175" s="120"/>
+      <c r="G175" s="121"/>
+      <c r="H175" s="181"/>
+    </row>
+    <row r="176" spans="2:8" ht="38.25">
+      <c r="B176" s="122">
         <v>42912</v>
       </c>
-      <c r="C154" s="101" t="s">
+      <c r="C176" s="101" t="s">
         <v>842</v>
       </c>
-      <c r="D154" s="101"/>
-      <c r="E154" s="123" t="s">
+      <c r="D176" s="101"/>
+      <c r="E176" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="212" t="s">
+      <c r="F176" s="212" t="s">
         <v>1258</v>
       </c>
-      <c r="G154" s="124"/>
-      <c r="H154" s="181"/>
-    </row>
-    <row r="155" spans="2:8" ht="85.5">
-      <c r="B155" s="99"/>
-      <c r="C155" s="101" t="s">
+      <c r="G176" s="124"/>
+      <c r="H176" s="181"/>
+    </row>
+    <row r="177" spans="2:8" ht="85.5">
+      <c r="B177" s="99"/>
+      <c r="C177" s="101" t="s">
         <v>789</v>
       </c>
-      <c r="D155" s="101"/>
-      <c r="E155" s="8" t="s">
+      <c r="D177" s="101"/>
+      <c r="E177" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="F155" s="200" t="s">
+      <c r="F177" s="200" t="s">
         <v>893</v>
       </c>
-      <c r="G155" s="100" t="s">
+      <c r="G177" s="100" t="s">
         <v>790</v>
       </c>
-      <c r="H155" s="181"/>
-    </row>
-    <row r="156" spans="2:8" ht="14.25">
-      <c r="B156" s="99"/>
-      <c r="C156" s="101"/>
-      <c r="D156" s="101"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="100"/>
-      <c r="H156" s="181"/>
-    </row>
-    <row r="157" spans="2:8" ht="25.5">
-      <c r="B157" s="99" t="s">
+      <c r="H177" s="181"/>
+    </row>
+    <row r="178" spans="2:8" ht="14.25">
+      <c r="B178" s="99"/>
+      <c r="C178" s="101"/>
+      <c r="D178" s="101"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="100"/>
+      <c r="H178" s="181"/>
+    </row>
+    <row r="179" spans="2:8" ht="25.5">
+      <c r="B179" s="99" t="s">
         <v>886</v>
       </c>
-      <c r="C157" s="99" t="s">
+      <c r="C179" s="99" t="s">
         <v>1259</v>
       </c>
-      <c r="D157" s="99"/>
-      <c r="E157" s="8" t="s">
+      <c r="D179" s="99"/>
+      <c r="E179" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F179" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G157" s="100"/>
-      <c r="H157" s="181"/>
-    </row>
-    <row r="158" spans="2:8" ht="14.25">
-      <c r="B158" s="99"/>
-      <c r="C158" s="101"/>
-      <c r="D158" s="101"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="181"/>
-    </row>
-    <row r="159" spans="2:8" ht="14.25">
-      <c r="B159" s="99"/>
-      <c r="C159" s="101"/>
-      <c r="D159" s="101"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="100"/>
-      <c r="H159" s="181"/>
-    </row>
-    <row r="160" spans="2:8" ht="25.5">
-      <c r="B160" s="99"/>
-      <c r="C160" s="101" t="s">
+      <c r="G179" s="100"/>
+      <c r="H179" s="181"/>
+    </row>
+    <row r="180" spans="2:8" ht="14.25">
+      <c r="B180" s="99"/>
+      <c r="C180" s="101"/>
+      <c r="D180" s="101"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="100"/>
+      <c r="H180" s="181"/>
+    </row>
+    <row r="181" spans="2:8" ht="14.25">
+      <c r="B181" s="99"/>
+      <c r="C181" s="101"/>
+      <c r="D181" s="101"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="100"/>
+      <c r="H181" s="181"/>
+    </row>
+    <row r="182" spans="2:8" ht="25.5">
+      <c r="B182" s="99"/>
+      <c r="C182" s="101" t="s">
         <v>1264</v>
       </c>
-      <c r="D160" s="101"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="100"/>
-      <c r="H160" s="181"/>
-    </row>
-    <row r="161" spans="2:8" ht="25.5">
-      <c r="B161" s="99"/>
-      <c r="C161" s="101" t="s">
+      <c r="D182" s="101"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="100"/>
+      <c r="H182" s="181"/>
+    </row>
+    <row r="183" spans="2:8" ht="25.5">
+      <c r="B183" s="99"/>
+      <c r="C183" s="101" t="s">
         <v>1303</v>
       </c>
-      <c r="D161" s="101"/>
-      <c r="E161" s="228" t="s">
+      <c r="D183" s="101"/>
+      <c r="E183" s="228" t="s">
         <v>1003</v>
       </c>
-      <c r="F161" s="229" t="s">
+      <c r="F183" s="229" t="s">
         <v>1004</v>
       </c>
-      <c r="G161" s="100"/>
-      <c r="H161" s="181"/>
-    </row>
-    <row r="162" spans="2:8" ht="142.5">
-      <c r="B162" s="17">
+      <c r="G183" s="100"/>
+      <c r="H183" s="181"/>
+    </row>
+    <row r="184" spans="2:8" ht="142.5">
+      <c r="B184" s="17">
         <v>200513</v>
       </c>
-      <c r="C162" s="101" t="s">
+      <c r="C184" s="101" t="s">
         <v>1305</v>
       </c>
-      <c r="D162" s="101"/>
-      <c r="E162" s="230" t="s">
+      <c r="D184" s="101"/>
+      <c r="E184" s="230" t="s">
         <v>1302</v>
       </c>
-      <c r="F162" s="229" t="s">
+      <c r="F184" s="229" t="s">
         <v>895</v>
       </c>
-      <c r="G162" s="231" t="s">
+      <c r="G184" s="231" t="s">
         <v>1304</v>
       </c>
-      <c r="H162" s="181"/>
-    </row>
-    <row r="163" spans="2:8" ht="63.75">
-      <c r="B163" s="17"/>
-      <c r="C163" s="7" t="s">
+      <c r="H184" s="181"/>
+    </row>
+    <row r="185" spans="2:8" ht="63.75">
+      <c r="B185" s="17"/>
+      <c r="C185" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="8" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="F163" s="23" t="s">
+      <c r="F185" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G185" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="H163" s="181"/>
-    </row>
-    <row r="164" spans="2:8" ht="25.5">
-      <c r="B164" s="17"/>
-      <c r="C164" s="7" t="s">
+      <c r="H185" s="181"/>
+    </row>
+    <row r="186" spans="2:8" ht="25.5">
+      <c r="B186" s="17"/>
+      <c r="C186" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="8" t="s">
+      <c r="D186" s="7"/>
+      <c r="E186" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="F164" s="23" t="s">
+      <c r="F186" s="23" t="s">
         <v>1208</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="G186" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="H164" s="181"/>
-    </row>
-    <row r="165" spans="2:8" ht="15">
-      <c r="C165" s="98" t="s">
+      <c r="H186" s="181"/>
+    </row>
+    <row r="187" spans="2:8" ht="15">
+      <c r="C187" s="98" t="s">
         <v>787</v>
       </c>
-      <c r="D165" s="98"/>
-      <c r="H165" s="181"/>
-    </row>
-    <row r="166" spans="2:8" ht="15">
-      <c r="C166" s="84"/>
-      <c r="D166" s="84"/>
-      <c r="H166" s="181"/>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="F167" s="102" t="s">
+      <c r="D187" s="98"/>
+      <c r="H187" s="181"/>
+    </row>
+    <row r="188" spans="2:8" ht="15">
+      <c r="C188" s="84"/>
+      <c r="D188" s="84"/>
+      <c r="H188" s="181"/>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="F189" s="102" t="s">
         <v>791</v>
       </c>
-      <c r="H167" s="181"/>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="H168" s="181"/>
-    </row>
-    <row r="169" spans="2:8">
-      <c r="H169" s="181"/>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="H170" s="181"/>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="E171" s="112" t="s">
+      <c r="H189" s="181"/>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="H190" s="181"/>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="H191" s="181"/>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="H192" s="181"/>
+    </row>
+    <row r="193" spans="5:8">
+      <c r="E193" s="112" t="s">
         <v>835</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="H171" s="181"/>
-    </row>
-    <row r="194" spans="2:8" ht="13.5" thickBot="1"/>
-    <row r="195" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B195" s="144" t="s">
+      <c r="H193" s="181"/>
+    </row>
+    <row r="216" spans="2:8" ht="13.5" thickBot="1"/>
+    <row r="217" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B217" s="144" t="s">
         <v>917</v>
       </c>
-      <c r="C195" s="144" t="s">
+      <c r="C217" s="144" t="s">
         <v>918</v>
       </c>
-      <c r="D195" s="144"/>
-      <c r="E195" s="144" t="s">
+      <c r="D217" s="144"/>
+      <c r="E217" s="144" t="s">
         <v>684</v>
       </c>
-      <c r="F195" s="144" t="s">
+      <c r="F217" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="G195" s="144" t="s">
+      <c r="G217" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="H195" s="144" t="s">
+      <c r="H217" s="144" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B196" s="145" t="s">
+    <row r="218" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B218" s="145" t="s">
         <v>920</v>
       </c>
-      <c r="C196" s="145"/>
-      <c r="D196" s="145"/>
-      <c r="E196" s="146">
+      <c r="C218" s="145"/>
+      <c r="D218" s="145"/>
+      <c r="E218" s="146">
         <v>83</v>
       </c>
-      <c r="F196" s="145" t="s">
+      <c r="F218" s="145" t="s">
         <v>699</v>
       </c>
-      <c r="G196" s="145" t="s">
+      <c r="G218" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="H196" s="145" t="s">
+      <c r="H218" s="145" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B197" s="147" t="s">
+    <row r="219" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B219" s="147" t="s">
         <v>922</v>
       </c>
-      <c r="C197" s="147"/>
-      <c r="D197" s="147"/>
-      <c r="E197" s="147"/>
-      <c r="F197" s="147"/>
-      <c r="G197" s="147" t="s">
+      <c r="C219" s="147"/>
+      <c r="D219" s="147"/>
+      <c r="E219" s="147"/>
+      <c r="F219" s="147"/>
+      <c r="G219" s="147" t="s">
         <v>923</v>
       </c>
-      <c r="H197" s="147" t="s">
+      <c r="H219" s="147" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="198" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B198" s="148" t="s">
+    <row r="220" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B220" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="C198" s="148"/>
-      <c r="D198" s="148"/>
-      <c r="E198" s="148"/>
-      <c r="F198" s="149" t="s">
+      <c r="C220" s="148"/>
+      <c r="D220" s="148"/>
+      <c r="E220" s="148"/>
+      <c r="F220" s="149" t="s">
         <v>926</v>
       </c>
-      <c r="G198" s="148" t="s">
+      <c r="G220" s="148" t="s">
         <v>822</v>
       </c>
-      <c r="H198" s="148" t="s">
+      <c r="H220" s="148" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B199" s="150" t="s">
+    <row r="221" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B221" s="150" t="s">
         <v>928</v>
       </c>
-      <c r="C199" s="150" t="s">
+      <c r="C221" s="150" t="s">
         <v>929</v>
       </c>
-      <c r="D199" s="150"/>
-      <c r="E199" s="150"/>
-      <c r="F199" s="150"/>
-      <c r="G199" s="150"/>
-      <c r="H199" s="150" t="s">
+      <c r="D221" s="150"/>
+      <c r="E221" s="150"/>
+      <c r="F221" s="150"/>
+      <c r="G221" s="150"/>
+      <c r="H221" s="150" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="200" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B200" s="148" t="s">
+    <row r="222" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B222" s="148" t="s">
         <v>931</v>
       </c>
-      <c r="C200" s="148"/>
-      <c r="D200" s="148"/>
-      <c r="E200" s="148"/>
-      <c r="F200" s="148" t="s">
+      <c r="C222" s="148"/>
+      <c r="D222" s="148"/>
+      <c r="E222" s="148"/>
+      <c r="F222" s="148" t="s">
         <v>932</v>
       </c>
-      <c r="G200" s="149" t="s">
+      <c r="G222" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H200" s="148" t="s">
+      <c r="H222" s="148" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="201" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B201" s="150" t="s">
+    <row r="223" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B223" s="150" t="s">
         <v>934</v>
       </c>
-      <c r="C201" s="150"/>
-      <c r="D201" s="150"/>
-      <c r="E201" s="150"/>
-      <c r="F201" s="150" t="s">
+      <c r="C223" s="150"/>
+      <c r="D223" s="150"/>
+      <c r="E223" s="150"/>
+      <c r="F223" s="150" t="s">
         <v>718</v>
       </c>
-      <c r="G201" s="150" t="s">
+      <c r="G223" s="150" t="s">
         <v>935</v>
       </c>
-      <c r="H201" s="150" t="s">
+      <c r="H223" s="150" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="87" thickBot="1">
-      <c r="B202" s="149" t="s">
+    <row r="224" spans="2:8" ht="87" thickBot="1">
+      <c r="B224" s="149" t="s">
         <v>940</v>
       </c>
-      <c r="C202" s="148"/>
-      <c r="D202" s="148"/>
-      <c r="E202" s="148"/>
-      <c r="F202" s="148"/>
-      <c r="G202" s="148" t="s">
+      <c r="C224" s="148"/>
+      <c r="D224" s="148"/>
+      <c r="E224" s="148"/>
+      <c r="F224" s="148"/>
+      <c r="G224" s="148" t="s">
         <v>941</v>
       </c>
-      <c r="H202" s="148" t="s">
+      <c r="H224" s="148" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="203" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B203" s="151" t="s">
+    <row r="225" spans="2:9" ht="30.75" thickBot="1">
+      <c r="B225" s="151" t="s">
         <v>943</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C225" s="152" t="s">
         <v>944</v>
       </c>
-      <c r="D203" s="152"/>
-      <c r="E203" s="153">
+      <c r="D225" s="152"/>
+      <c r="E225" s="153">
         <v>5000</v>
       </c>
-      <c r="F203" s="151" t="s">
+      <c r="F225" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G203" s="151" t="s">
+      <c r="G225" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="H203" s="151" t="s">
+      <c r="H225" s="151" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B204" s="151" t="s">
+    <row r="226" spans="2:9" ht="30.75" thickBot="1">
+      <c r="B226" s="151" t="s">
         <v>946</v>
       </c>
-      <c r="C204" s="152" t="s">
+      <c r="C226" s="152" t="s">
         <v>944</v>
       </c>
-      <c r="D204" s="152"/>
-      <c r="E204" s="153">
+      <c r="D226" s="152"/>
+      <c r="E226" s="153">
         <v>5000</v>
       </c>
-      <c r="F204" s="151" t="s">
+      <c r="F226" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G204" s="151" t="s">
+      <c r="G226" s="151" t="s">
         <v>935</v>
       </c>
-      <c r="H204" s="151" t="s">
+      <c r="H226" s="151" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B205" s="151" t="s">
+    <row r="227" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B227" s="151" t="s">
         <v>948</v>
       </c>
-      <c r="C205" s="151"/>
-      <c r="D205" s="151"/>
-      <c r="E205" s="151" t="s">
+      <c r="C227" s="151"/>
+      <c r="D227" s="151"/>
+      <c r="E227" s="151" t="s">
         <v>949</v>
       </c>
-      <c r="F205" s="151"/>
-      <c r="G205" s="151"/>
-      <c r="H205" s="151"/>
-    </row>
-    <row r="208" spans="2:8" ht="14.25">
-      <c r="C208" s="6" t="s">
+      <c r="F227" s="151"/>
+      <c r="G227" s="151"/>
+      <c r="H227" s="151"/>
+    </row>
+    <row r="230" spans="2:9" ht="14.25">
+      <c r="C230" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="2:9">
-      <c r="C209" s="11" t="s">
+      <c r="D230" s="6"/>
+    </row>
+    <row r="231" spans="2:9">
+      <c r="C231" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="D209" s="11"/>
-      <c r="I209" s="129"/>
-    </row>
-    <row r="210" spans="2:9">
-      <c r="I210" s="129"/>
-    </row>
-    <row r="211" spans="2:9">
-      <c r="I211" s="129"/>
-    </row>
-    <row r="212" spans="2:9">
-      <c r="B212" s="177"/>
-      <c r="C212" s="129"/>
-      <c r="D212" s="129"/>
-      <c r="E212" s="129"/>
-      <c r="F212" s="178"/>
-      <c r="G212" s="129"/>
-      <c r="H212" s="129"/>
-      <c r="I212" s="129"/>
-    </row>
-    <row r="213" spans="2:9">
-      <c r="B213" s="177"/>
-      <c r="C213" s="179" t="s">
+      <c r="D231" s="11"/>
+      <c r="I231" s="129"/>
+    </row>
+    <row r="232" spans="2:9">
+      <c r="I232" s="129"/>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="I233" s="129"/>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="177"/>
+      <c r="C234" s="129"/>
+      <c r="D234" s="129"/>
+      <c r="E234" s="129"/>
+      <c r="F234" s="178"/>
+      <c r="G234" s="129"/>
+      <c r="H234" s="129"/>
+      <c r="I234" s="129"/>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" s="177"/>
+      <c r="C235" s="179" t="s">
         <v>1204</v>
       </c>
-      <c r="D213" s="179"/>
-      <c r="E213" s="129"/>
-      <c r="F213" s="178"/>
-      <c r="G213" s="129"/>
-      <c r="H213" s="129"/>
-      <c r="I213" s="129"/>
-    </row>
-    <row r="214" spans="2:9" ht="28.5">
-      <c r="B214" s="177"/>
-      <c r="C214" s="180" t="s">
+      <c r="D235" s="179"/>
+      <c r="E235" s="129"/>
+      <c r="F235" s="178"/>
+      <c r="G235" s="129"/>
+      <c r="H235" s="129"/>
+      <c r="I235" s="129"/>
+    </row>
+    <row r="236" spans="2:9" ht="28.5">
+      <c r="B236" s="177"/>
+      <c r="C236" s="180" t="s">
         <v>1200</v>
       </c>
-      <c r="D214" s="180"/>
-      <c r="E214" s="129"/>
-      <c r="F214" s="178"/>
-      <c r="G214" s="129"/>
-      <c r="H214" s="129"/>
-      <c r="I214" s="129"/>
-    </row>
-    <row r="215" spans="2:9" ht="71.25">
-      <c r="B215" s="177"/>
-      <c r="C215" s="180" t="s">
+      <c r="D236" s="180"/>
+      <c r="E236" s="129"/>
+      <c r="F236" s="178"/>
+      <c r="G236" s="129"/>
+      <c r="H236" s="129"/>
+      <c r="I236" s="129"/>
+    </row>
+    <row r="237" spans="2:9" ht="71.25">
+      <c r="B237" s="177"/>
+      <c r="C237" s="180" t="s">
         <v>1201</v>
       </c>
-      <c r="D215" s="180"/>
-      <c r="E215" s="129"/>
-      <c r="F215" s="178"/>
-      <c r="G215" s="129"/>
-      <c r="H215" s="129"/>
-    </row>
-    <row r="216" spans="2:9" ht="71.25">
-      <c r="B216" s="177"/>
-      <c r="C216" s="180" t="s">
+      <c r="D237" s="180"/>
+      <c r="E237" s="129"/>
+      <c r="F237" s="178"/>
+      <c r="G237" s="129"/>
+      <c r="H237" s="129"/>
+    </row>
+    <row r="238" spans="2:9" ht="71.25">
+      <c r="B238" s="177"/>
+      <c r="C238" s="180" t="s">
         <v>1202</v>
       </c>
-      <c r="D216" s="180"/>
-      <c r="E216" s="129"/>
-      <c r="F216" s="178"/>
-      <c r="G216" s="129"/>
-      <c r="H216" s="129"/>
-    </row>
-    <row r="217" spans="2:9" ht="57">
-      <c r="B217" s="177"/>
-      <c r="C217" s="180" t="s">
+      <c r="D238" s="180"/>
+      <c r="E238" s="129"/>
+      <c r="F238" s="178"/>
+      <c r="G238" s="129"/>
+      <c r="H238" s="129"/>
+    </row>
+    <row r="239" spans="2:9" ht="57">
+      <c r="B239" s="177"/>
+      <c r="C239" s="180" t="s">
         <v>1203</v>
       </c>
-      <c r="D217" s="180"/>
-      <c r="E217" s="129"/>
-      <c r="F217" s="178"/>
-      <c r="G217" s="129"/>
-      <c r="H217" s="129"/>
-    </row>
-    <row r="219" spans="2:9" ht="13.5" thickBot="1"/>
-    <row r="220" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B220" s="348" t="s">
+      <c r="D239" s="180"/>
+      <c r="E239" s="129"/>
+      <c r="F239" s="178"/>
+      <c r="G239" s="129"/>
+      <c r="H239" s="129"/>
+    </row>
+    <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
+    <row r="242" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B242" s="345" t="s">
         <v>734</v>
       </c>
-      <c r="C220" s="349"/>
-      <c r="D220" s="349"/>
-      <c r="E220" s="349"/>
-      <c r="F220" s="349"/>
-      <c r="G220" s="350"/>
-    </row>
-    <row r="221" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B221" s="161"/>
-      <c r="C221" s="162"/>
-      <c r="D221" s="162"/>
-      <c r="E221" s="162"/>
-      <c r="F221" s="162"/>
-      <c r="G221" s="163"/>
-    </row>
-    <row r="222" spans="2:9" ht="30.75" thickBot="1">
-      <c r="B222" s="85"/>
-      <c r="C222" s="86" t="s">
+      <c r="C242" s="346"/>
+      <c r="D242" s="346"/>
+      <c r="E242" s="346"/>
+      <c r="F242" s="346"/>
+      <c r="G242" s="347"/>
+    </row>
+    <row r="243" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B243" s="161"/>
+      <c r="C243" s="162"/>
+      <c r="D243" s="162"/>
+      <c r="E243" s="162"/>
+      <c r="F243" s="162"/>
+      <c r="G243" s="163"/>
+    </row>
+    <row r="244" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B244" s="85"/>
+      <c r="C244" s="86" t="s">
         <v>735</v>
       </c>
-      <c r="D222" s="86"/>
-      <c r="E222" s="86" t="s">
+      <c r="D244" s="86"/>
+      <c r="E244" s="86" t="s">
         <v>736</v>
       </c>
-      <c r="F222" s="86" t="s">
+      <c r="F244" s="86" t="s">
         <v>737</v>
       </c>
-      <c r="G222" s="86" t="s">
+      <c r="G244" s="86" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="223" spans="2:9" ht="30">
-      <c r="B223" s="87" t="s">
-        <v>739</v>
-      </c>
-      <c r="C223" s="90" t="s">
-        <v>741</v>
-      </c>
-      <c r="D223" s="90"/>
-      <c r="E223" s="339" t="s">
-        <v>743</v>
-      </c>
-      <c r="F223" s="339"/>
-      <c r="G223" s="90" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" ht="15">
-      <c r="B224" s="87"/>
-      <c r="C224" s="90"/>
-      <c r="D224" s="90"/>
-      <c r="E224" s="340"/>
-      <c r="F224" s="340"/>
-      <c r="G224" s="90"/>
-    </row>
-    <row r="225" spans="2:7" ht="15">
-      <c r="B225" s="87"/>
-      <c r="C225" s="90"/>
-      <c r="D225" s="90"/>
-      <c r="E225" s="340"/>
-      <c r="F225" s="340"/>
-      <c r="G225" s="90"/>
-    </row>
-    <row r="226" spans="2:7" ht="15">
-      <c r="B226" s="87"/>
-      <c r="C226" s="90"/>
-      <c r="D226" s="90"/>
-      <c r="E226" s="340"/>
-      <c r="F226" s="340"/>
-      <c r="G226" s="90"/>
-    </row>
-    <row r="227" spans="2:7" ht="15">
-      <c r="B227" s="87"/>
-      <c r="C227" s="90"/>
-      <c r="D227" s="90"/>
-      <c r="E227" s="340"/>
-      <c r="F227" s="340"/>
-      <c r="G227" s="90"/>
-    </row>
-    <row r="228" spans="2:7" ht="30">
-      <c r="B228" s="87" t="s">
-        <v>740</v>
-      </c>
-      <c r="C228" s="90" t="s">
-        <v>742</v>
-      </c>
-      <c r="D228" s="90"/>
-      <c r="E228" s="340"/>
-      <c r="F228" s="340"/>
-      <c r="G228" s="90" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="229" spans="2:7" ht="15">
-      <c r="B229" s="88"/>
-      <c r="C229" s="90"/>
-      <c r="D229" s="90"/>
-      <c r="E229" s="340"/>
-      <c r="F229" s="340"/>
-      <c r="G229" s="90" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B230" s="89"/>
-      <c r="C230" s="91"/>
-      <c r="D230" s="91"/>
-      <c r="E230" s="341"/>
-      <c r="F230" s="341"/>
-      <c r="G230" s="91" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="231" spans="2:7" ht="15">
-      <c r="B231" s="87" t="s">
-        <v>748</v>
-      </c>
-      <c r="C231" s="92" t="s">
-        <v>741</v>
-      </c>
-      <c r="D231" s="92"/>
-      <c r="E231" s="336" t="s">
-        <v>750</v>
-      </c>
-      <c r="F231" s="92" t="s">
-        <v>751</v>
-      </c>
-      <c r="G231" s="92" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" ht="15">
-      <c r="B232" s="87"/>
-      <c r="C232" s="92"/>
-      <c r="D232" s="92"/>
-      <c r="E232" s="337"/>
-      <c r="F232" s="92" t="s">
-        <v>752</v>
-      </c>
-      <c r="G232" s="92"/>
-    </row>
-    <row r="233" spans="2:7" ht="30">
-      <c r="B233" s="87" t="s">
-        <v>749</v>
-      </c>
-      <c r="C233" s="92" t="s">
-        <v>742</v>
-      </c>
-      <c r="D233" s="92"/>
-      <c r="E233" s="337"/>
-      <c r="F233" s="92" t="s">
-        <v>753</v>
-      </c>
-      <c r="G233" s="92" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="234" spans="2:7" ht="15">
-      <c r="B234" s="88"/>
-      <c r="C234" s="92"/>
-      <c r="D234" s="92"/>
-      <c r="E234" s="337"/>
-      <c r="F234" s="92" t="s">
-        <v>754</v>
-      </c>
-      <c r="G234" s="92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="235" spans="2:7" ht="15">
-      <c r="B235" s="88"/>
-      <c r="C235" s="93"/>
-      <c r="D235" s="93"/>
-      <c r="E235" s="337"/>
-      <c r="F235" s="92" t="s">
-        <v>755</v>
-      </c>
-      <c r="G235" s="92" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="236" spans="2:7" ht="15">
-      <c r="B236" s="88"/>
-      <c r="C236" s="93"/>
-      <c r="D236" s="93"/>
-      <c r="E236" s="337"/>
-      <c r="F236" s="92" t="s">
-        <v>756</v>
-      </c>
-      <c r="G236" s="92" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="237" spans="2:7" ht="15">
-      <c r="B237" s="88"/>
-      <c r="C237" s="93"/>
-      <c r="D237" s="93"/>
-      <c r="E237" s="337"/>
-      <c r="F237" s="93"/>
-      <c r="G237" s="92" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="238" spans="2:7" ht="15">
-      <c r="B238" s="88"/>
-      <c r="C238" s="93"/>
-      <c r="D238" s="93"/>
-      <c r="E238" s="337"/>
-      <c r="F238" s="93"/>
-      <c r="G238" s="92"/>
-    </row>
-    <row r="239" spans="2:7" ht="15">
-      <c r="B239" s="88"/>
-      <c r="C239" s="93"/>
-      <c r="D239" s="93"/>
-      <c r="E239" s="337"/>
-      <c r="F239" s="93"/>
-      <c r="G239" s="92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="2:7" ht="15">
-      <c r="B240" s="88"/>
-      <c r="C240" s="93"/>
-      <c r="D240" s="93"/>
-      <c r="E240" s="337"/>
-      <c r="F240" s="93"/>
-      <c r="G240" s="92" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="241" spans="2:7" ht="15">
-      <c r="B241" s="88"/>
-      <c r="C241" s="93"/>
-      <c r="D241" s="93"/>
-      <c r="E241" s="337"/>
-      <c r="F241" s="93"/>
-      <c r="G241" s="92" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="242" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B242" s="89"/>
-      <c r="C242" s="94"/>
-      <c r="D242" s="94"/>
-      <c r="E242" s="338"/>
-      <c r="F242" s="94"/>
-      <c r="G242" s="95"/>
-    </row>
-    <row r="243" spans="2:7" ht="15">
-      <c r="B243" s="87" t="s">
-        <v>764</v>
-      </c>
-      <c r="C243" s="90" t="s">
-        <v>741</v>
-      </c>
-      <c r="D243" s="90"/>
-      <c r="E243" s="339" t="s">
-        <v>767</v>
-      </c>
-      <c r="F243" s="90" t="s">
-        <v>768</v>
-      </c>
-      <c r="G243" s="90" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="244" spans="2:7" ht="15">
-      <c r="B244" s="87"/>
-      <c r="C244" s="90"/>
-      <c r="D244" s="90"/>
-      <c r="E244" s="340"/>
-      <c r="F244" s="90" t="s">
-        <v>756</v>
-      </c>
-      <c r="G244" s="90"/>
     </row>
     <row r="245" spans="2:7" ht="30">
       <c r="B245" s="87" t="s">
+        <v>739</v>
+      </c>
+      <c r="C245" s="90" t="s">
+        <v>741</v>
+      </c>
+      <c r="D245" s="90"/>
+      <c r="E245" s="336" t="s">
+        <v>743</v>
+      </c>
+      <c r="F245" s="336"/>
+      <c r="G245" s="90" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" ht="15">
+      <c r="B246" s="87"/>
+      <c r="C246" s="90"/>
+      <c r="D246" s="90"/>
+      <c r="E246" s="337"/>
+      <c r="F246" s="337"/>
+      <c r="G246" s="90"/>
+    </row>
+    <row r="247" spans="2:7" ht="15">
+      <c r="B247" s="87"/>
+      <c r="C247" s="90"/>
+      <c r="D247" s="90"/>
+      <c r="E247" s="337"/>
+      <c r="F247" s="337"/>
+      <c r="G247" s="90"/>
+    </row>
+    <row r="248" spans="2:7" ht="15">
+      <c r="B248" s="87"/>
+      <c r="C248" s="90"/>
+      <c r="D248" s="90"/>
+      <c r="E248" s="337"/>
+      <c r="F248" s="337"/>
+      <c r="G248" s="90"/>
+    </row>
+    <row r="249" spans="2:7" ht="15">
+      <c r="B249" s="87"/>
+      <c r="C249" s="90"/>
+      <c r="D249" s="90"/>
+      <c r="E249" s="337"/>
+      <c r="F249" s="337"/>
+      <c r="G249" s="90"/>
+    </row>
+    <row r="250" spans="2:7" ht="30">
+      <c r="B250" s="87" t="s">
+        <v>740</v>
+      </c>
+      <c r="C250" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="D250" s="90"/>
+      <c r="E250" s="337"/>
+      <c r="F250" s="337"/>
+      <c r="G250" s="90" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" ht="15">
+      <c r="B251" s="88"/>
+      <c r="C251" s="90"/>
+      <c r="D251" s="90"/>
+      <c r="E251" s="337"/>
+      <c r="F251" s="337"/>
+      <c r="G251" s="90" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B252" s="89"/>
+      <c r="C252" s="91"/>
+      <c r="D252" s="91"/>
+      <c r="E252" s="338"/>
+      <c r="F252" s="338"/>
+      <c r="G252" s="91" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" ht="15">
+      <c r="B253" s="87" t="s">
+        <v>748</v>
+      </c>
+      <c r="C253" s="92" t="s">
+        <v>741</v>
+      </c>
+      <c r="D253" s="92"/>
+      <c r="E253" s="333" t="s">
+        <v>750</v>
+      </c>
+      <c r="F253" s="92" t="s">
+        <v>751</v>
+      </c>
+      <c r="G253" s="92" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" ht="15">
+      <c r="B254" s="87"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="92"/>
+      <c r="E254" s="334"/>
+      <c r="F254" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="G254" s="92"/>
+    </row>
+    <row r="255" spans="2:7" ht="30">
+      <c r="B255" s="87" t="s">
+        <v>749</v>
+      </c>
+      <c r="C255" s="92" t="s">
+        <v>742</v>
+      </c>
+      <c r="D255" s="92"/>
+      <c r="E255" s="334"/>
+      <c r="F255" s="92" t="s">
+        <v>753</v>
+      </c>
+      <c r="G255" s="92" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" ht="15">
+      <c r="B256" s="88"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="92"/>
+      <c r="E256" s="334"/>
+      <c r="F256" s="92" t="s">
+        <v>754</v>
+      </c>
+      <c r="G256" s="92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" ht="15">
+      <c r="B257" s="88"/>
+      <c r="C257" s="93"/>
+      <c r="D257" s="93"/>
+      <c r="E257" s="334"/>
+      <c r="F257" s="92" t="s">
+        <v>755</v>
+      </c>
+      <c r="G257" s="92" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="15">
+      <c r="B258" s="88"/>
+      <c r="C258" s="93"/>
+      <c r="D258" s="93"/>
+      <c r="E258" s="334"/>
+      <c r="F258" s="92" t="s">
+        <v>756</v>
+      </c>
+      <c r="G258" s="92" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" ht="15">
+      <c r="B259" s="88"/>
+      <c r="C259" s="93"/>
+      <c r="D259" s="93"/>
+      <c r="E259" s="334"/>
+      <c r="F259" s="93"/>
+      <c r="G259" s="92" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" ht="15">
+      <c r="B260" s="88"/>
+      <c r="C260" s="93"/>
+      <c r="D260" s="93"/>
+      <c r="E260" s="334"/>
+      <c r="F260" s="93"/>
+      <c r="G260" s="92"/>
+    </row>
+    <row r="261" spans="2:7" ht="15">
+      <c r="B261" s="88"/>
+      <c r="C261" s="93"/>
+      <c r="D261" s="93"/>
+      <c r="E261" s="334"/>
+      <c r="F261" s="93"/>
+      <c r="G261" s="92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" ht="15">
+      <c r="B262" s="88"/>
+      <c r="C262" s="93"/>
+      <c r="D262" s="93"/>
+      <c r="E262" s="334"/>
+      <c r="F262" s="93"/>
+      <c r="G262" s="92" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" ht="15">
+      <c r="B263" s="88"/>
+      <c r="C263" s="93"/>
+      <c r="D263" s="93"/>
+      <c r="E263" s="334"/>
+      <c r="F263" s="93"/>
+      <c r="G263" s="92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B264" s="89"/>
+      <c r="C264" s="94"/>
+      <c r="D264" s="94"/>
+      <c r="E264" s="335"/>
+      <c r="F264" s="94"/>
+      <c r="G264" s="95"/>
+    </row>
+    <row r="265" spans="2:7" ht="15">
+      <c r="B265" s="87" t="s">
+        <v>764</v>
+      </c>
+      <c r="C265" s="90" t="s">
+        <v>741</v>
+      </c>
+      <c r="D265" s="90"/>
+      <c r="E265" s="336" t="s">
+        <v>767</v>
+      </c>
+      <c r="F265" s="90" t="s">
+        <v>768</v>
+      </c>
+      <c r="G265" s="90" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" ht="15">
+      <c r="B266" s="87"/>
+      <c r="C266" s="90"/>
+      <c r="D266" s="90"/>
+      <c r="E266" s="337"/>
+      <c r="F266" s="90" t="s">
+        <v>756</v>
+      </c>
+      <c r="G266" s="90"/>
+    </row>
+    <row r="267" spans="2:7" ht="30">
+      <c r="B267" s="87" t="s">
         <v>765</v>
       </c>
-      <c r="C245" s="90" t="s">
+      <c r="C267" s="90" t="s">
         <v>766</v>
       </c>
-      <c r="D245" s="90"/>
-      <c r="E245" s="340"/>
-      <c r="F245" s="90"/>
-      <c r="G245" s="90" t="s">
+      <c r="D267" s="90"/>
+      <c r="E267" s="337"/>
+      <c r="F267" s="90"/>
+      <c r="G267" s="90" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B246" s="96"/>
-      <c r="C246" s="91"/>
-      <c r="D246" s="91"/>
-      <c r="E246" s="341"/>
-      <c r="F246" s="97"/>
-      <c r="G246" s="91" t="s">
+    <row r="268" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B268" s="96"/>
+      <c r="C268" s="91"/>
+      <c r="D268" s="91"/>
+      <c r="E268" s="338"/>
+      <c r="F268" s="97"/>
+      <c r="G268" s="91" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="30">
-      <c r="B247" s="87" t="s">
+    <row r="269" spans="2:7" ht="30">
+      <c r="B269" s="87" t="s">
         <v>771</v>
       </c>
-      <c r="C247" s="92" t="s">
+      <c r="C269" s="92" t="s">
         <v>773</v>
       </c>
-      <c r="D247" s="92"/>
-      <c r="E247" s="92" t="s">
+      <c r="D269" s="92"/>
+      <c r="E269" s="92" t="s">
         <v>774</v>
       </c>
-      <c r="F247" s="92" t="s">
+      <c r="F269" s="92" t="s">
         <v>776</v>
       </c>
-      <c r="G247" s="92" t="s">
+      <c r="G269" s="92" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="248" spans="2:7" ht="30">
-      <c r="B248" s="87"/>
-      <c r="C248" s="92"/>
-      <c r="D248" s="92"/>
-      <c r="E248" s="92" t="s">
+    <row r="270" spans="2:7" ht="30">
+      <c r="B270" s="87"/>
+      <c r="C270" s="92"/>
+      <c r="D270" s="92"/>
+      <c r="E270" s="92" t="s">
         <v>775</v>
       </c>
-      <c r="F248" s="92" t="s">
+      <c r="F270" s="92" t="s">
         <v>777</v>
       </c>
-      <c r="G248" s="92"/>
-    </row>
-    <row r="249" spans="2:7" ht="30">
-      <c r="B249" s="87" t="s">
+      <c r="G270" s="92"/>
+    </row>
+    <row r="271" spans="2:7" ht="30">
+      <c r="B271" s="87" t="s">
         <v>772</v>
       </c>
-      <c r="C249" s="92" t="s">
+      <c r="C271" s="92" t="s">
         <v>742</v>
       </c>
-      <c r="D249" s="92"/>
-      <c r="E249" s="93"/>
-      <c r="F249" s="92" t="s">
+      <c r="D271" s="92"/>
+      <c r="E271" s="93"/>
+      <c r="F271" s="92" t="s">
         <v>778</v>
       </c>
-      <c r="G249" s="92" t="s">
+      <c r="G271" s="92" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="15">
-      <c r="B250" s="87"/>
-      <c r="C250" s="92"/>
-      <c r="D250" s="92"/>
-      <c r="E250" s="93"/>
-      <c r="F250" s="93"/>
-      <c r="G250" s="92" t="s">
+    <row r="272" spans="2:7" ht="15">
+      <c r="B272" s="87"/>
+      <c r="C272" s="92"/>
+      <c r="D272" s="92"/>
+      <c r="E272" s="93"/>
+      <c r="F272" s="93"/>
+      <c r="G272" s="92" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="251" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B251" s="96"/>
-      <c r="C251" s="94"/>
-      <c r="D251" s="94"/>
-      <c r="E251" s="94"/>
-      <c r="F251" s="94"/>
-      <c r="G251" s="94"/>
-    </row>
-    <row r="253" spans="2:7" ht="14.25">
-      <c r="E253" t="s">
+    <row r="273" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B273" s="96"/>
+      <c r="C273" s="94"/>
+      <c r="D273" s="94"/>
+      <c r="E273" s="94"/>
+      <c r="F273" s="94"/>
+      <c r="G273" s="94"/>
+    </row>
+    <row r="275" spans="2:7" ht="14.25">
+      <c r="E275" t="s">
         <v>1</v>
       </c>
-      <c r="F253" s="233" t="s">
+      <c r="F275" s="233" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G165" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B54:G86">
-    <sortCondition ref="B54:B86"/>
+  <autoFilter ref="B4:G187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B76:G108">
+    <sortCondition ref="B76:B108"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="E231:E242"/>
-    <mergeCell ref="E243:E246"/>
+  <mergeCells count="12">
+    <mergeCell ref="E253:E264"/>
+    <mergeCell ref="E265:E268"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="E223:E230"/>
-    <mergeCell ref="F223:F230"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="E245:E252"/>
+    <mergeCell ref="F245:F252"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F93" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F90" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F120" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F147" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G90" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E116" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F116" r:id="rId7" display="mailto:alberto.medina@zarkin.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E153" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F163" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E155" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G155" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E154" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F198" r:id="rId13" display="mailto:impresionesconta@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G200" r:id="rId14" display="mailto:Zarkin@2016" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B202" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C94" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C70" r:id="rId17" display="it.due@zarkin.onmicrosoft.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G91" r:id="rId18" xr:uid="{182B3957-2971-43BE-9664-3FF9A5033629}"/>
-    <hyperlink ref="C102" r:id="rId19" display="https://drive.google.com/drive/folders/1SGTOMzpj_kRvNwAcg5BA-Ii5Ctq_Z_t_?usp=sharing" xr:uid="{63159C66-6EB8-4119-923A-663D4E9CD782}"/>
-    <hyperlink ref="C208" r:id="rId20" xr:uid="{4217562B-0319-4D9D-A884-9F327232C4F5}"/>
-    <hyperlink ref="E161" r:id="rId21" xr:uid="{6462EBEF-1588-41CE-8235-E7263F608D55}"/>
-    <hyperlink ref="E58" r:id="rId22" xr:uid="{CF6BAA41-FE6F-42DA-B8A3-1AABEA287BF4}"/>
-    <hyperlink ref="E71" r:id="rId23" xr:uid="{33371DC2-ABB2-4A66-9D98-98FC841232CB}"/>
-    <hyperlink ref="F75" r:id="rId24" xr:uid="{4FDBB621-520D-46A4-92A1-3CBB87101920}"/>
-    <hyperlink ref="F52" r:id="rId25" xr:uid="{D968A398-463B-4C4E-BA5B-653A69532D84}"/>
-    <hyperlink ref="E72" r:id="rId26" xr:uid="{F8191B20-BA3A-430F-BEEC-CCE9B0BD3698}"/>
-    <hyperlink ref="E162" r:id="rId27" xr:uid="{CB9A5CA2-E3A4-4A84-AF84-62D16CCD61CA}"/>
-    <hyperlink ref="F253" r:id="rId28" xr:uid="{674E7E33-C8C6-4E87-8A77-2CEF3FD73D79}"/>
-    <hyperlink ref="G74" r:id="rId29" xr:uid="{3F081CC1-E2B8-4833-B802-C340CD2BBE11}"/>
-    <hyperlink ref="D58" r:id="rId30" xr:uid="{5AD3AF45-D291-42C3-9973-AF1A7C0F1F65}"/>
-    <hyperlink ref="D57" r:id="rId31" xr:uid="{C889DA54-6A09-4913-B66C-40D08B69493B}"/>
-    <hyperlink ref="D71" r:id="rId32" xr:uid="{37D6EEC3-4825-43DB-AC6B-CAEED9E2BA3C}"/>
-    <hyperlink ref="D72" r:id="rId33" xr:uid="{E9AF8C3D-4283-41B8-94BF-047A1E322A81}"/>
-    <hyperlink ref="E70" r:id="rId34" xr:uid="{8BCCAD37-5910-44F1-A9A9-FB275ECCCD87}"/>
-    <hyperlink ref="F63" r:id="rId35" xr:uid="{53FC8089-F559-4A9B-9F03-910E3584042F}"/>
-    <hyperlink ref="F53" r:id="rId36" xr:uid="{2F45CF87-D675-450F-8E99-E8176BA9ECA1}"/>
-    <hyperlink ref="F128" r:id="rId37" xr:uid="{FC7C0C4D-1700-4B23-A2D5-5A48259BE11E}"/>
-    <hyperlink ref="F130" r:id="rId38" xr:uid="{D4F4B5C8-DFD9-4E5F-94FB-182103E586E4}"/>
-    <hyperlink ref="D56" r:id="rId39" xr:uid="{17EA58E3-2058-40E4-9A36-4575B93534D7}"/>
-    <hyperlink ref="E97" r:id="rId40" xr:uid="{209DEB68-3AC2-45F2-A794-DE0ED5A1AC08}"/>
-    <hyperlink ref="C95" r:id="rId41" xr:uid="{37CC618C-8BB8-43BF-9364-B294F4DA600B}"/>
-    <hyperlink ref="E5" r:id="rId42" xr:uid="{F6FFB765-E5FD-4CB6-8F9D-278CFF8A5BED}"/>
-    <hyperlink ref="E6" r:id="rId43" xr:uid="{F73B733C-5767-4264-B2ED-721EA97A32A1}"/>
-    <hyperlink ref="F23" r:id="rId44" xr:uid="{AA6E9829-B9F9-423F-9A17-A79F882558BE}"/>
-    <hyperlink ref="E29" r:id="rId45" xr:uid="{24BE6C1E-468F-4A71-9A7E-A4EE4FEAA071}"/>
-    <hyperlink ref="F46" r:id="rId46" xr:uid="{49B73A9A-8138-4446-8D78-C6ABC9C00B5A}"/>
-    <hyperlink ref="E46" r:id="rId47" xr:uid="{109DB3B2-E781-4906-B728-C4F4B3628B13}"/>
-    <hyperlink ref="E47" r:id="rId48" xr:uid="{44AF2191-B27A-4A5F-9BA8-72A6494081BA}"/>
-    <hyperlink ref="E45" r:id="rId49" xr:uid="{6149D80A-346E-4A1A-BE3D-955071734054}"/>
-    <hyperlink ref="F12" r:id="rId50" xr:uid="{49AB6EE4-4539-4292-979B-A58E44083CA7}"/>
+    <hyperlink ref="F115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F142" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F169" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E138" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F138" r:id="rId7" display="mailto:alberto.medina@zarkin.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E175" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F185" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E177" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G177" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E176" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F220" r:id="rId13" display="mailto:impresionesconta@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G222" r:id="rId14" display="mailto:Zarkin@2016" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B224" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C116" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C92" r:id="rId17" display="it.due@zarkin.onmicrosoft.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G113" r:id="rId18" xr:uid="{182B3957-2971-43BE-9664-3FF9A5033629}"/>
+    <hyperlink ref="C124" r:id="rId19" display="https://drive.google.com/drive/folders/1SGTOMzpj_kRvNwAcg5BA-Ii5Ctq_Z_t_?usp=sharing" xr:uid="{63159C66-6EB8-4119-923A-663D4E9CD782}"/>
+    <hyperlink ref="C230" r:id="rId20" xr:uid="{4217562B-0319-4D9D-A884-9F327232C4F5}"/>
+    <hyperlink ref="E183" r:id="rId21" xr:uid="{6462EBEF-1588-41CE-8235-E7263F608D55}"/>
+    <hyperlink ref="E80" r:id="rId22" xr:uid="{CF6BAA41-FE6F-42DA-B8A3-1AABEA287BF4}"/>
+    <hyperlink ref="E93" r:id="rId23" xr:uid="{33371DC2-ABB2-4A66-9D98-98FC841232CB}"/>
+    <hyperlink ref="F97" r:id="rId24" xr:uid="{4FDBB621-520D-46A4-92A1-3CBB87101920}"/>
+    <hyperlink ref="F74" r:id="rId25" xr:uid="{D968A398-463B-4C4E-BA5B-653A69532D84}"/>
+    <hyperlink ref="E94" r:id="rId26" xr:uid="{F8191B20-BA3A-430F-BEEC-CCE9B0BD3698}"/>
+    <hyperlink ref="E184" r:id="rId27" xr:uid="{CB9A5CA2-E3A4-4A84-AF84-62D16CCD61CA}"/>
+    <hyperlink ref="F275" r:id="rId28" xr:uid="{674E7E33-C8C6-4E87-8A77-2CEF3FD73D79}"/>
+    <hyperlink ref="G96" r:id="rId29" xr:uid="{3F081CC1-E2B8-4833-B802-C340CD2BBE11}"/>
+    <hyperlink ref="D80" r:id="rId30" xr:uid="{5AD3AF45-D291-42C3-9973-AF1A7C0F1F65}"/>
+    <hyperlink ref="D79" r:id="rId31" xr:uid="{C889DA54-6A09-4913-B66C-40D08B69493B}"/>
+    <hyperlink ref="D93" r:id="rId32" xr:uid="{37D6EEC3-4825-43DB-AC6B-CAEED9E2BA3C}"/>
+    <hyperlink ref="D94" r:id="rId33" xr:uid="{E9AF8C3D-4283-41B8-94BF-047A1E322A81}"/>
+    <hyperlink ref="E92" r:id="rId34" xr:uid="{8BCCAD37-5910-44F1-A9A9-FB275ECCCD87}"/>
+    <hyperlink ref="F85" r:id="rId35" xr:uid="{53FC8089-F559-4A9B-9F03-910E3584042F}"/>
+    <hyperlink ref="F75" r:id="rId36" xr:uid="{2F45CF87-D675-450F-8E99-E8176BA9ECA1}"/>
+    <hyperlink ref="F150" r:id="rId37" xr:uid="{FC7C0C4D-1700-4B23-A2D5-5A48259BE11E}"/>
+    <hyperlink ref="F152" r:id="rId38" xr:uid="{D4F4B5C8-DFD9-4E5F-94FB-182103E586E4}"/>
+    <hyperlink ref="D78" r:id="rId39" xr:uid="{17EA58E3-2058-40E4-9A36-4575B93534D7}"/>
+    <hyperlink ref="E119" r:id="rId40" xr:uid="{209DEB68-3AC2-45F2-A794-DE0ED5A1AC08}"/>
+    <hyperlink ref="C117" r:id="rId41" xr:uid="{37CC618C-8BB8-43BF-9364-B294F4DA600B}"/>
+    <hyperlink ref="E27" r:id="rId42" xr:uid="{F6FFB765-E5FD-4CB6-8F9D-278CFF8A5BED}"/>
+    <hyperlink ref="E28" r:id="rId43" xr:uid="{F73B733C-5767-4264-B2ED-721EA97A32A1}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{AA6E9829-B9F9-423F-9A17-A79F882558BE}"/>
+    <hyperlink ref="E51" r:id="rId45" xr:uid="{24BE6C1E-468F-4A71-9A7E-A4EE4FEAA071}"/>
+    <hyperlink ref="F68" r:id="rId46" xr:uid="{49B73A9A-8138-4446-8D78-C6ABC9C00B5A}"/>
+    <hyperlink ref="E68" r:id="rId47" xr:uid="{109DB3B2-E781-4906-B728-C4F4B3628B13}"/>
+    <hyperlink ref="E69" r:id="rId48" xr:uid="{44AF2191-B27A-4A5F-9BA8-72A6494081BA}"/>
+    <hyperlink ref="E67" r:id="rId49" xr:uid="{6149D80A-346E-4A1A-BE3D-955071734054}"/>
+    <hyperlink ref="F34" r:id="rId50" xr:uid="{49AB6EE4-4539-4292-979B-A58E44083CA7}"/>
+    <hyperlink ref="G5" r:id="rId51" xr:uid="{7CC2A744-0840-4008-BB5F-ED7DD4207769}"/>
+    <hyperlink ref="F7" r:id="rId52" xr:uid="{3417B701-626A-4E4E-83CF-8CD3BD5F3A88}"/>
+    <hyperlink ref="F18" r:id="rId53" xr:uid="{9D5A90FA-7CA9-49CA-B9F6-40352A9179D3}"/>
+    <hyperlink ref="F19" r:id="rId54" xr:uid="{6A758C53-F9B0-4DA3-AB9A-006304CF1608}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup scale="98" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId52"/>
-  <legacyDrawing r:id="rId53"/>
+  <drawing r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -29736,35 +30286,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="342" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="354">
+      <c r="B4" s="351">
         <v>43928</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -30042,13 +30592,13 @@
     </row>
     <row r="2" spans="1:9" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="340" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -30059,13 +30609,13 @@
     </row>
     <row r="3" spans="1:9" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="342" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -30076,13 +30626,13 @@
     </row>
     <row r="4" spans="1:9" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="347">
+      <c r="B4" s="344">
         <v>43944</v>
       </c>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="347"/>
-      <c r="F4" s="347"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -30467,24 +31017,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="340" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="342" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -30492,13 +31042,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="347">
+      <c r="B4" s="344">
         <v>43970</v>
       </c>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="347"/>
-      <c r="F4" s="347"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F267D9-4EB8-4A45-AD32-9276806A99BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6466790-34C6-45BE-97AE-FE3C93028486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -5882,7 +5882,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="ddd\-dd\-mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -8145,6 +8145,244 @@
     <xf numFmtId="49" fontId="62" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="49" fontId="63" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="165" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="22" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="24" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="50" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8221,6 +8459,12 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8245,12 +8489,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8307,244 +8545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="49" fontId="63" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="66" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="22" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="22" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="22" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="24" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="25" borderId="50" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -15447,10 +15447,10 @@
       <sheetName val="VACACIONES"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="6">
           <cell r="B6" t="str">
@@ -15547,16 +15547,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15888,2911 +15888,2911 @@
   </sheetPr>
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="401" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="401" customWidth="1"/>
-    <col min="3" max="3" width="14" style="401" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="401" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="401" customWidth="1"/>
-    <col min="6" max="6" width="29" style="480" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="481" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="401" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="401"/>
+    <col min="1" max="1" width="3.5703125" style="346" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="346" customWidth="1"/>
+    <col min="3" max="3" width="14" style="346" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="346" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="346" customWidth="1"/>
+    <col min="6" max="6" width="29" style="422" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="423" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="346" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="346"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="398"/>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="398"/>
+      <c r="A1" s="343"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="343"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="398"/>
-      <c r="B2" s="402" t="s">
+      <c r="A2" s="343"/>
+      <c r="B2" s="424" t="s">
         <v>1597</v>
       </c>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="398"/>
-      <c r="B3" s="403" t="s">
+      <c r="A3" s="343"/>
+      <c r="B3" s="425" t="s">
         <v>1598</v>
       </c>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="398"/>
-      <c r="B4" s="404">
+      <c r="A4" s="343"/>
+      <c r="B4" s="426">
         <f>MAX(B6:B127)</f>
         <v>44671</v>
       </c>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
     </row>
     <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="398"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="406"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="405"/>
-    </row>
-    <row r="6" spans="1:9" s="412" customFormat="1" ht="30">
-      <c r="A6" s="408"/>
-      <c r="B6" s="409" t="s">
+      <c r="A5" s="343"/>
+      <c r="B5" s="343"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="347"/>
+    </row>
+    <row r="6" spans="1:9" s="354" customFormat="1" ht="30">
+      <c r="A6" s="350"/>
+      <c r="B6" s="351" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="410" t="s">
+      <c r="C6" s="352" t="s">
         <v>1448</v>
       </c>
-      <c r="D6" s="410" t="s">
+      <c r="D6" s="352" t="s">
         <v>1449</v>
       </c>
-      <c r="E6" s="410" t="s">
+      <c r="E6" s="352" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="411" t="s">
+      <c r="F6" s="353" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="410" t="s">
+      <c r="G6" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="410" t="s">
+      <c r="H6" s="352" t="s">
         <v>1263</v>
       </c>
-      <c r="I6" s="408"/>
+      <c r="I6" s="350"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="398"/>
-      <c r="B7" s="413"/>
-      <c r="C7" s="414" t="s">
+      <c r="A7" s="343"/>
+      <c r="B7" s="355"/>
+      <c r="C7" s="356" t="s">
         <v>1599</v>
       </c>
-      <c r="D7" s="414" t="s">
+      <c r="D7" s="356" t="s">
         <v>1600</v>
       </c>
-      <c r="E7" s="414"/>
-      <c r="F7" s="415" t="s">
+      <c r="E7" s="356"/>
+      <c r="F7" s="357" t="s">
         <v>1601</v>
       </c>
-      <c r="G7" s="416"/>
-      <c r="H7" s="414" t="s">
+      <c r="G7" s="358"/>
+      <c r="H7" s="356" t="s">
         <v>1602</v>
       </c>
-      <c r="I7" s="398"/>
+      <c r="I7" s="343"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="398"/>
-      <c r="B8" s="413"/>
-      <c r="C8" s="414" t="s">
+      <c r="A8" s="343"/>
+      <c r="B8" s="355"/>
+      <c r="C8" s="356" t="s">
         <v>1346</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="356" t="s">
         <v>1353</v>
       </c>
-      <c r="E8" s="414" t="s">
+      <c r="E8" s="356" t="s">
         <v>1351</v>
       </c>
-      <c r="F8" s="416" t="s">
+      <c r="F8" s="358" t="s">
         <v>1354</v>
       </c>
-      <c r="G8" s="416" t="s">
+      <c r="G8" s="358" t="s">
         <v>979</v>
       </c>
-      <c r="H8" s="414"/>
-      <c r="I8" s="398"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="343"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="398"/>
-      <c r="B9" s="413">
+      <c r="A9" s="343"/>
+      <c r="B9" s="355">
         <v>44300</v>
       </c>
-      <c r="C9" s="414" t="s">
+      <c r="C9" s="356" t="s">
         <v>1346</v>
       </c>
-      <c r="D9" s="414" t="s">
+      <c r="D9" s="356" t="s">
         <v>1603</v>
       </c>
-      <c r="E9" s="414" t="s">
+      <c r="E9" s="356" t="s">
         <v>1348</v>
       </c>
-      <c r="F9" s="416" t="s">
+      <c r="F9" s="358" t="s">
         <v>1604</v>
       </c>
-      <c r="G9" s="416" t="s">
+      <c r="G9" s="358" t="s">
         <v>1605</v>
       </c>
-      <c r="H9" s="414"/>
-      <c r="I9" s="398"/>
+      <c r="H9" s="356"/>
+      <c r="I9" s="343"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="398"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="414" t="s">
+      <c r="A10" s="343"/>
+      <c r="B10" s="355"/>
+      <c r="C10" s="356" t="s">
         <v>1346</v>
       </c>
-      <c r="D10" s="414" t="s">
+      <c r="D10" s="356" t="s">
         <v>1347</v>
       </c>
-      <c r="E10" s="414" t="s">
+      <c r="E10" s="356" t="s">
         <v>1348</v>
       </c>
-      <c r="F10" s="416" t="s">
+      <c r="F10" s="358" t="s">
         <v>1349</v>
       </c>
-      <c r="G10" s="416" t="s">
+      <c r="G10" s="358" t="s">
         <v>979</v>
       </c>
-      <c r="H10" s="414"/>
-      <c r="I10" s="398"/>
+      <c r="H10" s="356"/>
+      <c r="I10" s="343"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="398"/>
-      <c r="B11" s="413">
+      <c r="A11" s="343"/>
+      <c r="B11" s="355">
         <v>44307</v>
       </c>
-      <c r="C11" s="414" t="s">
+      <c r="C11" s="356" t="s">
         <v>1346</v>
       </c>
-      <c r="D11" s="414" t="s">
+      <c r="D11" s="356" t="s">
         <v>1606</v>
       </c>
-      <c r="E11" s="417" t="s">
+      <c r="E11" s="359" t="s">
         <v>1607</v>
       </c>
-      <c r="F11" s="416" t="s">
+      <c r="F11" s="358" t="s">
         <v>1608</v>
       </c>
-      <c r="G11" s="418" t="s">
+      <c r="G11" s="360" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="414" t="s">
+      <c r="H11" s="356" t="s">
         <v>1609</v>
       </c>
-      <c r="I11" s="398"/>
+      <c r="I11" s="343"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="398"/>
-      <c r="B12" s="419">
+      <c r="A12" s="343"/>
+      <c r="B12" s="361">
         <v>44309</v>
       </c>
-      <c r="C12" s="420" t="s">
+      <c r="C12" s="362" t="s">
         <v>1346</v>
       </c>
-      <c r="D12" s="420" t="s">
+      <c r="D12" s="362" t="s">
         <v>1343</v>
       </c>
-      <c r="E12" s="421" t="s">
+      <c r="E12" s="363" t="s">
         <v>1610</v>
       </c>
-      <c r="F12" s="418" t="s">
+      <c r="F12" s="360" t="s">
         <v>1611</v>
       </c>
-      <c r="G12" s="418" t="s">
+      <c r="G12" s="360" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="422" t="s">
+      <c r="H12" s="364" t="s">
         <v>1612</v>
       </c>
-      <c r="I12" s="398"/>
+      <c r="I12" s="343"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="398"/>
-      <c r="B13" s="413"/>
-      <c r="C13" s="414" t="s">
+      <c r="A13" s="343"/>
+      <c r="B13" s="355"/>
+      <c r="C13" s="356" t="s">
         <v>1613</v>
       </c>
-      <c r="D13" s="414" t="s">
+      <c r="D13" s="356" t="s">
         <v>1614</v>
       </c>
-      <c r="E13" s="423" t="s">
+      <c r="E13" s="365" t="s">
         <v>1615</v>
       </c>
-      <c r="F13" s="418" t="s">
+      <c r="F13" s="360" t="s">
         <v>1616</v>
       </c>
-      <c r="G13" s="416" t="s">
+      <c r="G13" s="358" t="s">
         <v>1617</v>
       </c>
-      <c r="H13" s="424" t="s">
+      <c r="H13" s="366" t="s">
         <v>1618</v>
       </c>
-      <c r="I13" s="398"/>
+      <c r="I13" s="343"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="398"/>
-      <c r="B14" s="413"/>
-      <c r="C14" s="414" t="s">
+      <c r="A14" s="343"/>
+      <c r="B14" s="355"/>
+      <c r="C14" s="356" t="s">
         <v>1613</v>
       </c>
-      <c r="D14" s="414" t="s">
+      <c r="D14" s="356" t="s">
         <v>1614</v>
       </c>
-      <c r="E14" s="423" t="s">
+      <c r="E14" s="365" t="s">
         <v>1615</v>
       </c>
-      <c r="F14" s="418" t="s">
+      <c r="F14" s="360" t="s">
         <v>1619</v>
       </c>
-      <c r="G14" s="416" t="s">
+      <c r="G14" s="358" t="s">
         <v>1620</v>
       </c>
-      <c r="H14" s="424" t="s">
+      <c r="H14" s="366" t="s">
         <v>1621</v>
       </c>
-      <c r="I14" s="398"/>
+      <c r="I14" s="343"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="398"/>
-      <c r="B15" s="413"/>
-      <c r="C15" s="414" t="s">
+      <c r="A15" s="343"/>
+      <c r="B15" s="355"/>
+      <c r="C15" s="356" t="s">
         <v>1622</v>
       </c>
-      <c r="D15" s="414" t="s">
+      <c r="D15" s="356" t="s">
         <v>1623</v>
       </c>
-      <c r="E15" s="414" t="s">
+      <c r="E15" s="356" t="s">
         <v>1624</v>
       </c>
-      <c r="F15" s="415" t="s">
+      <c r="F15" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="416"/>
-      <c r="H15" s="414" t="s">
+      <c r="G15" s="358"/>
+      <c r="H15" s="356" t="s">
         <v>1625</v>
       </c>
-      <c r="I15" s="398"/>
+      <c r="I15" s="343"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="398"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="425" t="s">
+      <c r="A16" s="343"/>
+      <c r="B16" s="355"/>
+      <c r="C16" s="367" t="s">
         <v>1626</v>
       </c>
-      <c r="D16" s="414" t="s">
+      <c r="D16" s="356" t="s">
         <v>1627</v>
       </c>
-      <c r="E16" s="414" t="s">
+      <c r="E16" s="356" t="s">
         <v>1628</v>
       </c>
-      <c r="F16" s="415" t="s">
+      <c r="F16" s="357" t="s">
         <v>1629</v>
       </c>
-      <c r="G16" s="416">
+      <c r="G16" s="358">
         <v>4578</v>
       </c>
-      <c r="H16" s="414"/>
-      <c r="I16" s="398"/>
+      <c r="H16" s="356"/>
+      <c r="I16" s="343"/>
     </row>
     <row r="17" spans="1:9" ht="105">
-      <c r="A17" s="398"/>
-      <c r="B17" s="413">
+      <c r="A17" s="343"/>
+      <c r="B17" s="355">
         <v>44188</v>
       </c>
-      <c r="C17" s="426" t="s">
+      <c r="C17" s="368" t="s">
         <v>1332</v>
       </c>
-      <c r="D17" s="427" t="s">
+      <c r="D17" s="369" t="s">
         <v>1305</v>
       </c>
-      <c r="E17" s="428" t="s">
+      <c r="E17" s="370" t="s">
         <v>1534</v>
       </c>
-      <c r="F17" s="418" t="s">
+      <c r="F17" s="360" t="s">
         <v>718</v>
       </c>
-      <c r="G17" s="418" t="s">
+      <c r="G17" s="360" t="s">
         <v>895</v>
       </c>
-      <c r="H17" s="429" t="s">
+      <c r="H17" s="371" t="s">
         <v>1304</v>
       </c>
-      <c r="I17" s="398"/>
+      <c r="I17" s="343"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="398"/>
-      <c r="B18" s="413">
+      <c r="A18" s="343"/>
+      <c r="B18" s="355">
         <v>44295</v>
       </c>
-      <c r="C18" s="430" t="s">
+      <c r="C18" s="372" t="s">
         <v>1630</v>
       </c>
-      <c r="D18" s="431" t="s">
+      <c r="D18" s="373" t="s">
         <v>1337</v>
       </c>
-      <c r="E18" s="432" t="s">
+      <c r="E18" s="374" t="s">
         <v>1241</v>
       </c>
       <c r="F18" s="317" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="433" t="s">
+      <c r="G18" s="375" t="s">
         <v>845</v>
       </c>
-      <c r="H18" s="414" t="s">
+      <c r="H18" s="356" t="s">
         <v>1535</v>
       </c>
-      <c r="I18" s="398"/>
+      <c r="I18" s="343"/>
     </row>
     <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="398"/>
-      <c r="B19" s="413">
+      <c r="A19" s="343"/>
+      <c r="B19" s="355">
         <v>44295</v>
       </c>
-      <c r="C19" s="430" t="s">
+      <c r="C19" s="372" t="s">
         <v>1332</v>
       </c>
-      <c r="D19" s="431" t="s">
+      <c r="D19" s="373" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="432" t="s">
+      <c r="E19" s="374" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="434" t="s">
+      <c r="F19" s="376" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="433" t="s">
+      <c r="G19" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="427" t="s">
+      <c r="H19" s="369" t="s">
         <v>1536</v>
       </c>
-      <c r="I19" s="398"/>
+      <c r="I19" s="343"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="398"/>
-      <c r="B20" s="433">
+      <c r="A20" s="343"/>
+      <c r="B20" s="375">
         <v>44469</v>
       </c>
-      <c r="C20" s="435" t="s">
+      <c r="C20" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="435" t="s">
+      <c r="D20" s="377" t="s">
         <v>1631</v>
       </c>
-      <c r="E20" s="436" t="s">
+      <c r="E20" s="378" t="s">
         <v>1632</v>
       </c>
-      <c r="F20" s="415" t="s">
+      <c r="F20" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="418" t="s">
+      <c r="G20" s="360" t="s">
         <v>979</v>
       </c>
-      <c r="H20" s="414" t="s">
+      <c r="H20" s="356" t="s">
         <v>1633</v>
       </c>
-      <c r="I20" s="398"/>
+      <c r="I20" s="343"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="413"/>
-      <c r="C21" s="414" t="s">
+      <c r="B21" s="355"/>
+      <c r="C21" s="356" t="s">
         <v>1634</v>
       </c>
-      <c r="D21" s="414" t="s">
+      <c r="D21" s="356" t="s">
         <v>1635</v>
       </c>
-      <c r="E21" s="414"/>
-      <c r="F21" s="415"/>
-      <c r="G21" s="416"/>
-      <c r="H21" s="414" t="s">
+      <c r="E21" s="356"/>
+      <c r="F21" s="357"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="356" t="s">
         <v>1636</v>
       </c>
-      <c r="I21" s="398"/>
+      <c r="I21" s="343"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="413"/>
-      <c r="C22" s="414" t="s">
+      <c r="B22" s="355"/>
+      <c r="C22" s="356" t="s">
         <v>1634</v>
       </c>
-      <c r="D22" s="414" t="s">
+      <c r="D22" s="356" t="s">
         <v>1635</v>
       </c>
-      <c r="E22" s="414"/>
-      <c r="F22" s="415"/>
-      <c r="G22" s="416"/>
-      <c r="H22" s="414" t="s">
+      <c r="E22" s="356"/>
+      <c r="F22" s="357"/>
+      <c r="G22" s="358"/>
+      <c r="H22" s="356" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="413"/>
-      <c r="C23" s="414" t="s">
+      <c r="B23" s="355"/>
+      <c r="C23" s="356" t="s">
         <v>1634</v>
       </c>
-      <c r="D23" s="414"/>
-      <c r="E23" s="414"/>
-      <c r="F23" s="415" t="s">
+      <c r="D23" s="356"/>
+      <c r="E23" s="356"/>
+      <c r="F23" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="416" t="s">
+      <c r="G23" s="358" t="s">
         <v>1638</v>
       </c>
-      <c r="H23" s="414"/>
+      <c r="H23" s="356"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="413"/>
-      <c r="C24" s="414" t="s">
+      <c r="B24" s="355"/>
+      <c r="C24" s="356" t="s">
         <v>1639</v>
       </c>
-      <c r="D24" s="414" t="s">
+      <c r="D24" s="356" t="s">
         <v>1640</v>
       </c>
-      <c r="E24" s="437" t="s">
+      <c r="E24" s="379" t="s">
         <v>1641</v>
       </c>
-      <c r="F24" s="415" t="s">
+      <c r="F24" s="357" t="s">
         <v>1642</v>
       </c>
-      <c r="G24" s="416" t="s">
+      <c r="G24" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H24" s="414"/>
+      <c r="H24" s="356"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="413"/>
-      <c r="C25" s="414" t="s">
+      <c r="B25" s="355"/>
+      <c r="C25" s="356" t="s">
         <v>1643</v>
       </c>
-      <c r="D25" s="414" t="s">
+      <c r="D25" s="356" t="s">
         <v>1644</v>
       </c>
-      <c r="E25" s="414" t="s">
+      <c r="E25" s="356" t="s">
         <v>1645</v>
       </c>
-      <c r="F25" s="415" t="s">
+      <c r="F25" s="357" t="s">
         <v>1646</v>
       </c>
-      <c r="G25" s="416" t="s">
+      <c r="G25" s="358" t="s">
         <v>1647</v>
       </c>
-      <c r="H25" s="414"/>
+      <c r="H25" s="356"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="413"/>
-      <c r="C26" s="414" t="s">
+      <c r="B26" s="355"/>
+      <c r="C26" s="356" t="s">
         <v>1648</v>
       </c>
-      <c r="D26" s="414" t="s">
+      <c r="D26" s="356" t="s">
         <v>1649</v>
       </c>
-      <c r="E26" s="437" t="s">
+      <c r="E26" s="379" t="s">
         <v>1650</v>
       </c>
-      <c r="F26" s="415" t="s">
+      <c r="F26" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="418" t="s">
+      <c r="G26" s="360" t="s">
         <v>1232</v>
       </c>
-      <c r="H26" s="414"/>
+      <c r="H26" s="356"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="413">
+      <c r="B27" s="355">
         <v>44305</v>
       </c>
-      <c r="C27" s="420" t="s">
+      <c r="C27" s="362" t="s">
         <v>1361</v>
       </c>
-      <c r="D27" s="414" t="s">
+      <c r="D27" s="356" t="s">
         <v>1651</v>
       </c>
-      <c r="E27" s="414" t="s">
+      <c r="E27" s="356" t="s">
         <v>1652</v>
       </c>
-      <c r="F27" s="416" t="s">
+      <c r="F27" s="358" t="s">
         <v>1510</v>
       </c>
-      <c r="G27" s="416" t="s">
+      <c r="G27" s="358" t="s">
         <v>845</v>
       </c>
-      <c r="H27" s="436" t="s">
+      <c r="H27" s="378" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="419">
+      <c r="B28" s="361">
         <v>44105</v>
       </c>
-      <c r="C28" s="420" t="s">
+      <c r="C28" s="362" t="s">
         <v>1361</v>
       </c>
-      <c r="D28" s="436" t="s">
+      <c r="D28" s="378" t="s">
         <v>1500</v>
       </c>
-      <c r="E28" s="436" t="s">
+      <c r="E28" s="378" t="s">
         <v>1501</v>
       </c>
-      <c r="F28" s="421" t="s">
+      <c r="F28" s="363" t="s">
         <v>1502</v>
       </c>
-      <c r="G28" s="418" t="s">
+      <c r="G28" s="360" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="436" t="s">
+      <c r="H28" s="378" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="433">
+      <c r="B29" s="375">
         <v>44354</v>
       </c>
-      <c r="C29" s="435" t="s">
+      <c r="C29" s="377" t="s">
         <v>1361</v>
       </c>
-      <c r="D29" s="435" t="s">
+      <c r="D29" s="377" t="s">
         <v>1500</v>
       </c>
-      <c r="E29" s="435" t="s">
+      <c r="E29" s="377" t="s">
         <v>1653</v>
       </c>
-      <c r="F29" s="421" t="s">
+      <c r="F29" s="363" t="s">
         <v>1374</v>
       </c>
-      <c r="G29" s="418" t="s">
+      <c r="G29" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="436" t="s">
+      <c r="H29" s="378" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="419">
+      <c r="B30" s="361">
         <v>43945</v>
       </c>
-      <c r="C30" s="420" t="s">
+      <c r="C30" s="362" t="s">
         <v>1361</v>
       </c>
-      <c r="D30" s="420" t="s">
+      <c r="D30" s="362" t="s">
         <v>1654</v>
       </c>
-      <c r="E30" s="436" t="s">
+      <c r="E30" s="378" t="s">
         <v>1516</v>
       </c>
-      <c r="F30" s="421" t="s">
+      <c r="F30" s="363" t="s">
         <v>1331</v>
       </c>
-      <c r="G30" s="421" t="s">
+      <c r="G30" s="363" t="s">
         <v>1237</v>
       </c>
-      <c r="H30" s="436" t="s">
+      <c r="H30" s="378" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="413"/>
-      <c r="C31" s="425" t="s">
+      <c r="B31" s="355"/>
+      <c r="C31" s="367" t="s">
         <v>1630</v>
       </c>
-      <c r="D31" s="414" t="s">
+      <c r="D31" s="356" t="s">
         <v>1655</v>
       </c>
-      <c r="E31" s="437" t="s">
+      <c r="E31" s="379" t="s">
         <v>1534</v>
       </c>
-      <c r="F31" s="415" t="s">
+      <c r="F31" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="416" t="s">
+      <c r="G31" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H31" s="414" t="s">
+      <c r="H31" s="356" t="s">
         <v>1656</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="413"/>
-      <c r="C32" s="414" t="s">
+      <c r="B32" s="355"/>
+      <c r="C32" s="356" t="s">
         <v>1657</v>
       </c>
-      <c r="D32" s="414" t="s">
+      <c r="D32" s="356" t="s">
         <v>1658</v>
       </c>
-      <c r="E32" s="414"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="416"/>
-      <c r="H32" s="414" t="s">
+      <c r="E32" s="356"/>
+      <c r="F32" s="357"/>
+      <c r="G32" s="358"/>
+      <c r="H32" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="413"/>
-      <c r="C33" s="425" t="s">
+      <c r="B33" s="355"/>
+      <c r="C33" s="367" t="s">
         <v>1630</v>
       </c>
-      <c r="D33" s="414" t="s">
+      <c r="D33" s="356" t="s">
         <v>1659</v>
       </c>
-      <c r="E33" s="414" t="s">
+      <c r="E33" s="356" t="s">
         <v>1660</v>
       </c>
-      <c r="F33" s="415" t="s">
+      <c r="F33" s="357" t="s">
         <v>1642</v>
       </c>
-      <c r="G33" s="416" t="s">
+      <c r="G33" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H33" s="414" t="s">
+      <c r="H33" s="356" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="413"/>
-      <c r="C34" s="414" t="s">
+      <c r="B34" s="355"/>
+      <c r="C34" s="356" t="s">
         <v>1662</v>
       </c>
-      <c r="D34" s="414" t="s">
+      <c r="D34" s="356" t="s">
         <v>1663</v>
       </c>
-      <c r="E34" s="437" t="s">
+      <c r="E34" s="379" t="s">
         <v>1664</v>
       </c>
-      <c r="F34" s="418" t="s">
+      <c r="F34" s="360" t="s">
         <v>1665</v>
       </c>
-      <c r="G34" s="416" t="s">
+      <c r="G34" s="358" t="s">
         <v>1666</v>
       </c>
-      <c r="H34" s="414"/>
+      <c r="H34" s="356"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="413"/>
-      <c r="C35" s="414" t="s">
+      <c r="B35" s="355"/>
+      <c r="C35" s="356" t="s">
         <v>1667</v>
       </c>
-      <c r="D35" s="414" t="s">
+      <c r="D35" s="356" t="s">
         <v>1668</v>
       </c>
-      <c r="E35" s="437" t="s">
+      <c r="E35" s="379" t="s">
         <v>1669</v>
       </c>
-      <c r="F35" s="415" t="s">
+      <c r="F35" s="357" t="s">
         <v>1670</v>
       </c>
-      <c r="G35" s="416" t="s">
+      <c r="G35" s="358" t="s">
         <v>1671</v>
       </c>
-      <c r="H35" s="414"/>
+      <c r="H35" s="356"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="438">
+      <c r="B36" s="380">
         <v>44108</v>
       </c>
-      <c r="C36" s="439" t="s">
+      <c r="C36" s="381" t="s">
         <v>1531</v>
       </c>
-      <c r="D36" s="420" t="s">
+      <c r="D36" s="362" t="s">
         <v>1532</v>
       </c>
-      <c r="E36" s="421" t="s">
+      <c r="E36" s="363" t="s">
         <v>944</v>
       </c>
-      <c r="F36" s="418"/>
-      <c r="G36" s="418"/>
-      <c r="H36" s="422" t="s">
+      <c r="F36" s="360"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="364" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="413"/>
-      <c r="C37" s="440" t="s">
+      <c r="B37" s="355"/>
+      <c r="C37" s="382" t="s">
         <v>1672</v>
       </c>
-      <c r="D37" s="441"/>
-      <c r="E37" s="414"/>
-      <c r="F37" s="415"/>
-      <c r="G37" s="416" t="s">
+      <c r="D37" s="383"/>
+      <c r="E37" s="356"/>
+      <c r="F37" s="357"/>
+      <c r="G37" s="358" t="s">
         <v>843</v>
       </c>
-      <c r="H37" s="414" t="s">
+      <c r="H37" s="356" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="413"/>
-      <c r="C38" s="440" t="s">
+      <c r="B38" s="355"/>
+      <c r="C38" s="382" t="s">
         <v>1674</v>
       </c>
-      <c r="D38" s="441" t="s">
+      <c r="D38" s="383" t="s">
         <v>1675</v>
       </c>
-      <c r="E38" s="441" t="s">
+      <c r="E38" s="383" t="s">
         <v>1676</v>
       </c>
-      <c r="F38" s="442" t="s">
+      <c r="F38" s="384" t="s">
         <v>1677</v>
       </c>
-      <c r="G38" s="443" t="s">
+      <c r="G38" s="385" t="s">
         <v>1678</v>
       </c>
-      <c r="H38" s="444"/>
+      <c r="H38" s="386"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="438">
+      <c r="B39" s="380">
         <v>44133</v>
       </c>
-      <c r="C39" s="439" t="s">
+      <c r="C39" s="381" t="s">
         <v>1530</v>
       </c>
-      <c r="D39" s="420" t="s">
+      <c r="D39" s="362" t="s">
         <v>1343</v>
       </c>
-      <c r="E39" s="421" t="s">
+      <c r="E39" s="363" t="s">
         <v>1383</v>
       </c>
-      <c r="F39" s="421" t="s">
+      <c r="F39" s="363" t="s">
         <v>1374</v>
       </c>
-      <c r="G39" s="418" t="s">
+      <c r="G39" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="422" t="s">
+      <c r="H39" s="364" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="413"/>
-      <c r="C40" s="414" t="s">
+      <c r="B40" s="355"/>
+      <c r="C40" s="356" t="s">
         <v>398</v>
       </c>
-      <c r="D40" s="414" t="s">
+      <c r="D40" s="356" t="s">
         <v>1679</v>
       </c>
-      <c r="E40" s="414"/>
-      <c r="F40" s="415" t="s">
+      <c r="E40" s="356"/>
+      <c r="F40" s="357" t="s">
         <v>1642</v>
       </c>
-      <c r="G40" s="416" t="s">
+      <c r="G40" s="358" t="s">
         <v>1638</v>
       </c>
-      <c r="H40" s="414" t="s">
+      <c r="H40" s="356" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="413"/>
-      <c r="C41" s="414" t="s">
+      <c r="B41" s="355"/>
+      <c r="C41" s="356" t="s">
         <v>1681</v>
       </c>
-      <c r="D41" s="414" t="s">
+      <c r="D41" s="356" t="s">
         <v>1682</v>
       </c>
-      <c r="E41" s="414" t="s">
+      <c r="E41" s="356" t="s">
         <v>1683</v>
       </c>
-      <c r="F41" s="415" t="s">
+      <c r="F41" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="445" t="s">
+      <c r="G41" s="387" t="s">
         <v>1232</v>
       </c>
-      <c r="H41" s="416" t="s">
+      <c r="H41" s="358" t="s">
         <v>1684</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="419">
+      <c r="B42" s="361">
         <v>44144</v>
       </c>
-      <c r="C42" s="420" t="s">
+      <c r="C42" s="362" t="s">
         <v>1685</v>
       </c>
-      <c r="D42" s="420" t="s">
+      <c r="D42" s="362" t="s">
         <v>1686</v>
       </c>
-      <c r="E42" s="436" t="s">
+      <c r="E42" s="378" t="s">
         <v>1687</v>
       </c>
-      <c r="F42" s="446" t="s">
+      <c r="F42" s="388" t="s">
         <v>951</v>
       </c>
-      <c r="G42" s="418" t="s">
+      <c r="G42" s="360" t="s">
         <v>953</v>
       </c>
-      <c r="H42" s="422" t="s">
+      <c r="H42" s="364" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="413"/>
-      <c r="C43" s="414" t="s">
+      <c r="B43" s="355"/>
+      <c r="C43" s="356" t="s">
         <v>1688</v>
       </c>
-      <c r="D43" s="414" t="s">
+      <c r="D43" s="356" t="s">
         <v>1689</v>
       </c>
-      <c r="E43" s="437" t="s">
+      <c r="E43" s="379" t="s">
         <v>1690</v>
       </c>
-      <c r="F43" s="415"/>
-      <c r="G43" s="416"/>
-      <c r="H43" s="414" t="s">
+      <c r="F43" s="357"/>
+      <c r="G43" s="358"/>
+      <c r="H43" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="413"/>
-      <c r="C44" s="414" t="s">
+      <c r="B44" s="355"/>
+      <c r="C44" s="356" t="s">
         <v>1691</v>
       </c>
-      <c r="D44" s="414" t="s">
+      <c r="D44" s="356" t="s">
         <v>1692</v>
       </c>
-      <c r="E44" s="437" t="s">
+      <c r="E44" s="379" t="s">
         <v>1693</v>
       </c>
-      <c r="F44" s="415" t="s">
+      <c r="F44" s="357" t="s">
         <v>1694</v>
       </c>
-      <c r="G44" s="416" t="s">
+      <c r="G44" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H44" s="414" t="s">
+      <c r="H44" s="356" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="413"/>
-      <c r="C45" s="414" t="s">
+      <c r="B45" s="355"/>
+      <c r="C45" s="356" t="s">
         <v>1696</v>
       </c>
-      <c r="D45" s="414" t="s">
+      <c r="D45" s="356" t="s">
         <v>1697</v>
       </c>
-      <c r="E45" s="414"/>
-      <c r="F45" s="415"/>
-      <c r="G45" s="416"/>
-      <c r="H45" s="414" t="s">
+      <c r="E45" s="356"/>
+      <c r="F45" s="357"/>
+      <c r="G45" s="358"/>
+      <c r="H45" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="413">
+      <c r="B46" s="355">
         <v>44313</v>
       </c>
-      <c r="C46" s="425" t="s">
+      <c r="C46" s="367" t="s">
         <v>754</v>
       </c>
-      <c r="D46" s="414" t="s">
+      <c r="D46" s="356" t="s">
         <v>882</v>
       </c>
-      <c r="E46" s="414" t="s">
+      <c r="E46" s="356" t="s">
         <v>1527</v>
       </c>
-      <c r="F46" s="421">
+      <c r="F46" s="363">
         <v>1059</v>
       </c>
-      <c r="G46" s="416" t="s">
+      <c r="G46" s="358" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="414" t="s">
+      <c r="H46" s="356" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="413">
+      <c r="B47" s="355">
         <v>44313</v>
       </c>
-      <c r="C47" s="425" t="s">
+      <c r="C47" s="367" t="s">
         <v>754</v>
       </c>
-      <c r="D47" s="414" t="s">
+      <c r="D47" s="356" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="414" t="s">
+      <c r="E47" s="356" t="s">
         <v>1527</v>
       </c>
-      <c r="F47" s="421" t="s">
+      <c r="F47" s="363" t="s">
         <v>1529</v>
       </c>
-      <c r="G47" s="433" t="s">
+      <c r="G47" s="375" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="414" t="s">
+      <c r="H47" s="356" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="438">
+      <c r="B48" s="380">
         <v>44165</v>
       </c>
-      <c r="C48" s="439" t="s">
+      <c r="C48" s="381" t="s">
         <v>1450</v>
       </c>
-      <c r="D48" s="420" t="s">
+      <c r="D48" s="362" t="s">
         <v>1451</v>
       </c>
       <c r="E48" s="297" t="s">
         <v>1452</v>
       </c>
-      <c r="F48" s="421" t="s">
+      <c r="F48" s="363" t="s">
         <v>1453</v>
       </c>
-      <c r="G48" s="421" t="s">
+      <c r="G48" s="363" t="s">
         <v>1454</v>
       </c>
-      <c r="H48" s="422" t="s">
+      <c r="H48" s="364" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="438">
+      <c r="B49" s="380">
         <v>44165</v>
       </c>
-      <c r="C49" s="439" t="s">
+      <c r="C49" s="381" t="s">
         <v>1450</v>
       </c>
-      <c r="D49" s="420" t="s">
+      <c r="D49" s="362" t="s">
         <v>1451</v>
       </c>
       <c r="E49" s="297" t="s">
         <v>1456</v>
       </c>
-      <c r="F49" s="421" t="s">
+      <c r="F49" s="363" t="s">
         <v>1453</v>
       </c>
-      <c r="G49" s="421" t="s">
+      <c r="G49" s="363" t="s">
         <v>1454</v>
       </c>
-      <c r="H49" s="447" t="s">
+      <c r="H49" s="389" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="413"/>
-      <c r="C50" s="425" t="s">
+      <c r="B50" s="355"/>
+      <c r="C50" s="367" t="s">
         <v>1450</v>
       </c>
-      <c r="D50" s="414" t="s">
+      <c r="D50" s="356" t="s">
         <v>1458</v>
       </c>
-      <c r="E50" s="414" t="s">
+      <c r="E50" s="356" t="s">
         <v>1389</v>
       </c>
-      <c r="F50" s="448" t="s">
+      <c r="F50" s="390" t="s">
         <v>882</v>
       </c>
-      <c r="G50" s="418" t="s">
+      <c r="G50" s="360" t="s">
         <v>1387</v>
       </c>
-      <c r="H50" s="414"/>
+      <c r="H50" s="356"/>
     </row>
     <row r="51" spans="2:8" ht="25.5">
-      <c r="B51" s="413"/>
-      <c r="C51" s="425" t="s">
+      <c r="B51" s="355"/>
+      <c r="C51" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D51" s="449" t="s">
+      <c r="D51" s="391" t="s">
         <v>874</v>
       </c>
-      <c r="E51" s="449"/>
-      <c r="F51" s="434" t="s">
+      <c r="E51" s="391"/>
+      <c r="F51" s="376" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="433" t="s">
+      <c r="G51" s="375" t="s">
         <v>1466</v>
       </c>
-      <c r="H51" s="449" t="s">
+      <c r="H51" s="391" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="25.5">
-      <c r="B52" s="413"/>
-      <c r="C52" s="425" t="s">
+      <c r="B52" s="355"/>
+      <c r="C52" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D52" s="449" t="s">
+      <c r="D52" s="391" t="s">
         <v>874</v>
       </c>
-      <c r="E52" s="449"/>
-      <c r="F52" s="434" t="s">
+      <c r="E52" s="391"/>
+      <c r="F52" s="376" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="433" t="s">
+      <c r="G52" s="375" t="s">
         <v>1468</v>
       </c>
-      <c r="H52" s="449" t="s">
+      <c r="H52" s="391" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="433"/>
-      <c r="C53" s="425" t="s">
+      <c r="B53" s="375"/>
+      <c r="C53" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D53" s="449" t="s">
+      <c r="D53" s="391" t="s">
         <v>874</v>
       </c>
-      <c r="E53" s="434" t="s">
+      <c r="E53" s="376" t="s">
         <v>1470</v>
       </c>
-      <c r="F53" s="433" t="s">
+      <c r="F53" s="375" t="s">
         <v>1471</v>
       </c>
-      <c r="G53" s="433" t="s">
+      <c r="G53" s="375" t="s">
         <v>1472</v>
       </c>
-      <c r="H53" s="449"/>
+      <c r="H53" s="391"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="413"/>
-      <c r="C54" s="425" t="s">
+      <c r="B54" s="355"/>
+      <c r="C54" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D54" s="449" t="s">
+      <c r="D54" s="391" t="s">
         <v>1473</v>
       </c>
-      <c r="E54" s="449"/>
-      <c r="F54" s="434" t="s">
+      <c r="E54" s="391"/>
+      <c r="F54" s="376" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="433" t="s">
+      <c r="G54" s="375" t="s">
         <v>1474</v>
       </c>
-      <c r="H54" s="449"/>
+      <c r="H54" s="391"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="413"/>
-      <c r="C55" s="425" t="s">
+      <c r="B55" s="355"/>
+      <c r="C55" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D55" s="449" t="s">
+      <c r="D55" s="391" t="s">
         <v>1473</v>
       </c>
-      <c r="E55" s="449" t="s">
+      <c r="E55" s="391" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="434" t="s">
+      <c r="F55" s="376" t="s">
         <v>1475</v>
       </c>
-      <c r="G55" s="433" t="s">
+      <c r="G55" s="375" t="s">
         <v>1476</v>
       </c>
-      <c r="H55" s="449"/>
+      <c r="H55" s="391"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="413"/>
-      <c r="C56" s="425" t="s">
+      <c r="B56" s="355"/>
+      <c r="C56" s="367" t="s">
         <v>1465</v>
       </c>
-      <c r="D56" s="414" t="s">
+      <c r="D56" s="356" t="s">
         <v>1463</v>
       </c>
-      <c r="E56" s="414"/>
-      <c r="F56" s="448" t="s">
+      <c r="E56" s="356"/>
+      <c r="F56" s="390" t="s">
         <v>1453</v>
       </c>
-      <c r="G56" s="416" t="s">
+      <c r="G56" s="358" t="s">
         <v>845</v>
       </c>
-      <c r="H56" s="414"/>
+      <c r="H56" s="356"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="413"/>
-      <c r="C57" s="414" t="s">
+      <c r="B57" s="355"/>
+      <c r="C57" s="356" t="s">
         <v>1698</v>
       </c>
-      <c r="D57" s="414" t="s">
+      <c r="D57" s="356" t="s">
         <v>1699</v>
       </c>
-      <c r="E57" s="414"/>
-      <c r="F57" s="415"/>
-      <c r="G57" s="416"/>
-      <c r="H57" s="414" t="s">
+      <c r="E57" s="356"/>
+      <c r="F57" s="357"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="433">
+      <c r="B58" s="375">
         <v>44295</v>
       </c>
-      <c r="C58" s="426" t="s">
+      <c r="C58" s="368" t="s">
         <v>1517</v>
       </c>
-      <c r="D58" s="435" t="s">
+      <c r="D58" s="377" t="s">
         <v>1518</v>
       </c>
-      <c r="E58" s="436" t="s">
+      <c r="E58" s="378" t="s">
         <v>1519</v>
       </c>
-      <c r="F58" s="421" t="s">
+      <c r="F58" s="363" t="s">
         <v>1520</v>
       </c>
-      <c r="G58" s="418" t="s">
+      <c r="G58" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H58" s="414" t="s">
+      <c r="H58" s="356" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="433">
+      <c r="B59" s="375">
         <v>44295</v>
       </c>
-      <c r="C59" s="426" t="s">
+      <c r="C59" s="368" t="s">
         <v>1517</v>
       </c>
-      <c r="D59" s="435" t="s">
+      <c r="D59" s="377" t="s">
         <v>1518</v>
       </c>
-      <c r="E59" s="436" t="s">
+      <c r="E59" s="378" t="s">
         <v>1519</v>
       </c>
-      <c r="F59" s="421" t="s">
+      <c r="F59" s="363" t="s">
         <v>1522</v>
       </c>
-      <c r="G59" s="418" t="s">
+      <c r="G59" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H59" s="414" t="s">
+      <c r="H59" s="356" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="433">
+      <c r="B60" s="375">
         <v>44147</v>
       </c>
-      <c r="C60" s="426" t="s">
+      <c r="C60" s="368" t="s">
         <v>1517</v>
       </c>
-      <c r="D60" s="435" t="s">
+      <c r="D60" s="377" t="s">
         <v>1524</v>
       </c>
-      <c r="E60" s="436" t="s">
+      <c r="E60" s="378" t="s">
         <v>1525</v>
       </c>
-      <c r="F60" s="421" t="s">
+      <c r="F60" s="363" t="s">
         <v>1522</v>
       </c>
-      <c r="G60" s="418" t="s">
+      <c r="G60" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H60" s="414" t="s">
+      <c r="H60" s="356" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="413"/>
-      <c r="C61" s="414" t="s">
+      <c r="B61" s="355"/>
+      <c r="C61" s="356" t="s">
         <v>1700</v>
       </c>
-      <c r="D61" s="414" t="s">
+      <c r="D61" s="356" t="s">
         <v>1701</v>
       </c>
-      <c r="E61" s="414"/>
-      <c r="F61" s="415"/>
-      <c r="G61" s="416"/>
-      <c r="H61" s="414" t="s">
+      <c r="E61" s="356"/>
+      <c r="F61" s="357"/>
+      <c r="G61" s="358"/>
+      <c r="H61" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="413"/>
-      <c r="C62" s="414" t="s">
+      <c r="B62" s="355"/>
+      <c r="C62" s="356" t="s">
         <v>1700</v>
       </c>
-      <c r="D62" s="414" t="s">
+      <c r="D62" s="356" t="s">
         <v>1701</v>
       </c>
-      <c r="E62" s="414"/>
-      <c r="F62" s="415"/>
-      <c r="G62" s="416"/>
-      <c r="H62" s="414" t="s">
+      <c r="E62" s="356"/>
+      <c r="F62" s="357"/>
+      <c r="G62" s="358"/>
+      <c r="H62" s="356" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="413"/>
-      <c r="C63" s="414" t="s">
+      <c r="B63" s="355"/>
+      <c r="C63" s="356" t="s">
         <v>1702</v>
       </c>
-      <c r="D63" s="414" t="s">
+      <c r="D63" s="356" t="s">
         <v>1703</v>
       </c>
-      <c r="E63" s="437" t="s">
+      <c r="E63" s="379" t="s">
         <v>1704</v>
       </c>
-      <c r="F63" s="415" t="s">
+      <c r="F63" s="357" t="s">
         <v>1705</v>
       </c>
-      <c r="G63" s="416" t="s">
+      <c r="G63" s="358" t="s">
         <v>1706</v>
       </c>
-      <c r="H63" s="414"/>
+      <c r="H63" s="356"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="419">
+      <c r="B64" s="361">
         <v>44162</v>
       </c>
-      <c r="C64" s="439" t="s">
+      <c r="C64" s="381" t="s">
         <v>751</v>
       </c>
-      <c r="D64" s="420" t="s">
+      <c r="D64" s="362" t="s">
         <v>1507</v>
       </c>
-      <c r="E64" s="421" t="s">
+      <c r="E64" s="363" t="s">
         <v>1508</v>
       </c>
-      <c r="F64" s="421" t="s">
+      <c r="F64" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="421" t="s">
+      <c r="G64" s="363" t="s">
         <v>1228</v>
       </c>
-      <c r="H64" s="447"/>
+      <c r="H64" s="389"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="438">
+      <c r="B65" s="380">
         <v>44302</v>
       </c>
-      <c r="C65" s="439" t="s">
+      <c r="C65" s="381" t="s">
         <v>751</v>
       </c>
-      <c r="D65" s="420" t="s">
+      <c r="D65" s="362" t="s">
         <v>1509</v>
       </c>
-      <c r="E65" s="421" t="s">
+      <c r="E65" s="363" t="s">
         <v>1500</v>
       </c>
-      <c r="F65" s="421" t="s">
+      <c r="F65" s="363" t="s">
         <v>1510</v>
       </c>
-      <c r="G65" s="421" t="s">
+      <c r="G65" s="363" t="s">
         <v>845</v>
       </c>
-      <c r="H65" s="422" t="s">
+      <c r="H65" s="364" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="419"/>
-      <c r="C66" s="439" t="s">
+      <c r="B66" s="361"/>
+      <c r="C66" s="381" t="s">
         <v>751</v>
       </c>
-      <c r="D66" s="420" t="s">
+      <c r="D66" s="362" t="s">
         <v>748</v>
       </c>
-      <c r="E66" s="421" t="s">
+      <c r="E66" s="363" t="s">
         <v>748</v>
       </c>
-      <c r="F66" s="421" t="s">
+      <c r="F66" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="421" t="s">
+      <c r="G66" s="363" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="422" t="s">
+      <c r="H66" s="364" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="438">
+      <c r="B67" s="380">
         <v>44139</v>
       </c>
-      <c r="C67" s="439" t="s">
+      <c r="C67" s="381" t="s">
         <v>751</v>
       </c>
-      <c r="D67" s="420" t="s">
+      <c r="D67" s="362" t="s">
         <v>1481</v>
       </c>
-      <c r="E67" s="421" t="s">
+      <c r="E67" s="363" t="s">
         <v>1513</v>
       </c>
-      <c r="F67" s="421" t="s">
+      <c r="F67" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="421" t="s">
+      <c r="G67" s="363" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="422" t="s">
+      <c r="H67" s="364" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="450">
+      <c r="B68" s="392">
         <v>44302</v>
       </c>
-      <c r="C68" s="414" t="s">
+      <c r="C68" s="356" t="s">
         <v>1707</v>
       </c>
-      <c r="D68" s="414" t="s">
+      <c r="D68" s="356" t="s">
         <v>1708</v>
       </c>
-      <c r="E68" s="414" t="s">
+      <c r="E68" s="356" t="s">
         <v>1709</v>
       </c>
-      <c r="F68" s="415" t="s">
+      <c r="F68" s="357" t="s">
         <v>1694</v>
       </c>
-      <c r="G68" s="416" t="s">
+      <c r="G68" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H68" s="414" t="s">
+      <c r="H68" s="356" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="450">
+      <c r="B69" s="392">
         <v>44302</v>
       </c>
-      <c r="C69" s="414" t="s">
+      <c r="C69" s="356" t="s">
         <v>1707</v>
       </c>
-      <c r="D69" s="414" t="s">
+      <c r="D69" s="356" t="s">
         <v>1711</v>
       </c>
-      <c r="E69" s="414"/>
-      <c r="F69" s="415" t="s">
+      <c r="E69" s="356"/>
+      <c r="F69" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="416" t="s">
+      <c r="G69" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H69" s="414"/>
+      <c r="H69" s="356"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="413"/>
-      <c r="C70" s="414" t="s">
+      <c r="B70" s="355"/>
+      <c r="C70" s="356" t="s">
         <v>1712</v>
       </c>
-      <c r="D70" s="414" t="s">
+      <c r="D70" s="356" t="s">
         <v>1713</v>
       </c>
-      <c r="E70" s="414" t="s">
+      <c r="E70" s="356" t="s">
         <v>1714</v>
       </c>
-      <c r="F70" s="418" t="s">
+      <c r="F70" s="360" t="s">
         <v>1715</v>
       </c>
-      <c r="G70" s="416" t="s">
+      <c r="G70" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H70" s="414"/>
+      <c r="H70" s="356"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="413"/>
-      <c r="C71" s="414" t="s">
+      <c r="B71" s="355"/>
+      <c r="C71" s="356" t="s">
         <v>1716</v>
       </c>
-      <c r="D71" s="414" t="s">
+      <c r="D71" s="356" t="s">
         <v>1717</v>
       </c>
-      <c r="E71" s="414" t="s">
+      <c r="E71" s="356" t="s">
         <v>1718</v>
       </c>
-      <c r="F71" s="415" t="s">
+      <c r="F71" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="416" t="s">
+      <c r="G71" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H71" s="414"/>
+      <c r="H71" s="356"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="413"/>
-      <c r="C72" s="414" t="s">
+      <c r="B72" s="355"/>
+      <c r="C72" s="356" t="s">
         <v>1719</v>
       </c>
-      <c r="D72" s="414" t="s">
+      <c r="D72" s="356" t="s">
         <v>1720</v>
       </c>
-      <c r="E72" s="414"/>
-      <c r="F72" s="415"/>
-      <c r="G72" s="416"/>
-      <c r="H72" s="414" t="s">
+      <c r="E72" s="356"/>
+      <c r="F72" s="357"/>
+      <c r="G72" s="358"/>
+      <c r="H72" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="413"/>
-      <c r="C73" s="414" t="s">
+      <c r="B73" s="355"/>
+      <c r="C73" s="356" t="s">
         <v>1721</v>
       </c>
-      <c r="D73" s="414" t="s">
+      <c r="D73" s="356" t="s">
         <v>1722</v>
       </c>
-      <c r="E73" s="414"/>
-      <c r="F73" s="415"/>
-      <c r="G73" s="416"/>
-      <c r="H73" s="414" t="s">
+      <c r="E73" s="356"/>
+      <c r="F73" s="357"/>
+      <c r="G73" s="358"/>
+      <c r="H73" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="413"/>
-      <c r="C74" s="414" t="s">
+      <c r="B74" s="355"/>
+      <c r="C74" s="356" t="s">
         <v>1721</v>
       </c>
-      <c r="D74" s="414" t="s">
+      <c r="D74" s="356" t="s">
         <v>1722</v>
       </c>
-      <c r="E74" s="414"/>
-      <c r="F74" s="415"/>
-      <c r="G74" s="416"/>
-      <c r="H74" s="414" t="s">
+      <c r="E74" s="356"/>
+      <c r="F74" s="357"/>
+      <c r="G74" s="358"/>
+      <c r="H74" s="356" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="F75" s="401"/>
-      <c r="G75" s="401"/>
+      <c r="F75" s="346"/>
+      <c r="G75" s="346"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="413"/>
-      <c r="C76" s="414" t="s">
+      <c r="B76" s="355"/>
+      <c r="C76" s="356" t="s">
         <v>1723</v>
       </c>
-      <c r="D76" s="414" t="s">
+      <c r="D76" s="356" t="s">
         <v>1724</v>
       </c>
-      <c r="E76" s="414" t="s">
+      <c r="E76" s="356" t="s">
         <v>1725</v>
       </c>
-      <c r="F76" s="415" t="s">
+      <c r="F76" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="416" t="s">
+      <c r="G76" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H76" s="414" t="s">
+      <c r="H76" s="356" t="s">
         <v>1726</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="413"/>
-      <c r="C77" s="414" t="s">
+      <c r="B77" s="355"/>
+      <c r="C77" s="356" t="s">
         <v>1727</v>
       </c>
-      <c r="D77" s="414" t="s">
+      <c r="D77" s="356" t="s">
         <v>1728</v>
       </c>
-      <c r="E77" s="414" t="s">
+      <c r="E77" s="356" t="s">
         <v>1729</v>
       </c>
-      <c r="F77" s="415" t="s">
+      <c r="F77" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="416"/>
-      <c r="H77" s="414" t="s">
+      <c r="G77" s="358"/>
+      <c r="H77" s="356" t="s">
         <v>1730</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="433">
+      <c r="B78" s="375">
         <v>44329</v>
       </c>
-      <c r="C78" s="426" t="s">
+      <c r="C78" s="368" t="s">
         <v>1477</v>
       </c>
-      <c r="D78" s="435" t="s">
+      <c r="D78" s="377" t="s">
         <v>1482</v>
       </c>
-      <c r="E78" s="435" t="s">
+      <c r="E78" s="377" t="s">
         <v>1483</v>
       </c>
-      <c r="F78" s="421" t="s">
+      <c r="F78" s="363" t="s">
         <v>1484</v>
       </c>
-      <c r="G78" s="418" t="s">
+      <c r="G78" s="360" t="s">
         <v>979</v>
       </c>
-      <c r="H78" s="414" t="s">
+      <c r="H78" s="356" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="433">
+      <c r="B79" s="375">
         <v>44329</v>
       </c>
-      <c r="C79" s="426" t="s">
+      <c r="C79" s="368" t="s">
         <v>1477</v>
       </c>
-      <c r="D79" s="435" t="s">
+      <c r="D79" s="377" t="s">
         <v>1482</v>
       </c>
-      <c r="E79" s="435" t="s">
+      <c r="E79" s="377" t="s">
         <v>1486</v>
       </c>
-      <c r="F79" s="421" t="s">
+      <c r="F79" s="363" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="418" t="s">
+      <c r="G79" s="360" t="s">
         <v>895</v>
       </c>
-      <c r="H79" s="414" t="s">
+      <c r="H79" s="356" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="433">
+      <c r="B81" s="375">
         <v>44369</v>
       </c>
-      <c r="C81" s="426" t="s">
+      <c r="C81" s="368" t="s">
         <v>1477</v>
       </c>
-      <c r="D81" s="435" t="s">
+      <c r="D81" s="377" t="s">
         <v>1493</v>
       </c>
-      <c r="E81" s="436" t="s">
+      <c r="E81" s="378" t="s">
         <v>1494</v>
       </c>
-      <c r="F81" s="451" t="s">
+      <c r="F81" s="393" t="s">
         <v>1495</v>
       </c>
-      <c r="G81" s="452" t="s">
+      <c r="G81" s="394" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="414" t="s">
+      <c r="H81" s="356" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="433">
+      <c r="B82" s="375">
         <v>44329</v>
       </c>
-      <c r="C82" s="426" t="s">
+      <c r="C82" s="368" t="s">
         <v>1477</v>
       </c>
-      <c r="D82" s="435" t="s">
+      <c r="D82" s="377" t="s">
         <v>1503</v>
       </c>
-      <c r="E82" s="453" t="s">
+      <c r="E82" s="395" t="s">
         <v>1504</v>
       </c>
-      <c r="F82" s="421" t="s">
+      <c r="F82" s="363" t="s">
         <v>1374</v>
       </c>
-      <c r="G82" s="418" t="s">
+      <c r="G82" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="414" t="s">
+      <c r="H82" s="356" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="433">
+      <c r="B83" s="375">
         <v>44329</v>
       </c>
-      <c r="C83" s="426" t="s">
+      <c r="C83" s="368" t="s">
         <v>1477</v>
       </c>
-      <c r="D83" s="435" t="s">
+      <c r="D83" s="377" t="s">
         <v>1481</v>
       </c>
-      <c r="E83" s="436" t="s">
+      <c r="E83" s="378" t="s">
         <v>1383</v>
       </c>
-      <c r="F83" s="421" t="s">
+      <c r="F83" s="363" t="s">
         <v>1374</v>
       </c>
-      <c r="G83" s="418" t="s">
+      <c r="G83" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="H83" s="414" t="s">
+      <c r="H83" s="356" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="45">
-      <c r="B84" s="454">
+      <c r="B84" s="396">
         <v>44511</v>
       </c>
-      <c r="C84" s="455" t="s">
+      <c r="C84" s="397" t="s">
         <v>1477</v>
       </c>
-      <c r="D84" s="456" t="s">
+      <c r="D84" s="398" t="s">
         <v>1575</v>
       </c>
-      <c r="E84" s="457" t="s">
+      <c r="E84" s="399" t="s">
         <v>1574</v>
       </c>
-      <c r="F84" s="458" t="s">
+      <c r="F84" s="400" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="459" t="s">
+      <c r="G84" s="401" t="s">
         <v>1454</v>
       </c>
-      <c r="H84" s="460" t="s">
+      <c r="H84" s="402" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="461"/>
-      <c r="C85" s="462"/>
-      <c r="D85" s="462"/>
-      <c r="E85" s="463"/>
-      <c r="F85" s="464"/>
-      <c r="G85" s="465"/>
-      <c r="H85" s="466"/>
+      <c r="B85" s="403"/>
+      <c r="C85" s="404"/>
+      <c r="D85" s="404"/>
+      <c r="E85" s="405"/>
+      <c r="F85" s="406"/>
+      <c r="G85" s="407"/>
+      <c r="H85" s="408"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="461"/>
-      <c r="C86" s="462"/>
-      <c r="D86" s="462"/>
-      <c r="E86" s="463"/>
-      <c r="F86" s="464"/>
-      <c r="G86" s="465"/>
-      <c r="H86" s="466"/>
+      <c r="B86" s="403"/>
+      <c r="C86" s="404"/>
+      <c r="D86" s="404"/>
+      <c r="E86" s="405"/>
+      <c r="F86" s="406"/>
+      <c r="G86" s="407"/>
+      <c r="H86" s="408"/>
     </row>
     <row r="87" spans="2:8" ht="30">
-      <c r="B87" s="467" t="s">
+      <c r="B87" s="409" t="s">
         <v>1447</v>
       </c>
-      <c r="C87" s="467" t="s">
+      <c r="C87" s="409" t="s">
         <v>1448</v>
       </c>
-      <c r="D87" s="467" t="s">
+      <c r="D87" s="409" t="s">
         <v>1449</v>
       </c>
-      <c r="E87" s="467" t="s">
+      <c r="E87" s="409" t="s">
         <v>1336</v>
       </c>
-      <c r="F87" s="467" t="s">
+      <c r="F87" s="409" t="s">
         <v>172</v>
       </c>
-      <c r="G87" s="467" t="s">
+      <c r="G87" s="409" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="467" t="s">
+      <c r="H87" s="409" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="413">
+      <c r="B88" s="355">
         <v>44566</v>
       </c>
-      <c r="C88" s="414" t="s">
+      <c r="C88" s="356" t="s">
         <v>1731</v>
       </c>
-      <c r="D88" s="414" t="s">
+      <c r="D88" s="356" t="s">
         <v>1346</v>
       </c>
-      <c r="E88" s="414" t="s">
+      <c r="E88" s="356" t="s">
         <v>1732</v>
       </c>
-      <c r="F88" s="468" t="s">
+      <c r="F88" s="410" t="s">
         <v>1733</v>
       </c>
-      <c r="G88" s="416" t="s">
+      <c r="G88" s="358" t="s">
         <v>979</v>
       </c>
-      <c r="H88" s="414" t="s">
+      <c r="H88" s="356" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="433">
+      <c r="B89" s="375">
         <v>44588</v>
       </c>
-      <c r="C89" s="435" t="s">
+      <c r="C89" s="377" t="s">
         <v>1731</v>
       </c>
-      <c r="D89" s="435" t="s">
+      <c r="D89" s="377" t="s">
         <v>1734</v>
       </c>
-      <c r="E89" s="469" t="s">
+      <c r="E89" s="411" t="s">
         <v>1735</v>
       </c>
-      <c r="F89" s="421" t="s">
+      <c r="F89" s="363" t="s">
         <v>1520</v>
       </c>
-      <c r="G89" s="418" t="s">
+      <c r="G89" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H89" s="414" t="s">
+      <c r="H89" s="356" t="s">
         <v>1736</v>
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="433">
+      <c r="B90" s="375">
         <v>44588</v>
       </c>
-      <c r="C90" s="435" t="s">
+      <c r="C90" s="377" t="s">
         <v>1731</v>
       </c>
-      <c r="D90" s="435" t="s">
+      <c r="D90" s="377" t="s">
         <v>1737</v>
       </c>
-      <c r="E90" s="469" t="s">
+      <c r="E90" s="411" t="s">
         <v>1738</v>
       </c>
-      <c r="F90" s="421" t="s">
+      <c r="F90" s="363" t="s">
         <v>1520</v>
       </c>
-      <c r="G90" s="418" t="s">
+      <c r="G90" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H90" s="414" t="s">
+      <c r="H90" s="356" t="s">
         <v>1736</v>
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="433">
+      <c r="B91" s="375">
         <v>44588</v>
       </c>
-      <c r="C91" s="435" t="s">
+      <c r="C91" s="377" t="s">
         <v>1731</v>
       </c>
-      <c r="D91" s="435" t="s">
+      <c r="D91" s="377" t="s">
         <v>1739</v>
       </c>
-      <c r="E91" s="469" t="s">
+      <c r="E91" s="411" t="s">
         <v>1740</v>
       </c>
-      <c r="F91" s="421" t="s">
+      <c r="F91" s="363" t="s">
         <v>1520</v>
       </c>
-      <c r="G91" s="418" t="s">
+      <c r="G91" s="360" t="s">
         <v>845</v>
       </c>
-      <c r="H91" s="414" t="s">
+      <c r="H91" s="356" t="s">
         <v>1741</v>
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="433">
+      <c r="B92" s="375">
         <v>44636</v>
       </c>
-      <c r="C92" s="435" t="s">
+      <c r="C92" s="377" t="s">
         <v>1731</v>
       </c>
-      <c r="D92" s="435" t="s">
+      <c r="D92" s="377" t="s">
         <v>751</v>
       </c>
-      <c r="E92" s="436" t="s">
+      <c r="E92" s="378" t="s">
         <v>1742</v>
       </c>
-      <c r="F92" s="421" t="s">
+      <c r="F92" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="G92" s="418" t="s">
+      <c r="G92" s="360" t="s">
         <v>1743</v>
       </c>
-      <c r="H92" s="414" t="s">
+      <c r="H92" s="356" t="s">
         <v>1744</v>
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="433">
+      <c r="B93" s="375">
         <v>44565</v>
       </c>
-      <c r="C93" s="435" t="s">
+      <c r="C93" s="377" t="s">
         <v>1731</v>
       </c>
-      <c r="D93" s="435" t="s">
+      <c r="D93" s="377" t="s">
         <v>1745</v>
       </c>
-      <c r="E93" s="436" t="s">
+      <c r="E93" s="378" t="s">
         <v>1746</v>
       </c>
-      <c r="F93" s="421" t="s">
+      <c r="F93" s="363" t="s">
         <v>1747</v>
       </c>
-      <c r="G93" s="418" t="s">
+      <c r="G93" s="360" t="s">
         <v>1748</v>
       </c>
-      <c r="H93" s="414"/>
+      <c r="H93" s="356"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="433">
+      <c r="B94" s="375">
         <v>44562</v>
       </c>
-      <c r="C94" s="435" t="s">
+      <c r="C94" s="377" t="s">
         <v>1674</v>
       </c>
-      <c r="D94" s="435" t="s">
+      <c r="D94" s="377" t="s">
         <v>1346</v>
       </c>
-      <c r="E94" s="436" t="s">
+      <c r="E94" s="378" t="s">
         <v>1749</v>
       </c>
-      <c r="F94" s="421" t="s">
+      <c r="F94" s="363" t="s">
         <v>1750</v>
       </c>
-      <c r="G94" s="418" t="s">
+      <c r="G94" s="360" t="s">
         <v>1232</v>
       </c>
-      <c r="H94" s="414"/>
+      <c r="H94" s="356"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="433">
+      <c r="B95" s="375">
         <v>44563</v>
       </c>
-      <c r="C95" s="435" t="s">
+      <c r="C95" s="377" t="s">
         <v>1674</v>
       </c>
-      <c r="D95" s="435" t="s">
+      <c r="D95" s="377" t="s">
         <v>1346</v>
       </c>
-      <c r="E95" s="436" t="s">
+      <c r="E95" s="378" t="s">
         <v>1751</v>
       </c>
-      <c r="F95" s="421" t="s">
+      <c r="F95" s="363" t="s">
         <v>1752</v>
       </c>
-      <c r="G95" s="418" t="s">
+      <c r="G95" s="360" t="s">
         <v>1232</v>
       </c>
-      <c r="H95" s="414"/>
+      <c r="H95" s="356"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="433">
+      <c r="B96" s="375">
         <v>44563</v>
       </c>
-      <c r="C96" s="435" t="s">
+      <c r="C96" s="377" t="s">
         <v>1674</v>
       </c>
-      <c r="D96" s="435" t="s">
+      <c r="D96" s="377" t="s">
         <v>1753</v>
       </c>
-      <c r="E96" s="436" t="s">
+      <c r="E96" s="378" t="s">
         <v>1751</v>
       </c>
-      <c r="F96" s="421" t="s">
+      <c r="F96" s="363" t="s">
         <v>1754</v>
       </c>
-      <c r="G96" s="418" t="s">
+      <c r="G96" s="360" t="s">
         <v>1755</v>
       </c>
-      <c r="H96" s="414" t="s">
+      <c r="H96" s="356" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="413">
+      <c r="B97" s="355">
         <v>44564</v>
       </c>
-      <c r="C97" s="414" t="s">
+      <c r="C97" s="356" t="s">
         <v>1674</v>
       </c>
-      <c r="D97" s="414" t="s">
+      <c r="D97" s="356" t="s">
         <v>1756</v>
       </c>
-      <c r="E97" s="437" t="s">
+      <c r="E97" s="379" t="s">
         <v>1757</v>
       </c>
-      <c r="F97" s="415" t="s">
+      <c r="F97" s="357" t="s">
         <v>1670</v>
       </c>
-      <c r="G97" s="416" t="s">
+      <c r="G97" s="358" t="s">
         <v>1758</v>
       </c>
-      <c r="H97" s="414" t="s">
+      <c r="H97" s="356" t="s">
         <v>1759</v>
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="413">
+      <c r="B98" s="355">
         <v>44603</v>
       </c>
-      <c r="C98" s="414" t="s">
+      <c r="C98" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D98" s="414" t="s">
+      <c r="D98" s="356" t="s">
         <v>1761</v>
       </c>
-      <c r="E98" s="470" t="s">
+      <c r="E98" s="412" t="s">
         <v>1762</v>
       </c>
-      <c r="F98" s="418" t="s">
+      <c r="F98" s="360" t="s">
         <v>1763</v>
       </c>
-      <c r="G98" s="416" t="s">
+      <c r="G98" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H98" s="414" t="s">
+      <c r="H98" s="356" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="413">
+      <c r="B99" s="355">
         <v>44537</v>
       </c>
-      <c r="C99" s="414" t="s">
+      <c r="C99" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D99" s="414" t="s">
+      <c r="D99" s="356" t="s">
         <v>1765</v>
       </c>
-      <c r="E99" s="437" t="s">
+      <c r="E99" s="379" t="s">
         <v>1766</v>
       </c>
-      <c r="F99" s="418" t="s">
+      <c r="F99" s="360" t="s">
         <v>1767</v>
       </c>
-      <c r="G99" s="416" t="s">
+      <c r="G99" s="358" t="s">
         <v>1768</v>
       </c>
-      <c r="H99" s="424">
+      <c r="H99" s="366">
         <v>475869</v>
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="413">
+      <c r="B100" s="355">
         <v>44537</v>
       </c>
-      <c r="C100" s="414" t="s">
+      <c r="C100" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D100" s="414" t="s">
+      <c r="D100" s="356" t="s">
         <v>1765</v>
       </c>
-      <c r="E100" s="437" t="s">
+      <c r="E100" s="379" t="s">
         <v>1769</v>
       </c>
-      <c r="F100" s="418" t="s">
+      <c r="F100" s="360" t="s">
         <v>1770</v>
       </c>
-      <c r="G100" s="416" t="s">
+      <c r="G100" s="358" t="s">
         <v>1768</v>
       </c>
-      <c r="H100" s="414" t="s">
+      <c r="H100" s="356" t="s">
         <v>1771</v>
       </c>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="413">
+      <c r="B101" s="355">
         <v>44620</v>
       </c>
-      <c r="C101" s="414" t="s">
+      <c r="C101" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D101" s="414" t="s">
+      <c r="D101" s="356" t="s">
         <v>1772</v>
       </c>
-      <c r="E101" s="414" t="s">
+      <c r="E101" s="356" t="s">
         <v>1773</v>
       </c>
-      <c r="F101" s="415" t="s">
+      <c r="F101" s="357" t="s">
         <v>1774</v>
       </c>
-      <c r="G101" s="416">
+      <c r="G101" s="358">
         <v>51853247</v>
       </c>
-      <c r="H101" s="414" t="s">
+      <c r="H101" s="356" t="s">
         <v>1756</v>
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="433">
+      <c r="B102" s="375">
         <v>44564</v>
       </c>
-      <c r="C102" s="435" t="s">
+      <c r="C102" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D102" s="435" t="s">
+      <c r="D102" s="377" t="s">
         <v>1649</v>
       </c>
-      <c r="E102" s="453" t="s">
+      <c r="E102" s="395" t="s">
         <v>1650</v>
       </c>
-      <c r="F102" s="415" t="s">
+      <c r="F102" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="418" t="s">
+      <c r="G102" s="360" t="s">
         <v>1232</v>
       </c>
-      <c r="H102" s="414" t="s">
+      <c r="H102" s="356" t="s">
         <v>1775</v>
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="433">
+      <c r="B103" s="375">
         <v>44152</v>
       </c>
-      <c r="C103" s="435" t="s">
+      <c r="C103" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D103" s="435" t="s">
+      <c r="D103" s="377" t="s">
         <v>1776</v>
       </c>
-      <c r="E103" s="436" t="s">
+      <c r="E103" s="378" t="s">
         <v>1777</v>
       </c>
-      <c r="F103" s="421" t="s">
+      <c r="F103" s="363" t="s">
         <v>1302</v>
       </c>
-      <c r="G103" s="418" t="s">
+      <c r="G103" s="360" t="s">
         <v>953</v>
       </c>
-      <c r="H103" s="414"/>
+      <c r="H103" s="356"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="433">
+      <c r="B104" s="375">
         <v>44154</v>
       </c>
-      <c r="C104" s="435" t="s">
+      <c r="C104" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D104" s="435" t="s">
+      <c r="D104" s="377" t="s">
         <v>1776</v>
       </c>
-      <c r="E104" s="435" t="s">
+      <c r="E104" s="377" t="s">
         <v>1778</v>
       </c>
-      <c r="F104" s="421" t="s">
+      <c r="F104" s="363" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="418" t="s">
+      <c r="G104" s="360" t="s">
         <v>1638</v>
       </c>
-      <c r="H104" s="414" t="s">
+      <c r="H104" s="356" t="s">
         <v>1779</v>
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="413">
+      <c r="B105" s="355">
         <v>44610</v>
       </c>
-      <c r="C105" s="414" t="s">
+      <c r="C105" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D105" s="414" t="s">
+      <c r="D105" s="356" t="s">
         <v>1780</v>
       </c>
-      <c r="E105" s="414" t="s">
+      <c r="E105" s="356" t="s">
         <v>1781</v>
       </c>
-      <c r="F105" s="415" t="s">
+      <c r="F105" s="357" t="s">
         <v>1782</v>
       </c>
-      <c r="G105" s="416" t="s">
+      <c r="G105" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H105" s="415" t="s">
+      <c r="H105" s="357" t="s">
         <v>1783</v>
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="413">
+      <c r="B106" s="355">
         <v>44420</v>
       </c>
-      <c r="C106" s="414" t="s">
+      <c r="C106" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D106" s="414" t="s">
+      <c r="D106" s="356" t="s">
         <v>1780</v>
       </c>
-      <c r="E106" s="414" t="s">
+      <c r="E106" s="356" t="s">
         <v>1784</v>
       </c>
-      <c r="F106" s="415" t="s">
+      <c r="F106" s="357" t="s">
         <v>1785</v>
       </c>
-      <c r="G106" s="416" t="s">
+      <c r="G106" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H106" s="415" t="s">
+      <c r="H106" s="357" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="413">
+      <c r="B107" s="355">
         <v>44610</v>
       </c>
-      <c r="C107" s="414" t="s">
+      <c r="C107" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D107" s="414" t="s">
+      <c r="D107" s="356" t="s">
         <v>1786</v>
       </c>
-      <c r="E107" s="414" t="s">
+      <c r="E107" s="356" t="s">
         <v>1787</v>
       </c>
-      <c r="F107" s="415" t="s">
+      <c r="F107" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="G107" s="416" t="s">
+      <c r="G107" s="358" t="s">
         <v>979</v>
       </c>
-      <c r="H107" s="414" t="s">
+      <c r="H107" s="356" t="s">
         <v>1788</v>
       </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="438">
+      <c r="B108" s="380">
         <v>44640</v>
       </c>
-      <c r="C108" s="420" t="s">
+      <c r="C108" s="362" t="s">
         <v>1760</v>
       </c>
-      <c r="D108" s="420" t="s">
+      <c r="D108" s="362" t="s">
         <v>1789</v>
       </c>
-      <c r="E108" s="436" t="s">
+      <c r="E108" s="378" t="s">
         <v>1790</v>
       </c>
-      <c r="F108" s="421" t="s">
+      <c r="F108" s="363" t="s">
         <v>1510</v>
       </c>
-      <c r="G108" s="421" t="s">
+      <c r="G108" s="363" t="s">
         <v>1228</v>
       </c>
-      <c r="H108" s="422" t="s">
+      <c r="H108" s="364" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="413">
+      <c r="B109" s="355">
         <v>44620</v>
       </c>
-      <c r="C109" s="414" t="s">
+      <c r="C109" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D109" s="414" t="s">
+      <c r="D109" s="356" t="s">
         <v>1791</v>
       </c>
-      <c r="E109" s="437" t="s">
+      <c r="E109" s="379" t="s">
         <v>1792</v>
       </c>
-      <c r="F109" s="415" t="s">
+      <c r="F109" s="357" t="s">
         <v>1670</v>
       </c>
-      <c r="G109" s="416" t="s">
+      <c r="G109" s="358" t="s">
         <v>1793</v>
       </c>
-      <c r="H109" s="414" t="s">
+      <c r="H109" s="356" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="433">
+      <c r="B110" s="375">
         <v>44567</v>
       </c>
-      <c r="C110" s="435" t="s">
+      <c r="C110" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D110" s="435" t="s">
+      <c r="D110" s="377" t="s">
         <v>1795</v>
       </c>
-      <c r="E110" s="436" t="s">
+      <c r="E110" s="378" t="s">
         <v>1796</v>
       </c>
-      <c r="F110" s="421"/>
-      <c r="G110" s="418"/>
-      <c r="H110" s="414" t="s">
+      <c r="F110" s="363"/>
+      <c r="G110" s="360"/>
+      <c r="H110" s="356" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="413">
+      <c r="B111" s="355">
         <v>44634</v>
       </c>
-      <c r="C111" s="414" t="s">
+      <c r="C111" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D111" s="414" t="s">
+      <c r="D111" s="356" t="s">
         <v>1798</v>
       </c>
-      <c r="E111" s="437" t="s">
+      <c r="E111" s="379" t="s">
         <v>1799</v>
       </c>
-      <c r="F111" s="418" t="s">
+      <c r="F111" s="360" t="s">
         <v>1782</v>
       </c>
-      <c r="G111" s="416" t="s">
+      <c r="G111" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H111" s="414" t="s">
+      <c r="H111" s="356" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="433">
+      <c r="B112" s="375">
         <v>44573</v>
       </c>
-      <c r="C112" s="435" t="s">
+      <c r="C112" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D112" s="435" t="s">
+      <c r="D112" s="377" t="s">
         <v>1800</v>
       </c>
-      <c r="E112" s="436" t="s">
+      <c r="E112" s="378" t="s">
         <v>1801</v>
       </c>
-      <c r="F112" s="421"/>
-      <c r="G112" s="418" t="s">
+      <c r="F112" s="363"/>
+      <c r="G112" s="360" t="s">
         <v>1802</v>
       </c>
-      <c r="H112" s="414"/>
+      <c r="H112" s="356"/>
     </row>
     <row r="113" spans="2:8">
-      <c r="B113" s="413">
+      <c r="B113" s="355">
         <v>44566</v>
       </c>
-      <c r="C113" s="414" t="s">
+      <c r="C113" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D113" s="414" t="s">
+      <c r="D113" s="356" t="s">
         <v>1803</v>
       </c>
-      <c r="E113" s="437" t="s">
+      <c r="E113" s="379" t="s">
         <v>1804</v>
       </c>
-      <c r="F113" s="415" t="s">
+      <c r="F113" s="357" t="s">
         <v>1694</v>
       </c>
-      <c r="G113" s="416" t="s">
+      <c r="G113" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H113" s="414" t="s">
+      <c r="H113" s="356" t="s">
         <v>1805</v>
       </c>
     </row>
     <row r="114" spans="2:8">
-      <c r="B114" s="413">
+      <c r="B114" s="355">
         <v>44566</v>
       </c>
-      <c r="C114" s="414" t="s">
+      <c r="C114" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D114" s="414" t="s">
+      <c r="D114" s="356" t="s">
         <v>1803</v>
       </c>
-      <c r="E114" s="437" t="s">
+      <c r="E114" s="379" t="s">
         <v>1804</v>
       </c>
-      <c r="F114" s="415" t="s">
+      <c r="F114" s="357" t="s">
         <v>1694</v>
       </c>
-      <c r="G114" s="416" t="s">
+      <c r="G114" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H114" s="414" t="s">
+      <c r="H114" s="356" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="413">
+      <c r="B115" s="355">
         <v>44564</v>
       </c>
-      <c r="C115" s="414" t="s">
+      <c r="C115" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D115" s="414" t="s">
+      <c r="D115" s="356" t="s">
         <v>1756</v>
       </c>
-      <c r="E115" s="437" t="s">
+      <c r="E115" s="379" t="s">
         <v>1757</v>
       </c>
-      <c r="F115" s="418" t="s">
+      <c r="F115" s="360" t="s">
         <v>1807</v>
       </c>
-      <c r="G115" s="416" t="s">
+      <c r="G115" s="358" t="s">
         <v>1232</v>
       </c>
-      <c r="H115" s="414"/>
+      <c r="H115" s="356"/>
     </row>
     <row r="116" spans="2:8">
-      <c r="B116" s="413">
+      <c r="B116" s="355">
         <v>44671</v>
       </c>
-      <c r="C116" s="414" t="s">
+      <c r="C116" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D116" s="414" t="s">
+      <c r="D116" s="356" t="s">
         <v>1808</v>
       </c>
-      <c r="E116" s="437" t="s">
+      <c r="E116" s="379" t="s">
         <v>1809</v>
       </c>
-      <c r="F116" s="418" t="s">
+      <c r="F116" s="360" t="s">
         <v>1810</v>
       </c>
-      <c r="G116" s="416">
+      <c r="G116" s="358">
         <v>6095</v>
       </c>
-      <c r="H116" s="414" t="s">
+      <c r="H116" s="356" t="s">
         <v>1811</v>
       </c>
     </row>
     <row r="117" spans="2:8">
-      <c r="B117" s="433">
+      <c r="B117" s="375">
         <v>44652</v>
       </c>
-      <c r="C117" s="435" t="s">
+      <c r="C117" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D117" s="435" t="s">
+      <c r="D117" s="377" t="s">
         <v>1812</v>
       </c>
-      <c r="E117" s="436" t="s">
+      <c r="E117" s="378" t="s">
         <v>1813</v>
       </c>
-      <c r="F117" s="471" t="s">
+      <c r="F117" s="413" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="418" t="s">
+      <c r="G117" s="360" t="s">
         <v>1454</v>
       </c>
-      <c r="H117" s="414" t="s">
+      <c r="H117" s="356" t="s">
         <v>1814</v>
       </c>
     </row>
     <row r="118" spans="2:8">
-      <c r="B118" s="413">
+      <c r="B118" s="355">
         <v>44610</v>
       </c>
-      <c r="C118" s="414" t="s">
+      <c r="C118" s="356" t="s">
         <v>1760</v>
       </c>
-      <c r="D118" s="414" t="s">
+      <c r="D118" s="356" t="s">
         <v>924</v>
       </c>
-      <c r="E118" s="414" t="s">
+      <c r="E118" s="356" t="s">
         <v>1815</v>
       </c>
-      <c r="F118" s="415" t="s">
+      <c r="F118" s="357" t="s">
         <v>1816</v>
       </c>
-      <c r="G118" s="416" t="s">
+      <c r="G118" s="358" t="s">
         <v>1817</v>
       </c>
-      <c r="H118" s="414" t="s">
+      <c r="H118" s="356" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119" s="433">
+      <c r="B119" s="375">
         <v>44581</v>
       </c>
-      <c r="C119" s="435" t="s">
+      <c r="C119" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D119" s="435" t="s">
+      <c r="D119" s="377" t="s">
         <v>1577</v>
       </c>
-      <c r="E119" s="436"/>
-      <c r="F119" s="421" t="s">
+      <c r="E119" s="378"/>
+      <c r="F119" s="363" t="s">
         <v>44</v>
       </c>
-      <c r="G119" s="471" t="s">
+      <c r="G119" s="413" t="s">
         <v>1237</v>
       </c>
-      <c r="H119" s="414" t="s">
+      <c r="H119" s="356" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="120" spans="2:8">
-      <c r="B120" s="433">
+      <c r="B120" s="375">
         <v>44640</v>
       </c>
-      <c r="C120" s="435" t="s">
+      <c r="C120" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D120" s="435" t="s">
+      <c r="D120" s="377" t="s">
         <v>942</v>
       </c>
-      <c r="E120" s="436" t="s">
+      <c r="E120" s="378" t="s">
         <v>1579</v>
       </c>
-      <c r="F120" s="421" t="s">
+      <c r="F120" s="363" t="s">
         <v>1580</v>
       </c>
-      <c r="G120" s="418" t="s">
+      <c r="G120" s="360" t="s">
         <v>1581</v>
       </c>
-      <c r="H120" s="414" t="s">
+      <c r="H120" s="356" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="121" spans="2:8">
-      <c r="B121" s="433">
+      <c r="B121" s="375">
         <v>44640</v>
       </c>
-      <c r="C121" s="435" t="s">
+      <c r="C121" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D121" s="435" t="s">
+      <c r="D121" s="377" t="s">
         <v>942</v>
       </c>
-      <c r="E121" s="436" t="s">
+      <c r="E121" s="378" t="s">
         <v>1579</v>
       </c>
-      <c r="F121" s="471" t="s">
+      <c r="F121" s="413" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="418" t="s">
+      <c r="G121" s="360" t="s">
         <v>1454</v>
       </c>
-      <c r="H121" s="414" t="s">
+      <c r="H121" s="356" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="122" spans="2:8">
-      <c r="B122" s="433">
+      <c r="B122" s="375">
         <v>44563</v>
       </c>
-      <c r="C122" s="435" t="s">
+      <c r="C122" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D122" s="435" t="s">
+      <c r="D122" s="377" t="s">
         <v>1346</v>
       </c>
-      <c r="E122" s="436" t="s">
+      <c r="E122" s="378" t="s">
         <v>1355</v>
       </c>
-      <c r="F122" s="421" t="s">
+      <c r="F122" s="363" t="s">
         <v>1502</v>
       </c>
-      <c r="G122" s="418" t="s">
+      <c r="G122" s="360" t="s">
         <v>979</v>
       </c>
-      <c r="H122" s="472" t="s">
+      <c r="H122" s="414" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123" s="433">
+      <c r="B123" s="375">
         <v>44581</v>
       </c>
-      <c r="C123" s="435" t="s">
+      <c r="C123" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D123" s="435" t="s">
+      <c r="D123" s="377" t="s">
         <v>1346</v>
       </c>
-      <c r="E123" s="436" t="s">
+      <c r="E123" s="378" t="s">
         <v>1584</v>
       </c>
-      <c r="F123" s="421" t="s">
+      <c r="F123" s="363" t="s">
         <v>1585</v>
       </c>
-      <c r="G123" s="418" t="s">
+      <c r="G123" s="360" t="s">
         <v>979</v>
       </c>
-      <c r="H123" s="414"/>
+      <c r="H123" s="356"/>
     </row>
     <row r="124" spans="2:8">
-      <c r="B124" s="473">
+      <c r="B124" s="415">
         <v>44581</v>
       </c>
-      <c r="C124" s="474" t="s">
+      <c r="C124" s="416" t="s">
         <v>1477</v>
       </c>
-      <c r="D124" s="474" t="s">
+      <c r="D124" s="416" t="s">
         <v>1819</v>
       </c>
-      <c r="E124" s="475" t="s">
+      <c r="E124" s="417" t="s">
         <v>1820</v>
       </c>
-      <c r="F124" s="476" t="s">
+      <c r="F124" s="418" t="s">
         <v>1821</v>
       </c>
-      <c r="G124" s="477" t="s">
+      <c r="G124" s="419" t="s">
         <v>1822</v>
       </c>
-      <c r="H124" s="478" t="s">
+      <c r="H124" s="420" t="s">
         <v>1823</v>
       </c>
     </row>
     <row r="125" spans="2:8">
-      <c r="B125" s="433">
+      <c r="B125" s="375">
         <v>44581</v>
       </c>
-      <c r="C125" s="435" t="s">
+      <c r="C125" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D125" s="435" t="s">
+      <c r="D125" s="377" t="s">
         <v>1586</v>
       </c>
-      <c r="E125" s="436" t="s">
+      <c r="E125" s="378" t="s">
         <v>1587</v>
       </c>
-      <c r="F125" s="421" t="s">
+      <c r="F125" s="363" t="s">
         <v>1588</v>
       </c>
-      <c r="G125" s="418" t="s">
+      <c r="G125" s="360" t="s">
         <v>895</v>
       </c>
-      <c r="H125" s="414" t="s">
+      <c r="H125" s="356" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="126" spans="2:8">
-      <c r="B126" s="433">
+      <c r="B126" s="375">
         <v>44581</v>
       </c>
-      <c r="C126" s="435" t="s">
+      <c r="C126" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D126" s="435" t="s">
+      <c r="D126" s="377" t="s">
         <v>1586</v>
       </c>
-      <c r="E126" s="436" t="s">
+      <c r="E126" s="378" t="s">
         <v>1587</v>
       </c>
-      <c r="F126" s="421" t="s">
+      <c r="F126" s="363" t="s">
         <v>1590</v>
       </c>
-      <c r="G126" s="418" t="s">
+      <c r="G126" s="360" t="s">
         <v>979</v>
       </c>
-      <c r="H126" s="414" t="s">
+      <c r="H126" s="356" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="127" spans="2:8">
-      <c r="B127" s="433">
+      <c r="B127" s="375">
         <v>44606</v>
       </c>
-      <c r="C127" s="435" t="s">
+      <c r="C127" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D127" s="435" t="s">
+      <c r="D127" s="377" t="s">
         <v>1488</v>
       </c>
-      <c r="E127" s="436" t="s">
+      <c r="E127" s="378" t="s">
         <v>1489</v>
       </c>
-      <c r="F127" s="421" t="s">
+      <c r="F127" s="363" t="s">
         <v>975</v>
       </c>
-      <c r="G127" s="418" t="s">
+      <c r="G127" s="360" t="s">
         <v>1454</v>
       </c>
-      <c r="H127" s="414" t="s">
+      <c r="H127" s="356" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="128" spans="2:8">
-      <c r="B128" s="433">
+      <c r="B128" s="375">
         <v>44661</v>
       </c>
-      <c r="C128" s="435" t="s">
+      <c r="C128" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D128" s="435" t="s">
+      <c r="D128" s="377" t="s">
         <v>1450</v>
       </c>
-      <c r="E128" s="436" t="s">
+      <c r="E128" s="378" t="s">
         <v>1463</v>
       </c>
-      <c r="F128" s="421" t="s">
+      <c r="F128" s="363" t="s">
         <v>1453</v>
       </c>
-      <c r="G128" s="418" t="s">
+      <c r="G128" s="360" t="s">
         <v>1454</v>
       </c>
-      <c r="H128" s="414"/>
+      <c r="H128" s="356"/>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="433">
+      <c r="B129" s="375">
         <v>44139</v>
       </c>
-      <c r="C129" s="435" t="s">
+      <c r="C129" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D129" s="435" t="s">
+      <c r="D129" s="377" t="s">
         <v>1450</v>
       </c>
-      <c r="E129" s="436" t="s">
+      <c r="E129" s="378" t="s">
         <v>1459</v>
       </c>
-      <c r="F129" s="421" t="s">
+      <c r="F129" s="363" t="s">
         <v>47</v>
       </c>
-      <c r="G129" s="418" t="s">
+      <c r="G129" s="360" t="s">
         <v>1387</v>
       </c>
-      <c r="H129" s="414" t="s">
+      <c r="H129" s="356" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="413"/>
-      <c r="C130" s="435" t="s">
+      <c r="B130" s="355"/>
+      <c r="C130" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D130" s="435" t="s">
+      <c r="D130" s="377" t="s">
         <v>1450</v>
       </c>
-      <c r="E130" s="414" t="s">
+      <c r="E130" s="356" t="s">
         <v>1461</v>
       </c>
-      <c r="F130" s="448" t="s">
+      <c r="F130" s="390" t="s">
         <v>1410</v>
       </c>
-      <c r="G130" s="418" t="s">
+      <c r="G130" s="360" t="s">
         <v>1409</v>
       </c>
-      <c r="H130" s="414"/>
+      <c r="H130" s="356"/>
     </row>
     <row r="131" spans="2:8">
-      <c r="B131" s="413"/>
-      <c r="C131" s="435" t="s">
+      <c r="B131" s="355"/>
+      <c r="C131" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D131" s="435" t="s">
+      <c r="D131" s="377" t="s">
         <v>1450</v>
       </c>
-      <c r="E131" s="414" t="s">
+      <c r="E131" s="356" t="s">
         <v>1462</v>
       </c>
-      <c r="F131" s="448" t="s">
+      <c r="F131" s="390" t="s">
         <v>1406</v>
       </c>
-      <c r="G131" s="418" t="s">
+      <c r="G131" s="360" t="s">
         <v>1409</v>
       </c>
-      <c r="H131" s="414"/>
+      <c r="H131" s="356"/>
     </row>
     <row r="132" spans="2:8">
-      <c r="B132" s="433">
+      <c r="B132" s="375">
         <v>44652</v>
       </c>
-      <c r="C132" s="435" t="s">
+      <c r="C132" s="377" t="s">
         <v>1477</v>
       </c>
-      <c r="D132" s="435" t="s">
+      <c r="D132" s="377" t="s">
         <v>751</v>
       </c>
-      <c r="E132" s="436" t="s">
+      <c r="E132" s="378" t="s">
         <v>1593</v>
       </c>
-      <c r="F132" s="421" t="s">
+      <c r="F132" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="G132" s="418" t="s">
+      <c r="G132" s="360" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="414" t="s">
+      <c r="H132" s="356" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="133" spans="2:8">
-      <c r="B133" s="433">
+      <c r="B133" s="375">
         <v>44319</v>
       </c>
-      <c r="C133" s="435" t="s">
+      <c r="C133" s="377" t="s">
         <v>1760</v>
       </c>
-      <c r="D133" s="435" t="s">
+      <c r="D133" s="377" t="s">
         <v>1824</v>
       </c>
-      <c r="E133" s="423" t="s">
+      <c r="E133" s="365" t="s">
         <v>1825</v>
       </c>
-      <c r="F133" s="421"/>
-      <c r="G133" s="479"/>
-      <c r="H133" s="414" t="s">
+      <c r="F133" s="363"/>
+      <c r="G133" s="421"/>
+      <c r="H133" s="356" t="s">
         <v>1826</v>
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="413"/>
-      <c r="C134" s="414" t="s">
+      <c r="B134" s="355"/>
+      <c r="C134" s="356" t="s">
         <v>1827</v>
       </c>
-      <c r="D134" s="414" t="s">
+      <c r="D134" s="356" t="s">
         <v>1828</v>
       </c>
-      <c r="E134" s="414" t="s">
+      <c r="E134" s="356" t="s">
         <v>1829</v>
       </c>
-      <c r="F134" s="418" t="s">
+      <c r="F134" s="360" t="s">
         <v>1830</v>
       </c>
-      <c r="G134" s="416" t="s">
+      <c r="G134" s="358" t="s">
         <v>979</v>
       </c>
-      <c r="H134" s="414"/>
+      <c r="H134" s="356"/>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="433"/>
-      <c r="C135" s="435"/>
-      <c r="D135" s="435"/>
-      <c r="E135" s="436"/>
-      <c r="F135" s="421"/>
-      <c r="G135" s="418"/>
-      <c r="H135" s="414"/>
+      <c r="B135" s="375"/>
+      <c r="C135" s="377"/>
+      <c r="D135" s="377"/>
+      <c r="E135" s="378"/>
+      <c r="F135" s="363"/>
+      <c r="G135" s="360"/>
+      <c r="H135" s="356"/>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="433"/>
-      <c r="C136" s="435"/>
-      <c r="D136" s="435"/>
-      <c r="E136" s="436"/>
-      <c r="F136" s="421"/>
-      <c r="G136" s="418"/>
-      <c r="H136" s="414"/>
+      <c r="B136" s="375"/>
+      <c r="C136" s="377"/>
+      <c r="D136" s="377"/>
+      <c r="E136" s="378"/>
+      <c r="F136" s="363"/>
+      <c r="G136" s="360"/>
+      <c r="H136" s="356"/>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="433"/>
-      <c r="C137" s="435"/>
-      <c r="D137" s="435"/>
-      <c r="E137" s="436"/>
-      <c r="F137" s="421"/>
-      <c r="G137" s="418"/>
-      <c r="H137" s="414"/>
+      <c r="B137" s="375"/>
+      <c r="C137" s="377"/>
+      <c r="D137" s="377"/>
+      <c r="E137" s="378"/>
+      <c r="F137" s="363"/>
+      <c r="G137" s="360"/>
+      <c r="H137" s="356"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="433"/>
-      <c r="C138" s="435"/>
-      <c r="D138" s="435"/>
-      <c r="E138" s="436"/>
-      <c r="F138" s="421"/>
-      <c r="G138" s="418"/>
-      <c r="H138" s="414"/>
+      <c r="B138" s="375"/>
+      <c r="C138" s="377"/>
+      <c r="D138" s="377"/>
+      <c r="E138" s="378"/>
+      <c r="F138" s="363"/>
+      <c r="G138" s="360"/>
+      <c r="H138" s="356"/>
     </row>
     <row r="139" spans="2:8">
-      <c r="B139" s="433"/>
-      <c r="C139" s="435"/>
-      <c r="D139" s="435"/>
-      <c r="E139" s="436"/>
-      <c r="F139" s="421"/>
-      <c r="G139" s="418"/>
-      <c r="H139" s="414"/>
+      <c r="B139" s="375"/>
+      <c r="C139" s="377"/>
+      <c r="D139" s="377"/>
+      <c r="E139" s="378"/>
+      <c r="F139" s="363"/>
+      <c r="G139" s="360"/>
+      <c r="H139" s="356"/>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="433"/>
-      <c r="C140" s="435"/>
-      <c r="D140" s="435"/>
-      <c r="E140" s="436"/>
-      <c r="F140" s="421"/>
-      <c r="G140" s="418"/>
-      <c r="H140" s="414"/>
+      <c r="B140" s="375"/>
+      <c r="C140" s="377"/>
+      <c r="D140" s="377"/>
+      <c r="E140" s="378"/>
+      <c r="F140" s="363"/>
+      <c r="G140" s="360"/>
+      <c r="H140" s="356"/>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="433"/>
-      <c r="C141" s="435"/>
-      <c r="D141" s="435"/>
-      <c r="E141" s="436"/>
-      <c r="F141" s="421"/>
-      <c r="G141" s="418"/>
-      <c r="H141" s="414"/>
+      <c r="B141" s="375"/>
+      <c r="C141" s="377"/>
+      <c r="D141" s="377"/>
+      <c r="E141" s="378"/>
+      <c r="F141" s="363"/>
+      <c r="G141" s="360"/>
+      <c r="H141" s="356"/>
     </row>
     <row r="142" spans="2:8">
-      <c r="B142" s="433"/>
-      <c r="C142" s="435"/>
-      <c r="D142" s="435"/>
-      <c r="E142" s="436"/>
-      <c r="F142" s="421"/>
-      <c r="G142" s="418"/>
-      <c r="H142" s="414"/>
+      <c r="B142" s="375"/>
+      <c r="C142" s="377"/>
+      <c r="D142" s="377"/>
+      <c r="E142" s="378"/>
+      <c r="F142" s="363"/>
+      <c r="G142" s="360"/>
+      <c r="H142" s="356"/>
     </row>
     <row r="143" spans="2:8">
-      <c r="B143" s="433"/>
-      <c r="C143" s="435"/>
-      <c r="D143" s="435"/>
-      <c r="E143" s="436"/>
-      <c r="F143" s="421"/>
-      <c r="G143" s="418"/>
-      <c r="H143" s="414"/>
+      <c r="B143" s="375"/>
+      <c r="C143" s="377"/>
+      <c r="D143" s="377"/>
+      <c r="E143" s="378"/>
+      <c r="F143" s="363"/>
+      <c r="G143" s="360"/>
+      <c r="H143" s="356"/>
     </row>
     <row r="144" spans="2:8">
-      <c r="B144" s="433"/>
-      <c r="C144" s="435"/>
-      <c r="D144" s="435"/>
-      <c r="E144" s="436"/>
-      <c r="F144" s="421"/>
-      <c r="G144" s="418"/>
-      <c r="H144" s="414"/>
+      <c r="B144" s="375"/>
+      <c r="C144" s="377"/>
+      <c r="D144" s="377"/>
+      <c r="E144" s="378"/>
+      <c r="F144" s="363"/>
+      <c r="G144" s="360"/>
+      <c r="H144" s="356"/>
     </row>
     <row r="145" spans="2:8">
-      <c r="B145" s="433"/>
-      <c r="C145" s="435"/>
-      <c r="D145" s="435"/>
-      <c r="E145" s="436"/>
-      <c r="F145" s="421"/>
-      <c r="G145" s="418"/>
-      <c r="H145" s="414"/>
+      <c r="B145" s="375"/>
+      <c r="C145" s="377"/>
+      <c r="D145" s="377"/>
+      <c r="E145" s="378"/>
+      <c r="F145" s="363"/>
+      <c r="G145" s="360"/>
+      <c r="H145" s="356"/>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="433"/>
-      <c r="C146" s="435"/>
-      <c r="D146" s="435"/>
-      <c r="E146" s="436"/>
-      <c r="F146" s="421"/>
-      <c r="G146" s="418"/>
-      <c r="H146" s="414"/>
+      <c r="B146" s="375"/>
+      <c r="C146" s="377"/>
+      <c r="D146" s="377"/>
+      <c r="E146" s="378"/>
+      <c r="F146" s="363"/>
+      <c r="G146" s="360"/>
+      <c r="H146" s="356"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="433"/>
-      <c r="C147" s="435"/>
-      <c r="D147" s="435"/>
-      <c r="E147" s="436"/>
-      <c r="F147" s="421"/>
-      <c r="G147" s="418"/>
-      <c r="H147" s="414"/>
+      <c r="B147" s="375"/>
+      <c r="C147" s="377"/>
+      <c r="D147" s="377"/>
+      <c r="E147" s="378"/>
+      <c r="F147" s="363"/>
+      <c r="G147" s="360"/>
+      <c r="H147" s="356"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="433"/>
-      <c r="C148" s="435"/>
-      <c r="D148" s="435"/>
-      <c r="E148" s="436"/>
-      <c r="F148" s="421"/>
-      <c r="G148" s="418"/>
-      <c r="H148" s="414"/>
+      <c r="B148" s="375"/>
+      <c r="C148" s="377"/>
+      <c r="D148" s="377"/>
+      <c r="E148" s="378"/>
+      <c r="F148" s="363"/>
+      <c r="G148" s="360"/>
+      <c r="H148" s="356"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="433"/>
-      <c r="C149" s="435"/>
-      <c r="D149" s="435"/>
-      <c r="E149" s="436"/>
-      <c r="F149" s="421"/>
-      <c r="G149" s="418"/>
-      <c r="H149" s="414"/>
+      <c r="B149" s="375"/>
+      <c r="C149" s="377"/>
+      <c r="D149" s="377"/>
+      <c r="E149" s="378"/>
+      <c r="F149" s="363"/>
+      <c r="G149" s="360"/>
+      <c r="H149" s="356"/>
     </row>
     <row r="150" spans="2:8">
-      <c r="B150" s="433"/>
-      <c r="C150" s="435"/>
-      <c r="D150" s="435"/>
-      <c r="E150" s="436"/>
-      <c r="F150" s="421"/>
-      <c r="G150" s="418"/>
-      <c r="H150" s="414"/>
+      <c r="B150" s="375"/>
+      <c r="C150" s="377"/>
+      <c r="D150" s="377"/>
+      <c r="E150" s="378"/>
+      <c r="F150" s="363"/>
+      <c r="G150" s="360"/>
+      <c r="H150" s="356"/>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="433"/>
-      <c r="C151" s="435"/>
-      <c r="D151" s="435"/>
-      <c r="E151" s="436"/>
-      <c r="F151" s="421"/>
-      <c r="G151" s="418"/>
-      <c r="H151" s="414"/>
+      <c r="B151" s="375"/>
+      <c r="C151" s="377"/>
+      <c r="D151" s="377"/>
+      <c r="E151" s="378"/>
+      <c r="F151" s="363"/>
+      <c r="G151" s="360"/>
+      <c r="H151" s="356"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="433"/>
-      <c r="C152" s="435"/>
-      <c r="D152" s="435"/>
-      <c r="E152" s="436"/>
-      <c r="F152" s="421"/>
-      <c r="G152" s="418"/>
-      <c r="H152" s="414"/>
+      <c r="B152" s="375"/>
+      <c r="C152" s="377"/>
+      <c r="D152" s="377"/>
+      <c r="E152" s="378"/>
+      <c r="F152" s="363"/>
+      <c r="G152" s="360"/>
+      <c r="H152" s="356"/>
     </row>
     <row r="153" spans="2:8">
-      <c r="B153" s="433"/>
-      <c r="C153" s="435"/>
-      <c r="D153" s="435"/>
-      <c r="E153" s="436"/>
-      <c r="F153" s="421"/>
-      <c r="G153" s="418"/>
-      <c r="H153" s="414"/>
+      <c r="B153" s="375"/>
+      <c r="C153" s="377"/>
+      <c r="D153" s="377"/>
+      <c r="E153" s="378"/>
+      <c r="F153" s="363"/>
+      <c r="G153" s="360"/>
+      <c r="H153" s="356"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:H84" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
@@ -18975,31 +18975,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="438" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="440" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="358">
+      <c r="B4" s="442">
         <v>43396</v>
       </c>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="358"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -23013,71 +23013,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="371" t="s">
+      <c r="A2" s="457" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="373" t="s">
+      <c r="C2" s="459" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="375" t="s">
+      <c r="E2" s="461" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="377" t="s">
+      <c r="F2" s="453" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="377" t="s">
+      <c r="G2" s="453" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="369" t="s">
+      <c r="H2" s="455" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="377" t="s">
+      <c r="I2" s="453" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="369" t="s">
+      <c r="J2" s="453"/>
+      <c r="K2" s="453"/>
+      <c r="L2" s="455" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="369" t="s">
+      <c r="M2" s="455" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="377" t="s">
+      <c r="N2" s="453" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="377" t="s">
+      <c r="O2" s="453" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="369" t="s">
+      <c r="P2" s="455" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="377" t="s">
+      <c r="Q2" s="453" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="377" t="s">
+      <c r="R2" s="453" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="369" t="s">
+      <c r="S2" s="455" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="372"/>
+      <c r="A3" s="458"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="374"/>
+      <c r="C3" s="460"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="370"/>
+      <c r="E3" s="462"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="456"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -23087,14 +23087,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="370"/>
-      <c r="M3" s="370"/>
-      <c r="N3" s="378"/>
-      <c r="O3" s="378"/>
-      <c r="P3" s="370"/>
-      <c r="Q3" s="378"/>
-      <c r="R3" s="378"/>
-      <c r="S3" s="370"/>
+      <c r="L3" s="456"/>
+      <c r="M3" s="456"/>
+      <c r="N3" s="454"/>
+      <c r="O3" s="454"/>
+      <c r="P3" s="456"/>
+      <c r="Q3" s="454"/>
+      <c r="R3" s="454"/>
+      <c r="S3" s="456"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -27037,6 +27037,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -27046,12 +27052,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -28013,19 +28013,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="379" t="s">
+      <c r="B1" s="463" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
+      <c r="K1" s="463"/>
+      <c r="L1" s="463"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28645,43 +28645,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28748,50 +28748,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="427" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
+      <c r="C2" s="427"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="427"/>
+      <c r="F2" s="427"/>
+      <c r="G2" s="427"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="427"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="428" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="428"/>
+      <c r="E3" s="428"/>
+      <c r="F3" s="428"/>
+      <c r="G3" s="428"/>
+      <c r="H3" s="428"/>
+      <c r="I3" s="428"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="345">
+      <c r="B4" s="429">
         <v>44459</v>
       </c>
-      <c r="C4" s="345"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="345"/>
-      <c r="G4" s="345"/>
-      <c r="H4" s="345"/>
-      <c r="I4" s="345"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
-      <c r="I5" s="346"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
     </row>
     <row r="6" spans="2:9" ht="15">
       <c r="B6" s="318" t="s">
@@ -29079,43 +29079,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="464" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29174,43 +29174,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="464" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29263,51 +29263,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="464" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="382" t="s">
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="466" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="382"/>
+      <c r="K3" s="466"/>
+      <c r="L3" s="466"/>
+      <c r="M3" s="466"/>
+      <c r="N3" s="466"/>
+      <c r="O3" s="466"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -29370,43 +29370,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="464" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29537,16 +29537,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="389"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="391"/>
+      <c r="C10" s="473"/>
+      <c r="D10" s="474"/>
+      <c r="E10" s="475"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="392" t="s">
+      <c r="C11" s="476" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="393"/>
-      <c r="E11" s="394"/>
+      <c r="D11" s="477"/>
+      <c r="E11" s="478"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -29594,47 +29594,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="395"/>
-      <c r="D17" s="396"/>
-      <c r="E17" s="397"/>
+      <c r="C17" s="479"/>
+      <c r="D17" s="480"/>
+      <c r="E17" s="481"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="392" t="s">
+      <c r="C18" s="476" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="393"/>
-      <c r="E18" s="394"/>
+      <c r="D18" s="477"/>
+      <c r="E18" s="478"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="395"/>
-      <c r="D19" s="396"/>
-      <c r="E19" s="397"/>
+      <c r="C19" s="479"/>
+      <c r="D19" s="480"/>
+      <c r="E19" s="481"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="392" t="s">
+      <c r="C20" s="476" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="393"/>
-      <c r="E20" s="394"/>
+      <c r="D20" s="477"/>
+      <c r="E20" s="478"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="383"/>
-      <c r="D21" s="384"/>
-      <c r="E21" s="385"/>
+      <c r="C21" s="467"/>
+      <c r="D21" s="468"/>
+      <c r="E21" s="469"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="386" t="s">
+      <c r="C22" s="470" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="387"/>
-      <c r="E22" s="388"/>
+      <c r="D22" s="471"/>
+      <c r="E22" s="472"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="386" t="s">
+      <c r="C23" s="470" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="387"/>
-      <c r="E23" s="388"/>
+      <c r="D23" s="471"/>
+      <c r="E23" s="472"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -30036,46 +30036,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25">
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="427" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
+      <c r="C2" s="427"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="427"/>
+      <c r="F2" s="427"/>
+      <c r="G2" s="427"/>
+      <c r="H2" s="427"/>
     </row>
     <row r="3" spans="2:8" ht="18">
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="428" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="428"/>
+      <c r="E3" s="428"/>
+      <c r="F3" s="428"/>
+      <c r="G3" s="428"/>
+      <c r="H3" s="428"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="345">
+      <c r="B4" s="429">
         <v>44316</v>
       </c>
-      <c r="C4" s="345"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="345"/>
-      <c r="G4" s="345"/>
-      <c r="H4" s="345"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
     </row>
     <row r="6" spans="2:8" ht="30">
       <c r="B6" s="267" t="s">
@@ -30398,10 +30398,10 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -30423,38 +30423,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="437" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="355" t="s">
+      <c r="B2" s="439" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="357">
+      <c r="B3" s="441">
         <v>44133</v>
       </c>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -30885,15 +30885,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="365" t="s">
+      <c r="B26" s="449" t="s">
         <v>1596</v>
       </c>
-      <c r="C26" s="366"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="366"/>
-      <c r="G26" s="366"/>
-      <c r="H26" s="367"/>
+      <c r="C26" s="450"/>
+      <c r="D26" s="450"/>
+      <c r="E26" s="450"/>
+      <c r="F26" s="450"/>
+      <c r="G26" s="450"/>
+      <c r="H26" s="451"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -32297,14 +32297,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="362" t="s">
+      <c r="B91" s="446" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="363"/>
-      <c r="D91" s="363"/>
-      <c r="E91" s="363"/>
-      <c r="F91" s="363"/>
-      <c r="G91" s="364"/>
+      <c r="C91" s="447"/>
+      <c r="D91" s="447"/>
+      <c r="E91" s="447"/>
+      <c r="F91" s="447"/>
+      <c r="G91" s="448"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -33419,14 +33419,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="362" t="s">
+      <c r="B164" s="446" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="363"/>
-      <c r="D164" s="363"/>
-      <c r="E164" s="363"/>
-      <c r="F164" s="363"/>
-      <c r="G164" s="364"/>
+      <c r="C164" s="447"/>
+      <c r="D164" s="447"/>
+      <c r="E164" s="447"/>
+      <c r="F164" s="447"/>
+      <c r="G164" s="448"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -33573,14 +33573,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="362" t="s">
+      <c r="B174" s="446" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="363"/>
-      <c r="D174" s="363"/>
-      <c r="E174" s="363"/>
-      <c r="F174" s="363"/>
-      <c r="G174" s="364"/>
+      <c r="C174" s="447"/>
+      <c r="D174" s="447"/>
+      <c r="E174" s="447"/>
+      <c r="F174" s="447"/>
+      <c r="G174" s="448"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -34069,14 +34069,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="359" t="s">
+      <c r="B242" s="443" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="360"/>
-      <c r="D242" s="360"/>
-      <c r="E242" s="360"/>
-      <c r="F242" s="360"/>
-      <c r="G242" s="361"/>
+      <c r="C242" s="444"/>
+      <c r="D242" s="444"/>
+      <c r="E242" s="444"/>
+      <c r="F242" s="444"/>
+      <c r="G242" s="445"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -34110,10 +34110,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="350" t="s">
+      <c r="E245" s="434" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="350"/>
+      <c r="F245" s="434"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -34122,32 +34122,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="351"/>
-      <c r="F246" s="351"/>
+      <c r="E246" s="435"/>
+      <c r="F246" s="435"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="351"/>
-      <c r="F247" s="351"/>
+      <c r="E247" s="435"/>
+      <c r="F247" s="435"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="351"/>
-      <c r="F248" s="351"/>
+      <c r="E248" s="435"/>
+      <c r="F248" s="435"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="351"/>
-      <c r="F249" s="351"/>
+      <c r="E249" s="435"/>
+      <c r="F249" s="435"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -34158,8 +34158,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="351"/>
-      <c r="F250" s="351"/>
+      <c r="E250" s="435"/>
+      <c r="F250" s="435"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -34168,8 +34168,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="351"/>
-      <c r="F251" s="351"/>
+      <c r="E251" s="435"/>
+      <c r="F251" s="435"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -34178,8 +34178,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="352"/>
-      <c r="F252" s="352"/>
+      <c r="E252" s="436"/>
+      <c r="F252" s="436"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="347" t="s">
+      <c r="E253" s="431" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -34206,7 +34206,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="348"/>
+      <c r="E254" s="432"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -34220,7 +34220,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="348"/>
+      <c r="E255" s="432"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -34232,7 +34232,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="348"/>
+      <c r="E256" s="432"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -34244,7 +34244,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="348"/>
+      <c r="E257" s="432"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -34256,7 +34256,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="348"/>
+      <c r="E258" s="432"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -34268,7 +34268,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="348"/>
+      <c r="E259" s="432"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -34278,7 +34278,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="348"/>
+      <c r="E260" s="432"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -34286,7 +34286,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="348"/>
+      <c r="E261" s="432"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -34296,7 +34296,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="348"/>
+      <c r="E262" s="432"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -34306,7 +34306,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="348"/>
+      <c r="E263" s="432"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -34316,7 +34316,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="349"/>
+      <c r="E264" s="433"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -34328,7 +34328,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="350" t="s">
+      <c r="E265" s="434" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -34342,7 +34342,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="351"/>
+      <c r="E266" s="435"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="351"/>
+      <c r="E267" s="435"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -34366,7 +34366,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="352"/>
+      <c r="E268" s="436"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -34560,35 +34560,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="438" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="440" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="368">
+      <c r="B4" s="452">
         <v>43928</v>
       </c>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="368"/>
+      <c r="C4" s="452"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452"/>
+      <c r="F4" s="452"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34866,13 +34866,13 @@
     </row>
     <row r="2" spans="1:9" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="438" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34883,13 +34883,13 @@
     </row>
     <row r="3" spans="1:9" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="440" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34900,13 +34900,13 @@
     </row>
     <row r="4" spans="1:9" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="358">
+      <c r="B4" s="442">
         <v>43944</v>
       </c>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="358"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -35291,24 +35291,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="438" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="440" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -35316,13 +35316,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="358">
+      <c r="B4" s="442">
         <v>43970</v>
       </c>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="358"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6466790-34C6-45BE-97AE-FE3C93028486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CCA67-D574-4171-B11F-F1B0E937AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -81,40 +81,6 @@
     <author>Vicente Cueva R</author>
   </authors>
   <commentList>
-    <comment ref="G99" authorId="0" shapeId="0" xr:uid="{7CDF3157-A524-4869-8841-5722A1E7C482}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Vicente Cueva R:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Anterior Victoria77</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Vicente Cueva R</author>
-  </authors>
-  <commentList>
     <comment ref="F77" authorId="0" shapeId="0" xr:uid="{50352394-33D4-489B-8420-BC6A185C2547}">
       <text>
         <r>
@@ -168,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="1755">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5575,270 +5541,9 @@
     <t>Ingresando con Gogle</t>
   </si>
   <si>
-    <t>ITEKNIA</t>
-  </si>
-  <si>
-    <t>ITK-GNA-UBT-001</t>
-  </si>
-  <si>
-    <t>635 730 935</t>
-  </si>
-  <si>
-    <t>MULIIX-COMERCIALIZADORA</t>
-  </si>
-  <si>
-    <t>\\177.229.232.7:8084</t>
-  </si>
-  <si>
-    <t>Productivo por IP Publica</t>
-  </si>
-  <si>
-    <t>MULIIX-ITEKNIA</t>
-  </si>
-  <si>
-    <t>\\177.229.232.7:8085</t>
-  </si>
-  <si>
-    <t>MULIIX-QA</t>
-  </si>
-  <si>
-    <t>\\177.229.232.7:8086</t>
-  </si>
-  <si>
-    <t>Ambiente de Pruebas</t>
-  </si>
-  <si>
-    <t>IP: 187.247.242.71,1433</t>
-  </si>
-  <si>
-    <t>Itkc4224a</t>
-  </si>
-  <si>
-    <t>IP: Publica</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
-    <t>Coneccion Remota</t>
-  </si>
-  <si>
-    <t>itkvicente</t>
-  </si>
-  <si>
-    <t>ItkVicente.*</t>
-  </si>
-  <si>
-    <t>MAQUINA CAJERO</t>
-  </si>
-  <si>
-    <t>579 840 879</t>
-  </si>
-  <si>
-    <t>KDBEAUTY</t>
-  </si>
-  <si>
-    <t>964 151 481</t>
-  </si>
-  <si>
-    <t>Equipo Windows 7 (64 bits)</t>
-  </si>
-  <si>
-    <t>KD Beauty</t>
-  </si>
-  <si>
-    <t>Mexico2020</t>
-  </si>
-  <si>
-    <t>TELMEX</t>
-  </si>
-  <si>
-    <t>https://telmex.com/web/negocios</t>
-  </si>
-  <si>
-    <t>mane2107</t>
-  </si>
-  <si>
-    <t>Entrar como Negocio.</t>
-  </si>
-  <si>
     <t>VMA</t>
   </si>
   <si>
-    <t>ACTINVER</t>
-  </si>
-  <si>
-    <t>www.actinver.com</t>
-  </si>
-  <si>
-    <t>93689099</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>BANCO AZTECA</t>
-  </si>
-  <si>
-    <t>Banca Celular</t>
-  </si>
-  <si>
-    <t>4027-6657-1483-1600</t>
-  </si>
-  <si>
-    <t>Mauricio77</t>
-  </si>
-  <si>
-    <t>https://www.bancoazteca.com.mx</t>
-  </si>
-  <si>
-    <t>vcuevar / toke celular</t>
-  </si>
-  <si>
-    <t>NIP 9592   -&gt; Anterior 4758vic</t>
-  </si>
-  <si>
-    <t>CLARO VIDEO</t>
-  </si>
-  <si>
-    <t>https://www.clarovideo.com/mexico/homeuser</t>
-  </si>
-  <si>
-    <t>myssantillan@gmail.com</t>
-  </si>
-  <si>
-    <t>Estudio de PHP</t>
-  </si>
-  <si>
-    <t>GITHUB</t>
-  </si>
-  <si>
-    <t>SIZ_SA</t>
-  </si>
-  <si>
-    <t>SIZ, REPO, KD</t>
-  </si>
-  <si>
-    <t>Para realizar cambios y subir a la Nube.</t>
-  </si>
-  <si>
-    <t>INSTAGRAM</t>
-  </si>
-  <si>
-    <t>confirmacion fue 863924</t>
-  </si>
-  <si>
-    <t>vcuevar77</t>
-  </si>
-  <si>
-    <t>Correo: vcuevar@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cambio de Contraseña. Chente&amp;77</t>
-  </si>
-  <si>
-    <t>vcueva77</t>
-  </si>
-  <si>
-    <t>LINKEEDIN</t>
-  </si>
-  <si>
-    <t>https://mx.linkedin.com/</t>
-  </si>
-  <si>
-    <t>RED SOCIAL DE PROFECIONISTAS</t>
-  </si>
-  <si>
-    <t>MARIA DB (10.6)</t>
-  </si>
-  <si>
-    <t>EQUIPO DELL</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com</t>
-  </si>
-  <si>
-    <t>EmaNetflix2020</t>
-  </si>
-  <si>
-    <t>Cuenta de Emanuel.</t>
-  </si>
-  <si>
-    <t>PREDIAL TONALA</t>
-  </si>
-  <si>
-    <t>https://predialtonala.com/pago/index.html</t>
-  </si>
-  <si>
-    <t>Descargar Forma de Pago</t>
-  </si>
-  <si>
-    <t>C.F.E.</t>
-  </si>
-  <si>
-    <t>https://app.cfe.mx/Aplicaciones/CCFE/MiEspacio/Login.aspx</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>Desbloquear Estados de Cuenta.</t>
-  </si>
-  <si>
-    <t>kzE6D2070763</t>
-  </si>
-  <si>
-    <t>SIAPA</t>
-  </si>
-  <si>
-    <t>http://www.siapa.gob.mx/servicios</t>
-  </si>
-  <si>
-    <t>Recibos de Vicente</t>
-  </si>
-  <si>
-    <t>Recibos de Emanuel</t>
-  </si>
-  <si>
-    <t>3336802181</t>
-  </si>
-  <si>
-    <t>TERTIUS</t>
-  </si>
-  <si>
-    <t>https://acreditados.tertius.com.mx/acceso/tertius</t>
-  </si>
-  <si>
-    <t>160815</t>
-  </si>
-  <si>
-    <t>CREDITO NO. 160815</t>
-  </si>
-  <si>
-    <t>UDEMY</t>
-  </si>
-  <si>
-    <t>udemy.com</t>
-  </si>
-  <si>
-    <t>Curso de Git desde cero</t>
-  </si>
-  <si>
-    <t>Telmex</t>
-  </si>
-  <si>
-    <t>INFINITUM1604_2.4</t>
-  </si>
-  <si>
-    <t>2B6dFvUHi1</t>
-  </si>
-  <si>
-    <t>Casa Real Jacarandas</t>
-  </si>
-  <si>
     <t>COMPUTADOR HAP BLANCA</t>
   </si>
   <si>
@@ -5873,6 +5578,39 @@
   </si>
   <si>
     <t>CURV630707QS9</t>
+  </si>
+  <si>
+    <t>USUARIO SISTEMAS</t>
+  </si>
+  <si>
+    <t>1.- REVISAR QUE TODOS LOS EQUIPOS TENGAN EL ARCHIVOS “Respaldo Zrk.bat” EN EL ESCRITORIO DE WINDOWS, DE NO SER ASI HAY QUE COLOCARLO.</t>
+  </si>
+  <si>
+    <t>2.-ACTUALIZAR EL ARCHIVO “RESUMEN RESPALDOS.xlsx” QUE DE ENCUENTRA EN LA SIGUIENTE RUTA \\ZRK_DCCONTROLER\respaldos_equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t> *OBSERVACION LAS CREDENCIALES PARA ACCESAR A LA RUTA SON:</t>
+  </si>
+  <si>
+    <t>      USUARIO: acceso</t>
+  </si>
+  <si>
+    <t>      CONTRASEÑA: @cc3s0*2022</t>
+  </si>
+  <si>
+    <t>3.-DEPURAR Y REVISAR (LIBRE DE VIRUS) LOS ARCHIVOS DE LA RUTA \\ZRK_DCCONTROLER\respaldos_equipos, SOLAMENTE DEBEN ESTAR LOS VIGENTES.</t>
+  </si>
+  <si>
+    <t>System Landscape Directory</t>
+  </si>
+  <si>
+    <t>766 675 710</t>
+  </si>
+  <si>
+    <t>Usuario Adminiastrados, PWR: Zarkin@2016</t>
   </si>
 </sst>
 </file>
@@ -5884,7 +5622,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6325,6 +6063,18 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -8332,15 +8082,6 @@
     <xf numFmtId="0" fontId="62" fillId="25" borderId="50" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8373,6 +8114,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -15431,9 +15179,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CTAS_PAGOS"/>
+      <sheetName val="PWS"/>
+      <sheetName val="GYM"/>
+      <sheetName val="DOC"/>
       <sheetName val="CTRL-PESO"/>
-      <sheetName val="PWS"/>
-      <sheetName val="DOC"/>
+      <sheetName val="EXP_VIC"/>
       <sheetName val="CATEGORIAS"/>
       <sheetName val="CATALOGO"/>
       <sheetName val="CAPTURA"/>
@@ -15445,13 +15195,16 @@
       <sheetName val="ACTIVER"/>
       <sheetName val="TERTIUS"/>
       <sheetName val="VACACIONES"/>
+      <sheetName val="CFE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="6">
           <cell r="B6" t="str">
             <v>SEMANAL</v>
@@ -15518,45 +15271,46 @@
         </row>
         <row r="15">
           <cell r="J15" t="str">
-            <v>SANTA_V</v>
+            <v>POP_INVE</v>
           </cell>
         </row>
         <row r="16">
           <cell r="J16" t="str">
-            <v>SANTA_Y</v>
+            <v>SANTA_V</v>
           </cell>
         </row>
         <row r="17">
           <cell r="J17" t="str">
-            <v>VICENTE</v>
+            <v>SANTA_Y</v>
           </cell>
         </row>
         <row r="18">
           <cell r="J18" t="str">
-            <v>YOLANDA</v>
+            <v>SJTC</v>
           </cell>
         </row>
         <row r="19">
           <cell r="J19" t="str">
-            <v>ZARKIN_NOMINA</v>
+            <v>VICENTE</v>
           </cell>
         </row>
         <row r="20">
           <cell r="J20" t="str">
-            <v>ZARKIN_RENTA</v>
+            <v>YOLANDA</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15882,15 +15636,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1063F12-5E92-4571-A512-2BC3C4228890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1063F12-5E92-4571-A512-2BC3C4228890}">
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="6" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15900,8 +15654,8 @@
     <col min="3" max="3" width="14" style="346" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="346" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="346" customWidth="1"/>
-    <col min="6" max="6" width="29" style="422" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="423" customWidth="1"/>
+    <col min="6" max="6" width="29" style="419" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="420" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="346" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="346"/>
   </cols>
@@ -15943,8 +15697,8 @@
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="343"/>
       <c r="B4" s="426">
-        <f>MAX(B6:B127)</f>
-        <v>44671</v>
+        <f>MAX(B6:B96)</f>
+        <v>44640</v>
       </c>
       <c r="C4" s="426"/>
       <c r="D4" s="426"/>
@@ -17583,1216 +17337,600 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="355">
-        <v>44566</v>
-      </c>
-      <c r="C88" s="356" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D88" s="356" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E88" s="356" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F88" s="410" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G88" s="358" t="s">
-        <v>979</v>
+      <c r="B88" s="375">
+        <v>44581</v>
+      </c>
+      <c r="C88" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D88" s="377" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E88" s="378"/>
+      <c r="F88" s="363" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="410" t="s">
+        <v>1237</v>
       </c>
       <c r="H88" s="356" t="s">
-        <v>1636</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="375">
-        <v>44588</v>
+        <v>44640</v>
       </c>
       <c r="C89" s="377" t="s">
-        <v>1731</v>
+        <v>1477</v>
       </c>
       <c r="D89" s="377" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E89" s="411" t="s">
-        <v>1735</v>
+        <v>942</v>
+      </c>
+      <c r="E89" s="378" t="s">
+        <v>1579</v>
       </c>
       <c r="F89" s="363" t="s">
-        <v>1520</v>
+        <v>1580</v>
       </c>
       <c r="G89" s="360" t="s">
-        <v>845</v>
+        <v>1581</v>
       </c>
       <c r="H89" s="356" t="s">
-        <v>1736</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="375">
-        <v>44588</v>
+        <v>44640</v>
       </c>
       <c r="C90" s="377" t="s">
-        <v>1731</v>
+        <v>1477</v>
       </c>
       <c r="D90" s="377" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E90" s="411" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F90" s="363" t="s">
-        <v>1520</v>
+        <v>942</v>
+      </c>
+      <c r="E90" s="378" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F90" s="410" t="s">
+        <v>129</v>
       </c>
       <c r="G90" s="360" t="s">
-        <v>845</v>
+        <v>1454</v>
       </c>
       <c r="H90" s="356" t="s">
-        <v>1736</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="375">
-        <v>44588</v>
+        <v>44563</v>
       </c>
       <c r="C91" s="377" t="s">
-        <v>1731</v>
+        <v>1477</v>
       </c>
       <c r="D91" s="377" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E91" s="411" t="s">
-        <v>1740</v>
+        <v>1346</v>
+      </c>
+      <c r="E91" s="378" t="s">
+        <v>1355</v>
       </c>
       <c r="F91" s="363" t="s">
-        <v>1520</v>
+        <v>1502</v>
       </c>
       <c r="G91" s="360" t="s">
-        <v>845</v>
-      </c>
-      <c r="H91" s="356" t="s">
-        <v>1741</v>
+        <v>979</v>
+      </c>
+      <c r="H91" s="411" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="375">
-        <v>44636</v>
+        <v>44581</v>
       </c>
       <c r="C92" s="377" t="s">
-        <v>1731</v>
+        <v>1477</v>
       </c>
       <c r="D92" s="377" t="s">
-        <v>751</v>
+        <v>1346</v>
       </c>
       <c r="E92" s="378" t="s">
-        <v>1742</v>
+        <v>1584</v>
       </c>
       <c r="F92" s="363" t="s">
-        <v>28</v>
+        <v>1585</v>
       </c>
       <c r="G92" s="360" t="s">
-        <v>1743</v>
-      </c>
-      <c r="H92" s="356" t="s">
-        <v>1744</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="H92" s="356"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="375">
-        <v>44565</v>
-      </c>
-      <c r="C93" s="377" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D93" s="377" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E93" s="378" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F93" s="363" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G93" s="360" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H93" s="356"/>
+      <c r="B93" s="412">
+        <v>44581</v>
+      </c>
+      <c r="C93" s="413" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D93" s="413" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E93" s="414" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F93" s="415" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G93" s="416" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H93" s="417" t="s">
+        <v>1736</v>
+      </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="375">
-        <v>44562</v>
+        <v>44581</v>
       </c>
       <c r="C94" s="377" t="s">
-        <v>1674</v>
+        <v>1477</v>
       </c>
       <c r="D94" s="377" t="s">
-        <v>1346</v>
+        <v>1586</v>
       </c>
       <c r="E94" s="378" t="s">
-        <v>1749</v>
+        <v>1587</v>
       </c>
       <c r="F94" s="363" t="s">
-        <v>1750</v>
+        <v>1588</v>
       </c>
       <c r="G94" s="360" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H94" s="356"/>
+        <v>895</v>
+      </c>
+      <c r="H94" s="356" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="375">
-        <v>44563</v>
+        <v>44581</v>
       </c>
       <c r="C95" s="377" t="s">
-        <v>1674</v>
+        <v>1477</v>
       </c>
       <c r="D95" s="377" t="s">
-        <v>1346</v>
+        <v>1586</v>
       </c>
       <c r="E95" s="378" t="s">
-        <v>1751</v>
+        <v>1587</v>
       </c>
       <c r="F95" s="363" t="s">
-        <v>1752</v>
+        <v>1590</v>
       </c>
       <c r="G95" s="360" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H95" s="356"/>
+        <v>979</v>
+      </c>
+      <c r="H95" s="356" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="375">
-        <v>44563</v>
+        <v>44606</v>
       </c>
       <c r="C96" s="377" t="s">
-        <v>1674</v>
+        <v>1477</v>
       </c>
       <c r="D96" s="377" t="s">
-        <v>1753</v>
+        <v>1488</v>
       </c>
       <c r="E96" s="378" t="s">
-        <v>1751</v>
+        <v>1489</v>
       </c>
       <c r="F96" s="363" t="s">
-        <v>1754</v>
+        <v>975</v>
       </c>
       <c r="G96" s="360" t="s">
-        <v>1755</v>
+        <v>1454</v>
       </c>
       <c r="H96" s="356" t="s">
-        <v>1</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="355">
-        <v>44564</v>
-      </c>
-      <c r="C97" s="356" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D97" s="356" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E97" s="379" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F97" s="357" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G97" s="358" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H97" s="356" t="s">
-        <v>1759</v>
-      </c>
+      <c r="B97" s="375">
+        <v>44661</v>
+      </c>
+      <c r="C97" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D97" s="377" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E97" s="378" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F97" s="363" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G97" s="360" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H97" s="356"/>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="355">
-        <v>44603</v>
-      </c>
-      <c r="C98" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D98" s="356" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E98" s="412" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F98" s="360" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G98" s="358" t="s">
-        <v>1232</v>
+      <c r="B98" s="375">
+        <v>44139</v>
+      </c>
+      <c r="C98" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D98" s="377" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E98" s="378" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F98" s="363" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" s="360" t="s">
+        <v>1387</v>
       </c>
       <c r="H98" s="356" t="s">
-        <v>1764</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="355">
-        <v>44537</v>
-      </c>
-      <c r="C99" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D99" s="356" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E99" s="379" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F99" s="360" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G99" s="358" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H99" s="366">
-        <v>475869</v>
-      </c>
+      <c r="B99" s="355"/>
+      <c r="C99" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D99" s="377" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E99" s="356" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F99" s="390" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G99" s="360" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H99" s="356"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="355">
-        <v>44537</v>
-      </c>
-      <c r="C100" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D100" s="356" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E100" s="379" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F100" s="360" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G100" s="358" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H100" s="356" t="s">
-        <v>1771</v>
-      </c>
+      <c r="B100" s="355"/>
+      <c r="C100" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D100" s="377" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E100" s="356" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F100" s="390" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G100" s="360" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H100" s="356"/>
     </row>
     <row r="101" spans="2:8">
       <c r="B101" s="355">
-        <v>44620</v>
-      </c>
-      <c r="C101" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D101" s="356" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E101" s="356" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F101" s="357" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G101" s="358">
-        <v>51853247</v>
+        <v>44873</v>
+      </c>
+      <c r="C101" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D101" s="377" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="H101" s="356" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="375">
-        <v>44564</v>
+        <v>44652</v>
       </c>
       <c r="C102" s="377" t="s">
-        <v>1760</v>
+        <v>1477</v>
       </c>
       <c r="D102" s="377" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E102" s="395" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F102" s="357" t="s">
-        <v>9</v>
+        <v>751</v>
+      </c>
+      <c r="E102" s="378" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F102" s="363" t="s">
+        <v>28</v>
       </c>
       <c r="G102" s="360" t="s">
-        <v>1232</v>
+        <v>18</v>
       </c>
       <c r="H102" s="356" t="s">
-        <v>1775</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="375">
-        <v>44152</v>
+        <v>44319</v>
       </c>
       <c r="C103" s="377" t="s">
-        <v>1760</v>
+        <v>1731</v>
       </c>
       <c r="D103" s="377" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E103" s="378" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F103" s="363" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G103" s="360" t="s">
-        <v>953</v>
-      </c>
-      <c r="H103" s="356"/>
+        <v>1737</v>
+      </c>
+      <c r="E103" s="365" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F103" s="363"/>
+      <c r="G103" s="418"/>
+      <c r="H103" s="356" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="375">
-        <v>44154</v>
-      </c>
-      <c r="C104" s="377" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D104" s="377" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E104" s="377" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F104" s="363" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="360" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H104" s="356" t="s">
-        <v>1779</v>
-      </c>
+      <c r="B104" s="355"/>
+      <c r="C104" s="356" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D104" s="356" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E104" s="356" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F104" s="360" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G104" s="358" t="s">
+        <v>979</v>
+      </c>
+      <c r="H104" s="356"/>
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="355">
-        <v>44610</v>
+        <v>44313</v>
       </c>
       <c r="C105" s="356" t="s">
-        <v>1760</v>
+        <v>1477</v>
       </c>
       <c r="D105" s="356" t="s">
-        <v>1780</v>
+        <v>754</v>
       </c>
       <c r="E105" s="356" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F105" s="357" t="s">
-        <v>1782</v>
+        <v>1527</v>
+      </c>
+      <c r="F105" s="363">
+        <v>1059</v>
       </c>
       <c r="G105" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H105" s="357" t="s">
-        <v>1783</v>
+        <v>25</v>
+      </c>
+      <c r="H105" s="356" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="355">
-        <v>44420</v>
+        <v>44313</v>
       </c>
       <c r="C106" s="356" t="s">
-        <v>1760</v>
+        <v>1477</v>
       </c>
       <c r="D106" s="356" t="s">
-        <v>1780</v>
+        <v>754</v>
       </c>
       <c r="E106" s="356" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F106" s="357" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G106" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H106" s="357" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="355">
-        <v>44610</v>
-      </c>
-      <c r="C107" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D107" s="356" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E107" s="356" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F107" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="358" t="s">
-        <v>979</v>
-      </c>
-      <c r="H107" s="356" t="s">
-        <v>1788</v>
+        <v>1527</v>
+      </c>
+      <c r="F106" s="363" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G106" s="375" t="s">
+        <v>883</v>
+      </c>
+      <c r="H106" s="356" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="30">
+      <c r="B107" s="375">
+        <v>44874</v>
+      </c>
+      <c r="C107" s="377" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D107" s="377" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E107" s="378" t="s">
+        <v>752</v>
+      </c>
+      <c r="F107" s="423" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G107" s="360" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="369" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="380">
-        <v>44640</v>
-      </c>
-      <c r="C108" s="362" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D108" s="362" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E108" s="378" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F108" s="363" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G108" s="363" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H108" s="364" t="s">
-        <v>1511</v>
-      </c>
+      <c r="B108" s="375"/>
+      <c r="C108" s="377"/>
+      <c r="D108" s="377"/>
+      <c r="E108" s="378"/>
+      <c r="F108" s="363"/>
+      <c r="G108" s="360"/>
+      <c r="H108" s="356"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="355">
-        <v>44620</v>
-      </c>
-      <c r="C109" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D109" s="356" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E109" s="379" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F109" s="357" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G109" s="358" t="s">
-        <v>1793</v>
-      </c>
-      <c r="H109" s="356" t="s">
-        <v>1794</v>
-      </c>
+      <c r="B109" s="375"/>
+      <c r="C109" s="377"/>
+      <c r="D109" s="377"/>
+      <c r="E109" s="378"/>
+      <c r="F109" s="363"/>
+      <c r="G109" s="360"/>
+      <c r="H109" s="356"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="375">
-        <v>44567</v>
-      </c>
-      <c r="C110" s="377" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D110" s="377" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E110" s="378" t="s">
-        <v>1796</v>
-      </c>
+      <c r="B110" s="375"/>
+      <c r="C110" s="377"/>
+      <c r="D110" s="377"/>
+      <c r="E110" s="378"/>
       <c r="F110" s="363"/>
       <c r="G110" s="360"/>
-      <c r="H110" s="356" t="s">
-        <v>1797</v>
-      </c>
+      <c r="H110" s="356"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="355">
-        <v>44634</v>
-      </c>
-      <c r="C111" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D111" s="356" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E111" s="379" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F111" s="360" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G111" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H111" s="356" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="375">
-        <v>44573</v>
-      </c>
-      <c r="C112" s="377" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D112" s="377" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E112" s="378" t="s">
-        <v>1801</v>
-      </c>
+      <c r="B111" s="375"/>
+      <c r="C111" s="377"/>
+      <c r="D111" s="377"/>
+      <c r="E111" s="378"/>
+      <c r="F111" s="363"/>
+      <c r="G111" s="360"/>
+      <c r="H111" s="356"/>
+    </row>
+    <row r="112" spans="2:8" ht="15.75">
+      <c r="B112" s="375"/>
+      <c r="C112" s="377"/>
+      <c r="D112" s="422"/>
+      <c r="E112" s="378"/>
       <c r="F112" s="363"/>
-      <c r="G112" s="360" t="s">
-        <v>1802</v>
-      </c>
+      <c r="G112" s="360"/>
       <c r="H112" s="356"/>
     </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="355">
-        <v>44566</v>
-      </c>
-      <c r="C113" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D113" s="356" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E113" s="379" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F113" s="357" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G113" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H113" s="356" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114" s="355">
-        <v>44566</v>
-      </c>
-      <c r="C114" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D114" s="356" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E114" s="379" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F114" s="357" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G114" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H114" s="356" t="s">
-        <v>1806</v>
-      </c>
+    <row r="113" spans="2:8" ht="15.75">
+      <c r="B113" s="375"/>
+      <c r="C113" s="377"/>
+      <c r="D113" s="422" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E113" s="378"/>
+      <c r="F113" s="363"/>
+      <c r="G113" s="360"/>
+      <c r="H113" s="356"/>
+    </row>
+    <row r="114" spans="2:8" ht="15.75">
+      <c r="B114" s="375"/>
+      <c r="C114" s="377"/>
+      <c r="D114" s="422"/>
+      <c r="E114" s="378"/>
+      <c r="F114" s="363"/>
+      <c r="G114" s="360"/>
+      <c r="H114" s="356"/>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="355">
-        <v>44564</v>
-      </c>
-      <c r="C115" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D115" s="356" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E115" s="379" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F115" s="360" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G115" s="358" t="s">
-        <v>1232</v>
-      </c>
+      <c r="B115" s="375"/>
+      <c r="C115" s="377"/>
+      <c r="D115" s="83" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E115" s="378"/>
+      <c r="F115" s="363"/>
+      <c r="G115" s="360"/>
       <c r="H115" s="356"/>
     </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="355">
-        <v>44671</v>
-      </c>
-      <c r="C116" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D116" s="356" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E116" s="379" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F116" s="360" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G116" s="358">
-        <v>6095</v>
-      </c>
-      <c r="H116" s="356" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="375">
-        <v>44652</v>
-      </c>
-      <c r="C117" s="377" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D117" s="377" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E117" s="378" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F117" s="413" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H117" s="356" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="355">
-        <v>44610</v>
-      </c>
-      <c r="C118" s="356" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D118" s="356" t="s">
-        <v>924</v>
-      </c>
-      <c r="E118" s="356" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F118" s="357" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G118" s="358" t="s">
-        <v>1817</v>
-      </c>
-      <c r="H118" s="356" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8">
-      <c r="B119" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C119" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D119" s="377" t="s">
-        <v>1577</v>
+    <row r="116" spans="2:8" ht="15.75">
+      <c r="B116" s="375"/>
+      <c r="C116" s="377"/>
+      <c r="D116" s="422" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E116" s="378"/>
+      <c r="F116" s="363"/>
+      <c r="G116" s="360"/>
+      <c r="H116" s="356"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75">
+      <c r="B117" s="375"/>
+      <c r="C117" s="377"/>
+      <c r="D117" s="422" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E117" s="378"/>
+      <c r="F117" s="363"/>
+      <c r="G117" s="360"/>
+      <c r="H117" s="356"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75">
+      <c r="B118" s="375"/>
+      <c r="C118" s="377"/>
+      <c r="D118" s="422"/>
+      <c r="E118" s="378"/>
+      <c r="F118" s="363"/>
+      <c r="G118" s="360"/>
+      <c r="H118" s="356"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75">
+      <c r="B119" s="375"/>
+      <c r="C119" s="377"/>
+      <c r="D119" s="422" t="s">
+        <v>1749</v>
       </c>
       <c r="E119" s="378"/>
-      <c r="F119" s="363" t="s">
-        <v>44</v>
-      </c>
-      <c r="G119" s="413" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H119" s="356" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="B120" s="375">
-        <v>44640</v>
-      </c>
-      <c r="C120" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D120" s="377" t="s">
-        <v>942</v>
-      </c>
-      <c r="E120" s="378" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F120" s="363" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G120" s="360" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H120" s="356" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="375">
-        <v>44640</v>
-      </c>
-      <c r="C121" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D121" s="377" t="s">
-        <v>942</v>
-      </c>
-      <c r="E121" s="378" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F121" s="413" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H121" s="356" t="s">
-        <v>1583</v>
-      </c>
+      <c r="F119" s="363"/>
+      <c r="G119" s="360"/>
+      <c r="H119" s="356"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75">
+      <c r="B120" s="375"/>
+      <c r="C120" s="377"/>
+      <c r="D120" s="422" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E120" s="378"/>
+      <c r="F120" s="363"/>
+      <c r="G120" s="360"/>
+      <c r="H120" s="356"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75">
+      <c r="B121" s="375"/>
+      <c r="C121" s="377"/>
+      <c r="D121" s="422"/>
+      <c r="E121" s="378"/>
+      <c r="F121" s="363"/>
+      <c r="G121" s="360"/>
+      <c r="H121" s="356"/>
     </row>
     <row r="122" spans="2:8">
-      <c r="B122" s="375">
-        <v>44563</v>
-      </c>
-      <c r="C122" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D122" s="377" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E122" s="378" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F122" s="363" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G122" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H122" s="414" t="s">
-        <v>1357</v>
-      </c>
+      <c r="B122" s="375"/>
+      <c r="C122" s="377"/>
+      <c r="D122" s="83" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E122" s="378"/>
+      <c r="F122" s="363"/>
+      <c r="G122" s="360"/>
+      <c r="H122" s="356"/>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C123" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D123" s="377" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E123" s="378" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F123" s="363" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G123" s="360" t="s">
-        <v>979</v>
-      </c>
+      <c r="B123" s="375"/>
+      <c r="C123" s="377"/>
+      <c r="D123" s="377"/>
+      <c r="E123" s="378"/>
+      <c r="F123" s="363"/>
+      <c r="G123" s="360"/>
       <c r="H123" s="356"/>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="415">
-        <v>44581</v>
-      </c>
-      <c r="C124" s="416" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D124" s="416" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E124" s="417" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F124" s="418" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G124" s="419" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H124" s="420" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C125" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D125" s="377" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E125" s="378" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F125" s="363" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G125" s="360" t="s">
-        <v>895</v>
-      </c>
-      <c r="H125" s="356" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C126" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D126" s="377" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E126" s="378" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F126" s="363" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G126" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H126" s="356" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="375">
-        <v>44606</v>
-      </c>
-      <c r="C127" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D127" s="377" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E127" s="378" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F127" s="363" t="s">
-        <v>975</v>
-      </c>
-      <c r="G127" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H127" s="356" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="375">
-        <v>44661</v>
-      </c>
-      <c r="C128" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D128" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E128" s="378" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F128" s="363" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G128" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H128" s="356"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="375">
-        <v>44139</v>
-      </c>
-      <c r="C129" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D129" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E129" s="378" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F129" s="363" t="s">
-        <v>47</v>
-      </c>
-      <c r="G129" s="360" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H129" s="356" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="355"/>
-      <c r="C130" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D130" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E130" s="356" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F130" s="390" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G130" s="360" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H130" s="356"/>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131" s="355"/>
-      <c r="C131" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D131" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E131" s="356" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F131" s="390" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G131" s="360" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H131" s="356"/>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="375">
-        <v>44652</v>
-      </c>
-      <c r="C132" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D132" s="377" t="s">
-        <v>751</v>
-      </c>
-      <c r="E132" s="378" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F132" s="363" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" s="360" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="356" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="375">
-        <v>44319</v>
-      </c>
-      <c r="C133" s="377" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D133" s="377" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E133" s="365" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F133" s="363"/>
-      <c r="G133" s="421"/>
-      <c r="H133" s="356" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="355"/>
-      <c r="C134" s="356" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D134" s="356" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E134" s="356" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F134" s="360" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G134" s="358" t="s">
-        <v>979</v>
-      </c>
-      <c r="H134" s="356"/>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="375"/>
-      <c r="C135" s="377"/>
-      <c r="D135" s="377"/>
-      <c r="E135" s="378"/>
-      <c r="F135" s="363"/>
-      <c r="G135" s="360"/>
-      <c r="H135" s="356"/>
-    </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="375"/>
-      <c r="C136" s="377"/>
-      <c r="D136" s="377"/>
-      <c r="E136" s="378"/>
-      <c r="F136" s="363"/>
-      <c r="G136" s="360"/>
-      <c r="H136" s="356"/>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="375"/>
-      <c r="C137" s="377"/>
-      <c r="D137" s="377"/>
-      <c r="E137" s="378"/>
-      <c r="F137" s="363"/>
-      <c r="G137" s="360"/>
-      <c r="H137" s="356"/>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="375"/>
-      <c r="C138" s="377"/>
-      <c r="D138" s="377"/>
-      <c r="E138" s="378"/>
-      <c r="F138" s="363"/>
-      <c r="G138" s="360"/>
-      <c r="H138" s="356"/>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="375"/>
-      <c r="C139" s="377"/>
-      <c r="D139" s="377"/>
-      <c r="E139" s="378"/>
-      <c r="F139" s="363"/>
-      <c r="G139" s="360"/>
-      <c r="H139" s="356"/>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="375"/>
-      <c r="C140" s="377"/>
-      <c r="D140" s="377"/>
-      <c r="E140" s="378"/>
-      <c r="F140" s="363"/>
-      <c r="G140" s="360"/>
-      <c r="H140" s="356"/>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="375"/>
-      <c r="C141" s="377"/>
-      <c r="D141" s="377"/>
-      <c r="E141" s="378"/>
-      <c r="F141" s="363"/>
-      <c r="G141" s="360"/>
-      <c r="H141" s="356"/>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="375"/>
-      <c r="C142" s="377"/>
-      <c r="D142" s="377"/>
-      <c r="E142" s="378"/>
-      <c r="F142" s="363"/>
-      <c r="G142" s="360"/>
-      <c r="H142" s="356"/>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="375"/>
-      <c r="C143" s="377"/>
-      <c r="D143" s="377"/>
-      <c r="E143" s="378"/>
-      <c r="F143" s="363"/>
-      <c r="G143" s="360"/>
-      <c r="H143" s="356"/>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="375"/>
-      <c r="C144" s="377"/>
-      <c r="D144" s="377"/>
-      <c r="E144" s="378"/>
-      <c r="F144" s="363"/>
-      <c r="G144" s="360"/>
-      <c r="H144" s="356"/>
-    </row>
-    <row r="145" spans="2:8">
-      <c r="B145" s="375"/>
-      <c r="C145" s="377"/>
-      <c r="D145" s="377"/>
-      <c r="E145" s="378"/>
-      <c r="F145" s="363"/>
-      <c r="G145" s="360"/>
-      <c r="H145" s="356"/>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="375"/>
-      <c r="C146" s="377"/>
-      <c r="D146" s="377"/>
-      <c r="E146" s="378"/>
-      <c r="F146" s="363"/>
-      <c r="G146" s="360"/>
-      <c r="H146" s="356"/>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="375"/>
-      <c r="C147" s="377"/>
-      <c r="D147" s="377"/>
-      <c r="E147" s="378"/>
-      <c r="F147" s="363"/>
-      <c r="G147" s="360"/>
-      <c r="H147" s="356"/>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="375"/>
-      <c r="C148" s="377"/>
-      <c r="D148" s="377"/>
-      <c r="E148" s="378"/>
-      <c r="F148" s="363"/>
-      <c r="G148" s="360"/>
-      <c r="H148" s="356"/>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="375"/>
-      <c r="C149" s="377"/>
-      <c r="D149" s="377"/>
-      <c r="E149" s="378"/>
-      <c r="F149" s="363"/>
-      <c r="G149" s="360"/>
-      <c r="H149" s="356"/>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="375"/>
-      <c r="C150" s="377"/>
-      <c r="D150" s="377"/>
-      <c r="E150" s="378"/>
-      <c r="F150" s="363"/>
-      <c r="G150" s="360"/>
-      <c r="H150" s="356"/>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="375"/>
-      <c r="C151" s="377"/>
-      <c r="D151" s="377"/>
-      <c r="E151" s="378"/>
-      <c r="F151" s="363"/>
-      <c r="G151" s="360"/>
-      <c r="H151" s="356"/>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="375"/>
-      <c r="C152" s="377"/>
-      <c r="D152" s="377"/>
-      <c r="E152" s="378"/>
-      <c r="F152" s="363"/>
-      <c r="G152" s="360"/>
-      <c r="H152" s="356"/>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="375"/>
-      <c r="C153" s="377"/>
-      <c r="D153" s="377"/>
-      <c r="E153" s="378"/>
-      <c r="F153" s="363"/>
-      <c r="G153" s="360"/>
-      <c r="H153" s="356"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:H84" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
@@ -18804,64 +17942,48 @@
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
     <hyperlink ref="F33" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
-    <hyperlink ref="F107" r:id="rId3" xr:uid="{5FA414C6-46A4-4C7F-A712-E1B746563432}"/>
-    <hyperlink ref="F41" r:id="rId4" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
-    <hyperlink ref="E98" r:id="rId5" xr:uid="{DA406CE0-1BBD-457F-9F2A-02119C6AAF11}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
-    <hyperlink ref="F101" r:id="rId7" xr:uid="{439BF325-0267-47D6-92EA-26281EE8EFDE}"/>
-    <hyperlink ref="H105" r:id="rId8" display="vcuevar@hotmail.com" xr:uid="{C390586B-1D98-4428-AB09-089F8FCAA5EA}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
-    <hyperlink ref="E100" r:id="rId10" xr:uid="{46FE91AB-390B-4089-9CE0-AFE59A7475EF}"/>
-    <hyperlink ref="E31" r:id="rId11" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
-    <hyperlink ref="F31" r:id="rId12" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
-    <hyperlink ref="F40" r:id="rId13" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
-    <hyperlink ref="E63" r:id="rId15" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
-    <hyperlink ref="F63" r:id="rId16" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
-    <hyperlink ref="F71" r:id="rId17" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
-    <hyperlink ref="F35" r:id="rId18" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
-    <hyperlink ref="E35" r:id="rId19" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
-    <hyperlink ref="E113" r:id="rId20" xr:uid="{C170DE9A-0207-48CD-8FD5-3754D5193941}"/>
-    <hyperlink ref="E114" r:id="rId21" xr:uid="{BB636EFA-C3F5-4907-8E75-61E0E66EC11D}"/>
-    <hyperlink ref="E44" r:id="rId22" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
-    <hyperlink ref="E43" r:id="rId23" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
-    <hyperlink ref="F97" r:id="rId24" xr:uid="{3CE4861D-8817-42A6-8051-9463056AF6B4}"/>
-    <hyperlink ref="E13" r:id="rId25" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
-    <hyperlink ref="F15" r:id="rId26" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
-    <hyperlink ref="E14" r:id="rId27" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
-    <hyperlink ref="E109" r:id="rId28" xr:uid="{B11AC502-2E29-4AB0-99BC-B7276C8B8E86}"/>
-    <hyperlink ref="F109" r:id="rId29" xr:uid="{11BE1C20-9A86-49A1-94D3-07631F11D4A3}"/>
-    <hyperlink ref="F18" r:id="rId30" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
-    <hyperlink ref="E18" r:id="rId31" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
-    <hyperlink ref="E19" r:id="rId32" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
-    <hyperlink ref="E17" r:id="rId33" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
-    <hyperlink ref="E48" r:id="rId34" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
-    <hyperlink ref="E49" r:id="rId35" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
-    <hyperlink ref="E111" r:id="rId36" xr:uid="{3AD6A902-3FC4-413D-A3CF-D124D700489B}"/>
-    <hyperlink ref="E82" r:id="rId37" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="E133" r:id="rId38" xr:uid="{FB98D9A3-41EE-4E93-A02F-ADE48E1734BC}"/>
-    <hyperlink ref="H106" r:id="rId39" display="vcuevar@hotmail.com" xr:uid="{D0C0061D-CCB8-444B-ACF3-F971D0528799}"/>
-    <hyperlink ref="F20" r:id="rId40" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
-    <hyperlink ref="F84" r:id="rId41" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F26" r:id="rId42" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E26" r:id="rId43" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="E102" r:id="rId44" xr:uid="{9B03951B-307A-46CD-B8ED-A4DDB2D53E2E}"/>
-    <hyperlink ref="F102" r:id="rId45" xr:uid="{C2603BFC-10BF-4C5B-A57B-F2D00378D406}"/>
-    <hyperlink ref="G119" r:id="rId46" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="E90" r:id="rId47" xr:uid="{E6AE1821-184F-4012-B116-C9C5D4FD2F03}"/>
-    <hyperlink ref="E89" r:id="rId48" xr:uid="{C57F5330-EAEA-4C37-8078-3705B9F2065B}"/>
-    <hyperlink ref="E91" r:id="rId49" xr:uid="{DC802306-4CB1-4B4E-8C10-9F950449EECC}"/>
-    <hyperlink ref="F121" r:id="rId50" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="F117" r:id="rId51" xr:uid="{ACF9FD4E-C81D-4073-9A3E-F5FB69E06F15}"/>
+    <hyperlink ref="F41" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
+    <hyperlink ref="E31" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
+    <hyperlink ref="F31" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
+    <hyperlink ref="F40" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
+    <hyperlink ref="F23" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
+    <hyperlink ref="E63" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
+    <hyperlink ref="F63" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
+    <hyperlink ref="F71" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
+    <hyperlink ref="F35" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
+    <hyperlink ref="E35" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
+    <hyperlink ref="E44" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
+    <hyperlink ref="E43" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
+    <hyperlink ref="E14" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
+    <hyperlink ref="E18" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
+    <hyperlink ref="E19" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
+    <hyperlink ref="E17" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
+    <hyperlink ref="E48" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
+    <hyperlink ref="E49" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
+    <hyperlink ref="E82" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
+    <hyperlink ref="E103" r:id="rId27" xr:uid="{FB98D9A3-41EE-4E93-A02F-ADE48E1734BC}"/>
+    <hyperlink ref="F20" r:id="rId28" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
+    <hyperlink ref="F84" r:id="rId29" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F26" r:id="rId30" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E26" r:id="rId31" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G88" r:id="rId32" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F90" r:id="rId33" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="D115" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
+    <hyperlink ref="D122" r:id="rId35" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
+    <hyperlink ref="E101" r:id="rId36" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId53"/>
-  <legacyDrawing r:id="rId54"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -30019,7 +29141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -30218,7 +29340,7 @@
       <c r="B13" s="268">
         <v>44179</v>
       </c>
-      <c r="C13" s="259" t="s">
+      <c r="C13" s="421" t="s">
         <v>1391</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -30241,7 +29363,7 @@
       <c r="B14" s="268">
         <v>44316</v>
       </c>
-      <c r="C14" s="259" t="s">
+      <c r="C14" s="421" t="s">
         <v>1395</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -30398,7 +29520,7 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
@@ -34845,8 +33967,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -35270,7 +34392,7 @@
   <sheetPr codeName="Hoja30"/>
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="B88" sqref="B88:E122"/>
     </sheetView>
   </sheetViews>

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CCA67-D574-4171-B11F-F1B0E937AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F95B9A-9FA0-46CA-AF9D-F6BA4F28FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1778">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5562,9 +5562,6 @@
     <t>CONFERENCIAS</t>
   </si>
   <si>
-    <t>https://meet.google.com/msw-ajjy-ufr</t>
-  </si>
-  <si>
     <t>Genere para Conferencias por Meet</t>
   </si>
   <si>
@@ -5611,6 +5608,78 @@
   </si>
   <si>
     <t>Usuario Adminiastrados, PWR: Zarkin@2016</t>
+  </si>
+  <si>
+    <t>En escritorio Remoto SAP 10</t>
+  </si>
+  <si>
+    <t>177.231.13.170</t>
+  </si>
+  <si>
+    <t>según : https://www.cual-es-mi-ip.net/</t>
+  </si>
+  <si>
+    <t>Nuevo Modem Instalado 24/Nov/2022</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fzw-uwqu-utd</t>
+  </si>
+  <si>
+    <t>UBC1322</t>
+  </si>
+  <si>
+    <t>Nuevo Modem Instalado 19/Diciembre/2022</t>
+  </si>
+  <si>
+    <t>Modelo:</t>
+  </si>
+  <si>
+    <t>BC-RT905</t>
+  </si>
+  <si>
+    <t>http//192.168.1.1</t>
+  </si>
+  <si>
+    <t>UserName:</t>
+  </si>
+  <si>
+    <t>Paswword:</t>
+  </si>
+  <si>
+    <t>MEGACABLE_5G_B794</t>
+  </si>
+  <si>
+    <t>F3y7X3J9R2k8T2Q3a2a2</t>
+  </si>
+  <si>
+    <t>Puerto se necesitan Abiertos (Interno y Externo)</t>
+  </si>
+  <si>
+    <t>La IP Fija debe apuntar</t>
+  </si>
+  <si>
+    <t>162.168.1.3</t>
+  </si>
+  <si>
+    <t>IP Publica</t>
+  </si>
+  <si>
+    <t>177.245.195.214</t>
+  </si>
+  <si>
+    <t>#94143A@4894B7*</t>
+  </si>
+  <si>
+    <t>COMPUTADORA DELL</t>
+  </si>
+  <si>
+    <t>ZARKIN-092</t>
+  </si>
+  <si>
+    <t>Maquina asignada a Mi.</t>
+  </si>
+  <si>
+    <t>CABLEMODEM DUAL BAND BC-RT905</t>
   </si>
 </sst>
 </file>
@@ -5622,7 +5691,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="72">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6075,6 +6144,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7047,7 +7122,7 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="482">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7524,13 +7599,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="52" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7572,10 +7647,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7624,10 +7699,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7715,13 +7790,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="56" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7730,7 +7805,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7757,7 +7832,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8106,9 +8180,6 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8122,6 +8193,46 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="24" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="24" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="24" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8206,6 +8317,9 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8316,8 +8430,8 @@
   <colors>
     <mruColors>
       <color rgb="FFCCFF33"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF99FF33"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC00CC"/>
       <color rgb="FFCCCC00"/>
@@ -13351,6 +13465,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>524693</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>48174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BE5DEE-C193-9778-65EB-F76895F7FAB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="1676400"/>
+          <a:ext cx="5858693" cy="3934374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10520CA9-C46F-7BAF-EF8A-222BC6DE6911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="704850"/>
+          <a:ext cx="5553850" cy="2562583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13626,16 +13828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>480632</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>147226</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452057</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13663,8 +13865,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="142875"/>
-          <a:ext cx="1652207" cy="4351"/>
+          <a:off x="5514975" y="314325"/>
+          <a:ext cx="1528382" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13922,7 +14124,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>874764</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>151795</xdr:rowOff>
+      <xdr:rowOff>132745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14233,6 +14435,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467747</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08937A87-0C77-13EE-195B-42D10DDA1D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="2466975"/>
+          <a:ext cx="7325747" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>448169</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE2599C-01A7-418B-4717-EC3F40A714CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="15497174" y="2590799"/>
+          <a:ext cx="4801095" cy="3136199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15179,13 +15469,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CTAS_PAGOS"/>
+      <sheetName val="CTRL-PESO"/>
       <sheetName val="PWS"/>
       <sheetName val="GYM"/>
       <sheetName val="DOC"/>
-      <sheetName val="CTRL-PESO"/>
-      <sheetName val="EXP_VIC"/>
       <sheetName val="CATEGORIAS"/>
-      <sheetName val="CATALOGO"/>
       <sheetName val="CAPTURA"/>
       <sheetName val="RESUMEN"/>
       <sheetName val="CXP"/>
@@ -15203,8 +15491,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5">
         <row r="6">
           <cell r="B6" t="str">
             <v>SEMANAL</v>
@@ -15300,6 +15587,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -15309,8 +15597,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15640,2300 +15926,2323 @@
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="346" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="346" customWidth="1"/>
-    <col min="3" max="3" width="14" style="346" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="346" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="346" customWidth="1"/>
-    <col min="6" max="6" width="29" style="419" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="420" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="346" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="346"/>
+    <col min="1" max="1" width="3.5703125" style="345" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="345" customWidth="1"/>
+    <col min="3" max="3" width="14" style="345" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="345" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="345" customWidth="1"/>
+    <col min="6" max="6" width="29" style="417" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="418" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="345" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="345"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="343"/>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="343"/>
+      <c r="A1" s="342"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="342"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="424" t="s">
+      <c r="A2" s="342"/>
+      <c r="B2" s="436" t="s">
         <v>1597</v>
       </c>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="343"/>
-      <c r="B3" s="425" t="s">
+      <c r="A3" s="342"/>
+      <c r="B3" s="437" t="s">
         <v>1598</v>
       </c>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
+      <c r="C3" s="437"/>
+      <c r="D3" s="437"/>
+      <c r="E3" s="437"/>
+      <c r="F3" s="437"/>
+      <c r="G3" s="437"/>
+      <c r="H3" s="437"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="343"/>
-      <c r="B4" s="426">
-        <f>MAX(B6:B96)</f>
+      <c r="A4" s="342"/>
+      <c r="B4" s="438">
+        <f>MAX(B6:B97)</f>
+        <v>44925</v>
+      </c>
+      <c r="C4" s="438"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="438"/>
+      <c r="F4" s="438"/>
+      <c r="G4" s="438"/>
+      <c r="H4" s="438"/>
+    </row>
+    <row r="5" spans="1:9" ht="18">
+      <c r="A5" s="342"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="346"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="346"/>
+    </row>
+    <row r="6" spans="1:9" s="353" customFormat="1" ht="30">
+      <c r="A6" s="349"/>
+      <c r="B6" s="350" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C6" s="351" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D6" s="351" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E6" s="351" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F6" s="352" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="351" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="351" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I6" s="349"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="342"/>
+      <c r="B7" s="354"/>
+      <c r="C7" s="355" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D7" s="355" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G7" s="357"/>
+      <c r="H7" s="355" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I7" s="342"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="342"/>
+      <c r="B8" s="354"/>
+      <c r="C8" s="355" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D8" s="355" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E8" s="355" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F8" s="357" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G8" s="357" t="s">
+        <v>979</v>
+      </c>
+      <c r="H8" s="355"/>
+      <c r="I8" s="342"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="342"/>
+      <c r="B9" s="354">
+        <v>44300</v>
+      </c>
+      <c r="C9" s="355" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D9" s="355" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E9" s="355" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F9" s="357" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G9" s="357" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H9" s="355"/>
+      <c r="I9" s="342"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="342"/>
+      <c r="B10" s="354"/>
+      <c r="C10" s="355" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D10" s="355" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E10" s="355" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F10" s="357" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G10" s="357" t="s">
+        <v>979</v>
+      </c>
+      <c r="H10" s="355"/>
+      <c r="I10" s="342"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="342"/>
+      <c r="B11" s="354">
+        <v>44307</v>
+      </c>
+      <c r="C11" s="355" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D11" s="355" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E11" s="358" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F11" s="357" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G11" s="359" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="355" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I11" s="342"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="342"/>
+      <c r="B12" s="360">
+        <v>44309</v>
+      </c>
+      <c r="C12" s="361" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D12" s="361" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E12" s="362" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F12" s="359" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G12" s="359" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="363" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I12" s="342"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="342"/>
+      <c r="B13" s="354"/>
+      <c r="C13" s="355" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D13" s="355" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E13" s="364" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G13" s="357" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H13" s="365" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I13" s="342"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="342"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="355" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D14" s="355" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E14" s="364" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F14" s="359" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G14" s="357" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H14" s="365" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I14" s="342"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="342"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="355" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D15" s="355" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E15" s="355" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F15" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="357"/>
+      <c r="H15" s="355" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I15" s="342"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="342"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="366" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D16" s="355" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E16" s="355" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F16" s="356" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G16" s="357">
+        <v>4578</v>
+      </c>
+      <c r="H16" s="355"/>
+      <c r="I16" s="342"/>
+    </row>
+    <row r="17" spans="1:9" ht="105">
+      <c r="A17" s="342"/>
+      <c r="B17" s="354">
+        <v>44188</v>
+      </c>
+      <c r="C17" s="367" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D17" s="368" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E17" s="369" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F17" s="359" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="359" t="s">
+        <v>895</v>
+      </c>
+      <c r="H17" s="370" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I17" s="342"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="342"/>
+      <c r="B18" s="354">
+        <v>44295</v>
+      </c>
+      <c r="C18" s="371" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D18" s="372" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E18" s="373" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F18" s="316" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="374" t="s">
+        <v>845</v>
+      </c>
+      <c r="H18" s="355" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I18" s="342"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="342"/>
+      <c r="B19" s="354">
+        <v>44295</v>
+      </c>
+      <c r="C19" s="371" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D19" s="372" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="373" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="375" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="374" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="368" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I19" s="342"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="342"/>
+      <c r="B20" s="374">
+        <v>44469</v>
+      </c>
+      <c r="C20" s="376" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="376" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E20" s="377" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F20" s="356" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="359" t="s">
+        <v>979</v>
+      </c>
+      <c r="H20" s="355" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I20" s="342"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="354"/>
+      <c r="C21" s="355" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D21" s="355" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E21" s="355"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="357"/>
+      <c r="H21" s="355" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I21" s="342"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="354"/>
+      <c r="C22" s="355" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D22" s="355" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E22" s="355"/>
+      <c r="F22" s="356"/>
+      <c r="G22" s="357"/>
+      <c r="H22" s="355" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="354"/>
+      <c r="C23" s="355" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D23" s="355"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="357" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H23" s="355"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="354"/>
+      <c r="C24" s="355" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D24" s="355" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E24" s="378" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F24" s="356" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G24" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H24" s="355"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="354"/>
+      <c r="C25" s="355" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D25" s="355" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E25" s="355" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F25" s="356" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G25" s="357" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H25" s="355"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="354"/>
+      <c r="C26" s="355" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D26" s="355" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E26" s="378" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F26" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="359" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H26" s="355"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="354">
+        <v>44305</v>
+      </c>
+      <c r="C27" s="361" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D27" s="355" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E27" s="355" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F27" s="357" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G27" s="357" t="s">
+        <v>845</v>
+      </c>
+      <c r="H27" s="377" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="360">
+        <v>44105</v>
+      </c>
+      <c r="C28" s="361" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D28" s="377" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="377" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F28" s="362" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G28" s="359" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="377" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="374">
+        <v>44354</v>
+      </c>
+      <c r="C29" s="376" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D29" s="376" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E29" s="376" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F29" s="362" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G29" s="359" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="377" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="360">
+        <v>43945</v>
+      </c>
+      <c r="C30" s="361" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D30" s="361" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E30" s="377" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F30" s="362" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G30" s="362" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H30" s="377" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="354"/>
+      <c r="C31" s="366" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D31" s="355" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E31" s="378" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F31" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H31" s="355" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="354"/>
+      <c r="C32" s="355" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D32" s="355" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E32" s="355"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="357"/>
+      <c r="H32" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="354"/>
+      <c r="C33" s="366" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D33" s="355" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E33" s="355" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F33" s="356" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G33" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H33" s="355" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="354"/>
+      <c r="C34" s="355" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D34" s="355" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E34" s="378" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F34" s="359" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G34" s="357" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H34" s="355"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="354"/>
+      <c r="C35" s="355" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D35" s="355" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E35" s="378" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F35" s="356" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G35" s="357" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H35" s="355"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="379">
+        <v>44108</v>
+      </c>
+      <c r="C36" s="380" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D36" s="361" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E36" s="362" t="s">
+        <v>944</v>
+      </c>
+      <c r="F36" s="359"/>
+      <c r="G36" s="359"/>
+      <c r="H36" s="363" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="354"/>
+      <c r="C37" s="381" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D37" s="382"/>
+      <c r="E37" s="355"/>
+      <c r="F37" s="356"/>
+      <c r="G37" s="357" t="s">
+        <v>843</v>
+      </c>
+      <c r="H37" s="355" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="354"/>
+      <c r="C38" s="381" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D38" s="382" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E38" s="382" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F38" s="383" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G38" s="384" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H38" s="385"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="379">
+        <v>44133</v>
+      </c>
+      <c r="C39" s="380" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D39" s="361" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E39" s="362" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F39" s="362" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G39" s="359" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="363" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="354"/>
+      <c r="C40" s="355" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="355" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E40" s="355"/>
+      <c r="F40" s="356" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G40" s="357" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H40" s="355" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="354"/>
+      <c r="C41" s="355" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D41" s="355" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E41" s="355" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F41" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="386" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H41" s="357" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="360">
+        <v>44144</v>
+      </c>
+      <c r="C42" s="361" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D42" s="361" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E42" s="377" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F42" s="387" t="s">
+        <v>951</v>
+      </c>
+      <c r="G42" s="359" t="s">
+        <v>953</v>
+      </c>
+      <c r="H42" s="363" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="354"/>
+      <c r="C43" s="355" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D43" s="355" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E43" s="378" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F43" s="356"/>
+      <c r="G43" s="357"/>
+      <c r="H43" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="354"/>
+      <c r="C44" s="355" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D44" s="355" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E44" s="378" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F44" s="356" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G44" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H44" s="355" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="354"/>
+      <c r="C45" s="355" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D45" s="355" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E45" s="355"/>
+      <c r="F45" s="356"/>
+      <c r="G45" s="357"/>
+      <c r="H45" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="354">
+        <v>44313</v>
+      </c>
+      <c r="C46" s="366" t="s">
+        <v>754</v>
+      </c>
+      <c r="D46" s="355" t="s">
+        <v>882</v>
+      </c>
+      <c r="E46" s="355" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F46" s="362">
+        <v>1059</v>
+      </c>
+      <c r="G46" s="357" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="355" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="354">
+        <v>44313</v>
+      </c>
+      <c r="C47" s="366" t="s">
+        <v>754</v>
+      </c>
+      <c r="D47" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="355" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F47" s="362" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G47" s="374" t="s">
+        <v>883</v>
+      </c>
+      <c r="H47" s="355" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="379">
+        <v>44165</v>
+      </c>
+      <c r="C48" s="380" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D48" s="361" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E48" s="296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F48" s="362" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G48" s="362" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H48" s="363" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="379">
+        <v>44165</v>
+      </c>
+      <c r="C49" s="380" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D49" s="361" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E49" s="296" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F49" s="362" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G49" s="362" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H49" s="388" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="354"/>
+      <c r="C50" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D50" s="355" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E50" s="355" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F50" s="389" t="s">
+        <v>882</v>
+      </c>
+      <c r="G50" s="359" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H50" s="355"/>
+    </row>
+    <row r="51" spans="2:8" ht="25.5">
+      <c r="B51" s="354"/>
+      <c r="C51" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D51" s="390" t="s">
+        <v>874</v>
+      </c>
+      <c r="E51" s="390"/>
+      <c r="F51" s="375" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="374" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H51" s="390" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="25.5">
+      <c r="B52" s="354"/>
+      <c r="C52" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D52" s="390" t="s">
+        <v>874</v>
+      </c>
+      <c r="E52" s="390"/>
+      <c r="F52" s="375" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="374" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H52" s="390" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="374"/>
+      <c r="C53" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D53" s="390" t="s">
+        <v>874</v>
+      </c>
+      <c r="E53" s="375" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F53" s="374" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G53" s="374" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H53" s="390"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="354"/>
+      <c r="C54" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D54" s="390" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E54" s="390"/>
+      <c r="F54" s="375" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="374" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H54" s="390"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="354"/>
+      <c r="C55" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D55" s="390" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E55" s="390" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="375" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G55" s="374" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H55" s="390"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="354"/>
+      <c r="C56" s="366" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D56" s="355" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E56" s="355"/>
+      <c r="F56" s="389" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G56" s="357" t="s">
+        <v>845</v>
+      </c>
+      <c r="H56" s="355"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="354"/>
+      <c r="C57" s="355" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D57" s="355" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E57" s="355"/>
+      <c r="F57" s="356"/>
+      <c r="G57" s="357"/>
+      <c r="H57" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="374">
+        <v>44295</v>
+      </c>
+      <c r="C58" s="367" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D58" s="376" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E58" s="377" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F58" s="362" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G58" s="359" t="s">
+        <v>845</v>
+      </c>
+      <c r="H58" s="355" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="374">
+        <v>44295</v>
+      </c>
+      <c r="C59" s="367" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D59" s="376" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E59" s="377" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F59" s="362" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G59" s="359" t="s">
+        <v>845</v>
+      </c>
+      <c r="H59" s="355" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="374">
+        <v>44147</v>
+      </c>
+      <c r="C60" s="367" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D60" s="376" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E60" s="377" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F60" s="362" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G60" s="359" t="s">
+        <v>845</v>
+      </c>
+      <c r="H60" s="355" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="354"/>
+      <c r="C61" s="355" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D61" s="355" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E61" s="355"/>
+      <c r="F61" s="356"/>
+      <c r="G61" s="357"/>
+      <c r="H61" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="354"/>
+      <c r="C62" s="355" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D62" s="355" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E62" s="355"/>
+      <c r="F62" s="356"/>
+      <c r="G62" s="357"/>
+      <c r="H62" s="355" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="354"/>
+      <c r="C63" s="355" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D63" s="355" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E63" s="378" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F63" s="356" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G63" s="357" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H63" s="355"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="360">
+        <v>44162</v>
+      </c>
+      <c r="C64" s="380" t="s">
+        <v>751</v>
+      </c>
+      <c r="D64" s="361" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E64" s="362" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F64" s="362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="362" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H64" s="388"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="379">
+        <v>44302</v>
+      </c>
+      <c r="C65" s="380" t="s">
+        <v>751</v>
+      </c>
+      <c r="D65" s="361" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E65" s="362" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F65" s="362" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G65" s="362" t="s">
+        <v>845</v>
+      </c>
+      <c r="H65" s="363" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="360"/>
+      <c r="C66" s="380" t="s">
+        <v>751</v>
+      </c>
+      <c r="D66" s="361" t="s">
+        <v>748</v>
+      </c>
+      <c r="E66" s="362" t="s">
+        <v>748</v>
+      </c>
+      <c r="F66" s="362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="362" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="363" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="379">
+        <v>44139</v>
+      </c>
+      <c r="C67" s="380" t="s">
+        <v>751</v>
+      </c>
+      <c r="D67" s="361" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E67" s="362" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F67" s="362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="362" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="363" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="391">
+        <v>44302</v>
+      </c>
+      <c r="C68" s="355" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D68" s="355" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E68" s="355" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F68" s="356" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G68" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H68" s="355" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="391">
+        <v>44302</v>
+      </c>
+      <c r="C69" s="355" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D69" s="355" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E69" s="355"/>
+      <c r="F69" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H69" s="355"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="354"/>
+      <c r="C70" s="355" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D70" s="355" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E70" s="355" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F70" s="359" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G70" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H70" s="355"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="354"/>
+      <c r="C71" s="355" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D71" s="355" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E71" s="355" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F71" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H71" s="355"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="354"/>
+      <c r="C72" s="355" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D72" s="355" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E72" s="355"/>
+      <c r="F72" s="356"/>
+      <c r="G72" s="357"/>
+      <c r="H72" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="354"/>
+      <c r="C73" s="355" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D73" s="355" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E73" s="355"/>
+      <c r="F73" s="356"/>
+      <c r="G73" s="357"/>
+      <c r="H73" s="355" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="354"/>
+      <c r="C74" s="355" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D74" s="355" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E74" s="355"/>
+      <c r="F74" s="356"/>
+      <c r="G74" s="357"/>
+      <c r="H74" s="355" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="F75" s="345"/>
+      <c r="G75" s="345"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="354"/>
+      <c r="C76" s="355" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D76" s="355" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E76" s="355" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F76" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="357" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H76" s="355" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="354"/>
+      <c r="C77" s="355" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D77" s="355" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E77" s="355" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F77" s="356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="357"/>
+      <c r="H77" s="355" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="374">
+        <v>44329</v>
+      </c>
+      <c r="C78" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D78" s="376" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E78" s="376" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F78" s="362" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G78" s="359" t="s">
+        <v>979</v>
+      </c>
+      <c r="H78" s="355" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="374">
+        <v>44329</v>
+      </c>
+      <c r="C79" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D79" s="376" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E79" s="376" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F79" s="362" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="359" t="s">
+        <v>895</v>
+      </c>
+      <c r="H79" s="355" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="374">
+        <v>44369</v>
+      </c>
+      <c r="C81" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D81" s="376" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E81" s="377" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F81" s="392" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G81" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="355" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="374">
+        <v>44329</v>
+      </c>
+      <c r="C82" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D82" s="376" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E82" s="394" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F82" s="362" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G82" s="359" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="355" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="374">
+        <v>44329</v>
+      </c>
+      <c r="C83" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D83" s="376" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E83" s="377" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F83" s="362" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G83" s="359" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="355" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="395">
+        <v>44925</v>
+      </c>
+      <c r="C84" s="367" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D84" s="397" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E84" s="398" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F84" s="434" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G84" s="400" t="s">
+        <v>979</v>
+      </c>
+      <c r="H84" s="435" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="45">
+      <c r="B85" s="395">
+        <v>44511</v>
+      </c>
+      <c r="C85" s="396" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D85" s="397" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E85" s="398" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F85" s="399" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="400" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H85" s="401" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="402"/>
+      <c r="C86" s="403"/>
+      <c r="D86" s="403"/>
+      <c r="E86" s="404"/>
+      <c r="F86" s="405"/>
+      <c r="G86" s="406"/>
+      <c r="H86" s="407"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="402"/>
+      <c r="C87" s="403"/>
+      <c r="D87" s="403"/>
+      <c r="E87" s="404"/>
+      <c r="F87" s="405"/>
+      <c r="G87" s="406"/>
+      <c r="H87" s="407"/>
+    </row>
+    <row r="88" spans="2:8" ht="30">
+      <c r="B88" s="408" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C88" s="408" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D88" s="408" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E88" s="408" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F88" s="408" t="s">
+        <v>172</v>
+      </c>
+      <c r="G88" s="408" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="408" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="374">
+        <v>44581</v>
+      </c>
+      <c r="C89" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D89" s="376" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E89" s="377"/>
+      <c r="F89" s="362" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="409" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H89" s="355" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="374">
         <v>44640</v>
       </c>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-    </row>
-    <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="343"/>
-      <c r="B5" s="343"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="348"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="347"/>
-    </row>
-    <row r="6" spans="1:9" s="354" customFormat="1" ht="30">
-      <c r="A6" s="350"/>
-      <c r="B6" s="351" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C6" s="352" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D6" s="352" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E6" s="352" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F6" s="353" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="352" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="352" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I6" s="350"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="343"/>
-      <c r="B7" s="355"/>
-      <c r="C7" s="356" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D7" s="356" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="356"/>
-      <c r="F7" s="357" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G7" s="358"/>
-      <c r="H7" s="356" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I7" s="343"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="343"/>
-      <c r="B8" s="355"/>
-      <c r="C8" s="356" t="s">
+      <c r="C90" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D90" s="376" t="s">
+        <v>942</v>
+      </c>
+      <c r="E90" s="377" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F90" s="362" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G90" s="359" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H90" s="355" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="374">
+        <v>44640</v>
+      </c>
+      <c r="C91" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D91" s="376" t="s">
+        <v>942</v>
+      </c>
+      <c r="E91" s="377" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F91" s="409" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="359" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H91" s="355" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="374">
+        <v>44563</v>
+      </c>
+      <c r="C92" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D92" s="376" t="s">
         <v>1346</v>
       </c>
-      <c r="D8" s="356" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E8" s="356" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F8" s="358" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G8" s="358" t="s">
+      <c r="E92" s="377" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F92" s="362" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G92" s="359" t="s">
         <v>979</v>
       </c>
-      <c r="H8" s="356"/>
-      <c r="I8" s="343"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="343"/>
-      <c r="B9" s="355">
-        <v>44300</v>
-      </c>
-      <c r="C9" s="356" t="s">
+      <c r="H92" s="410" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="374">
+        <v>44581</v>
+      </c>
+      <c r="C93" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D93" s="376" t="s">
         <v>1346</v>
       </c>
-      <c r="D9" s="356" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E9" s="356" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F9" s="358" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G9" s="358" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H9" s="356"/>
-      <c r="I9" s="343"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="343"/>
-      <c r="B10" s="355"/>
-      <c r="C10" s="356" t="s">
+      <c r="E93" s="377" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F93" s="362" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G93" s="359" t="s">
+        <v>979</v>
+      </c>
+      <c r="H93" s="355"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="411">
+        <v>44581</v>
+      </c>
+      <c r="C94" s="412" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D94" s="412" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E94" s="413" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F94" s="414" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G94" s="415" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H94" s="416" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="374">
+        <v>44581</v>
+      </c>
+      <c r="C95" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D95" s="376" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E95" s="377" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F95" s="362" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G95" s="359" t="s">
+        <v>895</v>
+      </c>
+      <c r="H95" s="355" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="374">
+        <v>44581</v>
+      </c>
+      <c r="C96" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D96" s="376" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E96" s="377" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F96" s="362" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G96" s="359" t="s">
+        <v>979</v>
+      </c>
+      <c r="H96" s="355" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="374">
+        <v>44606</v>
+      </c>
+      <c r="C97" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D97" s="376" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E97" s="377" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F97" s="362" t="s">
+        <v>975</v>
+      </c>
+      <c r="G97" s="359" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H97" s="355" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="374">
+        <v>44661</v>
+      </c>
+      <c r="C98" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D98" s="376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E98" s="377" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F98" s="362" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G98" s="359" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H98" s="355"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="374">
+        <v>44139</v>
+      </c>
+      <c r="C99" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D99" s="376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E99" s="377" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F99" s="362" t="s">
+        <v>47</v>
+      </c>
+      <c r="G99" s="359" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H99" s="355" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="354"/>
+      <c r="C100" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D100" s="376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E100" s="355" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F100" s="389" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G100" s="359" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H100" s="355"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="354"/>
+      <c r="C101" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D101" s="376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E101" s="355" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F101" s="389" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G101" s="359" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H101" s="355"/>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="354">
+        <v>44873</v>
+      </c>
+      <c r="C102" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D102" s="376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="355" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="374">
+        <v>44652</v>
+      </c>
+      <c r="C103" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D103" s="376" t="s">
+        <v>751</v>
+      </c>
+      <c r="E103" s="377" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F103" s="362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="359" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="355" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="428">
+        <v>44910</v>
+      </c>
+      <c r="C104" s="429" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D104" s="429" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E104" s="430" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F104" s="431"/>
+      <c r="G104" s="432"/>
+      <c r="H104" s="433" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="354"/>
+      <c r="C105" s="355" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D105" s="355" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E105" s="355" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F105" s="359" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G105" s="357" t="s">
+        <v>979</v>
+      </c>
+      <c r="H105" s="355"/>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="354">
+        <v>44313</v>
+      </c>
+      <c r="C106" s="355" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D106" s="355" t="s">
+        <v>754</v>
+      </c>
+      <c r="E106" s="355" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F106" s="362">
+        <v>1059</v>
+      </c>
+      <c r="G106" s="357" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" s="355" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="354">
+        <v>44313</v>
+      </c>
+      <c r="C107" s="355" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D107" s="355" t="s">
+        <v>754</v>
+      </c>
+      <c r="E107" s="355" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F107" s="362" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G107" s="374" t="s">
+        <v>883</v>
+      </c>
+      <c r="H107" s="355" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="30">
+      <c r="B108" s="374">
+        <v>44874</v>
+      </c>
+      <c r="C108" s="376" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D108" s="376" t="s">
         <v>1346</v>
       </c>
-      <c r="D10" s="356" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E10" s="356" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F10" s="358" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G10" s="358" t="s">
-        <v>979</v>
-      </c>
-      <c r="H10" s="356"/>
-      <c r="I10" s="343"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="343"/>
-      <c r="B11" s="355">
-        <v>44307</v>
-      </c>
-      <c r="C11" s="356" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D11" s="356" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E11" s="359" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F11" s="358" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G11" s="360" t="s">
+      <c r="E108" s="377" t="s">
+        <v>752</v>
+      </c>
+      <c r="F108" s="421" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G108" s="359" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="356" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I11" s="343"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="343"/>
-      <c r="B12" s="361">
-        <v>44309</v>
-      </c>
-      <c r="C12" s="362" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D12" s="362" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E12" s="363" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F12" s="360" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G12" s="360" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="364" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I12" s="343"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="343"/>
-      <c r="B13" s="355"/>
-      <c r="C13" s="356" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D13" s="356" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E13" s="365" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F13" s="360" t="s">
-        <v>1616</v>
-      </c>
-      <c r="G13" s="358" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H13" s="366" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I13" s="343"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="343"/>
-      <c r="B14" s="355"/>
-      <c r="C14" s="356" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D14" s="356" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E14" s="365" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F14" s="360" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G14" s="358" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H14" s="366" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I14" s="343"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="343"/>
-      <c r="B15" s="355"/>
-      <c r="C15" s="356" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D15" s="356" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E15" s="356" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F15" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="358"/>
-      <c r="H15" s="356" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I15" s="343"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="343"/>
-      <c r="B16" s="355"/>
-      <c r="C16" s="367" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D16" s="356" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E16" s="356" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F16" s="357" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G16" s="358">
-        <v>4578</v>
-      </c>
-      <c r="H16" s="356"/>
-      <c r="I16" s="343"/>
-    </row>
-    <row r="17" spans="1:9" ht="105">
-      <c r="A17" s="343"/>
-      <c r="B17" s="355">
-        <v>44188</v>
-      </c>
-      <c r="C17" s="368" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D17" s="369" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E17" s="370" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F17" s="360" t="s">
-        <v>718</v>
-      </c>
-      <c r="G17" s="360" t="s">
-        <v>895</v>
-      </c>
-      <c r="H17" s="371" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I17" s="343"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="343"/>
-      <c r="B18" s="355">
-        <v>44295</v>
-      </c>
-      <c r="C18" s="372" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D18" s="373" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E18" s="374" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F18" s="317" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="375" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="356" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I18" s="343"/>
-    </row>
-    <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="343"/>
-      <c r="B19" s="355">
-        <v>44295</v>
-      </c>
-      <c r="C19" s="372" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D19" s="373" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="374" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="376" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="375" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="369" t="s">
-        <v>1536</v>
-      </c>
-      <c r="I19" s="343"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="343"/>
-      <c r="B20" s="375">
-        <v>44469</v>
-      </c>
-      <c r="C20" s="377" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="377" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E20" s="378" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F20" s="357" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H20" s="356" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I20" s="343"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="355"/>
-      <c r="C21" s="356" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D21" s="356" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E21" s="356"/>
-      <c r="F21" s="357"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="356" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I21" s="343"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="355"/>
-      <c r="C22" s="356" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D22" s="356" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E22" s="356"/>
-      <c r="F22" s="357"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="356" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="355"/>
-      <c r="C23" s="356" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D23" s="356"/>
-      <c r="E23" s="356"/>
-      <c r="F23" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="358" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H23" s="356"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="355"/>
-      <c r="C24" s="356" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D24" s="356" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E24" s="379" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F24" s="357" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G24" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H24" s="356"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="355"/>
-      <c r="C25" s="356" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D25" s="356" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E25" s="356" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F25" s="357" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G25" s="358" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H25" s="356"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="355"/>
-      <c r="C26" s="356" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D26" s="356" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E26" s="379" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F26" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="360" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H26" s="356"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="355">
-        <v>44305</v>
-      </c>
-      <c r="C27" s="362" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D27" s="356" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E27" s="356" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F27" s="358" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G27" s="358" t="s">
-        <v>845</v>
-      </c>
-      <c r="H27" s="378" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="361">
-        <v>44105</v>
-      </c>
-      <c r="C28" s="362" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D28" s="378" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="378" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F28" s="363" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G28" s="360" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="378" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="375">
-        <v>44354</v>
-      </c>
-      <c r="C29" s="377" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D29" s="377" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E29" s="377" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F29" s="363" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G29" s="360" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="378" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="361">
-        <v>43945</v>
-      </c>
-      <c r="C30" s="362" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D30" s="362" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E30" s="378" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F30" s="363" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G30" s="363" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H30" s="378" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="355"/>
-      <c r="C31" s="367" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D31" s="356" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E31" s="379" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F31" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H31" s="356" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="355"/>
-      <c r="C32" s="356" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D32" s="356" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E32" s="356"/>
-      <c r="F32" s="357"/>
-      <c r="G32" s="358"/>
-      <c r="H32" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="355"/>
-      <c r="C33" s="367" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D33" s="356" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E33" s="356" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F33" s="357" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G33" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H33" s="356" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="355"/>
-      <c r="C34" s="356" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D34" s="356" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E34" s="379" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F34" s="360" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G34" s="358" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H34" s="356"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="355"/>
-      <c r="C35" s="356" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D35" s="356" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E35" s="379" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F35" s="357" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G35" s="358" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H35" s="356"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="380">
-        <v>44108</v>
-      </c>
-      <c r="C36" s="381" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D36" s="362" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E36" s="363" t="s">
-        <v>944</v>
-      </c>
-      <c r="F36" s="360"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="364" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="355"/>
-      <c r="C37" s="382" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D37" s="383"/>
-      <c r="E37" s="356"/>
-      <c r="F37" s="357"/>
-      <c r="G37" s="358" t="s">
-        <v>843</v>
-      </c>
-      <c r="H37" s="356" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="355"/>
-      <c r="C38" s="382" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D38" s="383" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E38" s="383" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F38" s="384" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G38" s="385" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H38" s="386"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="380">
-        <v>44133</v>
-      </c>
-      <c r="C39" s="381" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D39" s="362" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E39" s="363" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F39" s="363" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G39" s="360" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="364" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="355"/>
-      <c r="C40" s="356" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="356" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E40" s="356"/>
-      <c r="F40" s="357" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G40" s="358" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H40" s="356" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="355"/>
-      <c r="C41" s="356" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D41" s="356" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E41" s="356" t="s">
-        <v>1683</v>
-      </c>
-      <c r="F41" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="387" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H41" s="358" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="361">
-        <v>44144</v>
-      </c>
-      <c r="C42" s="362" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D42" s="362" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E42" s="378" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F42" s="388" t="s">
-        <v>951</v>
-      </c>
-      <c r="G42" s="360" t="s">
-        <v>953</v>
-      </c>
-      <c r="H42" s="364" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="355"/>
-      <c r="C43" s="356" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D43" s="356" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E43" s="379" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F43" s="357"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="355"/>
-      <c r="C44" s="356" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D44" s="356" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E44" s="379" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F44" s="357" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G44" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H44" s="356" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="355"/>
-      <c r="C45" s="356" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D45" s="356" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E45" s="356"/>
-      <c r="F45" s="357"/>
-      <c r="G45" s="358"/>
-      <c r="H45" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="355">
-        <v>44313</v>
-      </c>
-      <c r="C46" s="367" t="s">
-        <v>754</v>
-      </c>
-      <c r="D46" s="356" t="s">
-        <v>882</v>
-      </c>
-      <c r="E46" s="356" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F46" s="363">
-        <v>1059</v>
-      </c>
-      <c r="G46" s="358" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="356" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="355">
-        <v>44313</v>
-      </c>
-      <c r="C47" s="367" t="s">
-        <v>754</v>
-      </c>
-      <c r="D47" s="356" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="356" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F47" s="363" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G47" s="375" t="s">
-        <v>883</v>
-      </c>
-      <c r="H47" s="356" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="380">
-        <v>44165</v>
-      </c>
-      <c r="C48" s="381" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D48" s="362" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E48" s="297" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F48" s="363" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G48" s="363" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H48" s="364" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="380">
-        <v>44165</v>
-      </c>
-      <c r="C49" s="381" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D49" s="362" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E49" s="297" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F49" s="363" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G49" s="363" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H49" s="389" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="355"/>
-      <c r="C50" s="367" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D50" s="356" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E50" s="356" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F50" s="390" t="s">
-        <v>882</v>
-      </c>
-      <c r="G50" s="360" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H50" s="356"/>
-    </row>
-    <row r="51" spans="2:8" ht="25.5">
-      <c r="B51" s="355"/>
-      <c r="C51" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D51" s="391" t="s">
-        <v>874</v>
-      </c>
-      <c r="E51" s="391"/>
-      <c r="F51" s="376" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="375" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H51" s="391" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="25.5">
-      <c r="B52" s="355"/>
-      <c r="C52" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D52" s="391" t="s">
-        <v>874</v>
-      </c>
-      <c r="E52" s="391"/>
-      <c r="F52" s="376" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="375" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H52" s="391" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="375"/>
-      <c r="C53" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D53" s="391" t="s">
-        <v>874</v>
-      </c>
-      <c r="E53" s="376" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F53" s="375" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G53" s="375" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H53" s="391"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="355"/>
-      <c r="C54" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D54" s="391" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E54" s="391"/>
-      <c r="F54" s="376" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="375" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H54" s="391"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="355"/>
-      <c r="C55" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D55" s="391" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E55" s="391" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="376" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G55" s="375" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H55" s="391"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="355"/>
-      <c r="C56" s="367" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D56" s="356" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E56" s="356"/>
-      <c r="F56" s="390" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G56" s="358" t="s">
-        <v>845</v>
-      </c>
-      <c r="H56" s="356"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="355"/>
-      <c r="C57" s="356" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D57" s="356" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E57" s="356"/>
-      <c r="F57" s="357"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="375">
-        <v>44295</v>
-      </c>
-      <c r="C58" s="368" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D58" s="377" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E58" s="378" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F58" s="363" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G58" s="360" t="s">
-        <v>845</v>
-      </c>
-      <c r="H58" s="356" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="375">
-        <v>44295</v>
-      </c>
-      <c r="C59" s="368" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D59" s="377" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E59" s="378" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F59" s="363" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G59" s="360" t="s">
-        <v>845</v>
-      </c>
-      <c r="H59" s="356" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="375">
-        <v>44147</v>
-      </c>
-      <c r="C60" s="368" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D60" s="377" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E60" s="378" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F60" s="363" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G60" s="360" t="s">
-        <v>845</v>
-      </c>
-      <c r="H60" s="356" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="355"/>
-      <c r="C61" s="356" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D61" s="356" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E61" s="356"/>
-      <c r="F61" s="357"/>
-      <c r="G61" s="358"/>
-      <c r="H61" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="355"/>
-      <c r="C62" s="356" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D62" s="356" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E62" s="356"/>
-      <c r="F62" s="357"/>
-      <c r="G62" s="358"/>
-      <c r="H62" s="356" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="355"/>
-      <c r="C63" s="356" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D63" s="356" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E63" s="379" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F63" s="357" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G63" s="358" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H63" s="356"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="361">
-        <v>44162</v>
-      </c>
-      <c r="C64" s="381" t="s">
-        <v>751</v>
-      </c>
-      <c r="D64" s="362" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E64" s="363" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F64" s="363" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="363" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H64" s="389"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="380">
-        <v>44302</v>
-      </c>
-      <c r="C65" s="381" t="s">
-        <v>751</v>
-      </c>
-      <c r="D65" s="362" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E65" s="363" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F65" s="363" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G65" s="363" t="s">
-        <v>845</v>
-      </c>
-      <c r="H65" s="364" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="361"/>
-      <c r="C66" s="381" t="s">
-        <v>751</v>
-      </c>
-      <c r="D66" s="362" t="s">
-        <v>748</v>
-      </c>
-      <c r="E66" s="363" t="s">
-        <v>748</v>
-      </c>
-      <c r="F66" s="363" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="363" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="364" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="380">
-        <v>44139</v>
-      </c>
-      <c r="C67" s="381" t="s">
-        <v>751</v>
-      </c>
-      <c r="D67" s="362" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E67" s="363" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F67" s="363" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="363" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="364" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="392">
-        <v>44302</v>
-      </c>
-      <c r="C68" s="356" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D68" s="356" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E68" s="356" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F68" s="357" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G68" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H68" s="356" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="392">
-        <v>44302</v>
-      </c>
-      <c r="C69" s="356" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D69" s="356" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E69" s="356"/>
-      <c r="F69" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H69" s="356"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="355"/>
-      <c r="C70" s="356" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D70" s="356" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E70" s="356" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F70" s="360" t="s">
-        <v>1715</v>
-      </c>
-      <c r="G70" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H70" s="356"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="355"/>
-      <c r="C71" s="356" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D71" s="356" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E71" s="356" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F71" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H71" s="356"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="355"/>
-      <c r="C72" s="356" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D72" s="356" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E72" s="356"/>
-      <c r="F72" s="357"/>
-      <c r="G72" s="358"/>
-      <c r="H72" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="355"/>
-      <c r="C73" s="356" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D73" s="356" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E73" s="356"/>
-      <c r="F73" s="357"/>
-      <c r="G73" s="358"/>
-      <c r="H73" s="356" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="355"/>
-      <c r="C74" s="356" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D74" s="356" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E74" s="356"/>
-      <c r="F74" s="357"/>
-      <c r="G74" s="358"/>
-      <c r="H74" s="356" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="F75" s="346"/>
-      <c r="G75" s="346"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="355"/>
-      <c r="C76" s="356" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D76" s="356" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E76" s="356" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F76" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="358" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H76" s="356" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="355"/>
-      <c r="C77" s="356" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D77" s="356" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E77" s="356" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F77" s="357" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="358"/>
-      <c r="H77" s="356" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="375">
-        <v>44329</v>
-      </c>
-      <c r="C78" s="368" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D78" s="377" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E78" s="377" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F78" s="363" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G78" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H78" s="356" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="375">
-        <v>44329</v>
-      </c>
-      <c r="C79" s="368" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D79" s="377" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E79" s="377" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F79" s="363" t="s">
-        <v>116</v>
-      </c>
-      <c r="G79" s="360" t="s">
-        <v>895</v>
-      </c>
-      <c r="H79" s="356" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="375">
-        <v>44369</v>
-      </c>
-      <c r="C81" s="368" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D81" s="377" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E81" s="378" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F81" s="393" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G81" s="394" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="356" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="375">
-        <v>44329</v>
-      </c>
-      <c r="C82" s="368" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D82" s="377" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E82" s="395" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F82" s="363" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G82" s="360" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" s="356" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="375">
-        <v>44329</v>
-      </c>
-      <c r="C83" s="368" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D83" s="377" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E83" s="378" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F83" s="363" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G83" s="360" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" s="356" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="45">
-      <c r="B84" s="396">
-        <v>44511</v>
-      </c>
-      <c r="C84" s="397" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D84" s="398" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E84" s="399" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F84" s="400" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84" s="401" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H84" s="402" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="403"/>
-      <c r="C85" s="404"/>
-      <c r="D85" s="404"/>
-      <c r="E85" s="405"/>
-      <c r="F85" s="406"/>
-      <c r="G85" s="407"/>
-      <c r="H85" s="408"/>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="403"/>
-      <c r="C86" s="404"/>
-      <c r="D86" s="404"/>
-      <c r="E86" s="405"/>
-      <c r="F86" s="406"/>
-      <c r="G86" s="407"/>
-      <c r="H86" s="408"/>
-    </row>
-    <row r="87" spans="2:8" ht="30">
-      <c r="B87" s="409" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C87" s="409" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D87" s="409" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E87" s="409" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F87" s="409" t="s">
-        <v>172</v>
-      </c>
-      <c r="G87" s="409" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="409" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C88" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D88" s="377" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E88" s="378"/>
-      <c r="F88" s="363" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="410" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H88" s="356" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="375">
-        <v>44640</v>
-      </c>
-      <c r="C89" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D89" s="377" t="s">
-        <v>942</v>
-      </c>
-      <c r="E89" s="378" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F89" s="363" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G89" s="360" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H89" s="356" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="375">
-        <v>44640</v>
-      </c>
-      <c r="C90" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D90" s="377" t="s">
-        <v>942</v>
-      </c>
-      <c r="E90" s="378" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F90" s="410" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H90" s="356" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="375">
-        <v>44563</v>
-      </c>
-      <c r="C91" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D91" s="377" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E91" s="378" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F91" s="363" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G91" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H91" s="411" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C92" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D92" s="377" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E92" s="378" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F92" s="363" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G92" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H92" s="356"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="412">
-        <v>44581</v>
-      </c>
-      <c r="C93" s="413" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D93" s="413" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E93" s="414" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F93" s="415" t="s">
-        <v>1734</v>
-      </c>
-      <c r="G93" s="416" t="s">
-        <v>1735</v>
-      </c>
-      <c r="H93" s="417" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C94" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D94" s="377" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E94" s="378" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F94" s="363" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G94" s="360" t="s">
-        <v>895</v>
-      </c>
-      <c r="H94" s="356" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="375">
-        <v>44581</v>
-      </c>
-      <c r="C95" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D95" s="377" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E95" s="378" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F95" s="363" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G95" s="360" t="s">
-        <v>979</v>
-      </c>
-      <c r="H95" s="356" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="375">
-        <v>44606</v>
-      </c>
-      <c r="C96" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D96" s="377" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E96" s="378" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F96" s="363" t="s">
-        <v>975</v>
-      </c>
-      <c r="G96" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H96" s="356" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="375">
-        <v>44661</v>
-      </c>
-      <c r="C97" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D97" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E97" s="378" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F97" s="363" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G97" s="360" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H97" s="356"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="375">
-        <v>44139</v>
-      </c>
-      <c r="C98" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D98" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E98" s="378" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F98" s="363" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" s="360" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H98" s="356" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="355"/>
-      <c r="C99" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D99" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E99" s="356" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F99" s="390" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G99" s="360" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H99" s="356"/>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="355"/>
-      <c r="C100" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D100" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E100" s="356" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F100" s="390" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G100" s="360" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H100" s="356"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="355">
-        <v>44873</v>
-      </c>
-      <c r="C101" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D101" s="377" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" s="356" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="375">
-        <v>44652</v>
-      </c>
-      <c r="C102" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D102" s="377" t="s">
-        <v>751</v>
-      </c>
-      <c r="E102" s="378" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F102" s="363" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" s="360" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="356" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="375">
-        <v>44319</v>
-      </c>
-      <c r="C103" s="377" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D103" s="377" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E103" s="365" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F103" s="363"/>
-      <c r="G103" s="418"/>
-      <c r="H103" s="356" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="355"/>
-      <c r="C104" s="356" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D104" s="356" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E104" s="356" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F104" s="360" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G104" s="358" t="s">
-        <v>979</v>
-      </c>
-      <c r="H104" s="356"/>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="355">
-        <v>44313</v>
-      </c>
-      <c r="C105" s="356" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D105" s="356" t="s">
-        <v>754</v>
-      </c>
-      <c r="E105" s="356" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F105" s="363">
-        <v>1059</v>
-      </c>
-      <c r="G105" s="358" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" s="356" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="355">
-        <v>44313</v>
-      </c>
-      <c r="C106" s="356" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D106" s="356" t="s">
-        <v>754</v>
-      </c>
-      <c r="E106" s="356" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F106" s="363" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G106" s="375" t="s">
-        <v>883</v>
-      </c>
-      <c r="H106" s="356" t="s">
+      <c r="H108" s="368" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="374"/>
+      <c r="C109" s="376"/>
+      <c r="D109" s="376"/>
+      <c r="E109" s="377"/>
+      <c r="F109" s="362"/>
+      <c r="G109" s="359"/>
+      <c r="H109" s="355"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="374"/>
+      <c r="C110" s="376"/>
+      <c r="D110" s="376"/>
+      <c r="E110" s="377"/>
+      <c r="F110" s="362"/>
+      <c r="G110" s="359"/>
+      <c r="H110" s="355"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="374"/>
+      <c r="C111" s="376"/>
+      <c r="D111" s="376"/>
+      <c r="E111" s="377"/>
+      <c r="F111" s="362"/>
+      <c r="G111" s="359"/>
+      <c r="H111" s="355"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="374"/>
+      <c r="C112" s="376"/>
+      <c r="D112" s="376"/>
+      <c r="E112" s="377"/>
+      <c r="F112" s="362"/>
+      <c r="G112" s="359"/>
+      <c r="H112" s="355"/>
+    </row>
+    <row r="113" spans="2:8" ht="15.75">
+      <c r="B113" s="374"/>
+      <c r="C113" s="376"/>
+      <c r="D113" s="420"/>
+      <c r="E113" s="377"/>
+      <c r="F113" s="362"/>
+      <c r="G113" s="359"/>
+      <c r="H113" s="355"/>
+    </row>
+    <row r="114" spans="2:8" ht="15.75">
+      <c r="B114" s="374"/>
+      <c r="C114" s="376"/>
+      <c r="D114" s="420" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" ht="30">
-      <c r="B107" s="375">
-        <v>44874</v>
-      </c>
-      <c r="C107" s="377" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D107" s="377" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E107" s="378" t="s">
-        <v>752</v>
-      </c>
-      <c r="F107" s="423" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G107" s="360" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" s="369" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="375"/>
-      <c r="C108" s="377"/>
-      <c r="D108" s="377"/>
-      <c r="E108" s="378"/>
-      <c r="F108" s="363"/>
-      <c r="G108" s="360"/>
-      <c r="H108" s="356"/>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="375"/>
-      <c r="C109" s="377"/>
-      <c r="D109" s="377"/>
-      <c r="E109" s="378"/>
-      <c r="F109" s="363"/>
-      <c r="G109" s="360"/>
-      <c r="H109" s="356"/>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="375"/>
-      <c r="C110" s="377"/>
-      <c r="D110" s="377"/>
-      <c r="E110" s="378"/>
-      <c r="F110" s="363"/>
-      <c r="G110" s="360"/>
-      <c r="H110" s="356"/>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="375"/>
-      <c r="C111" s="377"/>
-      <c r="D111" s="377"/>
-      <c r="E111" s="378"/>
-      <c r="F111" s="363"/>
-      <c r="G111" s="360"/>
-      <c r="H111" s="356"/>
-    </row>
-    <row r="112" spans="2:8" ht="15.75">
-      <c r="B112" s="375"/>
-      <c r="C112" s="377"/>
-      <c r="D112" s="422"/>
-      <c r="E112" s="378"/>
-      <c r="F112" s="363"/>
-      <c r="G112" s="360"/>
-      <c r="H112" s="356"/>
-    </row>
-    <row r="113" spans="2:8" ht="15.75">
-      <c r="B113" s="375"/>
-      <c r="C113" s="377"/>
-      <c r="D113" s="422" t="s">
+      <c r="E114" s="377"/>
+      <c r="F114" s="362"/>
+      <c r="G114" s="359"/>
+      <c r="H114" s="355"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75">
+      <c r="B115" s="374"/>
+      <c r="C115" s="376"/>
+      <c r="D115" s="420"/>
+      <c r="E115" s="377"/>
+      <c r="F115" s="362"/>
+      <c r="G115" s="359"/>
+      <c r="H115" s="355"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="374"/>
+      <c r="C116" s="376"/>
+      <c r="D116" s="83" t="s">
         <v>1745</v>
       </c>
-      <c r="E113" s="378"/>
-      <c r="F113" s="363"/>
-      <c r="G113" s="360"/>
-      <c r="H113" s="356"/>
-    </row>
-    <row r="114" spans="2:8" ht="15.75">
-      <c r="B114" s="375"/>
-      <c r="C114" s="377"/>
-      <c r="D114" s="422"/>
-      <c r="E114" s="378"/>
-      <c r="F114" s="363"/>
-      <c r="G114" s="360"/>
-      <c r="H114" s="356"/>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="375"/>
-      <c r="C115" s="377"/>
-      <c r="D115" s="83" t="s">
+      <c r="E116" s="377"/>
+      <c r="F116" s="362"/>
+      <c r="G116" s="359"/>
+      <c r="H116" s="355"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75">
+      <c r="B117" s="374"/>
+      <c r="C117" s="376"/>
+      <c r="D117" s="420" t="s">
         <v>1746</v>
       </c>
-      <c r="E115" s="378"/>
-      <c r="F115" s="363"/>
-      <c r="G115" s="360"/>
-      <c r="H115" s="356"/>
-    </row>
-    <row r="116" spans="2:8" ht="15.75">
-      <c r="B116" s="375"/>
-      <c r="C116" s="377"/>
-      <c r="D116" s="422" t="s">
+      <c r="E117" s="377"/>
+      <c r="F117" s="362"/>
+      <c r="G117" s="359"/>
+      <c r="H117" s="355"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75">
+      <c r="B118" s="374"/>
+      <c r="C118" s="376"/>
+      <c r="D118" s="420" t="s">
         <v>1747</v>
       </c>
-      <c r="E116" s="378"/>
-      <c r="F116" s="363"/>
-      <c r="G116" s="360"/>
-      <c r="H116" s="356"/>
-    </row>
-    <row r="117" spans="2:8" ht="15.75">
-      <c r="B117" s="375"/>
-      <c r="C117" s="377"/>
-      <c r="D117" s="422" t="s">
+      <c r="E118" s="377"/>
+      <c r="F118" s="362"/>
+      <c r="G118" s="359"/>
+      <c r="H118" s="355"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75">
+      <c r="B119" s="374"/>
+      <c r="C119" s="376"/>
+      <c r="D119" s="420"/>
+      <c r="E119" s="377"/>
+      <c r="F119" s="362"/>
+      <c r="G119" s="359"/>
+      <c r="H119" s="355"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75">
+      <c r="B120" s="374"/>
+      <c r="C120" s="376"/>
+      <c r="D120" s="420" t="s">
         <v>1748</v>
       </c>
-      <c r="E117" s="378"/>
-      <c r="F117" s="363"/>
-      <c r="G117" s="360"/>
-      <c r="H117" s="356"/>
-    </row>
-    <row r="118" spans="2:8" ht="15.75">
-      <c r="B118" s="375"/>
-      <c r="C118" s="377"/>
-      <c r="D118" s="422"/>
-      <c r="E118" s="378"/>
-      <c r="F118" s="363"/>
-      <c r="G118" s="360"/>
-      <c r="H118" s="356"/>
-    </row>
-    <row r="119" spans="2:8" ht="15.75">
-      <c r="B119" s="375"/>
-      <c r="C119" s="377"/>
-      <c r="D119" s="422" t="s">
+      <c r="E120" s="377"/>
+      <c r="F120" s="362"/>
+      <c r="G120" s="359"/>
+      <c r="H120" s="355"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75">
+      <c r="B121" s="374"/>
+      <c r="C121" s="376"/>
+      <c r="D121" s="420" t="s">
         <v>1749</v>
       </c>
-      <c r="E119" s="378"/>
-      <c r="F119" s="363"/>
-      <c r="G119" s="360"/>
-      <c r="H119" s="356"/>
-    </row>
-    <row r="120" spans="2:8" ht="15.75">
-      <c r="B120" s="375"/>
-      <c r="C120" s="377"/>
-      <c r="D120" s="422" t="s">
+      <c r="E121" s="377"/>
+      <c r="F121" s="362"/>
+      <c r="G121" s="359"/>
+      <c r="H121" s="355"/>
+    </row>
+    <row r="122" spans="2:8" ht="15.75">
+      <c r="B122" s="374"/>
+      <c r="C122" s="376"/>
+      <c r="D122" s="420"/>
+      <c r="E122" s="377"/>
+      <c r="F122" s="362"/>
+      <c r="G122" s="359"/>
+      <c r="H122" s="355"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="374"/>
+      <c r="C123" s="376"/>
+      <c r="D123" s="83" t="s">
         <v>1750</v>
       </c>
-      <c r="E120" s="378"/>
-      <c r="F120" s="363"/>
-      <c r="G120" s="360"/>
-      <c r="H120" s="356"/>
-    </row>
-    <row r="121" spans="2:8" ht="15.75">
-      <c r="B121" s="375"/>
-      <c r="C121" s="377"/>
-      <c r="D121" s="422"/>
-      <c r="E121" s="378"/>
-      <c r="F121" s="363"/>
-      <c r="G121" s="360"/>
-      <c r="H121" s="356"/>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="375"/>
-      <c r="C122" s="377"/>
-      <c r="D122" s="83" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E122" s="378"/>
-      <c r="F122" s="363"/>
-      <c r="G122" s="360"/>
-      <c r="H122" s="356"/>
-    </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="375"/>
-      <c r="C123" s="377"/>
-      <c r="D123" s="377"/>
-      <c r="E123" s="378"/>
-      <c r="F123" s="363"/>
-      <c r="G123" s="360"/>
-      <c r="H123" s="356"/>
+      <c r="E123" s="377"/>
+      <c r="F123" s="362"/>
+      <c r="G123" s="359"/>
+      <c r="H123" s="355"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="374"/>
+      <c r="C124" s="376"/>
+      <c r="D124" s="376"/>
+      <c r="E124" s="377"/>
+      <c r="F124" s="362"/>
+      <c r="G124" s="359"/>
+      <c r="H124" s="355"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H84" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
+  <autoFilter ref="B6:H85" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -17966,24 +18275,23 @@
     <hyperlink ref="E48" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
     <hyperlink ref="E49" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
     <hyperlink ref="E82" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="E103" r:id="rId27" xr:uid="{FB98D9A3-41EE-4E93-A02F-ADE48E1734BC}"/>
-    <hyperlink ref="F20" r:id="rId28" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
-    <hyperlink ref="F84" r:id="rId29" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F26" r:id="rId30" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E26" r:id="rId31" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="G88" r:id="rId32" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="F90" r:id="rId33" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="D115" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
-    <hyperlink ref="D122" r:id="rId35" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
-    <hyperlink ref="E101" r:id="rId36" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
+    <hyperlink ref="F20" r:id="rId27" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
+    <hyperlink ref="F85" r:id="rId28" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F26" r:id="rId29" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E26" r:id="rId30" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G89" r:id="rId31" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F91" r:id="rId32" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="D116" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
+    <hyperlink ref="D123" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
+    <hyperlink ref="E102" r:id="rId35" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -18097,31 +18405,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="452" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="442">
+      <c r="B4" s="454">
         <v>43396</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22135,71 +22443,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="470" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="459" t="s">
+      <c r="C2" s="472" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="461" t="s">
+      <c r="E2" s="474" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="453" t="s">
+      <c r="F2" s="466" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="453" t="s">
+      <c r="G2" s="466" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="455" t="s">
+      <c r="H2" s="468" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="453" t="s">
+      <c r="I2" s="466" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="455" t="s">
+      <c r="J2" s="466"/>
+      <c r="K2" s="466"/>
+      <c r="L2" s="468" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="455" t="s">
+      <c r="M2" s="468" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="453" t="s">
+      <c r="N2" s="466" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="453" t="s">
+      <c r="O2" s="466" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="455" t="s">
+      <c r="P2" s="468" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="453" t="s">
+      <c r="Q2" s="466" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="453" t="s">
+      <c r="R2" s="466" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="455" t="s">
+      <c r="S2" s="468" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="458"/>
+      <c r="A3" s="471"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="460"/>
+      <c r="C3" s="473"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="462"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="456"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
+      <c r="H3" s="469"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22209,14 +22517,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="456"/>
-      <c r="M3" s="456"/>
-      <c r="N3" s="454"/>
-      <c r="O3" s="454"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="454"/>
-      <c r="R3" s="454"/>
-      <c r="S3" s="456"/>
+      <c r="L3" s="469"/>
+      <c r="M3" s="469"/>
+      <c r="N3" s="467"/>
+      <c r="O3" s="467"/>
+      <c r="P3" s="469"/>
+      <c r="Q3" s="467"/>
+      <c r="R3" s="467"/>
+      <c r="S3" s="469"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -27135,19 +27443,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="463" t="s">
+      <c r="B1" s="476" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
-      <c r="L1" s="463"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -27767,43 +28075,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="477" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -27858,8 +28166,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="320" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="321" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="319" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="320" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="261" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="265" hidden="1" customWidth="1"/>
@@ -27870,53 +28178,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="427" t="s">
+      <c r="B2" s="439" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
+      <c r="I2" s="439"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="440" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="429">
+      <c r="B4" s="441">
         <v>44459</v>
       </c>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
+      <c r="I4" s="441"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="430"/>
-      <c r="E5" s="430"/>
-      <c r="F5" s="430"/>
-      <c r="G5" s="430"/>
-      <c r="H5" s="430"/>
-      <c r="I5" s="430"/>
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="442"/>
+      <c r="I5" s="442"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="317" t="s">
         <v>1537</v>
       </c>
       <c r="C6" s="260" t="s">
@@ -27942,10 +28250,10 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="319">
+      <c r="B7" s="318">
         <v>23</v>
       </c>
-      <c r="C7" s="299">
+      <c r="C7" s="298">
         <v>81</v>
       </c>
       <c r="D7" s="257" t="s">
@@ -27964,10 +28272,10 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="319">
+      <c r="B8" s="318">
         <v>24</v>
       </c>
-      <c r="C8" s="299">
+      <c r="C8" s="298">
         <v>82</v>
       </c>
       <c r="D8" s="257" t="s">
@@ -27986,10 +28294,10 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="319">
+      <c r="B9" s="318">
         <v>25</v>
       </c>
-      <c r="C9" s="299">
+      <c r="C9" s="298">
         <v>80</v>
       </c>
       <c r="D9" s="257" t="s">
@@ -28008,10 +28316,10 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="319">
+      <c r="B10" s="318">
         <v>1771</v>
       </c>
-      <c r="C10" s="299">
+      <c r="C10" s="298">
         <v>24</v>
       </c>
       <c r="D10" s="257" t="s">
@@ -28030,10 +28338,10 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="319">
+      <c r="B11" s="318">
         <v>2182</v>
       </c>
-      <c r="C11" s="299">
+      <c r="C11" s="298">
         <v>98</v>
       </c>
       <c r="D11" s="257" t="s">
@@ -28052,8 +28360,8 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="319"/>
-      <c r="C12" s="299"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="298"/>
       <c r="D12" s="257"/>
       <c r="E12" s="263"/>
       <c r="F12" s="290"/>
@@ -28062,10 +28370,10 @@
       <c r="I12" s="258"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="319" t="s">
+      <c r="B13" s="318" t="s">
         <v>1568</v>
       </c>
-      <c r="C13" s="299">
+      <c r="C13" s="298">
         <v>3</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -28078,16 +28386,16 @@
       <c r="G13" s="264" t="s">
         <v>1559</v>
       </c>
-      <c r="H13" s="322"/>
-      <c r="I13" s="292" t="s">
+      <c r="H13" s="321"/>
+      <c r="I13" s="291" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="318" t="s">
         <v>1520</v>
       </c>
-      <c r="C14" s="299">
+      <c r="C14" s="298">
         <v>1</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -28105,15 +28413,15 @@
       <c r="H14" s="263" t="s">
         <v>845</v>
       </c>
-      <c r="I14" s="292" t="s">
+      <c r="I14" s="291" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="319" t="s">
+      <c r="B15" s="318" t="s">
         <v>1570</v>
       </c>
-      <c r="C15" s="299">
+      <c r="C15" s="298">
         <v>4</v>
       </c>
       <c r="D15" s="257" t="s">
@@ -28129,15 +28437,15 @@
         <v>1564</v>
       </c>
       <c r="H15" s="264"/>
-      <c r="I15" s="292" t="s">
+      <c r="I15" s="291" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="319" t="s">
+      <c r="B16" s="318" t="s">
         <v>1572</v>
       </c>
-      <c r="C16" s="299">
+      <c r="C16" s="298">
         <v>5</v>
       </c>
       <c r="D16" s="257" t="s">
@@ -28151,13 +28459,13 @@
         <v>1567</v>
       </c>
       <c r="H16" s="264"/>
-      <c r="I16" s="292" t="s">
+      <c r="I16" s="291" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="319"/>
-      <c r="C17" s="299"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="298"/>
       <c r="D17" s="257"/>
       <c r="E17" s="263"/>
       <c r="F17" s="288"/>
@@ -28166,8 +28474,8 @@
       <c r="I17" s="258"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="319"/>
-      <c r="C18" s="299"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="298"/>
       <c r="D18" s="257"/>
       <c r="E18" s="263"/>
       <c r="F18" s="288"/>
@@ -28201,43 +28509,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="477" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28296,43 +28604,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="477" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28385,51 +28693,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
-      <c r="J3" s="466" t="s">
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="466"/>
-      <c r="L3" s="466"/>
-      <c r="M3" s="466"/>
-      <c r="N3" s="466"/>
-      <c r="O3" s="466"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
+      <c r="N3" s="479"/>
+      <c r="O3" s="479"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28492,43 +28800,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="464" t="s">
+      <c r="A3" s="477" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28659,16 +28967,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="473"/>
-      <c r="D10" s="474"/>
-      <c r="E10" s="475"/>
+      <c r="C10" s="486"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="488"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="476" t="s">
+      <c r="C11" s="489" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="477"/>
-      <c r="E11" s="478"/>
+      <c r="D11" s="490"/>
+      <c r="E11" s="491"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -28716,47 +29024,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="479"/>
-      <c r="D17" s="480"/>
-      <c r="E17" s="481"/>
+      <c r="C17" s="492"/>
+      <c r="D17" s="493"/>
+      <c r="E17" s="494"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="476" t="s">
+      <c r="C18" s="489" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="477"/>
-      <c r="E18" s="478"/>
+      <c r="D18" s="490"/>
+      <c r="E18" s="491"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="479"/>
-      <c r="D19" s="480"/>
-      <c r="E19" s="481"/>
+      <c r="C19" s="492"/>
+      <c r="D19" s="493"/>
+      <c r="E19" s="494"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="476" t="s">
+      <c r="C20" s="489" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="477"/>
-      <c r="E20" s="478"/>
+      <c r="D20" s="490"/>
+      <c r="E20" s="491"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="467"/>
-      <c r="D21" s="468"/>
-      <c r="E21" s="469"/>
+      <c r="C21" s="480"/>
+      <c r="D21" s="481"/>
+      <c r="E21" s="482"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="470" t="s">
+      <c r="C22" s="483" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="471"/>
-      <c r="E22" s="472"/>
+      <c r="D22" s="484"/>
+      <c r="E22" s="485"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="470" t="s">
+      <c r="C23" s="483" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="471"/>
-      <c r="E23" s="472"/>
+      <c r="D23" s="484"/>
+      <c r="E23" s="485"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29137,11 +29445,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427FEEE2-9745-4725-B681-88E46CFE789D}">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="B2:H18"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -29157,49 +29465,52 @@
     <col min="9" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20.25">
-      <c r="B2" s="427" t="s">
+    <row r="1" spans="2:10">
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25">
+      <c r="B2" s="439" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-    </row>
-    <row r="3" spans="2:8" ht="18">
-      <c r="B3" s="428" t="s">
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
+    </row>
+    <row r="3" spans="2:10" ht="18">
+      <c r="B3" s="440" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="429">
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="441">
         <v>44316</v>
       </c>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="430"/>
-      <c r="E5" s="430"/>
-      <c r="F5" s="430"/>
-      <c r="G5" s="430"/>
-      <c r="H5" s="430"/>
-    </row>
-    <row r="6" spans="2:8" ht="30">
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="442"/>
+    </row>
+    <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
         <v>1262</v>
       </c>
@@ -29222,7 +29533,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7" s="268">
         <v>44179</v>
       </c>
@@ -29243,7 +29554,7 @@
       </c>
       <c r="H7" s="258"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:10">
       <c r="B8" s="268">
         <v>44179</v>
       </c>
@@ -29264,7 +29575,7 @@
       </c>
       <c r="H8" s="258"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:10">
       <c r="B9" s="268">
         <v>44179</v>
       </c>
@@ -29283,7 +29594,7 @@
       </c>
       <c r="H9" s="258"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:10">
       <c r="B10" s="268"/>
       <c r="C10" s="259"/>
       <c r="D10" s="257"/>
@@ -29292,7 +29603,7 @@
       <c r="G10" s="264"/>
       <c r="H10" s="258"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:10">
       <c r="B11" s="268">
         <v>44316</v>
       </c>
@@ -29313,7 +29624,7 @@
       </c>
       <c r="H11" s="258"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:10">
       <c r="B12" s="268">
         <v>44179</v>
       </c>
@@ -29336,11 +29647,11 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:10">
       <c r="B13" s="268">
         <v>44179</v>
       </c>
-      <c r="C13" s="421" t="s">
+      <c r="C13" s="419" t="s">
         <v>1391</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -29355,15 +29666,15 @@
       <c r="G13" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H13" s="292" t="s">
+      <c r="H13" s="291" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:10">
       <c r="B14" s="268">
         <v>44316</v>
       </c>
-      <c r="C14" s="421" t="s">
+      <c r="C14" s="419" t="s">
         <v>1395</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -29380,7 +29691,7 @@
       </c>
       <c r="H14" s="258"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:10">
       <c r="B15" s="268">
         <v>44179</v>
       </c>
@@ -29403,7 +29714,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:10">
       <c r="B16" s="268">
         <v>44179</v>
       </c>
@@ -29521,9 +29832,9 @@
   <dimension ref="A1:J275"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -29545,482 +29856,482 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="437" t="s">
+      <c r="B1" s="449" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="451" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="441">
+      <c r="B3" s="453">
         <v>44133</v>
       </c>
-      <c r="C3" s="442"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="442"/>
-      <c r="F3" s="442"/>
-      <c r="G3" s="442"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="21"/>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="339" t="s">
         <v>1447</v>
       </c>
-      <c r="C4" s="341" t="s">
+      <c r="C4" s="340" t="s">
         <v>1448</v>
       </c>
-      <c r="D4" s="341" t="s">
+      <c r="D4" s="340" t="s">
         <v>1449</v>
       </c>
-      <c r="E4" s="341" t="s">
+      <c r="E4" s="340" t="s">
         <v>1336</v>
       </c>
-      <c r="F4" s="342" t="s">
+      <c r="F4" s="341" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="341" t="s">
+      <c r="G4" s="340" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="341" t="s">
+      <c r="H4" s="340" t="s">
         <v>1263</v>
       </c>
       <c r="J4" s="84"/>
     </row>
-    <row r="5" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B5" s="330">
+    <row r="5" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B5" s="329">
         <v>44581</v>
       </c>
-      <c r="C5" s="331" t="s">
+      <c r="C5" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D5" s="331" t="s">
+      <c r="D5" s="330" t="s">
         <v>1577</v>
       </c>
-      <c r="E5" s="332"/>
-      <c r="F5" s="333" t="s">
+      <c r="E5" s="331"/>
+      <c r="F5" s="332" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="323" t="s">
+      <c r="G5" s="322" t="s">
         <v>1237</v>
       </c>
-      <c r="H5" s="334" t="s">
+      <c r="H5" s="333" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B6" s="330">
+    <row r="6" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B6" s="329">
         <v>44640</v>
       </c>
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D6" s="331" t="s">
+      <c r="D6" s="330" t="s">
         <v>942</v>
       </c>
-      <c r="E6" s="332" t="s">
+      <c r="E6" s="331" t="s">
         <v>1579</v>
       </c>
-      <c r="F6" s="333" t="s">
+      <c r="F6" s="332" t="s">
         <v>1580</v>
       </c>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="334" t="s">
         <v>1581</v>
       </c>
-      <c r="H6" s="334" t="s">
+      <c r="H6" s="333" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B7" s="330">
+    <row r="7" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B7" s="329">
         <v>44640</v>
       </c>
-      <c r="C7" s="331" t="s">
+      <c r="C7" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D7" s="331" t="s">
+      <c r="D7" s="330" t="s">
         <v>942</v>
       </c>
-      <c r="E7" s="332" t="s">
+      <c r="E7" s="331" t="s">
         <v>1579</v>
       </c>
-      <c r="F7" s="323" t="s">
+      <c r="F7" s="322" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="335" t="s">
+      <c r="G7" s="334" t="s">
         <v>1454</v>
       </c>
-      <c r="H7" s="334" t="s">
+      <c r="H7" s="333" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B8" s="330">
+    <row r="8" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B8" s="329">
         <v>44563</v>
       </c>
-      <c r="C8" s="331" t="s">
+      <c r="C8" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D8" s="331" t="s">
+      <c r="D8" s="330" t="s">
         <v>1346</v>
       </c>
-      <c r="E8" s="332" t="s">
+      <c r="E8" s="331" t="s">
         <v>1355</v>
       </c>
-      <c r="F8" s="333" t="s">
+      <c r="F8" s="332" t="s">
         <v>1502</v>
       </c>
-      <c r="G8" s="335" t="s">
+      <c r="G8" s="334" t="s">
         <v>979</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B9" s="330">
+    <row r="9" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B9" s="329">
         <v>44581</v>
       </c>
-      <c r="C9" s="331" t="s">
+      <c r="C9" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D9" s="331" t="s">
+      <c r="D9" s="330" t="s">
         <v>1346</v>
       </c>
-      <c r="E9" s="332" t="s">
+      <c r="E9" s="331" t="s">
         <v>1584</v>
       </c>
-      <c r="F9" s="333" t="s">
+      <c r="F9" s="332" t="s">
         <v>1585</v>
       </c>
-      <c r="G9" s="335" t="s">
+      <c r="G9" s="334" t="s">
         <v>979</v>
       </c>
-      <c r="H9" s="334"/>
-    </row>
-    <row r="10" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B10" s="330">
+      <c r="H9" s="333"/>
+    </row>
+    <row r="10" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B10" s="329">
         <v>44581</v>
       </c>
-      <c r="C10" s="331" t="s">
+      <c r="C10" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D10" s="331" t="s">
+      <c r="D10" s="330" t="s">
         <v>1586</v>
       </c>
-      <c r="E10" s="332" t="s">
+      <c r="E10" s="331" t="s">
         <v>1587</v>
       </c>
-      <c r="F10" s="333" t="s">
+      <c r="F10" s="332" t="s">
         <v>1588</v>
       </c>
-      <c r="G10" s="335" t="s">
+      <c r="G10" s="334" t="s">
         <v>895</v>
       </c>
-      <c r="H10" s="334" t="s">
+      <c r="H10" s="333" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B11" s="330">
+    <row r="11" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B11" s="329">
         <v>44581</v>
       </c>
-      <c r="C11" s="331" t="s">
+      <c r="C11" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D11" s="331" t="s">
+      <c r="D11" s="330" t="s">
         <v>1586</v>
       </c>
-      <c r="E11" s="332" t="s">
+      <c r="E11" s="331" t="s">
         <v>1587</v>
       </c>
-      <c r="F11" s="333" t="s">
+      <c r="F11" s="332" t="s">
         <v>1590</v>
       </c>
-      <c r="G11" s="335" t="s">
+      <c r="G11" s="334" t="s">
         <v>979</v>
       </c>
-      <c r="H11" s="334" t="s">
+      <c r="H11" s="333" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B12" s="330">
+    <row r="12" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B12" s="329">
         <v>44606</v>
       </c>
-      <c r="C12" s="331" t="s">
+      <c r="C12" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D12" s="331" t="s">
+      <c r="D12" s="330" t="s">
         <v>1488</v>
       </c>
-      <c r="E12" s="332" t="s">
+      <c r="E12" s="331" t="s">
         <v>1489</v>
       </c>
-      <c r="F12" s="333" t="s">
+      <c r="F12" s="332" t="s">
         <v>975</v>
       </c>
-      <c r="G12" s="335" t="s">
+      <c r="G12" s="334" t="s">
         <v>1454</v>
       </c>
-      <c r="H12" s="334" t="s">
+      <c r="H12" s="333" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B13" s="330">
+    <row r="13" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B13" s="329">
         <v>44661</v>
       </c>
-      <c r="C13" s="331" t="s">
+      <c r="C13" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D13" s="331" t="s">
+      <c r="D13" s="330" t="s">
         <v>1450</v>
       </c>
-      <c r="E13" s="332" t="s">
+      <c r="E13" s="331" t="s">
         <v>1463</v>
       </c>
-      <c r="F13" s="333" t="s">
+      <c r="F13" s="332" t="s">
         <v>1453</v>
       </c>
-      <c r="G13" s="335" t="s">
+      <c r="G13" s="334" t="s">
         <v>1454</v>
       </c>
-      <c r="H13" s="334"/>
-    </row>
-    <row r="14" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B14" s="330">
+      <c r="H13" s="333"/>
+    </row>
+    <row r="14" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B14" s="329">
         <v>44139</v>
       </c>
-      <c r="C14" s="331" t="s">
+      <c r="C14" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D14" s="331" t="s">
+      <c r="D14" s="330" t="s">
         <v>1450</v>
       </c>
-      <c r="E14" s="332" t="s">
+      <c r="E14" s="331" t="s">
         <v>1459</v>
       </c>
-      <c r="F14" s="333" t="s">
+      <c r="F14" s="332" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="335" t="s">
+      <c r="G14" s="334" t="s">
         <v>1387</v>
       </c>
-      <c r="H14" s="334" t="s">
+      <c r="H14" s="333" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B15" s="336"/>
-      <c r="C15" s="331" t="s">
+    <row r="15" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B15" s="335"/>
+      <c r="C15" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D15" s="331" t="s">
+      <c r="D15" s="330" t="s">
         <v>1450</v>
       </c>
-      <c r="E15" s="334" t="s">
+      <c r="E15" s="333" t="s">
         <v>1461</v>
       </c>
-      <c r="F15" s="337" t="s">
+      <c r="F15" s="336" t="s">
         <v>1410</v>
       </c>
-      <c r="G15" s="335" t="s">
+      <c r="G15" s="334" t="s">
         <v>1409</v>
       </c>
-      <c r="H15" s="334"/>
-    </row>
-    <row r="16" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B16" s="336"/>
-      <c r="C16" s="331" t="s">
+      <c r="H15" s="333"/>
+    </row>
+    <row r="16" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B16" s="335"/>
+      <c r="C16" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D16" s="331" t="s">
+      <c r="D16" s="330" t="s">
         <v>1450</v>
       </c>
-      <c r="E16" s="334" t="s">
+      <c r="E16" s="333" t="s">
         <v>1462</v>
       </c>
-      <c r="F16" s="337" t="s">
+      <c r="F16" s="336" t="s">
         <v>1406</v>
       </c>
-      <c r="G16" s="335" t="s">
+      <c r="G16" s="334" t="s">
         <v>1409</v>
       </c>
-      <c r="H16" s="334"/>
-    </row>
-    <row r="17" spans="1:10" s="329" customFormat="1" ht="15">
-      <c r="B17" s="330">
+      <c r="H16" s="333"/>
+    </row>
+    <row r="17" spans="1:10" s="328" customFormat="1" ht="15">
+      <c r="B17" s="329">
         <v>44652</v>
       </c>
-      <c r="C17" s="331" t="s">
+      <c r="C17" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D17" s="331" t="s">
+      <c r="D17" s="330" t="s">
         <v>751</v>
       </c>
-      <c r="E17" s="332" t="s">
+      <c r="E17" s="331" t="s">
         <v>1593</v>
       </c>
-      <c r="F17" s="333" t="s">
+      <c r="F17" s="332" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="335" t="s">
+      <c r="G17" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="334" t="s">
+      <c r="H17" s="333" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="21"/>
-      <c r="B18" s="330">
+      <c r="B18" s="329">
         <v>44144</v>
       </c>
-      <c r="C18" s="331" t="s">
+      <c r="C18" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D18" s="331" t="s">
+      <c r="D18" s="330" t="s">
         <v>1488</v>
       </c>
-      <c r="E18" s="332" t="s">
+      <c r="E18" s="331" t="s">
         <v>1489</v>
       </c>
-      <c r="F18" s="333" t="s">
+      <c r="F18" s="332" t="s">
         <v>951</v>
       </c>
-      <c r="G18" s="335" t="s">
+      <c r="G18" s="334" t="s">
         <v>953</v>
       </c>
-      <c r="H18" s="334" t="s">
+      <c r="H18" s="333" t="s">
         <v>1490</v>
       </c>
       <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="21"/>
-      <c r="B19" s="330">
+      <c r="B19" s="329">
         <v>44676</v>
       </c>
-      <c r="C19" s="331" t="s">
+      <c r="C19" s="330" t="s">
         <v>1477</v>
       </c>
-      <c r="D19" s="331" t="s">
+      <c r="D19" s="330" t="s">
         <v>1488</v>
       </c>
-      <c r="E19" s="332" t="s">
+      <c r="E19" s="331" t="s">
         <v>1489</v>
       </c>
-      <c r="F19" s="323" t="s">
+      <c r="F19" s="322" t="s">
         <v>975</v>
       </c>
-      <c r="G19" s="338" t="s">
+      <c r="G19" s="337" t="s">
         <v>1594</v>
       </c>
-      <c r="H19" s="339" t="s">
+      <c r="H19" s="338" t="s">
         <v>1595</v>
       </c>
       <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="21"/>
-      <c r="B20" s="330"/>
-      <c r="C20" s="331"/>
-      <c r="D20" s="331"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="333"/>
-      <c r="G20" s="335"/>
-      <c r="H20" s="334"/>
+      <c r="B20" s="329"/>
+      <c r="C20" s="330"/>
+      <c r="D20" s="330"/>
+      <c r="E20" s="331"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="334"/>
+      <c r="H20" s="333"/>
       <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="21"/>
-      <c r="B21" s="330"/>
-      <c r="C21" s="331"/>
-      <c r="D21" s="331"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="333"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="334"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="330"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="331"/>
+      <c r="F21" s="332"/>
+      <c r="G21" s="334"/>
+      <c r="H21" s="333"/>
       <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="21"/>
-      <c r="B22" s="330"/>
-      <c r="C22" s="331"/>
-      <c r="D22" s="331"/>
-      <c r="E22" s="332"/>
-      <c r="F22" s="333"/>
-      <c r="G22" s="335"/>
-      <c r="H22" s="334"/>
+      <c r="B22" s="329"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="330"/>
+      <c r="E22" s="331"/>
+      <c r="F22" s="332"/>
+      <c r="G22" s="334"/>
+      <c r="H22" s="333"/>
       <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="21"/>
-      <c r="B23" s="330"/>
-      <c r="C23" s="331"/>
-      <c r="D23" s="331"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="333"/>
-      <c r="G23" s="335"/>
-      <c r="H23" s="334"/>
+      <c r="B23" s="329"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="330"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="332"/>
+      <c r="G23" s="334"/>
+      <c r="H23" s="333"/>
       <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="21"/>
-      <c r="B24" s="330"/>
-      <c r="C24" s="331"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="333"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="334"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="332"/>
+      <c r="G24" s="334"/>
+      <c r="H24" s="333"/>
       <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="21"/>
-      <c r="B25" s="330"/>
-      <c r="C25" s="331"/>
-      <c r="D25" s="331"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="333"/>
-      <c r="G25" s="335"/>
-      <c r="H25" s="334"/>
+      <c r="B25" s="329"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="330"/>
+      <c r="E25" s="331"/>
+      <c r="F25" s="332"/>
+      <c r="G25" s="334"/>
+      <c r="H25" s="333"/>
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="449" t="s">
+      <c r="B26" s="461" t="s">
         <v>1596</v>
       </c>
-      <c r="C26" s="450"/>
-      <c r="D26" s="450"/>
-      <c r="E26" s="450"/>
-      <c r="F26" s="450"/>
-      <c r="G26" s="450"/>
-      <c r="H26" s="451"/>
+      <c r="C26" s="462"/>
+      <c r="D26" s="462"/>
+      <c r="E26" s="462"/>
+      <c r="F26" s="462"/>
+      <c r="G26" s="462"/>
+      <c r="H26" s="463"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="21"/>
-      <c r="B27" s="296">
+      <c r="B27" s="295">
         <v>44165</v>
       </c>
       <c r="C27" s="259" t="s">
@@ -30029,7 +30340,7 @@
       <c r="D27" s="259" t="s">
         <v>1451</v>
       </c>
-      <c r="E27" s="297" t="s">
+      <c r="E27" s="296" t="s">
         <v>1452</v>
       </c>
       <c r="F27" s="263" t="s">
@@ -30046,7 +30357,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="21"/>
-      <c r="B28" s="296">
+      <c r="B28" s="295">
         <v>44165</v>
       </c>
       <c r="C28" s="259" t="s">
@@ -30055,7 +30366,7 @@
       <c r="D28" s="259" t="s">
         <v>1451</v>
       </c>
-      <c r="E28" s="297" t="s">
+      <c r="E28" s="296" t="s">
         <v>1456</v>
       </c>
       <c r="F28" s="263" t="s">
@@ -30073,22 +30384,22 @@
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="21"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="298" t="s">
+      <c r="C29" s="297" t="s">
         <v>1450</v>
       </c>
-      <c r="D29" s="298" t="s">
+      <c r="D29" s="297" t="s">
         <v>1458</v>
       </c>
-      <c r="E29" s="298" t="s">
+      <c r="E29" s="297" t="s">
         <v>1389</v>
       </c>
-      <c r="F29" s="299" t="s">
+      <c r="F29" s="298" t="s">
         <v>882</v>
       </c>
       <c r="G29" s="264" t="s">
         <v>1387</v>
       </c>
-      <c r="H29" s="298"/>
+      <c r="H29" s="297"/>
       <c r="I29" s="21"/>
       <c r="J29" s="84"/>
     </row>
@@ -30097,20 +30408,20 @@
       <c r="B30" s="9">
         <v>44139</v>
       </c>
-      <c r="C30" s="300" t="s">
+      <c r="C30" s="299" t="s">
         <v>1450</v>
       </c>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="299" t="s">
         <v>1459</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="300"/>
       <c r="F30" s="263" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="264" t="s">
         <v>1387</v>
       </c>
-      <c r="H30" s="298" t="s">
+      <c r="H30" s="297" t="s">
         <v>1460</v>
       </c>
       <c r="I30" s="21"/>
@@ -30119,44 +30430,44 @@
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="21"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="298" t="s">
+      <c r="C31" s="297" t="s">
         <v>1450</v>
       </c>
-      <c r="D31" s="298" t="s">
+      <c r="D31" s="297" t="s">
         <v>1461</v>
       </c>
-      <c r="E31" s="298" t="s">
+      <c r="E31" s="297" t="s">
         <v>1411</v>
       </c>
-      <c r="F31" s="299" t="s">
+      <c r="F31" s="298" t="s">
         <v>1410</v>
       </c>
       <c r="G31" s="264" t="s">
         <v>1409</v>
       </c>
-      <c r="H31" s="298"/>
+      <c r="H31" s="297"/>
       <c r="I31" s="21"/>
       <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="21"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="298" t="s">
+      <c r="C32" s="297" t="s">
         <v>1450</v>
       </c>
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="297" t="s">
         <v>1462</v>
       </c>
-      <c r="E32" s="298" t="s">
+      <c r="E32" s="297" t="s">
         <v>1408</v>
       </c>
-      <c r="F32" s="299" t="s">
+      <c r="F32" s="298" t="s">
         <v>1406</v>
       </c>
       <c r="G32" s="264" t="s">
         <v>1409</v>
       </c>
-      <c r="H32" s="298"/>
+      <c r="H32" s="297"/>
       <c r="I32" s="21"/>
       <c r="J32" s="84"/>
     </row>
@@ -30165,20 +30476,20 @@
       <c r="B33" s="9">
         <v>44140</v>
       </c>
-      <c r="C33" s="300" t="s">
+      <c r="C33" s="299" t="s">
         <v>1450</v>
       </c>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="299" t="s">
         <v>1463</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="300"/>
       <c r="F33" s="263" t="s">
         <v>1453</v>
       </c>
       <c r="G33" s="264" t="s">
         <v>1454</v>
       </c>
-      <c r="H33" s="298" t="s">
+      <c r="H33" s="297" t="s">
         <v>1464</v>
       </c>
       <c r="I33" s="21"/>
@@ -30189,16 +30500,16 @@
       <c r="B34" s="9">
         <v>44511</v>
       </c>
-      <c r="C34" s="300" t="s">
+      <c r="C34" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="299" t="s">
         <v>1575</v>
       </c>
-      <c r="E34" s="301" t="s">
+      <c r="E34" s="300" t="s">
         <v>1574</v>
       </c>
-      <c r="F34" s="323" t="s">
+      <c r="F34" s="322" t="s">
         <v>129</v>
       </c>
       <c r="G34" s="264" t="s">
@@ -30213,7 +30524,7 @@
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="298" t="s">
+      <c r="C35" s="297" t="s">
         <v>1465</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -30235,7 +30546,7 @@
     <row r="36" spans="1:10" ht="25.5">
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="298" t="s">
+      <c r="C36" s="297" t="s">
         <v>1465</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -30257,7 +30568,7 @@
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="21"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="298" t="s">
+      <c r="C37" s="297" t="s">
         <v>1465</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -30279,7 +30590,7 @@
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="21"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="298" t="s">
+      <c r="C38" s="297" t="s">
         <v>1465</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -30299,7 +30610,7 @@
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="298" t="s">
+      <c r="C39" s="297" t="s">
         <v>1465</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -30321,20 +30632,20 @@
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="298" t="s">
+      <c r="C40" s="297" t="s">
         <v>1465</v>
       </c>
-      <c r="D40" s="298" t="s">
+      <c r="D40" s="297" t="s">
         <v>1463</v>
       </c>
-      <c r="E40" s="298"/>
-      <c r="F40" s="299" t="s">
+      <c r="E40" s="297"/>
+      <c r="F40" s="298" t="s">
         <v>1453</v>
       </c>
-      <c r="G40" s="302" t="s">
+      <c r="G40" s="301" t="s">
         <v>845</v>
       </c>
-      <c r="H40" s="298"/>
+      <c r="H40" s="297"/>
       <c r="I40" s="21"/>
       <c r="J40" s="84"/>
     </row>
@@ -30343,22 +30654,22 @@
       <c r="B41" s="3">
         <v>44343</v>
       </c>
-      <c r="C41" s="298" t="s">
+      <c r="C41" s="297" t="s">
         <v>1477</v>
       </c>
-      <c r="D41" s="298" t="s">
+      <c r="D41" s="297" t="s">
         <v>1478</v>
       </c>
-      <c r="E41" s="298" t="s">
+      <c r="E41" s="297" t="s">
         <v>1346</v>
       </c>
-      <c r="F41" s="302" t="s">
+      <c r="F41" s="301" t="s">
         <v>1479</v>
       </c>
-      <c r="G41" s="303" t="s">
+      <c r="G41" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="298"/>
+      <c r="H41" s="297"/>
       <c r="I41" s="21"/>
       <c r="J41" s="84"/>
     </row>
@@ -30373,7 +30684,7 @@
       <c r="D42" s="259" t="s">
         <v>1480</v>
       </c>
-      <c r="E42" s="301" t="s">
+      <c r="E42" s="300" t="s">
         <v>1383</v>
       </c>
       <c r="F42" s="264" t="s">
@@ -30390,25 +30701,25 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="21"/>
-      <c r="B43" s="324">
+      <c r="B43" s="323">
         <v>44329</v>
       </c>
-      <c r="C43" s="325" t="s">
+      <c r="C43" s="324" t="s">
         <v>1477</v>
       </c>
-      <c r="D43" s="325" t="s">
+      <c r="D43" s="324" t="s">
         <v>1482</v>
       </c>
-      <c r="E43" s="325" t="s">
+      <c r="E43" s="324" t="s">
         <v>1483</v>
       </c>
-      <c r="F43" s="326" t="s">
+      <c r="F43" s="325" t="s">
         <v>1484</v>
       </c>
-      <c r="G43" s="327" t="s">
+      <c r="G43" s="326" t="s">
         <v>979</v>
       </c>
-      <c r="H43" s="328" t="s">
+      <c r="H43" s="327" t="s">
         <v>1485</v>
       </c>
       <c r="I43" s="21"/>
@@ -30416,25 +30727,25 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="21"/>
-      <c r="B44" s="324">
+      <c r="B44" s="323">
         <v>44329</v>
       </c>
-      <c r="C44" s="325" t="s">
+      <c r="C44" s="324" t="s">
         <v>1477</v>
       </c>
-      <c r="D44" s="325" t="s">
+      <c r="D44" s="324" t="s">
         <v>1482</v>
       </c>
-      <c r="E44" s="325" t="s">
+      <c r="E44" s="324" t="s">
         <v>1486</v>
       </c>
-      <c r="F44" s="326" t="s">
+      <c r="F44" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="327" t="s">
+      <c r="G44" s="326" t="s">
         <v>895</v>
       </c>
-      <c r="H44" s="328" t="s">
+      <c r="H44" s="327" t="s">
         <v>1487</v>
       </c>
       <c r="I44" s="21"/>
@@ -30451,10 +30762,10 @@
       <c r="D45" s="259" t="s">
         <v>1488</v>
       </c>
-      <c r="E45" s="301" t="s">
+      <c r="E45" s="300" t="s">
         <v>1489</v>
       </c>
-      <c r="F45" s="304" t="s">
+      <c r="F45" s="303" t="s">
         <v>951</v>
       </c>
       <c r="G45" s="264" t="s">
@@ -30477,10 +30788,10 @@
       <c r="D46" s="259" t="s">
         <v>1488</v>
       </c>
-      <c r="E46" s="301" t="s">
+      <c r="E46" s="300" t="s">
         <v>1491</v>
       </c>
-      <c r="F46" s="301" t="s">
+      <c r="F46" s="300" t="s">
         <v>1492</v>
       </c>
       <c r="G46" s="263" t="s">
@@ -30497,22 +30808,22 @@
       <c r="B47" s="9">
         <v>44369</v>
       </c>
-      <c r="C47" s="300" t="s">
+      <c r="C47" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D47" s="300" t="s">
+      <c r="D47" s="299" t="s">
         <v>1493</v>
       </c>
-      <c r="E47" s="301" t="s">
+      <c r="E47" s="300" t="s">
         <v>1494</v>
       </c>
-      <c r="F47" s="305" t="s">
+      <c r="F47" s="304" t="s">
         <v>1495</v>
       </c>
-      <c r="G47" s="306" t="s">
+      <c r="G47" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="298" t="s">
+      <c r="H47" s="297" t="s">
         <v>1496</v>
       </c>
       <c r="I47" s="21"/>
@@ -30523,13 +30834,13 @@
       <c r="B48" s="9">
         <v>44334</v>
       </c>
-      <c r="C48" s="300" t="s">
+      <c r="C48" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D48" s="300" t="s">
+      <c r="D48" s="299" t="s">
         <v>1497</v>
       </c>
-      <c r="E48" s="301" t="s">
+      <c r="E48" s="300" t="s">
         <v>1498</v>
       </c>
       <c r="F48" s="263" t="s">
@@ -30538,7 +30849,7 @@
       <c r="G48" s="264" t="s">
         <v>1499</v>
       </c>
-      <c r="H48" s="298"/>
+      <c r="H48" s="297"/>
       <c r="I48" s="21"/>
       <c r="J48" s="84"/>
     </row>
@@ -30550,10 +30861,10 @@
       <c r="C49" s="259" t="s">
         <v>1477</v>
       </c>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="300" t="s">
         <v>1500</v>
       </c>
-      <c r="E49" s="301" t="s">
+      <c r="E49" s="300" t="s">
         <v>1501</v>
       </c>
       <c r="F49" s="263" t="s">
@@ -30562,7 +30873,7 @@
       <c r="G49" s="264" t="s">
         <v>979</v>
       </c>
-      <c r="H49" s="301" t="s">
+      <c r="H49" s="300" t="s">
         <v>1500</v>
       </c>
       <c r="I49" s="21"/>
@@ -30573,20 +30884,20 @@
       <c r="B50" s="9">
         <v>44354</v>
       </c>
-      <c r="C50" s="300" t="s">
+      <c r="C50" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D50" s="300" t="s">
+      <c r="D50" s="299" t="s">
         <v>1500</v>
       </c>
-      <c r="E50" s="300"/>
+      <c r="E50" s="299"/>
       <c r="F50" s="263" t="s">
         <v>1374</v>
       </c>
       <c r="G50" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="298"/>
+      <c r="H50" s="297"/>
       <c r="I50" s="21"/>
       <c r="J50" s="84"/>
     </row>
@@ -30595,13 +30906,13 @@
       <c r="B51" s="9">
         <v>44329</v>
       </c>
-      <c r="C51" s="300" t="s">
+      <c r="C51" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D51" s="300" t="s">
+      <c r="D51" s="299" t="s">
         <v>1503</v>
       </c>
-      <c r="E51" s="307" t="s">
+      <c r="E51" s="306" t="s">
         <v>1504</v>
       </c>
       <c r="F51" s="263" t="s">
@@ -30610,7 +30921,7 @@
       <c r="G51" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="298" t="s">
+      <c r="H51" s="297" t="s">
         <v>1505</v>
       </c>
       <c r="I51" s="21"/>
@@ -30621,22 +30932,22 @@
       <c r="B52" s="9">
         <v>44329</v>
       </c>
-      <c r="C52" s="300" t="s">
+      <c r="C52" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D52" s="300" t="s">
+      <c r="D52" s="299" t="s">
         <v>1481</v>
       </c>
-      <c r="E52" s="301" t="s">
+      <c r="E52" s="300" t="s">
         <v>1383</v>
       </c>
-      <c r="F52" s="308" t="s">
+      <c r="F52" s="307" t="s">
         <v>1374</v>
       </c>
       <c r="G52" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="298" t="s">
+      <c r="H52" s="297" t="s">
         <v>1506</v>
       </c>
       <c r="I52" s="21"/>
@@ -30645,13 +30956,13 @@
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="21"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="300" t="s">
+      <c r="C53" s="299" t="s">
         <v>1477</v>
       </c>
-      <c r="D53" s="300" t="s">
+      <c r="D53" s="299" t="s">
         <v>1488</v>
       </c>
-      <c r="E53" s="300" t="s">
+      <c r="E53" s="299" t="s">
         <v>1489</v>
       </c>
       <c r="F53" s="263" t="s">
@@ -30660,7 +30971,7 @@
       <c r="G53" s="264" t="s">
         <v>953</v>
       </c>
-      <c r="H53" s="298" t="s">
+      <c r="H53" s="297" t="s">
         <v>1490</v>
       </c>
       <c r="I53" s="21"/>
@@ -30692,7 +31003,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="21"/>
-      <c r="B55" s="296">
+      <c r="B55" s="295">
         <v>44302</v>
       </c>
       <c r="C55" s="259" t="s">
@@ -30742,7 +31053,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="21"/>
-      <c r="B57" s="296">
+      <c r="B57" s="295">
         <v>44139</v>
       </c>
       <c r="C57" s="259" t="s">
@@ -30786,7 +31097,7 @@
       <c r="G58" s="263" t="s">
         <v>1237</v>
       </c>
-      <c r="H58" s="301" t="s">
+      <c r="H58" s="300" t="s">
         <v>1500</v>
       </c>
       <c r="I58" s="21"/>
@@ -30797,13 +31108,13 @@
       <c r="B59" s="9">
         <v>44295</v>
       </c>
-      <c r="C59" s="300" t="s">
+      <c r="C59" s="299" t="s">
         <v>1517</v>
       </c>
-      <c r="D59" s="300" t="s">
+      <c r="D59" s="299" t="s">
         <v>1518</v>
       </c>
-      <c r="E59" s="301" t="s">
+      <c r="E59" s="300" t="s">
         <v>1519</v>
       </c>
       <c r="F59" s="263" t="s">
@@ -30812,7 +31123,7 @@
       <c r="G59" s="264" t="s">
         <v>845</v>
       </c>
-      <c r="H59" s="298" t="s">
+      <c r="H59" s="297" t="s">
         <v>1521</v>
       </c>
       <c r="I59" s="21"/>
@@ -30823,13 +31134,13 @@
       <c r="B60" s="9">
         <v>44295</v>
       </c>
-      <c r="C60" s="300" t="s">
+      <c r="C60" s="299" t="s">
         <v>1517</v>
       </c>
-      <c r="D60" s="300" t="s">
+      <c r="D60" s="299" t="s">
         <v>1518</v>
       </c>
-      <c r="E60" s="301" t="s">
+      <c r="E60" s="300" t="s">
         <v>1519</v>
       </c>
       <c r="F60" s="263" t="s">
@@ -30838,7 +31149,7 @@
       <c r="G60" s="264" t="s">
         <v>845</v>
       </c>
-      <c r="H60" s="298" t="s">
+      <c r="H60" s="297" t="s">
         <v>1523</v>
       </c>
       <c r="I60" s="21"/>
@@ -30849,13 +31160,13 @@
       <c r="B61" s="9">
         <v>44147</v>
       </c>
-      <c r="C61" s="300" t="s">
+      <c r="C61" s="299" t="s">
         <v>1517</v>
       </c>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="299" t="s">
         <v>1524</v>
       </c>
-      <c r="E61" s="301" t="s">
+      <c r="E61" s="300" t="s">
         <v>1525</v>
       </c>
       <c r="F61" s="263" t="s">
@@ -30864,7 +31175,7 @@
       <c r="G61" s="264" t="s">
         <v>845</v>
       </c>
-      <c r="H61" s="298" t="s">
+      <c r="H61" s="297" t="s">
         <v>1526</v>
       </c>
       <c r="I61" s="21"/>
@@ -30875,22 +31186,22 @@
       <c r="B62" s="3">
         <v>44313</v>
       </c>
-      <c r="C62" s="298" t="s">
+      <c r="C62" s="297" t="s">
         <v>754</v>
       </c>
-      <c r="D62" s="298" t="s">
+      <c r="D62" s="297" t="s">
         <v>882</v>
       </c>
-      <c r="E62" s="298" t="s">
+      <c r="E62" s="297" t="s">
         <v>1527</v>
       </c>
       <c r="F62" s="263">
         <v>1059</v>
       </c>
-      <c r="G62" s="302" t="s">
+      <c r="G62" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="298" t="s">
+      <c r="H62" s="297" t="s">
         <v>1528</v>
       </c>
       <c r="I62" s="21"/>
@@ -30901,13 +31212,13 @@
       <c r="B63" s="3">
         <v>44313</v>
       </c>
-      <c r="C63" s="298" t="s">
+      <c r="C63" s="297" t="s">
         <v>754</v>
       </c>
-      <c r="D63" s="298" t="s">
+      <c r="D63" s="297" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="298" t="s">
+      <c r="E63" s="297" t="s">
         <v>1527</v>
       </c>
       <c r="F63" s="263" t="s">
@@ -30916,7 +31227,7 @@
       <c r="G63" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="H63" s="298" t="s">
+      <c r="H63" s="297" t="s">
         <v>1528</v>
       </c>
       <c r="I63" s="21"/>
@@ -30927,20 +31238,20 @@
       <c r="B64" s="3">
         <v>44313</v>
       </c>
-      <c r="C64" s="298" t="s">
+      <c r="C64" s="297" t="s">
         <v>754</v>
       </c>
-      <c r="D64" s="298" t="s">
+      <c r="D64" s="297" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="298" t="s">
+      <c r="E64" s="297" t="s">
         <v>1527</v>
       </c>
       <c r="F64" s="263">
         <v>1023</v>
       </c>
       <c r="G64" s="264"/>
-      <c r="H64" s="298" t="s">
+      <c r="H64" s="297" t="s">
         <v>1528</v>
       </c>
       <c r="I64" s="21"/>
@@ -30948,25 +31259,25 @@
     </row>
     <row r="65" spans="1:10" ht="15">
       <c r="A65" s="21"/>
-      <c r="B65" s="296">
+      <c r="B65" s="295">
         <v>44133</v>
       </c>
-      <c r="C65" s="309" t="s">
+      <c r="C65" s="308" t="s">
         <v>1530</v>
       </c>
-      <c r="D65" s="310" t="s">
+      <c r="D65" s="309" t="s">
         <v>1343</v>
       </c>
-      <c r="E65" s="311" t="s">
+      <c r="E65" s="310" t="s">
         <v>1383</v>
       </c>
-      <c r="F65" s="311" t="s">
+      <c r="F65" s="310" t="s">
         <v>1374</v>
       </c>
-      <c r="G65" s="312" t="s">
+      <c r="G65" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="313" t="s">
+      <c r="H65" s="312" t="s">
         <v>1481</v>
       </c>
       <c r="I65" s="21"/>
@@ -30974,7 +31285,7 @@
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="21"/>
-      <c r="B66" s="296">
+      <c r="B66" s="295">
         <v>44108</v>
       </c>
       <c r="C66" s="259" t="s">
@@ -30999,13 +31310,13 @@
       <c r="B67" s="3">
         <v>44188</v>
       </c>
-      <c r="C67" s="300" t="s">
+      <c r="C67" s="299" t="s">
         <v>1332</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="E67" s="314" t="s">
+      <c r="E67" s="313" t="s">
         <v>1534</v>
       </c>
       <c r="F67" s="264" t="s">
@@ -31014,7 +31325,7 @@
       <c r="G67" s="264" t="s">
         <v>895</v>
       </c>
-      <c r="H67" s="315" t="s">
+      <c r="H67" s="314" t="s">
         <v>1304</v>
       </c>
       <c r="I67" s="21"/>
@@ -31031,16 +31342,16 @@
       <c r="D68" s="200" t="s">
         <v>1337</v>
       </c>
-      <c r="E68" s="316" t="s">
+      <c r="E68" s="315" t="s">
         <v>1241</v>
       </c>
-      <c r="F68" s="317" t="s">
+      <c r="F68" s="316" t="s">
         <v>129</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="H68" s="298" t="s">
+      <c r="H68" s="297" t="s">
         <v>1535</v>
       </c>
       <c r="I68" s="21"/>
@@ -31057,7 +31368,7 @@
       <c r="D69" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="316" t="s">
+      <c r="E69" s="315" t="s">
         <v>48</v>
       </c>
       <c r="F69" s="8" t="s">
@@ -31075,33 +31386,33 @@
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="21"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
-      <c r="E70" s="300"/>
+      <c r="C70" s="299"/>
+      <c r="D70" s="299"/>
+      <c r="E70" s="299"/>
       <c r="F70" s="263"/>
       <c r="G70" s="264"/>
-      <c r="H70" s="298"/>
+      <c r="H70" s="297"/>
       <c r="I70" s="21"/>
       <c r="J70" s="84"/>
     </row>
     <row r="71" spans="1:10" ht="15">
       <c r="B71" s="9"/>
-      <c r="C71" s="300"/>
-      <c r="D71" s="300"/>
-      <c r="E71" s="300"/>
+      <c r="C71" s="299"/>
+      <c r="D71" s="299"/>
+      <c r="E71" s="299"/>
       <c r="F71" s="263"/>
       <c r="G71" s="264"/>
-      <c r="H71" s="298"/>
+      <c r="H71" s="297"/>
       <c r="J71" s="84"/>
     </row>
     <row r="72" spans="1:10" ht="15">
       <c r="B72" s="9"/>
-      <c r="C72" s="300"/>
-      <c r="D72" s="300"/>
-      <c r="E72" s="300"/>
+      <c r="C72" s="299"/>
+      <c r="D72" s="299"/>
+      <c r="E72" s="299"/>
       <c r="F72" s="263"/>
       <c r="G72" s="264"/>
-      <c r="H72" s="298"/>
+      <c r="H72" s="297"/>
       <c r="J72" s="84"/>
     </row>
     <row r="73" spans="1:10" ht="15.75">
@@ -31419,14 +31730,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="446" t="s">
+      <c r="B91" s="458" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="447"/>
-      <c r="D91" s="447"/>
-      <c r="E91" s="447"/>
-      <c r="F91" s="447"/>
-      <c r="G91" s="448"/>
+      <c r="C91" s="459"/>
+      <c r="D91" s="459"/>
+      <c r="E91" s="459"/>
+      <c r="F91" s="459"/>
+      <c r="G91" s="460"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32541,14 +32852,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="446" t="s">
+      <c r="B164" s="458" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="447"/>
-      <c r="D164" s="447"/>
-      <c r="E164" s="447"/>
-      <c r="F164" s="447"/>
-      <c r="G164" s="448"/>
+      <c r="C164" s="459"/>
+      <c r="D164" s="459"/>
+      <c r="E164" s="459"/>
+      <c r="F164" s="459"/>
+      <c r="G164" s="460"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -32695,14 +33006,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="446" t="s">
+      <c r="B174" s="458" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="447"/>
-      <c r="D174" s="447"/>
-      <c r="E174" s="447"/>
-      <c r="F174" s="447"/>
-      <c r="G174" s="448"/>
+      <c r="C174" s="459"/>
+      <c r="D174" s="459"/>
+      <c r="E174" s="459"/>
+      <c r="F174" s="459"/>
+      <c r="G174" s="460"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -32761,31 +33072,47 @@
       <c r="G178" s="100"/>
       <c r="H178" s="181"/>
     </row>
-    <row r="179" spans="2:8" ht="25.5">
-      <c r="B179" s="99" t="s">
-        <v>886</v>
-      </c>
-      <c r="C179" s="99" t="s">
+    <row r="179" spans="2:8">
+      <c r="B179" s="422">
+        <v>44894</v>
+      </c>
+      <c r="C179" s="423" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D179" s="423" t="s">
         <v>1259</v>
       </c>
-      <c r="D179" s="99"/>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="424"/>
+      <c r="F179" s="424" t="s">
         <v>873</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="G179" s="424" t="s">
         <v>845</v>
       </c>
-      <c r="G179" s="100"/>
-      <c r="H179" s="181"/>
-    </row>
-    <row r="180" spans="2:8" ht="14.25">
-      <c r="B180" s="99"/>
-      <c r="C180" s="101"/>
-      <c r="D180" s="101"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="100"/>
-      <c r="H180" s="181"/>
+      <c r="H179" s="238" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15">
+      <c r="B180" s="422">
+        <v>44894</v>
+      </c>
+      <c r="C180" s="423" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D180" s="423" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E180" s="424"/>
+      <c r="F180" s="424" t="s">
+        <v>821</v>
+      </c>
+      <c r="G180" s="425">
+        <v>20210</v>
+      </c>
+      <c r="H180" s="238" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
       <c r="B181" s="99"/>
@@ -33191,14 +33518,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="443" t="s">
+      <c r="B242" s="455" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="444"/>
-      <c r="D242" s="444"/>
-      <c r="E242" s="444"/>
-      <c r="F242" s="444"/>
-      <c r="G242" s="445"/>
+      <c r="C242" s="456"/>
+      <c r="D242" s="456"/>
+      <c r="E242" s="456"/>
+      <c r="F242" s="456"/>
+      <c r="G242" s="457"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33232,10 +33559,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="434" t="s">
+      <c r="E245" s="446" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="434"/>
+      <c r="F245" s="446"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33244,32 +33571,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="435"/>
-      <c r="F246" s="435"/>
+      <c r="E246" s="447"/>
+      <c r="F246" s="447"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="435"/>
-      <c r="F247" s="435"/>
+      <c r="E247" s="447"/>
+      <c r="F247" s="447"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="435"/>
-      <c r="F248" s="435"/>
+      <c r="E248" s="447"/>
+      <c r="F248" s="447"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="435"/>
-      <c r="F249" s="435"/>
+      <c r="E249" s="447"/>
+      <c r="F249" s="447"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33280,8 +33607,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="435"/>
-      <c r="F250" s="435"/>
+      <c r="E250" s="447"/>
+      <c r="F250" s="447"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33290,8 +33617,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="435"/>
-      <c r="F251" s="435"/>
+      <c r="E251" s="447"/>
+      <c r="F251" s="447"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33300,8 +33627,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="436"/>
-      <c r="F252" s="436"/>
+      <c r="E252" s="448"/>
+      <c r="F252" s="448"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33314,7 +33641,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="431" t="s">
+      <c r="E253" s="443" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33328,7 +33655,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="432"/>
+      <c r="E254" s="444"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33342,7 +33669,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="432"/>
+      <c r="E255" s="444"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33354,7 +33681,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="432"/>
+      <c r="E256" s="444"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33366,7 +33693,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="432"/>
+      <c r="E257" s="444"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33378,7 +33705,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="432"/>
+      <c r="E258" s="444"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33390,7 +33717,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="432"/>
+      <c r="E259" s="444"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33400,7 +33727,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="432"/>
+      <c r="E260" s="444"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33408,7 +33735,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="432"/>
+      <c r="E261" s="444"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33418,7 +33745,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="432"/>
+      <c r="E262" s="444"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33428,7 +33755,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="432"/>
+      <c r="E263" s="444"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33438,7 +33765,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="433"/>
+      <c r="E264" s="445"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33450,7 +33777,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="434" t="s">
+      <c r="E265" s="446" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33464,7 +33791,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="435"/>
+      <c r="E266" s="447"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33478,7 +33805,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="435"/>
+      <c r="E267" s="447"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33488,7 +33815,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="436"/>
+      <c r="E268" s="448"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -33660,8 +33987,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -33682,35 +34009,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="452" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="452">
+      <c r="B4" s="464">
         <v>43928</v>
       </c>
-      <c r="C4" s="452"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452"/>
-      <c r="F4" s="452"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="464"/>
+      <c r="F4" s="464"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -33965,19 +34292,20 @@
   <sheetPr codeName="Hoja32">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="O9" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="6" width="19.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:26">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -33986,15 +34314,15 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="20.25">
+    <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34003,15 +34331,15 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25">
+    <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="452" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34020,15 +34348,15 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.25">
+    <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="442">
+      <c r="B4" s="454">
         <v>43944</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34037,7 +34365,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:26" ht="15.75">
       <c r="A5" s="21"/>
       <c r="B5" s="182"/>
       <c r="C5" s="183"/>
@@ -34046,7 +34374,7 @@
       <c r="F5" s="184"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:26">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -34057,7 +34385,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
         <v>1217</v>
@@ -34072,7 +34400,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:26" ht="25.5">
       <c r="A8" s="21"/>
       <c r="B8" s="21" t="s">
         <v>8</v>
@@ -34080,12 +34408,18 @@
       <c r="C8" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="110"/>
+      <c r="D8" s="427">
+        <v>44889</v>
+      </c>
+      <c r="E8" s="426" t="s">
+        <v>1755</v>
+      </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="110" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
         <v>70</v>
@@ -34099,7 +34433,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="21"/>
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
@@ -34109,16 +34443,21 @@
       <c r="G10" s="21"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:26">
       <c r="A11" s="21"/>
       <c r="B11" s="110"/>
       <c r="C11" s="110"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="110" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -34127,16 +34466,15 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:26">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -34144,8 +34482,11 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="Z14" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -34153,8 +34494,14 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="Y15" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -34163,7 +34510,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:27">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -34171,8 +34518,14 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="Y17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -34180,8 +34533,14 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="Y18" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -34189,8 +34548,14 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="Y19" t="s">
+        <v>1765</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -34199,7 +34564,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:27">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -34208,7 +34573,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:27">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -34216,8 +34581,11 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="Y22" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -34225,8 +34593,11 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="Y23" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -34234,8 +34605,11 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="Y24" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -34244,7 +34618,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:27">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -34252,8 +34626,11 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -34261,8 +34638,11 @@
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="Y27" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -34270,8 +34650,11 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="Y28">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -34279,8 +34662,11 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="Y29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -34288,8 +34674,11 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="Y30">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="21"/>
       <c r="B31" s="21" t="s">
         <v>1289</v>
@@ -34300,7 +34689,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:27">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -34308,8 +34697,14 @@
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="Y32" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -34317,8 +34712,13 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="Y33" s="465">
+        <v>44925</v>
+      </c>
+      <c r="Z33" s="465"/>
+      <c r="AA33" s="465"/>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -34326,8 +34726,14 @@
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="Y34" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -34336,7 +34742,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:27">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -34345,7 +34751,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:27">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -34354,7 +34760,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:27">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -34363,27 +34769,30 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:27">
       <c r="G42" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:27">
       <c r="G43" t="s">
         <v>1326</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="Y33:AA33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{84950872-23E8-4ED3-B280-A9A8163F000C}"/>
+    <hyperlink ref="Z19" r:id="rId2" xr:uid="{381F1066-EBBB-4D4D-8840-F0EAFC0071B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -34392,8 +34801,8 @@
   <sheetPr codeName="Hoja30"/>
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:E122"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -34413,24 +34822,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="452" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34438,13 +34847,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="442">
+      <c r="B4" s="454">
         <v>43970</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
@@ -34728,7 +35137,7 @@
       <c r="H29" s="131"/>
       <c r="I29" s="132"/>
       <c r="J29" s="132"/>
-      <c r="K29" s="294"/>
+      <c r="K29" s="293"/>
       <c r="L29" s="133"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1">
@@ -34742,9 +35151,9 @@
       <c r="H30" s="134" t="s">
         <v>1424</v>
       </c>
-      <c r="I30" s="291"/>
-      <c r="J30" s="291"/>
-      <c r="K30" s="291"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
       <c r="L30" s="135"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" thickBot="1">
@@ -34758,9 +35167,9 @@
       <c r="H31" s="134" t="s">
         <v>1423</v>
       </c>
-      <c r="I31" s="291"/>
-      <c r="J31" s="291"/>
-      <c r="K31" s="291"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="135"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" thickTop="1" thickBot="1">
@@ -34805,7 +35214,7 @@
       <c r="H34" s="131"/>
       <c r="I34" s="132"/>
       <c r="J34" s="132"/>
-      <c r="K34" s="294"/>
+      <c r="K34" s="293"/>
       <c r="L34" s="133"/>
     </row>
     <row r="35" spans="1:12" ht="14.25">
@@ -34821,9 +35230,9 @@
       <c r="H35" s="134" t="s">
         <v>1425</v>
       </c>
-      <c r="I35" s="291"/>
-      <c r="J35" s="291"/>
-      <c r="K35" s="291"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="135"/>
     </row>
     <row r="36" spans="1:12" ht="14.25">
@@ -34837,9 +35246,9 @@
       <c r="H36" s="134" t="s">
         <v>1426</v>
       </c>
-      <c r="I36" s="291"/>
-      <c r="J36" s="291"/>
-      <c r="K36" s="291"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="135"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" thickBot="1">
@@ -35100,7 +35509,7 @@
       </c>
     </row>
     <row r="88" spans="2:2" ht="20.25">
-      <c r="B88" s="295" t="s">
+      <c r="B88" s="294" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -35331,10 +35740,10 @@
       <c r="B4" s="246">
         <v>1059</v>
       </c>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="292" t="s">
         <v>882</v>
       </c>
       <c r="E4" s="1">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F95B9A-9FA0-46CA-AF9D-F6BA4F28FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97C3A8-19BD-4EE0-8019-8809CA5084E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -50,7 +50,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1776">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5138,24 +5138,9 @@
     <t>POR VALIDAR Y VER QUE NO ESTE DUPLICADO</t>
   </si>
   <si>
-    <t>Vicente Cueva Ramirez</t>
-  </si>
-  <si>
     <t>Relacion de Accesos Varios</t>
   </si>
   <si>
-    <t>ADOBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu Adobe ID es </t>
-  </si>
-  <si>
-    <t>vcuevar@hotmail.com.</t>
-  </si>
-  <si>
-    <t>ConFaceBook</t>
-  </si>
-  <si>
     <t>EQUIPO COMPRAS ITEKNIA</t>
   </si>
   <si>
@@ -5250,9 +5235,6 @@
   </si>
   <si>
     <t>DROPBOX</t>
-  </si>
-  <si>
-    <t>Respaldo de Informacion Iteknia</t>
   </si>
   <si>
     <t>HP NEGRA LINUX</t>
@@ -5680,18 +5662,29 @@
   </si>
   <si>
     <t>CABLEMODEM DUAL BAND BC-RT905</t>
+  </si>
+  <si>
+    <t>Comercializadora Gaztambide, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Antigüo</t>
+  </si>
+  <si>
+    <t>Escritorio Remoto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="71">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6122,12 +6115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -6153,7 +6140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6307,6 +6294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7119,10 +7112,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7970,18 +7963,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="49" fontId="63" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="165" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="67" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8046,9 +8028,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8156,7 +8135,7 @@
     <xf numFmtId="0" fontId="62" fillId="25" borderId="50" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="68" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="67" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8187,12 +8166,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -8205,7 +8184,7 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8232,15 +8211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="66" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8321,36 +8291,36 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8407,6 +8377,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="27" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="27" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -8456,22 +8458,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>891541</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35F3A38-CFDD-4619-8941-7B13AC665CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAC0B84-0362-40F5-8B7D-42368F85C32C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8480,15 +8482,27 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1129666" y="85726"/>
-          <a:ext cx="1000124" cy="990599"/>
+          <a:off x="723900" y="466725"/>
+          <a:ext cx="2000250" cy="378198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15465,7 +15479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CTAS_PAGOS"/>
@@ -15926,2364 +15940,2427 @@
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="345" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="345" customWidth="1"/>
-    <col min="3" max="3" width="14" style="345" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="345" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="345" customWidth="1"/>
-    <col min="6" max="6" width="29" style="417" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="418" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="345" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="345"/>
+    <col min="1" max="1" width="3.5703125" style="343" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="343" customWidth="1"/>
+    <col min="3" max="3" width="14" style="343" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="343" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="343" customWidth="1"/>
+    <col min="6" max="6" width="29" style="411" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="412" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="343" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="343"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="342"/>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="342"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="342"/>
-      <c r="B2" s="436" t="s">
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="491"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="492"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.25">
+      <c r="A2" s="491"/>
+      <c r="B2" s="494" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C2" s="494"/>
+      <c r="D2" s="494"/>
+      <c r="E2" s="494"/>
+      <c r="F2" s="494"/>
+      <c r="G2" s="494"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
+      <c r="A3" s="491"/>
+      <c r="B3" s="495" t="s">
         <v>1597</v>
       </c>
-      <c r="C2" s="436"/>
-      <c r="D2" s="436"/>
-      <c r="E2" s="436"/>
-      <c r="F2" s="436"/>
-      <c r="G2" s="436"/>
-      <c r="H2" s="436"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="342"/>
-      <c r="B3" s="437" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="437"/>
-      <c r="H3" s="437"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="342"/>
-      <c r="B4" s="438">
-        <f>MAX(B6:B97)</f>
-        <v>44925</v>
-      </c>
-      <c r="C4" s="438"/>
-      <c r="D4" s="438"/>
-      <c r="E4" s="438"/>
-      <c r="F4" s="438"/>
-      <c r="G4" s="438"/>
-      <c r="H4" s="438"/>
-    </row>
-    <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="342"/>
-      <c r="B5" s="342"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="348"/>
-      <c r="H5" s="346"/>
-    </row>
-    <row r="6" spans="1:9" s="353" customFormat="1" ht="30">
-      <c r="A6" s="349"/>
-      <c r="B6" s="350" t="s">
+      <c r="C3" s="495"/>
+      <c r="D3" s="495"/>
+      <c r="E3" s="495"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="491"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="491"/>
+      <c r="B4" s="491"/>
+      <c r="C4" s="496"/>
+      <c r="D4" s="497" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E4" s="496">
+        <f>MAX(B6:B146)</f>
+        <v>45035</v>
+      </c>
+      <c r="F4" s="496"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="496"/>
+      <c r="I4" s="491"/>
+      <c r="J4" s="491"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5" s="491"/>
+      <c r="B5" s="491"/>
+      <c r="C5" s="496"/>
+      <c r="D5" s="497" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E5" s="496">
+        <f>MIN(B6:B146)</f>
+        <v>43613</v>
+      </c>
+      <c r="F5" s="496"/>
+      <c r="G5" s="496"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="491"/>
+      <c r="J5" s="491"/>
+    </row>
+    <row r="6" spans="1:10" s="348" customFormat="1" ht="30">
+      <c r="A6" s="344"/>
+      <c r="B6" s="345" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="351" t="s">
+      <c r="C6" s="346" t="s">
         <v>1448</v>
       </c>
-      <c r="D6" s="351" t="s">
+      <c r="D6" s="346" t="s">
         <v>1449</v>
       </c>
-      <c r="E6" s="351" t="s">
+      <c r="E6" s="346" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="352" t="s">
+      <c r="F6" s="347" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="351" t="s">
+      <c r="G6" s="346" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="351" t="s">
+      <c r="H6" s="346" t="s">
         <v>1263</v>
       </c>
-      <c r="I6" s="349"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="343"/>
+      <c r="J6" s="343"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="342"/>
-      <c r="B7" s="354"/>
-      <c r="C7" s="355" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D7" s="355" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G7" s="357"/>
-      <c r="H7" s="355" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I7" s="342"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="349">
+        <v>45035</v>
+      </c>
+      <c r="C7" s="490" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D7" s="366" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E7" s="367" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F7" s="316" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="368" t="s">
+        <v>845</v>
+      </c>
+      <c r="H7" s="350" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="342"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="355" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D8" s="355" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E8" s="355" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F8" s="357" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G8" s="357" t="s">
-        <v>979</v>
-      </c>
-      <c r="H8" s="355"/>
+      <c r="B8" s="349">
+        <v>45035</v>
+      </c>
+      <c r="C8" s="490" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D8" s="366" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="367" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="369" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="368" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="363" t="s">
+        <v>1536</v>
+      </c>
       <c r="I8" s="342"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" ht="25.5">
       <c r="A9" s="342"/>
-      <c r="B9" s="354">
-        <v>44300</v>
-      </c>
-      <c r="C9" s="355" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D9" s="355" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E9" s="355" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F9" s="357" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G9" s="357" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H9" s="355"/>
+      <c r="B9" s="349">
+        <v>43613</v>
+      </c>
+      <c r="C9" s="490" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D9" s="384" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E9" s="384" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F9" s="369" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="368" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H9" s="384" t="s">
+        <v>1467</v>
+      </c>
       <c r="I9" s="342"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" s="342"/>
-      <c r="B10" s="354"/>
-      <c r="C10" s="355" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D10" s="355" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E10" s="355" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F10" s="357" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G10" s="357" t="s">
-        <v>979</v>
-      </c>
-      <c r="H10" s="355"/>
+      <c r="B10" s="349">
+        <v>43665</v>
+      </c>
+      <c r="C10" s="490" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D10" s="384" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E10" s="384" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F10" s="369" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="368" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H10" s="384" t="s">
+        <v>1469</v>
+      </c>
       <c r="I10" s="342"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="342"/>
-      <c r="B11" s="354">
-        <v>44307</v>
-      </c>
-      <c r="C11" s="355" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D11" s="355" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E11" s="358" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F11" s="357" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G11" s="359" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="355" t="s">
-        <v>1609</v>
-      </c>
+      <c r="B11" s="349"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="350"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="352"/>
+      <c r="H11" s="350"/>
       <c r="I11" s="342"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="342"/>
-      <c r="B12" s="360">
-        <v>44309</v>
-      </c>
-      <c r="C12" s="361" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D12" s="361" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E12" s="362" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F12" s="359" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G12" s="359" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="363" t="s">
-        <v>1612</v>
-      </c>
+      <c r="B12" s="349"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="351"/>
+      <c r="G12" s="352"/>
+      <c r="H12" s="350"/>
       <c r="I12" s="342"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="342"/>
-      <c r="B13" s="354"/>
-      <c r="C13" s="355" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D13" s="355" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E13" s="364" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F13" s="359" t="s">
-        <v>1616</v>
-      </c>
-      <c r="G13" s="357" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H13" s="365" t="s">
-        <v>1618</v>
-      </c>
+      <c r="B13" s="349"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="351"/>
+      <c r="G13" s="352"/>
+      <c r="H13" s="350"/>
       <c r="I13" s="342"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="342"/>
-      <c r="B14" s="354"/>
-      <c r="C14" s="355" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D14" s="355" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E14" s="364" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F14" s="359" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G14" s="357" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H14" s="365" t="s">
-        <v>1621</v>
-      </c>
+      <c r="B14" s="349"/>
+      <c r="C14" s="350"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="351"/>
+      <c r="G14" s="352"/>
+      <c r="H14" s="350"/>
       <c r="I14" s="342"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="342"/>
-      <c r="B15" s="354"/>
-      <c r="C15" s="355" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D15" s="355" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E15" s="355" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F15" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="357"/>
-      <c r="H15" s="355" t="s">
-        <v>1625</v>
-      </c>
+      <c r="B15" s="349"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="350"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="351"/>
+      <c r="G15" s="352"/>
+      <c r="H15" s="350"/>
       <c r="I15" s="342"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="342"/>
-      <c r="B16" s="354"/>
-      <c r="C16" s="366" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D16" s="355" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E16" s="355" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F16" s="356" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G16" s="357">
-        <v>4578</v>
-      </c>
-      <c r="H16" s="355"/>
+      <c r="B16" s="349"/>
+      <c r="C16" s="350"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="351"/>
+      <c r="G16" s="352"/>
+      <c r="H16" s="350"/>
       <c r="I16" s="342"/>
     </row>
-    <row r="17" spans="1:9" ht="105">
+    <row r="17" spans="1:9">
       <c r="A17" s="342"/>
-      <c r="B17" s="354">
-        <v>44188</v>
-      </c>
-      <c r="C17" s="367" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D17" s="368" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E17" s="369" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F17" s="359" t="s">
-        <v>718</v>
-      </c>
-      <c r="G17" s="359" t="s">
-        <v>895</v>
-      </c>
-      <c r="H17" s="370" t="s">
-        <v>1304</v>
-      </c>
+      <c r="B17" s="486"/>
+      <c r="C17" s="487"/>
+      <c r="D17" s="487"/>
+      <c r="E17" s="487"/>
+      <c r="F17" s="488"/>
+      <c r="G17" s="489"/>
+      <c r="H17" s="487"/>
       <c r="I17" s="342"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="342"/>
-      <c r="B18" s="354">
-        <v>44295</v>
-      </c>
-      <c r="C18" s="371" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D18" s="372" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E18" s="373" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F18" s="316" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="374" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="355" t="s">
-        <v>1535</v>
-      </c>
+      <c r="B18" s="349"/>
+      <c r="C18" s="350" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D18" s="350" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E18" s="350" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F18" s="352" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G18" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H18" s="350"/>
       <c r="I18" s="342"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9">
       <c r="A19" s="342"/>
-      <c r="B19" s="354">
-        <v>44295</v>
-      </c>
-      <c r="C19" s="371" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D19" s="372" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="373" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="375" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="374" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="368" t="s">
-        <v>1536</v>
-      </c>
+      <c r="B19" s="349">
+        <v>44300</v>
+      </c>
+      <c r="C19" s="350" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D19" s="350" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E19" s="350" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F19" s="352" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G19" s="352" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H19" s="350"/>
       <c r="I19" s="342"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="342"/>
-      <c r="B20" s="374">
+      <c r="B20" s="349"/>
+      <c r="C20" s="350" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D20" s="350" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E20" s="350" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F20" s="352" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G20" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H20" s="350"/>
+      <c r="I20" s="342"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="342"/>
+      <c r="B21" s="349">
+        <v>44307</v>
+      </c>
+      <c r="C21" s="350" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D21" s="350" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E21" s="353" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F21" s="352" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G21" s="354" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="350" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I21" s="342"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="342"/>
+      <c r="B22" s="355">
+        <v>44309</v>
+      </c>
+      <c r="C22" s="356" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D22" s="356" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E22" s="357" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F22" s="354" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G22" s="354" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="358" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I22" s="342"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="342"/>
+      <c r="B23" s="349"/>
+      <c r="C23" s="350" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D23" s="350" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E23" s="359" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F23" s="354" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G23" s="352" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H23" s="360" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I23" s="342"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="342"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="350" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D24" s="350" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E24" s="359" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F24" s="354" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G24" s="352" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H24" s="360" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I24" s="342"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="342"/>
+      <c r="B25" s="349"/>
+      <c r="C25" s="350" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D25" s="350" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E25" s="350" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F25" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="352"/>
+      <c r="H25" s="350" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I25" s="342"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="342"/>
+      <c r="B26" s="349"/>
+      <c r="C26" s="361" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D26" s="350" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E26" s="350" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F26" s="351" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G26" s="352">
+        <v>4578</v>
+      </c>
+      <c r="H26" s="350"/>
+      <c r="I26" s="342"/>
+    </row>
+    <row r="27" spans="1:9" ht="105">
+      <c r="A27" s="342"/>
+      <c r="B27" s="349">
+        <v>44188</v>
+      </c>
+      <c r="C27" s="362" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D27" s="363" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E27" s="364" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F27" s="354" t="s">
+        <v>718</v>
+      </c>
+      <c r="G27" s="354" t="s">
+        <v>895</v>
+      </c>
+      <c r="H27" s="365" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I27" s="342"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="342"/>
+      <c r="B28" s="368">
         <v>44469</v>
       </c>
-      <c r="C20" s="376" t="s">
+      <c r="C28" s="370" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="376" t="s">
+      <c r="D28" s="370" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E28" s="371" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F28" s="351" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="354" t="s">
+        <v>979</v>
+      </c>
+      <c r="H28" s="350" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I28" s="342"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="349"/>
+      <c r="C29" s="350" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D29" s="350"/>
+      <c r="E29" s="350"/>
+      <c r="F29" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="352" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H29" s="350"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="349"/>
+      <c r="C30" s="350" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D30" s="350" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E30" s="372" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F30" s="351" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G30" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H30" s="350"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="349"/>
+      <c r="C31" s="350" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D31" s="350" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E31" s="350" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F31" s="351" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G31" s="352" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H31" s="350"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="349"/>
+      <c r="C32" s="350" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D32" s="350" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E32" s="372" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F32" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="354" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H32" s="350"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="349">
+        <v>44305</v>
+      </c>
+      <c r="C33" s="356" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D33" s="350" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E33" s="350" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F33" s="352" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G33" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H33" s="371" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="355">
+        <v>44105</v>
+      </c>
+      <c r="C34" s="356" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D34" s="371" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="371" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F34" s="357" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G34" s="354" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="371" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="368">
+        <v>44354</v>
+      </c>
+      <c r="C35" s="370" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D35" s="370" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="370" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F35" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G35" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="371" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="355">
+        <v>43945</v>
+      </c>
+      <c r="C36" s="356" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D36" s="356" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E36" s="371" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F36" s="357" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G36" s="357" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H36" s="371" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="349"/>
+      <c r="C37" s="361" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D37" s="350" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E37" s="372" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F37" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H37" s="350" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="349"/>
+      <c r="C38" s="350" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D38" s="350" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E38" s="350"/>
+      <c r="F38" s="351"/>
+      <c r="G38" s="352"/>
+      <c r="H38" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="349"/>
+      <c r="C39" s="361" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D39" s="350" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E39" s="350" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F39" s="351" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G39" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H39" s="350" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="349"/>
+      <c r="C40" s="350" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D40" s="350" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E40" s="372" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F40" s="354" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G40" s="352" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H40" s="350"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="349"/>
+      <c r="C41" s="350" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D41" s="350" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E41" s="372" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F41" s="351" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G41" s="352" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H41" s="350"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="373">
+        <v>44108</v>
+      </c>
+      <c r="C42" s="374" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D42" s="356" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E42" s="357" t="s">
+        <v>944</v>
+      </c>
+      <c r="F42" s="354"/>
+      <c r="G42" s="354"/>
+      <c r="H42" s="358" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="349"/>
+      <c r="C43" s="375" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D43" s="376"/>
+      <c r="E43" s="350"/>
+      <c r="F43" s="351"/>
+      <c r="G43" s="352" t="s">
+        <v>843</v>
+      </c>
+      <c r="H43" s="350" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="349"/>
+      <c r="C44" s="375" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D44" s="376" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E44" s="376" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F44" s="377" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G44" s="378" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H44" s="379"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="373">
+        <v>44133</v>
+      </c>
+      <c r="C45" s="374" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D45" s="356" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E45" s="357" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F45" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G45" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="358" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="349"/>
+      <c r="C46" s="350" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="350" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E46" s="350"/>
+      <c r="F46" s="351" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G46" s="352" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H46" s="350" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="349"/>
+      <c r="C47" s="350" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D47" s="350" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E47" s="350" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F47" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="380" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H47" s="352" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="355">
+        <v>44144</v>
+      </c>
+      <c r="C48" s="356" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D48" s="356" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E48" s="371" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F48" s="381" t="s">
+        <v>951</v>
+      </c>
+      <c r="G48" s="354" t="s">
+        <v>953</v>
+      </c>
+      <c r="H48" s="358" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="349"/>
+      <c r="C49" s="350" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D49" s="350" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E49" s="372" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F49" s="351"/>
+      <c r="G49" s="352"/>
+      <c r="H49" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="349"/>
+      <c r="C50" s="350" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D50" s="350" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E50" s="372" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F50" s="351" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G50" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H50" s="350" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="349"/>
+      <c r="C51" s="350" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D51" s="350" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E51" s="350"/>
+      <c r="F51" s="351"/>
+      <c r="G51" s="352"/>
+      <c r="H51" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="349">
+        <v>44313</v>
+      </c>
+      <c r="C52" s="361" t="s">
+        <v>754</v>
+      </c>
+      <c r="D52" s="350" t="s">
+        <v>882</v>
+      </c>
+      <c r="E52" s="350" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F52" s="357">
+        <v>1059</v>
+      </c>
+      <c r="G52" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="350" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="349">
+        <v>44313</v>
+      </c>
+      <c r="C53" s="361" t="s">
+        <v>754</v>
+      </c>
+      <c r="D53" s="350" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="350" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F53" s="357" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G53" s="368" t="s">
+        <v>883</v>
+      </c>
+      <c r="H53" s="350" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="373">
+        <v>44165</v>
+      </c>
+      <c r="C54" s="374" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D54" s="356" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E54" s="296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F54" s="357" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G54" s="357" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H54" s="358" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="373">
+        <v>44165</v>
+      </c>
+      <c r="C55" s="374" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D55" s="356" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E55" s="296" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F55" s="357" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G55" s="357" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H55" s="382" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="349"/>
+      <c r="C56" s="361" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D56" s="350" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E56" s="350" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F56" s="383" t="s">
+        <v>882</v>
+      </c>
+      <c r="G56" s="354" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H56" s="350"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="F57" s="343"/>
+      <c r="G57" s="343"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="F58" s="343"/>
+      <c r="G58" s="343"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="368"/>
+      <c r="C59" s="361" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D59" s="384" t="s">
+        <v>874</v>
+      </c>
+      <c r="E59" s="369" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F59" s="368" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G59" s="368" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H59" s="384"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="349"/>
+      <c r="C60" s="361" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D60" s="384" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E60" s="384"/>
+      <c r="F60" s="369" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="368" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H60" s="384"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="349"/>
+      <c r="C61" s="361" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D61" s="384" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E61" s="384" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="369" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G61" s="368" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H61" s="384"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="349"/>
+      <c r="C62" s="361" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D62" s="350" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E62" s="350"/>
+      <c r="F62" s="383" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G62" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H62" s="350"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="349"/>
+      <c r="C63" s="350" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D63" s="350" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E63" s="350"/>
+      <c r="F63" s="351"/>
+      <c r="G63" s="352"/>
+      <c r="H63" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="368">
+        <v>44295</v>
+      </c>
+      <c r="C64" s="362" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D64" s="370" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E64" s="371" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F64" s="357" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G64" s="354" t="s">
+        <v>845</v>
+      </c>
+      <c r="H64" s="350" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="368">
+        <v>44295</v>
+      </c>
+      <c r="C65" s="362" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D65" s="370" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E65" s="371" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F65" s="357" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G65" s="354" t="s">
+        <v>845</v>
+      </c>
+      <c r="H65" s="350" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="368">
+        <v>44147</v>
+      </c>
+      <c r="C66" s="362" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D66" s="370" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E66" s="371" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F66" s="357" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G66" s="354" t="s">
+        <v>845</v>
+      </c>
+      <c r="H66" s="350" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="349"/>
+      <c r="C67" s="350" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D67" s="350" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E67" s="350"/>
+      <c r="F67" s="351"/>
+      <c r="G67" s="352"/>
+      <c r="H67" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="349"/>
+      <c r="C68" s="350" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D68" s="350" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E68" s="350"/>
+      <c r="F68" s="351"/>
+      <c r="G68" s="352"/>
+      <c r="H68" s="350" t="s">
         <v>1631</v>
       </c>
-      <c r="E20" s="377" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F20" s="356" t="s">
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="349"/>
+      <c r="C69" s="350" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D69" s="350" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E69" s="372" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F69" s="351" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G69" s="352" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H69" s="350"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="355">
+        <v>44162</v>
+      </c>
+      <c r="C70" s="374" t="s">
+        <v>751</v>
+      </c>
+      <c r="D70" s="356" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E70" s="357" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F70" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="357" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H70" s="382"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="373">
+        <v>44302</v>
+      </c>
+      <c r="C71" s="374" t="s">
+        <v>751</v>
+      </c>
+      <c r="D71" s="356" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E71" s="357" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F71" s="357" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G71" s="357" t="s">
+        <v>845</v>
+      </c>
+      <c r="H71" s="358" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="355"/>
+      <c r="C72" s="374" t="s">
+        <v>751</v>
+      </c>
+      <c r="D72" s="356" t="s">
+        <v>748</v>
+      </c>
+      <c r="E72" s="357" t="s">
+        <v>748</v>
+      </c>
+      <c r="F72" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="358" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="373">
+        <v>44139</v>
+      </c>
+      <c r="C73" s="374" t="s">
+        <v>751</v>
+      </c>
+      <c r="D73" s="356" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E73" s="357" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F73" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="358" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="385">
+        <v>44302</v>
+      </c>
+      <c r="C74" s="350" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D74" s="350" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E74" s="350" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F74" s="351" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G74" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H74" s="350" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="385">
+        <v>44302</v>
+      </c>
+      <c r="C75" s="350" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D75" s="350" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E75" s="350"/>
+      <c r="F75" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H75" s="350"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="349"/>
+      <c r="C76" s="350" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D76" s="350" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E76" s="350" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F76" s="354" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G76" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H76" s="350"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="349"/>
+      <c r="C77" s="350" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D77" s="350" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E77" s="350" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F77" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H77" s="350"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="349"/>
+      <c r="C78" s="350" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D78" s="350" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E78" s="350"/>
+      <c r="F78" s="351"/>
+      <c r="G78" s="352"/>
+      <c r="H78" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="349"/>
+      <c r="C79" s="350" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D79" s="350" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E79" s="350"/>
+      <c r="F79" s="351"/>
+      <c r="G79" s="352"/>
+      <c r="H79" s="350" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="349"/>
+      <c r="C80" s="350" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D80" s="350" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E80" s="350"/>
+      <c r="F80" s="351"/>
+      <c r="G80" s="352"/>
+      <c r="H80" s="350" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="F81" s="343"/>
+      <c r="G81" s="343"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="349"/>
+      <c r="C82" s="350" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D82" s="350" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E82" s="350" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F82" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H82" s="350" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="349"/>
+      <c r="C83" s="350" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D83" s="350" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E83" s="350" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F83" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="352"/>
+      <c r="H83" s="350" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="368">
+        <v>44329</v>
+      </c>
+      <c r="C84" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D84" s="370" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E84" s="370" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F84" s="357" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G84" s="354" t="s">
+        <v>979</v>
+      </c>
+      <c r="H84" s="350" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="368">
+        <v>44329</v>
+      </c>
+      <c r="C85" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D85" s="370" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E85" s="370" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F85" s="357" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="354" t="s">
+        <v>895</v>
+      </c>
+      <c r="H85" s="350" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="368">
+        <v>44369</v>
+      </c>
+      <c r="C87" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D87" s="370" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E87" s="371" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F87" s="386" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G87" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="350" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="368">
+        <v>44329</v>
+      </c>
+      <c r="C88" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D88" s="370" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E88" s="388" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F88" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G88" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="350" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="368">
+        <v>44329</v>
+      </c>
+      <c r="C89" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D89" s="370" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E89" s="371" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F89" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G89" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="350" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="389">
+        <v>44925</v>
+      </c>
+      <c r="C90" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D90" s="391" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E90" s="392" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F90" s="428" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G90" s="394" t="s">
+        <v>979</v>
+      </c>
+      <c r="H90" s="429" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="45">
+      <c r="B91" s="389">
+        <v>44511</v>
+      </c>
+      <c r="C91" s="390" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D91" s="391" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E91" s="392" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F91" s="393" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="359" t="s">
+      <c r="G91" s="394" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H91" s="395" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="396"/>
+      <c r="C92" s="397"/>
+      <c r="D92" s="397"/>
+      <c r="E92" s="398"/>
+      <c r="F92" s="399"/>
+      <c r="G92" s="400"/>
+      <c r="H92" s="401"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="396"/>
+      <c r="C93" s="397"/>
+      <c r="D93" s="397"/>
+      <c r="E93" s="398"/>
+      <c r="F93" s="399"/>
+      <c r="G93" s="400"/>
+      <c r="H93" s="401"/>
+    </row>
+    <row r="94" spans="2:8" ht="30">
+      <c r="B94" s="402" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C94" s="402" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D94" s="402" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E94" s="402" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F94" s="402" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="402" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="402" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="368">
+        <v>44581</v>
+      </c>
+      <c r="C95" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D95" s="370" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E95" s="371"/>
+      <c r="F95" s="357" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="403" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H95" s="350" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="368">
+        <v>44640</v>
+      </c>
+      <c r="C96" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D96" s="370" t="s">
+        <v>942</v>
+      </c>
+      <c r="E96" s="371" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F96" s="357" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G96" s="354" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H96" s="350" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="368">
+        <v>44640</v>
+      </c>
+      <c r="C97" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D97" s="370" t="s">
+        <v>942</v>
+      </c>
+      <c r="E97" s="371" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F97" s="403" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="354" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H97" s="350" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="368">
+        <v>44563</v>
+      </c>
+      <c r="C98" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D98" s="370" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E98" s="371" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F98" s="357" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G98" s="354" t="s">
         <v>979</v>
       </c>
-      <c r="H20" s="355" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I20" s="342"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="354"/>
-      <c r="C21" s="355" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D21" s="355" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E21" s="355"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="357"/>
-      <c r="H21" s="355" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I21" s="342"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="354"/>
-      <c r="C22" s="355" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D22" s="355" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E22" s="355"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="357"/>
-      <c r="H22" s="355" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="354"/>
-      <c r="C23" s="355" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D23" s="355"/>
-      <c r="E23" s="355"/>
-      <c r="F23" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="357" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H23" s="355"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="354"/>
-      <c r="C24" s="355" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D24" s="355" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E24" s="378" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F24" s="356" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G24" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H24" s="355"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="354"/>
-      <c r="C25" s="355" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D25" s="355" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E25" s="355" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F25" s="356" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G25" s="357" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H25" s="355"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="354"/>
-      <c r="C26" s="355" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D26" s="355" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E26" s="378" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F26" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="359" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H26" s="355"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="354">
-        <v>44305</v>
-      </c>
-      <c r="C27" s="361" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D27" s="355" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E27" s="355" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F27" s="357" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G27" s="357" t="s">
-        <v>845</v>
-      </c>
-      <c r="H27" s="377" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="360">
-        <v>44105</v>
-      </c>
-      <c r="C28" s="361" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D28" s="377" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="377" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F28" s="362" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G28" s="359" t="s">
+      <c r="H98" s="404" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="368">
+        <v>44581</v>
+      </c>
+      <c r="C99" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D99" s="370" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E99" s="371" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F99" s="357" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G99" s="354" t="s">
+        <v>979</v>
+      </c>
+      <c r="H99" s="350"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="405">
+        <v>44581</v>
+      </c>
+      <c r="C100" s="406" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D100" s="406" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E100" s="407" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F100" s="408" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G100" s="409" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H100" s="410" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="368">
+        <v>44581</v>
+      </c>
+      <c r="C101" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D101" s="370" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E101" s="371" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F101" s="357" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G101" s="354" t="s">
+        <v>895</v>
+      </c>
+      <c r="H101" s="350" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="368">
+        <v>44581</v>
+      </c>
+      <c r="C102" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D102" s="370" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E102" s="371" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F102" s="357" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G102" s="354" t="s">
+        <v>979</v>
+      </c>
+      <c r="H102" s="350" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="368">
+        <v>44606</v>
+      </c>
+      <c r="C103" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D103" s="370" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E103" s="371" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F103" s="357" t="s">
+        <v>975</v>
+      </c>
+      <c r="G103" s="354" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H103" s="350" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="368">
+        <v>44661</v>
+      </c>
+      <c r="C104" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D104" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E104" s="371" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F104" s="357" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G104" s="354" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H104" s="350"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="368">
+        <v>44139</v>
+      </c>
+      <c r="C105" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D105" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E105" s="371" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F105" s="357" t="s">
+        <v>47</v>
+      </c>
+      <c r="G105" s="354" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H105" s="350" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="349"/>
+      <c r="C106" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D106" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E106" s="350" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F106" s="383" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G106" s="354" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H106" s="350"/>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="349"/>
+      <c r="C107" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D107" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E107" s="350" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F107" s="383" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G107" s="354" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H107" s="350"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="349">
+        <v>44873</v>
+      </c>
+      <c r="C108" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D108" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="350" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="368">
+        <v>44652</v>
+      </c>
+      <c r="C109" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D109" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="E109" s="371" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F109" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="354" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="350" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="422">
+        <v>44910</v>
+      </c>
+      <c r="C110" s="423" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D110" s="423" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E110" s="424" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F110" s="425"/>
+      <c r="G110" s="426"/>
+      <c r="H110" s="427" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="349"/>
+      <c r="C111" s="350" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D111" s="350" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E111" s="350" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F111" s="354" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G111" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H111" s="350"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="349">
+        <v>44313</v>
+      </c>
+      <c r="C112" s="350" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D112" s="350" t="s">
+        <v>754</v>
+      </c>
+      <c r="E112" s="350" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F112" s="357">
+        <v>1059</v>
+      </c>
+      <c r="G112" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" s="350" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="349">
+        <v>44313</v>
+      </c>
+      <c r="C113" s="350" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D113" s="350" t="s">
+        <v>754</v>
+      </c>
+      <c r="E113" s="350" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F113" s="357" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G113" s="368" t="s">
+        <v>883</v>
+      </c>
+      <c r="H113" s="350" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="30">
+      <c r="B114" s="368">
+        <v>44874</v>
+      </c>
+      <c r="C114" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D114" s="370" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E114" s="371" t="s">
+        <v>752</v>
+      </c>
+      <c r="F114" s="415" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G114" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="377" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="374">
-        <v>44354</v>
-      </c>
-      <c r="C29" s="376" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D29" s="376" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E29" s="376" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F29" s="362" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G29" s="359" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="377" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="360">
-        <v>43945</v>
-      </c>
-      <c r="C30" s="361" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D30" s="361" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E30" s="377" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F30" s="362" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G30" s="362" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H30" s="377" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="354"/>
-      <c r="C31" s="366" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D31" s="355" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E31" s="378" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F31" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H31" s="355" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="354"/>
-      <c r="C32" s="355" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D32" s="355" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E32" s="355"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="357"/>
-      <c r="H32" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="354"/>
-      <c r="C33" s="366" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D33" s="355" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E33" s="355" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F33" s="356" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G33" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H33" s="355" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="354"/>
-      <c r="C34" s="355" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D34" s="355" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E34" s="378" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F34" s="359" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G34" s="357" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H34" s="355"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="354"/>
-      <c r="C35" s="355" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D35" s="355" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E35" s="378" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F35" s="356" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G35" s="357" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H35" s="355"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="379">
-        <v>44108</v>
-      </c>
-      <c r="C36" s="380" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D36" s="361" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E36" s="362" t="s">
-        <v>944</v>
-      </c>
-      <c r="F36" s="359"/>
-      <c r="G36" s="359"/>
-      <c r="H36" s="363" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="354"/>
-      <c r="C37" s="381" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D37" s="382"/>
-      <c r="E37" s="355"/>
-      <c r="F37" s="356"/>
-      <c r="G37" s="357" t="s">
-        <v>843</v>
-      </c>
-      <c r="H37" s="355" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="354"/>
-      <c r="C38" s="381" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D38" s="382" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E38" s="382" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F38" s="383" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G38" s="384" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H38" s="385"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="379">
-        <v>44133</v>
-      </c>
-      <c r="C39" s="380" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D39" s="361" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E39" s="362" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F39" s="362" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G39" s="359" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="363" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="354"/>
-      <c r="C40" s="355" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="355" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E40" s="355"/>
-      <c r="F40" s="356" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G40" s="357" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H40" s="355" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="354"/>
-      <c r="C41" s="355" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D41" s="355" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E41" s="355" t="s">
-        <v>1683</v>
-      </c>
-      <c r="F41" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="386" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H41" s="357" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="360">
-        <v>44144</v>
-      </c>
-      <c r="C42" s="361" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D42" s="361" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E42" s="377" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F42" s="387" t="s">
-        <v>951</v>
-      </c>
-      <c r="G42" s="359" t="s">
-        <v>953</v>
-      </c>
-      <c r="H42" s="363" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="354"/>
-      <c r="C43" s="355" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D43" s="355" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E43" s="378" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F43" s="356"/>
-      <c r="G43" s="357"/>
-      <c r="H43" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="354"/>
-      <c r="C44" s="355" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D44" s="355" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E44" s="378" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F44" s="356" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G44" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H44" s="355" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="354"/>
-      <c r="C45" s="355" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D45" s="355" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E45" s="355"/>
-      <c r="F45" s="356"/>
-      <c r="G45" s="357"/>
-      <c r="H45" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="354">
-        <v>44313</v>
-      </c>
-      <c r="C46" s="366" t="s">
-        <v>754</v>
-      </c>
-      <c r="D46" s="355" t="s">
-        <v>882</v>
-      </c>
-      <c r="E46" s="355" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F46" s="362">
-        <v>1059</v>
-      </c>
-      <c r="G46" s="357" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="355" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="354">
-        <v>44313</v>
-      </c>
-      <c r="C47" s="366" t="s">
-        <v>754</v>
-      </c>
-      <c r="D47" s="355" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="355" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F47" s="362" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G47" s="374" t="s">
-        <v>883</v>
-      </c>
-      <c r="H47" s="355" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="379">
-        <v>44165</v>
-      </c>
-      <c r="C48" s="380" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D48" s="361" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E48" s="296" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F48" s="362" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G48" s="362" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H48" s="363" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="379">
-        <v>44165</v>
-      </c>
-      <c r="C49" s="380" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D49" s="361" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E49" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F49" s="362" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G49" s="362" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H49" s="388" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="354"/>
-      <c r="C50" s="366" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D50" s="355" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E50" s="355" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F50" s="389" t="s">
-        <v>882</v>
-      </c>
-      <c r="G50" s="359" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H50" s="355"/>
-    </row>
-    <row r="51" spans="2:8" ht="25.5">
-      <c r="B51" s="354"/>
-      <c r="C51" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D51" s="390" t="s">
-        <v>874</v>
-      </c>
-      <c r="E51" s="390"/>
-      <c r="F51" s="375" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="374" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H51" s="390" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="25.5">
-      <c r="B52" s="354"/>
-      <c r="C52" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D52" s="390" t="s">
-        <v>874</v>
-      </c>
-      <c r="E52" s="390"/>
-      <c r="F52" s="375" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="374" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H52" s="390" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="374"/>
-      <c r="C53" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D53" s="390" t="s">
-        <v>874</v>
-      </c>
-      <c r="E53" s="375" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F53" s="374" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G53" s="374" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H53" s="390"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="354"/>
-      <c r="C54" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D54" s="390" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E54" s="390"/>
-      <c r="F54" s="375" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="374" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H54" s="390"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="354"/>
-      <c r="C55" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D55" s="390" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E55" s="390" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="375" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G55" s="374" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H55" s="390"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="354"/>
-      <c r="C56" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D56" s="355" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E56" s="355"/>
-      <c r="F56" s="389" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G56" s="357" t="s">
-        <v>845</v>
-      </c>
-      <c r="H56" s="355"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="354"/>
-      <c r="C57" s="355" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D57" s="355" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E57" s="355"/>
-      <c r="F57" s="356"/>
-      <c r="G57" s="357"/>
-      <c r="H57" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="374">
-        <v>44295</v>
-      </c>
-      <c r="C58" s="367" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D58" s="376" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E58" s="377" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F58" s="362" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G58" s="359" t="s">
-        <v>845</v>
-      </c>
-      <c r="H58" s="355" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="374">
-        <v>44295</v>
-      </c>
-      <c r="C59" s="367" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D59" s="376" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E59" s="377" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F59" s="362" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G59" s="359" t="s">
-        <v>845</v>
-      </c>
-      <c r="H59" s="355" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="374">
-        <v>44147</v>
-      </c>
-      <c r="C60" s="367" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D60" s="376" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E60" s="377" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F60" s="362" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G60" s="359" t="s">
-        <v>845</v>
-      </c>
-      <c r="H60" s="355" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="354"/>
-      <c r="C61" s="355" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D61" s="355" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E61" s="355"/>
-      <c r="F61" s="356"/>
-      <c r="G61" s="357"/>
-      <c r="H61" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="354"/>
-      <c r="C62" s="355" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D62" s="355" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E62" s="355"/>
-      <c r="F62" s="356"/>
-      <c r="G62" s="357"/>
-      <c r="H62" s="355" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="354"/>
-      <c r="C63" s="355" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D63" s="355" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E63" s="378" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F63" s="356" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G63" s="357" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H63" s="355"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="360">
-        <v>44162</v>
-      </c>
-      <c r="C64" s="380" t="s">
-        <v>751</v>
-      </c>
-      <c r="D64" s="361" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E64" s="362" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F64" s="362" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="362" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H64" s="388"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="379">
-        <v>44302</v>
-      </c>
-      <c r="C65" s="380" t="s">
-        <v>751</v>
-      </c>
-      <c r="D65" s="361" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E65" s="362" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F65" s="362" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G65" s="362" t="s">
-        <v>845</v>
-      </c>
-      <c r="H65" s="363" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="360"/>
-      <c r="C66" s="380" t="s">
-        <v>751</v>
-      </c>
-      <c r="D66" s="361" t="s">
-        <v>748</v>
-      </c>
-      <c r="E66" s="362" t="s">
-        <v>748</v>
-      </c>
-      <c r="F66" s="362" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="362" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="363" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="379">
-        <v>44139</v>
-      </c>
-      <c r="C67" s="380" t="s">
-        <v>751</v>
-      </c>
-      <c r="D67" s="361" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E67" s="362" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F67" s="362" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="362" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="363" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="391">
-        <v>44302</v>
-      </c>
-      <c r="C68" s="355" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D68" s="355" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E68" s="355" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F68" s="356" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G68" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H68" s="355" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="391">
-        <v>44302</v>
-      </c>
-      <c r="C69" s="355" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D69" s="355" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E69" s="355"/>
-      <c r="F69" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H69" s="355"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="354"/>
-      <c r="C70" s="355" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D70" s="355" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E70" s="355" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F70" s="359" t="s">
-        <v>1715</v>
-      </c>
-      <c r="G70" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H70" s="355"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="354"/>
-      <c r="C71" s="355" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D71" s="355" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E71" s="355" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F71" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H71" s="355"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="354"/>
-      <c r="C72" s="355" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D72" s="355" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E72" s="355"/>
-      <c r="F72" s="356"/>
-      <c r="G72" s="357"/>
-      <c r="H72" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="354"/>
-      <c r="C73" s="355" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D73" s="355" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E73" s="355"/>
-      <c r="F73" s="356"/>
-      <c r="G73" s="357"/>
-      <c r="H73" s="355" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="354"/>
-      <c r="C74" s="355" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D74" s="355" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E74" s="355"/>
-      <c r="F74" s="356"/>
-      <c r="G74" s="357"/>
-      <c r="H74" s="355" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="F75" s="345"/>
-      <c r="G75" s="345"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="354"/>
-      <c r="C76" s="355" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D76" s="355" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E76" s="355" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F76" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="357" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H76" s="355" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="354"/>
-      <c r="C77" s="355" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D77" s="355" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E77" s="355" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F77" s="356" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="357"/>
-      <c r="H77" s="355" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="374">
-        <v>44329</v>
-      </c>
-      <c r="C78" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D78" s="376" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E78" s="376" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F78" s="362" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G78" s="359" t="s">
-        <v>979</v>
-      </c>
-      <c r="H78" s="355" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="374">
-        <v>44329</v>
-      </c>
-      <c r="C79" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D79" s="376" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E79" s="376" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F79" s="362" t="s">
-        <v>116</v>
-      </c>
-      <c r="G79" s="359" t="s">
-        <v>895</v>
-      </c>
-      <c r="H79" s="355" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="374">
-        <v>44369</v>
-      </c>
-      <c r="C81" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D81" s="376" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E81" s="377" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F81" s="392" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G81" s="393" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="355" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="374">
-        <v>44329</v>
-      </c>
-      <c r="C82" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D82" s="376" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E82" s="394" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F82" s="362" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G82" s="359" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" s="355" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="374">
-        <v>44329</v>
-      </c>
-      <c r="C83" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D83" s="376" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E83" s="377" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F83" s="362" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G83" s="359" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" s="355" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="395">
-        <v>44925</v>
-      </c>
-      <c r="C84" s="367" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D84" s="397" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E84" s="398" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F84" s="434" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G84" s="400" t="s">
-        <v>979</v>
-      </c>
-      <c r="H84" s="435" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="45">
-      <c r="B85" s="395">
-        <v>44511</v>
-      </c>
-      <c r="C85" s="396" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D85" s="397" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E85" s="398" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F85" s="399" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85" s="400" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H85" s="401" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="402"/>
-      <c r="C86" s="403"/>
-      <c r="D86" s="403"/>
-      <c r="E86" s="404"/>
-      <c r="F86" s="405"/>
-      <c r="G86" s="406"/>
-      <c r="H86" s="407"/>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="402"/>
-      <c r="C87" s="403"/>
-      <c r="D87" s="403"/>
-      <c r="E87" s="404"/>
-      <c r="F87" s="405"/>
-      <c r="G87" s="406"/>
-      <c r="H87" s="407"/>
-    </row>
-    <row r="88" spans="2:8" ht="30">
-      <c r="B88" s="408" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C88" s="408" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D88" s="408" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E88" s="408" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F88" s="408" t="s">
-        <v>172</v>
-      </c>
-      <c r="G88" s="408" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="408" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="374">
-        <v>44581</v>
-      </c>
-      <c r="C89" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D89" s="376" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E89" s="377"/>
-      <c r="F89" s="362" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89" s="409" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H89" s="355" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="374">
-        <v>44640</v>
-      </c>
-      <c r="C90" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D90" s="376" t="s">
-        <v>942</v>
-      </c>
-      <c r="E90" s="377" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F90" s="362" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G90" s="359" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H90" s="355" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="374">
-        <v>44640</v>
-      </c>
-      <c r="C91" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D91" s="376" t="s">
-        <v>942</v>
-      </c>
-      <c r="E91" s="377" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F91" s="409" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="359" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H91" s="355" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="374">
-        <v>44563</v>
-      </c>
-      <c r="C92" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D92" s="376" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E92" s="377" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F92" s="362" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G92" s="359" t="s">
-        <v>979</v>
-      </c>
-      <c r="H92" s="410" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="374">
-        <v>44581</v>
-      </c>
-      <c r="C93" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D93" s="376" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E93" s="377" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F93" s="362" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G93" s="359" t="s">
-        <v>979</v>
-      </c>
-      <c r="H93" s="355"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="411">
-        <v>44581</v>
-      </c>
-      <c r="C94" s="412" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D94" s="412" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E94" s="413" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F94" s="414" t="s">
-        <v>1734</v>
-      </c>
-      <c r="G94" s="415" t="s">
-        <v>1735</v>
-      </c>
-      <c r="H94" s="416" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="374">
-        <v>44581</v>
-      </c>
-      <c r="C95" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D95" s="376" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E95" s="377" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F95" s="362" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G95" s="359" t="s">
-        <v>895</v>
-      </c>
-      <c r="H95" s="355" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="374">
-        <v>44581</v>
-      </c>
-      <c r="C96" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D96" s="376" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E96" s="377" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F96" s="362" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G96" s="359" t="s">
-        <v>979</v>
-      </c>
-      <c r="H96" s="355" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="374">
-        <v>44606</v>
-      </c>
-      <c r="C97" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D97" s="376" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E97" s="377" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F97" s="362" t="s">
-        <v>975</v>
-      </c>
-      <c r="G97" s="359" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H97" s="355" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="374">
-        <v>44661</v>
-      </c>
-      <c r="C98" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D98" s="376" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E98" s="377" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F98" s="362" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G98" s="359" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H98" s="355"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="374">
-        <v>44139</v>
-      </c>
-      <c r="C99" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D99" s="376" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E99" s="377" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F99" s="362" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" s="359" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H99" s="355" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="354"/>
-      <c r="C100" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D100" s="376" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E100" s="355" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F100" s="389" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G100" s="359" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H100" s="355"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="354"/>
-      <c r="C101" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D101" s="376" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E101" s="355" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F101" s="389" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G101" s="359" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H101" s="355"/>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="354">
-        <v>44873</v>
-      </c>
-      <c r="C102" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D102" s="376" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F102" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="355" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="374">
-        <v>44652</v>
-      </c>
-      <c r="C103" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D103" s="376" t="s">
-        <v>751</v>
-      </c>
-      <c r="E103" s="377" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F103" s="362" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" s="359" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" s="355" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="428">
-        <v>44910</v>
-      </c>
-      <c r="C104" s="429" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D104" s="429" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E104" s="430" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F104" s="431"/>
-      <c r="G104" s="432"/>
-      <c r="H104" s="433" t="s">
+      <c r="H114" s="363" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="368"/>
+      <c r="C115" s="370"/>
+      <c r="D115" s="370"/>
+      <c r="E115" s="371"/>
+      <c r="F115" s="357"/>
+      <c r="G115" s="354"/>
+      <c r="H115" s="350"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="368"/>
+      <c r="C116" s="370"/>
+      <c r="D116" s="370"/>
+      <c r="E116" s="371"/>
+      <c r="F116" s="357"/>
+      <c r="G116" s="354"/>
+      <c r="H116" s="350"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="368"/>
+      <c r="C117" s="370"/>
+      <c r="D117" s="370"/>
+      <c r="E117" s="371"/>
+      <c r="F117" s="357"/>
+      <c r="G117" s="354"/>
+      <c r="H117" s="350"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="368"/>
+      <c r="C118" s="370"/>
+      <c r="D118" s="370"/>
+      <c r="E118" s="371"/>
+      <c r="F118" s="357"/>
+      <c r="G118" s="354"/>
+      <c r="H118" s="350"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75">
+      <c r="B119" s="368"/>
+      <c r="C119" s="370"/>
+      <c r="D119" s="414"/>
+      <c r="E119" s="371"/>
+      <c r="F119" s="357"/>
+      <c r="G119" s="354"/>
+      <c r="H119" s="350"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75">
+      <c r="B120" s="368"/>
+      <c r="C120" s="370"/>
+      <c r="D120" s="414" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="354"/>
-      <c r="C105" s="355" t="s">
+      <c r="E120" s="371"/>
+      <c r="F120" s="357"/>
+      <c r="G120" s="354"/>
+      <c r="H120" s="350"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75">
+      <c r="B121" s="368"/>
+      <c r="C121" s="370"/>
+      <c r="D121" s="414"/>
+      <c r="E121" s="371"/>
+      <c r="F121" s="357"/>
+      <c r="G121" s="354"/>
+      <c r="H121" s="350"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="368"/>
+      <c r="C122" s="370"/>
+      <c r="D122" s="83" t="s">
         <v>1739</v>
       </c>
-      <c r="D105" s="355" t="s">
+      <c r="E122" s="371"/>
+      <c r="F122" s="357"/>
+      <c r="G122" s="354"/>
+      <c r="H122" s="350"/>
+    </row>
+    <row r="123" spans="2:8" ht="15.75">
+      <c r="B123" s="368"/>
+      <c r="C123" s="370"/>
+      <c r="D123" s="414" t="s">
         <v>1740</v>
       </c>
-      <c r="E105" s="355" t="s">
+      <c r="E123" s="371"/>
+      <c r="F123" s="357"/>
+      <c r="G123" s="354"/>
+      <c r="H123" s="350"/>
+    </row>
+    <row r="124" spans="2:8" ht="15.75">
+      <c r="B124" s="368"/>
+      <c r="C124" s="370"/>
+      <c r="D124" s="414" t="s">
         <v>1741</v>
       </c>
-      <c r="F105" s="359" t="s">
+      <c r="E124" s="371"/>
+      <c r="F124" s="357"/>
+      <c r="G124" s="354"/>
+      <c r="H124" s="350"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75">
+      <c r="B125" s="368"/>
+      <c r="C125" s="370"/>
+      <c r="D125" s="414"/>
+      <c r="E125" s="371"/>
+      <c r="F125" s="357"/>
+      <c r="G125" s="354"/>
+      <c r="H125" s="350"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75">
+      <c r="B126" s="368"/>
+      <c r="C126" s="370"/>
+      <c r="D126" s="414" t="s">
         <v>1742</v>
       </c>
-      <c r="G105" s="357" t="s">
-        <v>979</v>
-      </c>
-      <c r="H105" s="355"/>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="354">
-        <v>44313</v>
-      </c>
-      <c r="C106" s="355" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D106" s="355" t="s">
-        <v>754</v>
-      </c>
-      <c r="E106" s="355" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F106" s="362">
-        <v>1059</v>
-      </c>
-      <c r="G106" s="357" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" s="355" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="354">
-        <v>44313</v>
-      </c>
-      <c r="C107" s="355" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D107" s="355" t="s">
-        <v>754</v>
-      </c>
-      <c r="E107" s="355" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F107" s="362" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G107" s="374" t="s">
-        <v>883</v>
-      </c>
-      <c r="H107" s="355" t="s">
+      <c r="E126" s="371"/>
+      <c r="F126" s="357"/>
+      <c r="G126" s="354"/>
+      <c r="H126" s="350"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75">
+      <c r="B127" s="368"/>
+      <c r="C127" s="370"/>
+      <c r="D127" s="414" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" ht="30">
-      <c r="B108" s="374">
-        <v>44874</v>
-      </c>
-      <c r="C108" s="376" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D108" s="376" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E108" s="377" t="s">
-        <v>752</v>
-      </c>
-      <c r="F108" s="421" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G108" s="359" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" s="368" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="374"/>
-      <c r="C109" s="376"/>
-      <c r="D109" s="376"/>
-      <c r="E109" s="377"/>
-      <c r="F109" s="362"/>
-      <c r="G109" s="359"/>
-      <c r="H109" s="355"/>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="374"/>
-      <c r="C110" s="376"/>
-      <c r="D110" s="376"/>
-      <c r="E110" s="377"/>
-      <c r="F110" s="362"/>
-      <c r="G110" s="359"/>
-      <c r="H110" s="355"/>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="374"/>
-      <c r="C111" s="376"/>
-      <c r="D111" s="376"/>
-      <c r="E111" s="377"/>
-      <c r="F111" s="362"/>
-      <c r="G111" s="359"/>
-      <c r="H111" s="355"/>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="374"/>
-      <c r="C112" s="376"/>
-      <c r="D112" s="376"/>
-      <c r="E112" s="377"/>
-      <c r="F112" s="362"/>
-      <c r="G112" s="359"/>
-      <c r="H112" s="355"/>
-    </row>
-    <row r="113" spans="2:8" ht="15.75">
-      <c r="B113" s="374"/>
-      <c r="C113" s="376"/>
-      <c r="D113" s="420"/>
-      <c r="E113" s="377"/>
-      <c r="F113" s="362"/>
-      <c r="G113" s="359"/>
-      <c r="H113" s="355"/>
-    </row>
-    <row r="114" spans="2:8" ht="15.75">
-      <c r="B114" s="374"/>
-      <c r="C114" s="376"/>
-      <c r="D114" s="420" t="s">
+      <c r="E127" s="371"/>
+      <c r="F127" s="357"/>
+      <c r="G127" s="354"/>
+      <c r="H127" s="350"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75">
+      <c r="B128" s="368"/>
+      <c r="C128" s="370"/>
+      <c r="D128" s="414"/>
+      <c r="E128" s="371"/>
+      <c r="F128" s="357"/>
+      <c r="G128" s="354"/>
+      <c r="H128" s="350"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="368"/>
+      <c r="C129" s="370"/>
+      <c r="D129" s="83" t="s">
         <v>1744</v>
       </c>
-      <c r="E114" s="377"/>
-      <c r="F114" s="362"/>
-      <c r="G114" s="359"/>
-      <c r="H114" s="355"/>
-    </row>
-    <row r="115" spans="2:8" ht="15.75">
-      <c r="B115" s="374"/>
-      <c r="C115" s="376"/>
-      <c r="D115" s="420"/>
-      <c r="E115" s="377"/>
-      <c r="F115" s="362"/>
-      <c r="G115" s="359"/>
-      <c r="H115" s="355"/>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="374"/>
-      <c r="C116" s="376"/>
-      <c r="D116" s="83" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E116" s="377"/>
-      <c r="F116" s="362"/>
-      <c r="G116" s="359"/>
-      <c r="H116" s="355"/>
-    </row>
-    <row r="117" spans="2:8" ht="15.75">
-      <c r="B117" s="374"/>
-      <c r="C117" s="376"/>
-      <c r="D117" s="420" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E117" s="377"/>
-      <c r="F117" s="362"/>
-      <c r="G117" s="359"/>
-      <c r="H117" s="355"/>
-    </row>
-    <row r="118" spans="2:8" ht="15.75">
-      <c r="B118" s="374"/>
-      <c r="C118" s="376"/>
-      <c r="D118" s="420" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E118" s="377"/>
-      <c r="F118" s="362"/>
-      <c r="G118" s="359"/>
-      <c r="H118" s="355"/>
-    </row>
-    <row r="119" spans="2:8" ht="15.75">
-      <c r="B119" s="374"/>
-      <c r="C119" s="376"/>
-      <c r="D119" s="420"/>
-      <c r="E119" s="377"/>
-      <c r="F119" s="362"/>
-      <c r="G119" s="359"/>
-      <c r="H119" s="355"/>
-    </row>
-    <row r="120" spans="2:8" ht="15.75">
-      <c r="B120" s="374"/>
-      <c r="C120" s="376"/>
-      <c r="D120" s="420" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E120" s="377"/>
-      <c r="F120" s="362"/>
-      <c r="G120" s="359"/>
-      <c r="H120" s="355"/>
-    </row>
-    <row r="121" spans="2:8" ht="15.75">
-      <c r="B121" s="374"/>
-      <c r="C121" s="376"/>
-      <c r="D121" s="420" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E121" s="377"/>
-      <c r="F121" s="362"/>
-      <c r="G121" s="359"/>
-      <c r="H121" s="355"/>
-    </row>
-    <row r="122" spans="2:8" ht="15.75">
-      <c r="B122" s="374"/>
-      <c r="C122" s="376"/>
-      <c r="D122" s="420"/>
-      <c r="E122" s="377"/>
-      <c r="F122" s="362"/>
-      <c r="G122" s="359"/>
-      <c r="H122" s="355"/>
-    </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="374"/>
-      <c r="C123" s="376"/>
-      <c r="D123" s="83" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E123" s="377"/>
-      <c r="F123" s="362"/>
-      <c r="G123" s="359"/>
-      <c r="H123" s="355"/>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="374"/>
-      <c r="C124" s="376"/>
-      <c r="D124" s="376"/>
-      <c r="E124" s="377"/>
-      <c r="F124" s="362"/>
-      <c r="G124" s="359"/>
-      <c r="H124" s="355"/>
+      <c r="E129" s="371"/>
+      <c r="F129" s="357"/>
+      <c r="G129" s="354"/>
+      <c r="H129" s="350"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="368"/>
+      <c r="C130" s="370"/>
+      <c r="D130" s="370"/>
+      <c r="E130" s="371"/>
+      <c r="F130" s="357"/>
+      <c r="G130" s="354"/>
+      <c r="H130" s="350"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H85" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
-  <mergeCells count="3">
+  <autoFilter ref="B6:H91" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
-    <hyperlink ref="F33" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
-    <hyperlink ref="F41" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
-    <hyperlink ref="E31" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
-    <hyperlink ref="F31" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
-    <hyperlink ref="F40" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
-    <hyperlink ref="F23" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
-    <hyperlink ref="E63" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
-    <hyperlink ref="F63" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
-    <hyperlink ref="F71" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
-    <hyperlink ref="F35" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
-    <hyperlink ref="E35" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
-    <hyperlink ref="E44" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
-    <hyperlink ref="E43" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
-    <hyperlink ref="E13" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
-    <hyperlink ref="F15" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
-    <hyperlink ref="E18" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
-    <hyperlink ref="E19" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
-    <hyperlink ref="E17" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
-    <hyperlink ref="E48" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
-    <hyperlink ref="E49" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
-    <hyperlink ref="E82" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="F20" r:id="rId27" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
-    <hyperlink ref="F85" r:id="rId28" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F26" r:id="rId29" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E26" r:id="rId30" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="G89" r:id="rId31" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="F91" r:id="rId32" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="D116" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
-    <hyperlink ref="D123" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
-    <hyperlink ref="E102" r:id="rId35" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
+    <hyperlink ref="F39" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
+    <hyperlink ref="F47" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
+    <hyperlink ref="F30" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
+    <hyperlink ref="E30" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
+    <hyperlink ref="E37" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
+    <hyperlink ref="F37" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
+    <hyperlink ref="F46" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
+    <hyperlink ref="F29" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
+    <hyperlink ref="E69" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
+    <hyperlink ref="F69" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
+    <hyperlink ref="F77" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
+    <hyperlink ref="F41" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
+    <hyperlink ref="E41" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
+    <hyperlink ref="E50" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
+    <hyperlink ref="E49" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
+    <hyperlink ref="E24" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
+    <hyperlink ref="F7" r:id="rId20" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
+    <hyperlink ref="E7" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
+    <hyperlink ref="E8" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
+    <hyperlink ref="E54" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
+    <hyperlink ref="E55" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
+    <hyperlink ref="E88" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
+    <hyperlink ref="F91" r:id="rId28" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F32" r:id="rId29" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E32" r:id="rId30" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G95" r:id="rId31" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F97" r:id="rId32" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="D122" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
+    <hyperlink ref="D129" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
+    <hyperlink ref="E108" r:id="rId35" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
@@ -18405,31 +18482,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="443" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="454">
+      <c r="B4" s="445">
         <v>43396</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22443,71 +22520,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="459" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="472" t="s">
+      <c r="C2" s="461" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="474" t="s">
+      <c r="E2" s="463" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="466" t="s">
+      <c r="F2" s="465" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="466" t="s">
+      <c r="G2" s="465" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="468" t="s">
+      <c r="H2" s="457" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="466" t="s">
+      <c r="I2" s="465" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="468" t="s">
+      <c r="J2" s="465"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="457" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="468" t="s">
+      <c r="M2" s="457" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="466" t="s">
+      <c r="N2" s="465" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="466" t="s">
+      <c r="O2" s="465" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="468" t="s">
+      <c r="P2" s="457" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="466" t="s">
+      <c r="Q2" s="465" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="466" t="s">
+      <c r="R2" s="465" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="468" t="s">
+      <c r="S2" s="457" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="471"/>
+      <c r="A3" s="460"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="473"/>
+      <c r="C3" s="462"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="475"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="469"/>
+      <c r="E3" s="464"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="458"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22517,14 +22594,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="469"/>
-      <c r="M3" s="469"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="469"/>
-      <c r="Q3" s="467"/>
-      <c r="R3" s="467"/>
-      <c r="S3" s="469"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="466"/>
+      <c r="O3" s="466"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="466"/>
+      <c r="R3" s="466"/>
+      <c r="S3" s="458"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26467,12 +26544,6 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26482,6 +26553,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -27443,19 +27520,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="476" t="s">
+      <c r="B1" s="467" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28075,43 +28152,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28178,50 +28255,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="430" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
-      <c r="I2" s="439"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="431" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="440"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="431"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="441">
+      <c r="B4" s="432">
         <v>44459</v>
       </c>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
-      <c r="I4" s="441"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="432"/>
+      <c r="I4" s="432"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="442"/>
-      <c r="C5" s="442"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="442"/>
-      <c r="H5" s="442"/>
-      <c r="I5" s="442"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
+      <c r="I5" s="433"/>
     </row>
     <row r="6" spans="2:9" ht="15">
       <c r="B6" s="317" t="s">
@@ -28509,43 +28586,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="468" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28604,43 +28681,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="468" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28693,51 +28770,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="468" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
-      <c r="J3" s="479" t="s">
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="470" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="479"/>
-      <c r="L3" s="479"/>
-      <c r="M3" s="479"/>
-      <c r="N3" s="479"/>
-      <c r="O3" s="479"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="470"/>
+      <c r="O3" s="470"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28800,43 +28877,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="468" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28967,16 +29044,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="486"/>
-      <c r="D10" s="487"/>
-      <c r="E10" s="488"/>
+      <c r="C10" s="477"/>
+      <c r="D10" s="478"/>
+      <c r="E10" s="479"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="489" t="s">
+      <c r="C11" s="480" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="490"/>
-      <c r="E11" s="491"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="482"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -29024,47 +29101,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="492"/>
-      <c r="D17" s="493"/>
-      <c r="E17" s="494"/>
+      <c r="C17" s="483"/>
+      <c r="D17" s="484"/>
+      <c r="E17" s="485"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="489" t="s">
+      <c r="C18" s="480" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="490"/>
-      <c r="E18" s="491"/>
+      <c r="D18" s="481"/>
+      <c r="E18" s="482"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="492"/>
-      <c r="D19" s="493"/>
-      <c r="E19" s="494"/>
+      <c r="C19" s="483"/>
+      <c r="D19" s="484"/>
+      <c r="E19" s="485"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="489" t="s">
+      <c r="C20" s="480" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="490"/>
-      <c r="E20" s="491"/>
+      <c r="D20" s="481"/>
+      <c r="E20" s="482"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="480"/>
-      <c r="D21" s="481"/>
-      <c r="E21" s="482"/>
+      <c r="C21" s="471"/>
+      <c r="D21" s="472"/>
+      <c r="E21" s="473"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="483" t="s">
+      <c r="C22" s="474" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="484"/>
-      <c r="E22" s="485"/>
+      <c r="D22" s="475"/>
+      <c r="E22" s="476"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="483" t="s">
+      <c r="C23" s="474" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="484"/>
-      <c r="E23" s="485"/>
+      <c r="D23" s="475"/>
+      <c r="E23" s="476"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29469,46 +29546,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="430" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="431" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="441">
+      <c r="B4" s="432">
         <v>44316</v>
       </c>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="432"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="442"/>
-      <c r="C5" s="442"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="442"/>
-      <c r="H5" s="442"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29651,7 +29728,7 @@
       <c r="B13" s="268">
         <v>44179</v>
       </c>
-      <c r="C13" s="419" t="s">
+      <c r="C13" s="413" t="s">
         <v>1391</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -29674,7 +29751,7 @@
       <c r="B14" s="268">
         <v>44316</v>
       </c>
-      <c r="C14" s="419" t="s">
+      <c r="C14" s="413" t="s">
         <v>1395</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -29856,38 +29933,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="449" t="s">
+      <c r="B1" s="440" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="442" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="453">
+      <c r="B3" s="444">
         <v>44133</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
+      <c r="C3" s="445"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="445"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -30318,15 +30395,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="461" t="s">
+      <c r="B26" s="452" t="s">
         <v>1596</v>
       </c>
-      <c r="C26" s="462"/>
-      <c r="D26" s="462"/>
-      <c r="E26" s="462"/>
-      <c r="F26" s="462"/>
-      <c r="G26" s="462"/>
-      <c r="H26" s="463"/>
+      <c r="C26" s="453"/>
+      <c r="D26" s="453"/>
+      <c r="E26" s="453"/>
+      <c r="F26" s="453"/>
+      <c r="G26" s="453"/>
+      <c r="H26" s="454"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -31730,14 +31807,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="458" t="s">
+      <c r="B91" s="449" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="459"/>
-      <c r="D91" s="459"/>
-      <c r="E91" s="459"/>
-      <c r="F91" s="459"/>
-      <c r="G91" s="460"/>
+      <c r="C91" s="450"/>
+      <c r="D91" s="450"/>
+      <c r="E91" s="450"/>
+      <c r="F91" s="450"/>
+      <c r="G91" s="451"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32852,14 +32929,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="458" t="s">
+      <c r="B164" s="449" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="459"/>
-      <c r="D164" s="459"/>
-      <c r="E164" s="459"/>
-      <c r="F164" s="459"/>
-      <c r="G164" s="460"/>
+      <c r="C164" s="450"/>
+      <c r="D164" s="450"/>
+      <c r="E164" s="450"/>
+      <c r="F164" s="450"/>
+      <c r="G164" s="451"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -33006,14 +33083,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="458" t="s">
+      <c r="B174" s="449" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="459"/>
-      <c r="D174" s="459"/>
-      <c r="E174" s="459"/>
-      <c r="F174" s="459"/>
-      <c r="G174" s="460"/>
+      <c r="C174" s="450"/>
+      <c r="D174" s="450"/>
+      <c r="E174" s="450"/>
+      <c r="F174" s="450"/>
+      <c r="G174" s="451"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -33073,45 +33150,45 @@
       <c r="H178" s="181"/>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="422">
+      <c r="B179" s="416">
         <v>44894</v>
       </c>
-      <c r="C179" s="423" t="s">
+      <c r="C179" s="417" t="s">
         <v>1477</v>
       </c>
-      <c r="D179" s="423" t="s">
+      <c r="D179" s="417" t="s">
         <v>1259</v>
       </c>
-      <c r="E179" s="424"/>
-      <c r="F179" s="424" t="s">
+      <c r="E179" s="418"/>
+      <c r="F179" s="418" t="s">
         <v>873</v>
       </c>
-      <c r="G179" s="424" t="s">
+      <c r="G179" s="418" t="s">
         <v>845</v>
       </c>
       <c r="H179" s="238" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="15">
-      <c r="B180" s="422">
+      <c r="B180" s="416">
         <v>44894</v>
       </c>
-      <c r="C180" s="423" t="s">
+      <c r="C180" s="417" t="s">
         <v>1477</v>
       </c>
-      <c r="D180" s="423" t="s">
+      <c r="D180" s="417" t="s">
         <v>1259</v>
       </c>
-      <c r="E180" s="424"/>
-      <c r="F180" s="424" t="s">
+      <c r="E180" s="418"/>
+      <c r="F180" s="418" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="425">
+      <c r="G180" s="419">
         <v>20210</v>
       </c>
       <c r="H180" s="238" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
@@ -33518,14 +33595,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="455" t="s">
+      <c r="B242" s="446" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="456"/>
-      <c r="D242" s="456"/>
-      <c r="E242" s="456"/>
-      <c r="F242" s="456"/>
-      <c r="G242" s="457"/>
+      <c r="C242" s="447"/>
+      <c r="D242" s="447"/>
+      <c r="E242" s="447"/>
+      <c r="F242" s="447"/>
+      <c r="G242" s="448"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33559,10 +33636,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="446" t="s">
+      <c r="E245" s="437" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="446"/>
+      <c r="F245" s="437"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33571,32 +33648,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="447"/>
-      <c r="F246" s="447"/>
+      <c r="E246" s="438"/>
+      <c r="F246" s="438"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="447"/>
-      <c r="F247" s="447"/>
+      <c r="E247" s="438"/>
+      <c r="F247" s="438"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="447"/>
-      <c r="F248" s="447"/>
+      <c r="E248" s="438"/>
+      <c r="F248" s="438"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="447"/>
-      <c r="F249" s="447"/>
+      <c r="E249" s="438"/>
+      <c r="F249" s="438"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33607,8 +33684,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="447"/>
-      <c r="F250" s="447"/>
+      <c r="E250" s="438"/>
+      <c r="F250" s="438"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33617,8 +33694,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="447"/>
-      <c r="F251" s="447"/>
+      <c r="E251" s="438"/>
+      <c r="F251" s="438"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33627,8 +33704,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="448"/>
-      <c r="F252" s="448"/>
+      <c r="E252" s="439"/>
+      <c r="F252" s="439"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33641,7 +33718,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="443" t="s">
+      <c r="E253" s="434" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33655,7 +33732,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="444"/>
+      <c r="E254" s="435"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33669,7 +33746,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="444"/>
+      <c r="E255" s="435"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33681,7 +33758,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="444"/>
+      <c r="E256" s="435"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33693,7 +33770,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="444"/>
+      <c r="E257" s="435"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33705,7 +33782,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="444"/>
+      <c r="E258" s="435"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33717,7 +33794,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="444"/>
+      <c r="E259" s="435"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33727,7 +33804,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="444"/>
+      <c r="E260" s="435"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33735,7 +33812,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="444"/>
+      <c r="E261" s="435"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33745,7 +33822,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="444"/>
+      <c r="E262" s="435"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33755,7 +33832,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="444"/>
+      <c r="E263" s="435"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33765,7 +33842,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="445"/>
+      <c r="E264" s="436"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33777,7 +33854,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="446" t="s">
+      <c r="E265" s="437" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33791,7 +33868,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="447"/>
+      <c r="E266" s="438"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33805,7 +33882,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="447"/>
+      <c r="E267" s="438"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33815,7 +33892,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="448"/>
+      <c r="E268" s="439"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -34009,35 +34086,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="443" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="464">
+      <c r="B4" s="455">
         <v>43928</v>
       </c>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
-      <c r="F4" s="464"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34294,7 +34371,7 @@
   </sheetPr>
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" workbookViewId="0">
+    <sheetView topLeftCell="O9" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -34316,13 +34393,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34333,13 +34410,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="443" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34350,13 +34427,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="454">
+      <c r="B4" s="445">
         <v>43944</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34408,15 +34485,15 @@
       <c r="C8" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="427">
+      <c r="D8" s="421">
         <v>44889</v>
       </c>
-      <c r="E8" s="426" t="s">
-        <v>1755</v>
+      <c r="E8" s="420" t="s">
+        <v>1749</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="110" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -34451,10 +34528,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="110" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="S11" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -34483,7 +34560,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="Z14" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -34495,10 +34572,10 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="Y15" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="Z15" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34522,7 +34599,7 @@
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34534,7 +34611,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="Y18" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -34549,10 +34626,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="Y19" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34594,7 +34671,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="Y23" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -34606,7 +34683,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="Y24" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -34627,7 +34704,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -34639,7 +34716,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="Y27" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -34698,10 +34775,10 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="Y32" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="AA32" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -34712,11 +34789,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="465">
+      <c r="Y33" s="456">
         <v>44925</v>
       </c>
-      <c r="Z33" s="465"/>
-      <c r="AA33" s="465"/>
+      <c r="Z33" s="456"/>
+      <c r="AA33" s="456"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34727,10 +34804,10 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="Y34" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="Z34" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -34822,24 +34899,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34847,13 +34924,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="454">
+      <c r="B4" s="445">
         <v>43970</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97C3A8-19BD-4EE0-8019-8809CA5084E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987ADA88-92FA-4320-B398-E8ED101838D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,6 +62,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Resumen!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7115,7 +7116,7 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8212,6 +8213,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="27" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="27" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8377,38 +8406,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="27" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="27" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -15481,6 +15478,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="CTAS_PAGOS"/>
       <sheetName val="CTRL-PESO"/>
@@ -15944,7 +15944,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15961,78 +15961,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="491"/>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="492"/>
-      <c r="G1" s="493"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
+      <c r="F1" s="435"/>
     </row>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="491"/>
-      <c r="B2" s="494" t="s">
+      <c r="B2" s="438" t="s">
         <v>1772</v>
       </c>
-      <c r="C2" s="494"/>
-      <c r="D2" s="494"/>
-      <c r="E2" s="494"/>
-      <c r="F2" s="494"/>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
+      <c r="G2" s="438"/>
+      <c r="H2" s="438"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
-      <c r="A3" s="491"/>
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="439" t="s">
         <v>1597</v>
       </c>
-      <c r="C3" s="495"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="495"/>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="491"/>
-      <c r="J3" s="491"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
+      <c r="H3" s="439"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="491"/>
-      <c r="B4" s="491"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="497" t="s">
+      <c r="C4" s="436"/>
+      <c r="D4" s="437" t="s">
         <v>1773</v>
       </c>
-      <c r="E4" s="496">
+      <c r="E4" s="436">
         <f>MAX(B6:B146)</f>
-        <v>45035</v>
-      </c>
-      <c r="F4" s="496"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="496"/>
-      <c r="I4" s="491"/>
-      <c r="J4" s="491"/>
+        <v>45043</v>
+      </c>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="436"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="491"/>
-      <c r="B5" s="491"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="497" t="s">
+      <c r="C5" s="436"/>
+      <c r="D5" s="437" t="s">
         <v>1774</v>
       </c>
-      <c r="E5" s="496">
+      <c r="E5" s="436">
         <f>MIN(B6:B146)</f>
-        <v>43613</v>
-      </c>
-      <c r="F5" s="496"/>
-      <c r="G5" s="496"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="491"/>
+        <v>1059</v>
+      </c>
+      <c r="F5" s="436"/>
+      <c r="G5" s="436"/>
+      <c r="H5" s="436"/>
     </row>
     <row r="6" spans="1:10" s="348" customFormat="1" ht="30">
       <c r="A6" s="344"/>
@@ -16065,7 +16042,7 @@
       <c r="B7" s="349">
         <v>45035</v>
       </c>
-      <c r="C7" s="490" t="s">
+      <c r="C7" s="434" t="s">
         <v>1477</v>
       </c>
       <c r="D7" s="366" t="s">
@@ -16089,7 +16066,7 @@
       <c r="B8" s="349">
         <v>45035</v>
       </c>
-      <c r="C8" s="490" t="s">
+      <c r="C8" s="434" t="s">
         <v>1477</v>
       </c>
       <c r="D8" s="366" t="s">
@@ -16114,7 +16091,7 @@
       <c r="B9" s="349">
         <v>43613</v>
       </c>
-      <c r="C9" s="490" t="s">
+      <c r="C9" s="434" t="s">
         <v>1477</v>
       </c>
       <c r="D9" s="384" t="s">
@@ -16139,7 +16116,7 @@
       <c r="B10" s="349">
         <v>43665</v>
       </c>
-      <c r="C10" s="490" t="s">
+      <c r="C10" s="434" t="s">
         <v>1477</v>
       </c>
       <c r="D10" s="384" t="s">
@@ -16161,29 +16138,59 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="342"/>
-      <c r="B11" s="349"/>
-      <c r="C11" s="350"/>
-      <c r="D11" s="350"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="350"/>
+      <c r="B11" s="349">
+        <v>45043</v>
+      </c>
+      <c r="C11" s="434" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D11" s="350" t="s">
+        <v>754</v>
+      </c>
+      <c r="E11" s="350" t="s">
+        <v>882</v>
+      </c>
+      <c r="F11" s="357">
+        <v>1059</v>
+      </c>
+      <c r="G11" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="350" t="s">
+        <v>1528</v>
+      </c>
       <c r="I11" s="342"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="342"/>
-      <c r="B12" s="349"/>
-      <c r="C12" s="350"/>
-      <c r="D12" s="350"/>
-      <c r="E12" s="350"/>
-      <c r="F12" s="351"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="350"/>
+      <c r="B12" s="349">
+        <v>45043</v>
+      </c>
+      <c r="C12" s="434" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D12" s="350" t="s">
+        <v>754</v>
+      </c>
+      <c r="E12" s="350" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="357" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G12" s="368" t="s">
+        <v>883</v>
+      </c>
+      <c r="H12" s="350" t="s">
+        <v>1528</v>
+      </c>
       <c r="I12" s="342"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="342"/>
-      <c r="B13" s="349"/>
+      <c r="B13" s="349">
+        <v>1059</v>
+      </c>
       <c r="C13" s="350"/>
       <c r="D13" s="350"/>
       <c r="E13" s="350"/>
@@ -16227,13 +16234,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="342"/>
-      <c r="B17" s="486"/>
-      <c r="C17" s="487"/>
-      <c r="D17" s="487"/>
-      <c r="E17" s="487"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="487"/>
+      <c r="B17" s="430"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="432"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="431"/>
       <c r="I17" s="342"/>
     </row>
     <row r="18" spans="1:9">
@@ -16938,52 +16945,6 @@
       <c r="G51" s="352"/>
       <c r="H51" s="350" t="s">
         <v>1630</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="349">
-        <v>44313</v>
-      </c>
-      <c r="C52" s="361" t="s">
-        <v>754</v>
-      </c>
-      <c r="D52" s="350" t="s">
-        <v>882</v>
-      </c>
-      <c r="E52" s="350" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F52" s="357">
-        <v>1059</v>
-      </c>
-      <c r="G52" s="352" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="350" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="349">
-        <v>44313</v>
-      </c>
-      <c r="C53" s="361" t="s">
-        <v>754</v>
-      </c>
-      <c r="D53" s="350" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="350" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F53" s="357" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G53" s="368" t="s">
-        <v>883</v>
-      </c>
-      <c r="H53" s="350" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -18482,31 +18443,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="451" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="443" t="s">
+      <c r="B3" s="453" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="443"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="443"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="445">
+      <c r="B4" s="455">
         <v>43396</v>
       </c>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22520,71 +22481,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="459" t="s">
+      <c r="A2" s="469" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="461" t="s">
+      <c r="C2" s="471" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="463" t="s">
+      <c r="E2" s="473" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="465" t="s">
+      <c r="F2" s="475" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="465" t="s">
+      <c r="G2" s="475" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="457" t="s">
+      <c r="H2" s="467" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="465" t="s">
+      <c r="I2" s="475" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="465"/>
-      <c r="K2" s="465"/>
-      <c r="L2" s="457" t="s">
+      <c r="J2" s="475"/>
+      <c r="K2" s="475"/>
+      <c r="L2" s="467" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="457" t="s">
+      <c r="M2" s="467" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="465" t="s">
+      <c r="N2" s="475" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="465" t="s">
+      <c r="O2" s="475" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="457" t="s">
+      <c r="P2" s="467" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="465" t="s">
+      <c r="Q2" s="475" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="465" t="s">
+      <c r="R2" s="475" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="457" t="s">
+      <c r="S2" s="467" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="460"/>
+      <c r="A3" s="470"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="462"/>
+      <c r="C3" s="472"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="464"/>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="458"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22594,14 +22555,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="466"/>
-      <c r="O3" s="466"/>
-      <c r="P3" s="458"/>
-      <c r="Q3" s="466"/>
-      <c r="R3" s="466"/>
-      <c r="S3" s="458"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="468"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -27520,19 +27481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="467" t="s">
+      <c r="B1" s="477" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="467"/>
-      <c r="D1" s="467"/>
-      <c r="E1" s="467"/>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
-      <c r="K1" s="467"/>
-      <c r="L1" s="467"/>
+      <c r="C1" s="477"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28152,43 +28113,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="478" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28255,50 +28216,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="430" t="s">
+      <c r="B2" s="440" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="441" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="441"/>
+      <c r="F3" s="441"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="441"/>
+      <c r="I3" s="441"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="432">
+      <c r="B4" s="442">
         <v>44459</v>
       </c>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="432"/>
-      <c r="I4" s="432"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="442"/>
+      <c r="I4" s="442"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="433"/>
-      <c r="C5" s="433"/>
-      <c r="D5" s="433"/>
-      <c r="E5" s="433"/>
-      <c r="F5" s="433"/>
-      <c r="G5" s="433"/>
-      <c r="H5" s="433"/>
-      <c r="I5" s="433"/>
+      <c r="B5" s="443"/>
+      <c r="C5" s="443"/>
+      <c r="D5" s="443"/>
+      <c r="E5" s="443"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="443"/>
+      <c r="I5" s="443"/>
     </row>
     <row r="6" spans="2:9" ht="15">
       <c r="B6" s="317" t="s">
@@ -28586,43 +28547,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="478" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28681,43 +28642,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="478" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28770,51 +28731,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="478" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
-      <c r="J3" s="470" t="s">
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="480" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="470"/>
-      <c r="L3" s="470"/>
-      <c r="M3" s="470"/>
-      <c r="N3" s="470"/>
-      <c r="O3" s="470"/>
+      <c r="K3" s="480"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="480"/>
+      <c r="N3" s="480"/>
+      <c r="O3" s="480"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28877,43 +28838,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="478" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29044,16 +29005,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="477"/>
-      <c r="D10" s="478"/>
-      <c r="E10" s="479"/>
+      <c r="C10" s="487"/>
+      <c r="D10" s="488"/>
+      <c r="E10" s="489"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="480" t="s">
+      <c r="C11" s="490" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="481"/>
-      <c r="E11" s="482"/>
+      <c r="D11" s="491"/>
+      <c r="E11" s="492"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -29101,47 +29062,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="483"/>
-      <c r="D17" s="484"/>
-      <c r="E17" s="485"/>
+      <c r="C17" s="493"/>
+      <c r="D17" s="494"/>
+      <c r="E17" s="495"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="480" t="s">
+      <c r="C18" s="490" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="481"/>
-      <c r="E18" s="482"/>
+      <c r="D18" s="491"/>
+      <c r="E18" s="492"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="483"/>
-      <c r="D19" s="484"/>
-      <c r="E19" s="485"/>
+      <c r="C19" s="493"/>
+      <c r="D19" s="494"/>
+      <c r="E19" s="495"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="480" t="s">
+      <c r="C20" s="490" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="481"/>
-      <c r="E20" s="482"/>
+      <c r="D20" s="491"/>
+      <c r="E20" s="492"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="471"/>
-      <c r="D21" s="472"/>
-      <c r="E21" s="473"/>
+      <c r="C21" s="481"/>
+      <c r="D21" s="482"/>
+      <c r="E21" s="483"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="474" t="s">
+      <c r="C22" s="484" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="475"/>
-      <c r="E22" s="476"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="486"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="474" t="s">
+      <c r="C23" s="484" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="475"/>
-      <c r="E23" s="476"/>
+      <c r="D23" s="485"/>
+      <c r="E23" s="486"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29546,46 +29507,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="430" t="s">
+      <c r="B2" s="440" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="441" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="441"/>
+      <c r="F3" s="441"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="441"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="432">
+      <c r="B4" s="442">
         <v>44316</v>
       </c>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="432"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="442"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="433"/>
-      <c r="C5" s="433"/>
-      <c r="D5" s="433"/>
-      <c r="E5" s="433"/>
-      <c r="F5" s="433"/>
-      <c r="G5" s="433"/>
-      <c r="H5" s="433"/>
+      <c r="B5" s="443"/>
+      <c r="C5" s="443"/>
+      <c r="D5" s="443"/>
+      <c r="E5" s="443"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="443"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29933,38 +29894,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="440" t="s">
+      <c r="B1" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="442" t="s">
+      <c r="B2" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="444">
+      <c r="B3" s="454">
         <v>44133</v>
       </c>
-      <c r="C3" s="445"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="455"/>
+      <c r="F3" s="455"/>
+      <c r="G3" s="455"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -30395,15 +30356,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="452" t="s">
+      <c r="B26" s="462" t="s">
         <v>1596</v>
       </c>
-      <c r="C26" s="453"/>
-      <c r="D26" s="453"/>
-      <c r="E26" s="453"/>
-      <c r="F26" s="453"/>
-      <c r="G26" s="453"/>
-      <c r="H26" s="454"/>
+      <c r="C26" s="463"/>
+      <c r="D26" s="463"/>
+      <c r="E26" s="463"/>
+      <c r="F26" s="463"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="464"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -31807,14 +31768,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="449" t="s">
+      <c r="B91" s="459" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="450"/>
-      <c r="D91" s="450"/>
-      <c r="E91" s="450"/>
-      <c r="F91" s="450"/>
-      <c r="G91" s="451"/>
+      <c r="C91" s="460"/>
+      <c r="D91" s="460"/>
+      <c r="E91" s="460"/>
+      <c r="F91" s="460"/>
+      <c r="G91" s="461"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32929,14 +32890,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="449" t="s">
+      <c r="B164" s="459" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="450"/>
-      <c r="D164" s="450"/>
-      <c r="E164" s="450"/>
-      <c r="F164" s="450"/>
-      <c r="G164" s="451"/>
+      <c r="C164" s="460"/>
+      <c r="D164" s="460"/>
+      <c r="E164" s="460"/>
+      <c r="F164" s="460"/>
+      <c r="G164" s="461"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -33083,14 +33044,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="449" t="s">
+      <c r="B174" s="459" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="450"/>
-      <c r="D174" s="450"/>
-      <c r="E174" s="450"/>
-      <c r="F174" s="450"/>
-      <c r="G174" s="451"/>
+      <c r="C174" s="460"/>
+      <c r="D174" s="460"/>
+      <c r="E174" s="460"/>
+      <c r="F174" s="460"/>
+      <c r="G174" s="461"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -33595,14 +33556,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="446" t="s">
+      <c r="B242" s="456" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="447"/>
-      <c r="D242" s="447"/>
-      <c r="E242" s="447"/>
-      <c r="F242" s="447"/>
-      <c r="G242" s="448"/>
+      <c r="C242" s="457"/>
+      <c r="D242" s="457"/>
+      <c r="E242" s="457"/>
+      <c r="F242" s="457"/>
+      <c r="G242" s="458"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33636,10 +33597,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="437" t="s">
+      <c r="E245" s="447" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="437"/>
+      <c r="F245" s="447"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33648,32 +33609,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="438"/>
-      <c r="F246" s="438"/>
+      <c r="E246" s="448"/>
+      <c r="F246" s="448"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="438"/>
-      <c r="F247" s="438"/>
+      <c r="E247" s="448"/>
+      <c r="F247" s="448"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="438"/>
-      <c r="F248" s="438"/>
+      <c r="E248" s="448"/>
+      <c r="F248" s="448"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="438"/>
-      <c r="F249" s="438"/>
+      <c r="E249" s="448"/>
+      <c r="F249" s="448"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33684,8 +33645,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="438"/>
-      <c r="F250" s="438"/>
+      <c r="E250" s="448"/>
+      <c r="F250" s="448"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33694,8 +33655,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="438"/>
-      <c r="F251" s="438"/>
+      <c r="E251" s="448"/>
+      <c r="F251" s="448"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33704,8 +33665,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="439"/>
-      <c r="F252" s="439"/>
+      <c r="E252" s="449"/>
+      <c r="F252" s="449"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33718,7 +33679,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="434" t="s">
+      <c r="E253" s="444" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33732,7 +33693,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="435"/>
+      <c r="E254" s="445"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33746,7 +33707,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="435"/>
+      <c r="E255" s="445"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33758,7 +33719,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="435"/>
+      <c r="E256" s="445"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33770,7 +33731,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="435"/>
+      <c r="E257" s="445"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33782,7 +33743,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="435"/>
+      <c r="E258" s="445"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33794,7 +33755,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="435"/>
+      <c r="E259" s="445"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33804,7 +33765,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="435"/>
+      <c r="E260" s="445"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33812,7 +33773,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="435"/>
+      <c r="E261" s="445"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33822,7 +33783,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="435"/>
+      <c r="E262" s="445"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33832,7 +33793,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="435"/>
+      <c r="E263" s="445"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33842,7 +33803,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="436"/>
+      <c r="E264" s="446"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33854,7 +33815,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="437" t="s">
+      <c r="E265" s="447" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33868,7 +33829,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="438"/>
+      <c r="E266" s="448"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33882,7 +33843,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="438"/>
+      <c r="E267" s="448"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33892,7 +33853,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="439"/>
+      <c r="E268" s="449"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -34086,35 +34047,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="443" t="s">
+      <c r="B3" s="453" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="443"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="443"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="455">
+      <c r="B4" s="465">
         <v>43928</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="465"/>
+      <c r="F4" s="465"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34393,13 +34354,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="451" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34410,13 +34371,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="443" t="s">
+      <c r="B3" s="453" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="443"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="443"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34427,13 +34388,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="445">
+      <c r="B4" s="455">
         <v>43944</v>
       </c>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34789,11 +34750,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="456">
+      <c r="Y33" s="466">
         <v>44925</v>
       </c>
-      <c r="Z33" s="456"/>
-      <c r="AA33" s="456"/>
+      <c r="Z33" s="466"/>
+      <c r="AA33" s="466"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34899,24 +34860,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="451" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="443" t="s">
+      <c r="B3" s="453" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="443"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="443"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34924,13 +34885,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="445">
+      <c r="B4" s="455">
         <v>43970</v>
       </c>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987ADA88-92FA-4320-B398-E8ED101838D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98527C4E-BCB2-4880-A35C-E8B934E00482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Resumen!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -8320,6 +8319,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8342,12 +8347,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15944,7 +15943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22481,71 +22480,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="471" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="471" t="s">
+      <c r="C2" s="473" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="473" t="s">
+      <c r="E2" s="475" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="475" t="s">
+      <c r="F2" s="467" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="475" t="s">
+      <c r="G2" s="467" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="467" t="s">
+      <c r="H2" s="469" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="475" t="s">
+      <c r="I2" s="467" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="475"/>
-      <c r="K2" s="475"/>
-      <c r="L2" s="467" t="s">
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="469" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="467" t="s">
+      <c r="M2" s="469" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="475" t="s">
+      <c r="N2" s="467" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="475" t="s">
+      <c r="O2" s="467" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="467" t="s">
+      <c r="P2" s="469" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="475" t="s">
+      <c r="Q2" s="467" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="475" t="s">
+      <c r="R2" s="467" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="467" t="s">
+      <c r="S2" s="469" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="470"/>
+      <c r="A3" s="472"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="472"/>
+      <c r="C3" s="474"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="474"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="468"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="470"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22555,14 +22554,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="468"/>
-      <c r="M3" s="468"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="468"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="468"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="470"/>
+      <c r="Q3" s="468"/>
+      <c r="R3" s="468"/>
+      <c r="S3" s="470"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26505,6 +26504,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26514,12 +26519,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98527C4E-BCB2-4880-A35C-E8B934E00482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10A29C-BB98-405C-99D1-56B7327ADA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="1773">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5223,15 +5223,6 @@
   </si>
   <si>
     <t>CORREO</t>
-  </si>
-  <si>
-    <t>AUTOCAD VIEWER</t>
-  </si>
-  <si>
-    <t>https://viewer.autodesk.com/</t>
-  </si>
-  <si>
-    <t>Visor de Archivos de AutoCad</t>
   </si>
   <si>
     <t>DROPBOX</t>
@@ -8319,34 +8310,34 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15939,11 +15930,11 @@
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15964,7 +15955,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25">
       <c r="B2" s="438" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C2" s="438"/>
       <c r="D2" s="438"/>
@@ -15987,10 +15978,10 @@
     <row r="4" spans="1:10" ht="18.75">
       <c r="C4" s="436"/>
       <c r="D4" s="437" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="E4" s="436">
-        <f>MAX(B6:B146)</f>
+        <f>MAX(B6:B145)</f>
         <v>45043</v>
       </c>
       <c r="F4" s="436"/>
@@ -16000,11 +15991,11 @@
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="C5" s="436"/>
       <c r="D5" s="437" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="E5" s="436">
-        <f>MIN(B6:B146)</f>
-        <v>1059</v>
+        <f>MIN(B6:B145)</f>
+        <v>43613</v>
       </c>
       <c r="F5" s="436"/>
       <c r="G5" s="436"/>
@@ -16097,7 +16088,7 @@
         <v>1465</v>
       </c>
       <c r="E9" s="384" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="F9" s="369" t="s">
         <v>47</v>
@@ -16122,7 +16113,7 @@
         <v>1465</v>
       </c>
       <c r="E10" s="384" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="F10" s="369" t="s">
         <v>47</v>
@@ -16187,15 +16178,27 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="342"/>
-      <c r="B13" s="349">
-        <v>1059</v>
-      </c>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="351"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="350"/>
+      <c r="B13" s="368">
+        <v>44640</v>
+      </c>
+      <c r="C13" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D13" s="370" t="s">
+        <v>942</v>
+      </c>
+      <c r="E13" s="371" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F13" s="357" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G13" s="354" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H13" s="350" t="s">
+        <v>1582</v>
+      </c>
       <c r="I13" s="342"/>
     </row>
     <row r="14" spans="1:10">
@@ -16471,426 +16474,418 @@
       <c r="I27" s="342"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="342"/>
-      <c r="B28" s="368">
-        <v>44469</v>
-      </c>
-      <c r="C28" s="370" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="370" t="s">
+      <c r="B28" s="349"/>
+      <c r="C28" s="350" t="s">
         <v>1626</v>
       </c>
-      <c r="E28" s="371" t="s">
-        <v>1627</v>
-      </c>
+      <c r="D28" s="350"/>
+      <c r="E28" s="350"/>
       <c r="F28" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H28" s="350" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I28" s="342"/>
+        <v>9</v>
+      </c>
+      <c r="G28" s="352" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H28" s="350"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="349"/>
       <c r="C29" s="350" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D29" s="350"/>
-      <c r="E29" s="350"/>
+        <v>1630</v>
+      </c>
+      <c r="D29" s="350" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E29" s="372" t="s">
+        <v>1632</v>
+      </c>
       <c r="F29" s="351" t="s">
-        <v>9</v>
+        <v>1633</v>
       </c>
       <c r="G29" s="352" t="s">
-        <v>1632</v>
+        <v>1232</v>
       </c>
       <c r="H29" s="350"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="349"/>
       <c r="C30" s="350" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D30" s="350" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E30" s="372" t="s">
         <v>1635</v>
       </c>
+      <c r="E30" s="350" t="s">
+        <v>1636</v>
+      </c>
       <c r="F30" s="351" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="G30" s="352" t="s">
-        <v>1232</v>
+        <v>1638</v>
       </c>
       <c r="H30" s="350"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="349"/>
       <c r="C31" s="350" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D31" s="350" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E31" s="350" t="s">
-        <v>1639</v>
+        <v>1640</v>
+      </c>
+      <c r="E31" s="372" t="s">
+        <v>1641</v>
       </c>
       <c r="F31" s="351" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G31" s="352" t="s">
-        <v>1641</v>
+        <v>9</v>
+      </c>
+      <c r="G31" s="354" t="s">
+        <v>1232</v>
       </c>
       <c r="H31" s="350"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="349"/>
-      <c r="C32" s="350" t="s">
+      <c r="B32" s="349">
+        <v>44305</v>
+      </c>
+      <c r="C32" s="356" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D32" s="350" t="s">
         <v>1642</v>
       </c>
-      <c r="D32" s="350" t="s">
+      <c r="E32" s="350" t="s">
         <v>1643</v>
       </c>
-      <c r="E32" s="372" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F32" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="354" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H32" s="350"/>
+      <c r="F32" s="352" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G32" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H32" s="371" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="349">
-        <v>44305</v>
+      <c r="B33" s="355">
+        <v>44105</v>
       </c>
       <c r="C33" s="356" t="s">
         <v>1361</v>
       </c>
-      <c r="D33" s="350" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E33" s="350" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F33" s="352" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G33" s="352" t="s">
-        <v>845</v>
+      <c r="D33" s="371" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="371" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F33" s="357" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G33" s="354" t="s">
+        <v>37</v>
       </c>
       <c r="H33" s="371" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="355">
-        <v>44105</v>
-      </c>
-      <c r="C34" s="356" t="s">
+      <c r="B34" s="368">
+        <v>44354</v>
+      </c>
+      <c r="C34" s="370" t="s">
         <v>1361</v>
       </c>
-      <c r="D34" s="371" t="s">
+      <c r="D34" s="370" t="s">
         <v>1500</v>
       </c>
-      <c r="E34" s="371" t="s">
-        <v>1501</v>
+      <c r="E34" s="370" t="s">
+        <v>1644</v>
       </c>
       <c r="F34" s="357" t="s">
-        <v>1502</v>
+        <v>1374</v>
       </c>
       <c r="G34" s="354" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H34" s="371" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="368">
-        <v>44354</v>
-      </c>
-      <c r="C35" s="370" t="s">
+      <c r="B35" s="355">
+        <v>43945</v>
+      </c>
+      <c r="C35" s="356" t="s">
         <v>1361</v>
       </c>
-      <c r="D35" s="370" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="370" t="s">
-        <v>1647</v>
+      <c r="D35" s="356" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E35" s="371" t="s">
+        <v>1516</v>
       </c>
       <c r="F35" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G35" s="354" t="s">
-        <v>0</v>
+        <v>1331</v>
+      </c>
+      <c r="G35" s="357" t="s">
+        <v>1237</v>
       </c>
       <c r="H35" s="371" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="355">
-        <v>43945</v>
-      </c>
-      <c r="C36" s="356" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D36" s="356" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E36" s="371" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F36" s="357" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G36" s="357" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H36" s="371" t="s">
-        <v>1500</v>
+      <c r="B36" s="349"/>
+      <c r="C36" s="361" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D36" s="350" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E36" s="372" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F36" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H36" s="350" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="349"/>
-      <c r="C37" s="361" t="s">
-        <v>1625</v>
+      <c r="C37" s="350" t="s">
+        <v>1648</v>
       </c>
       <c r="D37" s="350" t="s">
         <v>1649</v>
       </c>
-      <c r="E37" s="372" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F37" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="352" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E37" s="350"/>
+      <c r="F37" s="351"/>
+      <c r="G37" s="352"/>
       <c r="H37" s="350" t="s">
-        <v>1650</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="349"/>
-      <c r="C38" s="350" t="s">
+      <c r="C38" s="361" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D38" s="350" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E38" s="350" t="s">
         <v>1651</v>
       </c>
-      <c r="D38" s="350" t="s">
+      <c r="F38" s="351" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G38" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H38" s="350" t="s">
         <v>1652</v>
-      </c>
-      <c r="E38" s="350"/>
-      <c r="F38" s="351"/>
-      <c r="G38" s="352"/>
-      <c r="H38" s="350" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="349"/>
-      <c r="C39" s="361" t="s">
-        <v>1625</v>
+      <c r="C39" s="350" t="s">
+        <v>1653</v>
       </c>
       <c r="D39" s="350" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E39" s="350" t="s">
         <v>1654</v>
       </c>
-      <c r="F39" s="351" t="s">
-        <v>1636</v>
+      <c r="E39" s="372" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F39" s="354" t="s">
+        <v>1656</v>
       </c>
       <c r="G39" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H39" s="350" t="s">
-        <v>1655</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="H39" s="350"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="349"/>
       <c r="C40" s="350" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D40" s="350" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="E40" s="372" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F40" s="354" t="s">
-        <v>1659</v>
+        <v>1660</v>
+      </c>
+      <c r="F40" s="351" t="s">
+        <v>1661</v>
       </c>
       <c r="G40" s="352" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="H40" s="350"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="349"/>
-      <c r="C41" s="350" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D41" s="350" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E41" s="372" t="s">
+      <c r="B41" s="373">
+        <v>44108</v>
+      </c>
+      <c r="C41" s="374" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D41" s="356" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E41" s="357" t="s">
+        <v>944</v>
+      </c>
+      <c r="F41" s="354"/>
+      <c r="G41" s="354"/>
+      <c r="H41" s="358" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="349"/>
+      <c r="C42" s="375" t="s">
         <v>1663</v>
       </c>
-      <c r="F41" s="351" t="s">
+      <c r="D42" s="376"/>
+      <c r="E42" s="350"/>
+      <c r="F42" s="351"/>
+      <c r="G42" s="352" t="s">
+        <v>843</v>
+      </c>
+      <c r="H42" s="350" t="s">
         <v>1664</v>
-      </c>
-      <c r="G41" s="352" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H41" s="350"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="373">
-        <v>44108</v>
-      </c>
-      <c r="C42" s="374" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D42" s="356" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E42" s="357" t="s">
-        <v>944</v>
-      </c>
-      <c r="F42" s="354"/>
-      <c r="G42" s="354"/>
-      <c r="H42" s="358" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="349"/>
       <c r="C43" s="375" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D43" s="376" t="s">
         <v>1666</v>
       </c>
-      <c r="D43" s="376"/>
-      <c r="E43" s="350"/>
-      <c r="F43" s="351"/>
-      <c r="G43" s="352" t="s">
-        <v>843</v>
-      </c>
-      <c r="H43" s="350" t="s">
+      <c r="E43" s="376" t="s">
         <v>1667</v>
       </c>
+      <c r="F43" s="377" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G43" s="378" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H43" s="379"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="349"/>
-      <c r="C44" s="375" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D44" s="376" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E44" s="376" t="s">
+      <c r="B44" s="373">
+        <v>44133</v>
+      </c>
+      <c r="C44" s="374" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D44" s="356" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E44" s="357" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F44" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G44" s="354" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="358" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="349"/>
+      <c r="C45" s="350" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="350" t="s">
         <v>1670</v>
       </c>
-      <c r="F44" s="377" t="s">
+      <c r="E45" s="350"/>
+      <c r="F45" s="351" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G45" s="352" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H45" s="350" t="s">
         <v>1671</v>
-      </c>
-      <c r="G44" s="378" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H44" s="379"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="373">
-        <v>44133</v>
-      </c>
-      <c r="C45" s="374" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D45" s="356" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E45" s="357" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F45" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G45" s="354" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="358" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="349"/>
       <c r="C46" s="350" t="s">
-        <v>398</v>
+        <v>1672</v>
       </c>
       <c r="D46" s="350" t="s">
         <v>1673</v>
       </c>
-      <c r="E46" s="350"/>
+      <c r="E46" s="350" t="s">
+        <v>1674</v>
+      </c>
       <c r="F46" s="351" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G46" s="352" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H46" s="350" t="s">
-        <v>1674</v>
+        <v>9</v>
+      </c>
+      <c r="G46" s="380" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H46" s="352" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="349"/>
-      <c r="C47" s="350" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D47" s="350" t="s">
+      <c r="B47" s="355">
+        <v>44144</v>
+      </c>
+      <c r="C47" s="356" t="s">
         <v>1676</v>
       </c>
-      <c r="E47" s="350" t="s">
+      <c r="D47" s="356" t="s">
         <v>1677</v>
       </c>
-      <c r="F47" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="380" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H47" s="352" t="s">
+      <c r="E47" s="371" t="s">
         <v>1678</v>
       </c>
+      <c r="F47" s="381" t="s">
+        <v>951</v>
+      </c>
+      <c r="G47" s="354" t="s">
+        <v>953</v>
+      </c>
+      <c r="H47" s="358" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="355">
-        <v>44144</v>
-      </c>
-      <c r="C48" s="356" t="s">
+      <c r="B48" s="349"/>
+      <c r="C48" s="350" t="s">
         <v>1679</v>
       </c>
-      <c r="D48" s="356" t="s">
+      <c r="D48" s="350" t="s">
         <v>1680</v>
       </c>
-      <c r="E48" s="371" t="s">
+      <c r="E48" s="372" t="s">
         <v>1681</v>
       </c>
-      <c r="F48" s="381" t="s">
-        <v>951</v>
-      </c>
-      <c r="G48" s="354" t="s">
-        <v>953</v>
-      </c>
-      <c r="H48" s="358" t="s">
-        <v>1490</v>
+      <c r="F48" s="351"/>
+      <c r="G48" s="352"/>
+      <c r="H48" s="350" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -16904,46 +16899,52 @@
       <c r="E49" s="372" t="s">
         <v>1684</v>
       </c>
-      <c r="F49" s="351"/>
-      <c r="G49" s="352"/>
+      <c r="F49" s="351" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G49" s="352" t="s">
+        <v>1232</v>
+      </c>
       <c r="H49" s="350" t="s">
-        <v>1630</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="349"/>
       <c r="C50" s="350" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D50" s="350" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E50" s="372" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F50" s="351" t="s">
         <v>1688</v>
       </c>
-      <c r="G50" s="352" t="s">
-        <v>1232</v>
-      </c>
+      <c r="E50" s="350"/>
+      <c r="F50" s="351"/>
+      <c r="G50" s="352"/>
       <c r="H50" s="350" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="349"/>
-      <c r="C51" s="350" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D51" s="350" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E51" s="350"/>
-      <c r="F51" s="351"/>
-      <c r="G51" s="352"/>
-      <c r="H51" s="350" t="s">
-        <v>1630</v>
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="373">
+        <v>44165</v>
+      </c>
+      <c r="C53" s="374" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D53" s="356" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E53" s="296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F53" s="357" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G53" s="357" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H53" s="358" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -16957,7 +16958,7 @@
         <v>1451</v>
       </c>
       <c r="E54" s="296" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="F54" s="357" t="s">
         <v>1453</v>
@@ -16965,76 +16966,70 @@
       <c r="G54" s="357" t="s">
         <v>1454</v>
       </c>
-      <c r="H54" s="358" t="s">
-        <v>1455</v>
+      <c r="H54" s="382" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="373">
-        <v>44165</v>
-      </c>
-      <c r="C55" s="374" t="s">
+      <c r="B55" s="349"/>
+      <c r="C55" s="361" t="s">
         <v>1450</v>
       </c>
-      <c r="D55" s="356" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E55" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F55" s="357" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G55" s="357" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H55" s="382" t="s">
-        <v>1457</v>
-      </c>
+      <c r="D55" s="350" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E55" s="350" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F55" s="383" t="s">
+        <v>882</v>
+      </c>
+      <c r="G55" s="354" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H55" s="350"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="349"/>
-      <c r="C56" s="361" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D56" s="350" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E56" s="350" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F56" s="383" t="s">
-        <v>882</v>
-      </c>
-      <c r="G56" s="354" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H56" s="350"/>
+      <c r="F56" s="343"/>
+      <c r="G56" s="343"/>
     </row>
     <row r="57" spans="2:8">
       <c r="F57" s="343"/>
       <c r="G57" s="343"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="F58" s="343"/>
-      <c r="G58" s="343"/>
+      <c r="B58" s="368"/>
+      <c r="C58" s="361" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D58" s="384" t="s">
+        <v>874</v>
+      </c>
+      <c r="E58" s="369" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F58" s="368" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G58" s="368" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H58" s="384"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="368"/>
+      <c r="B59" s="349"/>
       <c r="C59" s="361" t="s">
         <v>1465</v>
       </c>
       <c r="D59" s="384" t="s">
-        <v>874</v>
-      </c>
-      <c r="E59" s="369" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F59" s="368" t="s">
-        <v>1471</v>
+        <v>1473</v>
+      </c>
+      <c r="E59" s="384"/>
+      <c r="F59" s="369" t="s">
+        <v>47</v>
       </c>
       <c r="G59" s="368" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="H59" s="384"/>
     </row>
@@ -17046,12 +17041,14 @@
       <c r="D60" s="384" t="s">
         <v>1473</v>
       </c>
-      <c r="E60" s="384"/>
+      <c r="E60" s="384" t="s">
+        <v>128</v>
+      </c>
       <c r="F60" s="369" t="s">
-        <v>47</v>
+        <v>1475</v>
       </c>
       <c r="G60" s="368" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="H60" s="384"/>
     </row>
@@ -17060,50 +17057,54 @@
       <c r="C61" s="361" t="s">
         <v>1465</v>
       </c>
-      <c r="D61" s="384" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E61" s="384" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="369" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G61" s="368" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H61" s="384"/>
+      <c r="D61" s="350" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E61" s="350"/>
+      <c r="F61" s="383" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G61" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H61" s="350"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="349"/>
-      <c r="C62" s="361" t="s">
-        <v>1465</v>
+      <c r="C62" s="350" t="s">
+        <v>1689</v>
       </c>
       <c r="D62" s="350" t="s">
-        <v>1463</v>
+        <v>1690</v>
       </c>
       <c r="E62" s="350"/>
-      <c r="F62" s="383" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G62" s="352" t="s">
+      <c r="F62" s="351"/>
+      <c r="G62" s="352"/>
+      <c r="H62" s="350" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="368">
+        <v>44295</v>
+      </c>
+      <c r="C63" s="362" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D63" s="370" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E63" s="371" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F63" s="357" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G63" s="354" t="s">
         <v>845</v>
       </c>
-      <c r="H62" s="350"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="349"/>
-      <c r="C63" s="350" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D63" s="350" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E63" s="350"/>
-      <c r="F63" s="351"/>
-      <c r="G63" s="352"/>
       <c r="H63" s="350" t="s">
-        <v>1630</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -17120,27 +17121,27 @@
         <v>1519</v>
       </c>
       <c r="F64" s="357" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="G64" s="354" t="s">
         <v>845</v>
       </c>
       <c r="H64" s="350" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="368">
-        <v>44295</v>
+        <v>44147</v>
       </c>
       <c r="C65" s="362" t="s">
         <v>1517</v>
       </c>
       <c r="D65" s="370" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="E65" s="371" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="F65" s="357" t="s">
         <v>1522</v>
@@ -17149,135 +17150,135 @@
         <v>845</v>
       </c>
       <c r="H65" s="350" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="368">
-        <v>44147</v>
-      </c>
-      <c r="C66" s="362" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D66" s="370" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E66" s="371" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F66" s="357" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G66" s="354" t="s">
-        <v>845</v>
-      </c>
+      <c r="B66" s="349"/>
+      <c r="C66" s="350" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D66" s="350" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E66" s="350"/>
+      <c r="F66" s="351"/>
+      <c r="G66" s="352"/>
       <c r="H66" s="350" t="s">
-        <v>1526</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="349"/>
       <c r="C67" s="350" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D67" s="350" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E67" s="350"/>
       <c r="F67" s="351"/>
       <c r="G67" s="352"/>
       <c r="H67" s="350" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="349"/>
       <c r="C68" s="350" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D68" s="350" t="s">
         <v>1694</v>
       </c>
-      <c r="D68" s="350" t="s">
+      <c r="E68" s="372" t="s">
         <v>1695</v>
       </c>
-      <c r="E68" s="350"/>
-      <c r="F68" s="351"/>
-      <c r="G68" s="352"/>
-      <c r="H68" s="350" t="s">
-        <v>1631</v>
-      </c>
+      <c r="F68" s="351" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G68" s="352" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H68" s="350"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="349"/>
-      <c r="C69" s="350" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D69" s="350" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E69" s="372" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F69" s="351" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G69" s="352" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H69" s="350"/>
+      <c r="B69" s="355">
+        <v>44162</v>
+      </c>
+      <c r="C69" s="374" t="s">
+        <v>751</v>
+      </c>
+      <c r="D69" s="356" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E69" s="357" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F69" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="357" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H69" s="382"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="355">
-        <v>44162</v>
+      <c r="B70" s="373">
+        <v>44302</v>
       </c>
       <c r="C70" s="374" t="s">
         <v>751</v>
       </c>
       <c r="D70" s="356" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="E70" s="357" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="F70" s="357" t="s">
-        <v>28</v>
+        <v>1510</v>
       </c>
       <c r="G70" s="357" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H70" s="382"/>
+        <v>845</v>
+      </c>
+      <c r="H70" s="358" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="373">
-        <v>44302</v>
-      </c>
+      <c r="B71" s="355"/>
       <c r="C71" s="374" t="s">
         <v>751</v>
       </c>
       <c r="D71" s="356" t="s">
-        <v>1509</v>
+        <v>748</v>
       </c>
       <c r="E71" s="357" t="s">
-        <v>1500</v>
+        <v>748</v>
       </c>
       <c r="F71" s="357" t="s">
-        <v>1510</v>
+        <v>28</v>
       </c>
       <c r="G71" s="357" t="s">
-        <v>845</v>
+        <v>18</v>
       </c>
       <c r="H71" s="358" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="355"/>
+      <c r="B72" s="373">
+        <v>44139</v>
+      </c>
       <c r="C72" s="374" t="s">
         <v>751</v>
       </c>
       <c r="D72" s="356" t="s">
-        <v>748</v>
+        <v>1481</v>
       </c>
       <c r="E72" s="357" t="s">
-        <v>748</v>
+        <v>1513</v>
       </c>
       <c r="F72" s="357" t="s">
         <v>28</v>
@@ -17286,30 +17287,30 @@
         <v>18</v>
       </c>
       <c r="H72" s="358" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="373">
-        <v>44139</v>
-      </c>
-      <c r="C73" s="374" t="s">
-        <v>751</v>
-      </c>
-      <c r="D73" s="356" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E73" s="357" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F73" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="357" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="358" t="s">
-        <v>1514</v>
+      <c r="B73" s="385">
+        <v>44302</v>
+      </c>
+      <c r="C73" s="350" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D73" s="350" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E73" s="350" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F73" s="351" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G73" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H73" s="350" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -17317,37 +17318,33 @@
         <v>44302</v>
       </c>
       <c r="C74" s="350" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D74" s="350" t="s">
         <v>1702</v>
       </c>
-      <c r="E74" s="350" t="s">
-        <v>1703</v>
-      </c>
+      <c r="E74" s="350"/>
       <c r="F74" s="351" t="s">
-        <v>1688</v>
+        <v>9</v>
       </c>
       <c r="G74" s="352" t="s">
         <v>1232</v>
       </c>
-      <c r="H74" s="350" t="s">
+      <c r="H74" s="350"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="349"/>
+      <c r="C75" s="350" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D75" s="350" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="385">
-        <v>44302</v>
-      </c>
-      <c r="C75" s="350" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D75" s="350" t="s">
+      <c r="E75" s="350" t="s">
         <v>1705</v>
       </c>
-      <c r="E75" s="350"/>
-      <c r="F75" s="351" t="s">
-        <v>9</v>
+      <c r="F75" s="354" t="s">
+        <v>1706</v>
       </c>
       <c r="G75" s="352" t="s">
         <v>1232</v>
@@ -17357,16 +17354,16 @@
     <row r="76" spans="2:8">
       <c r="B76" s="349"/>
       <c r="C76" s="350" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D76" s="350" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E76" s="350" t="s">
-        <v>1708</v>
-      </c>
-      <c r="F76" s="354" t="s">
         <v>1709</v>
+      </c>
+      <c r="F76" s="351" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="352" t="s">
         <v>1232</v>
@@ -17381,104 +17378,108 @@
       <c r="D77" s="350" t="s">
         <v>1711</v>
       </c>
-      <c r="E77" s="350" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F77" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H77" s="350"/>
+      <c r="E77" s="350"/>
+      <c r="F77" s="351"/>
+      <c r="G77" s="352"/>
+      <c r="H77" s="350" t="s">
+        <v>1627</v>
+      </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="349"/>
       <c r="C78" s="350" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D78" s="350" t="s">
         <v>1713</v>
-      </c>
-      <c r="D78" s="350" t="s">
-        <v>1714</v>
       </c>
       <c r="E78" s="350"/>
       <c r="F78" s="351"/>
       <c r="G78" s="352"/>
       <c r="H78" s="350" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="349"/>
       <c r="C79" s="350" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D79" s="350" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="E79" s="350"/>
       <c r="F79" s="351"/>
       <c r="G79" s="352"/>
       <c r="H79" s="350" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="349"/>
-      <c r="C80" s="350" t="s">
+      <c r="F80" s="343"/>
+      <c r="G80" s="343"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="349"/>
+      <c r="C81" s="350" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D81" s="350" t="s">
         <v>1715</v>
       </c>
-      <c r="D80" s="350" t="s">
+      <c r="E81" s="350" t="s">
         <v>1716</v>
       </c>
-      <c r="E80" s="350"/>
-      <c r="F80" s="351"/>
-      <c r="G80" s="352"/>
-      <c r="H80" s="350" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="F81" s="343"/>
-      <c r="G81" s="343"/>
+      <c r="F81" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H81" s="350" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="349"/>
       <c r="C82" s="350" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D82" s="350" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E82" s="350" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F82" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="352" t="s">
-        <v>1232</v>
-      </c>
+      <c r="G82" s="352"/>
       <c r="H82" s="350" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="349"/>
-      <c r="C83" s="350" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D83" s="350" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E83" s="350" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F83" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="352"/>
+      <c r="B83" s="368">
+        <v>44329</v>
+      </c>
+      <c r="C83" s="362" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D83" s="370" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E83" s="370" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F83" s="357" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G83" s="354" t="s">
+        <v>979</v>
+      </c>
       <c r="H83" s="350" t="s">
-        <v>1724</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -17492,62 +17493,62 @@
         <v>1482</v>
       </c>
       <c r="E84" s="370" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="F84" s="357" t="s">
-        <v>1484</v>
+        <v>116</v>
       </c>
       <c r="G84" s="354" t="s">
-        <v>979</v>
+        <v>895</v>
       </c>
       <c r="H84" s="350" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="368">
-        <v>44329</v>
-      </c>
-      <c r="C85" s="362" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="368">
+        <v>44369</v>
+      </c>
+      <c r="C86" s="362" t="s">
         <v>1477</v>
       </c>
-      <c r="D85" s="370" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E85" s="370" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F85" s="357" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="354" t="s">
-        <v>895</v>
-      </c>
-      <c r="H85" s="350" t="s">
-        <v>1487</v>
+      <c r="D86" s="370" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E86" s="371" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F86" s="386" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G86" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="350" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="368">
-        <v>44369</v>
+        <v>44329</v>
       </c>
       <c r="C87" s="362" t="s">
         <v>1477</v>
       </c>
       <c r="D87" s="370" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E87" s="371" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F87" s="386" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G87" s="387" t="s">
-        <v>18</v>
+        <v>1503</v>
+      </c>
+      <c r="E87" s="388" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F87" s="357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G87" s="354" t="s">
+        <v>0</v>
       </c>
       <c r="H87" s="350" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -17558,10 +17559,10 @@
         <v>1477</v>
       </c>
       <c r="D88" s="370" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E88" s="388" t="s">
-        <v>1504</v>
+        <v>1481</v>
+      </c>
+      <c r="E88" s="371" t="s">
+        <v>1383</v>
       </c>
       <c r="F88" s="357" t="s">
         <v>1374</v>
@@ -17570,77 +17571,63 @@
         <v>0</v>
       </c>
       <c r="H88" s="350" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="368">
-        <v>44329</v>
+      <c r="B89" s="389">
+        <v>44925</v>
       </c>
       <c r="C89" s="362" t="s">
         <v>1477</v>
       </c>
-      <c r="D89" s="370" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E89" s="371" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F89" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G89" s="354" t="s">
-        <v>0</v>
-      </c>
-      <c r="H89" s="350" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="D89" s="391" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E89" s="392" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F89" s="428" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G89" s="394" t="s">
+        <v>979</v>
+      </c>
+      <c r="H89" s="429" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="45">
       <c r="B90" s="389">
-        <v>44925</v>
-      </c>
-      <c r="C90" s="362" t="s">
+        <v>44511</v>
+      </c>
+      <c r="C90" s="390" t="s">
         <v>1477</v>
       </c>
       <c r="D90" s="391" t="s">
-        <v>1768</v>
+        <v>1575</v>
       </c>
       <c r="E90" s="392" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F90" s="428" t="s">
-        <v>1453</v>
+        <v>1574</v>
+      </c>
+      <c r="F90" s="393" t="s">
+        <v>129</v>
       </c>
       <c r="G90" s="394" t="s">
-        <v>979</v>
-      </c>
-      <c r="H90" s="429" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="45">
-      <c r="B91" s="389">
-        <v>44511</v>
-      </c>
-      <c r="C91" s="390" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D91" s="391" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E91" s="392" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F91" s="393" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="394" t="s">
         <v>1454</v>
       </c>
-      <c r="H91" s="395" t="s">
+      <c r="H90" s="395" t="s">
         <v>1576</v>
       </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="396"/>
+      <c r="C91" s="397"/>
+      <c r="D91" s="397"/>
+      <c r="E91" s="398"/>
+      <c r="F91" s="399"/>
+      <c r="G91" s="400"/>
+      <c r="H91" s="401"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="396"/>
@@ -17651,58 +17638,53 @@
       <c r="G92" s="400"/>
       <c r="H92" s="401"/>
     </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="396"/>
-      <c r="C93" s="397"/>
-      <c r="D93" s="397"/>
-      <c r="E93" s="398"/>
-      <c r="F93" s="399"/>
-      <c r="G93" s="400"/>
-      <c r="H93" s="401"/>
-    </row>
-    <row r="94" spans="2:8" ht="30">
-      <c r="B94" s="402" t="s">
+    <row r="93" spans="2:8" ht="30">
+      <c r="B93" s="402" t="s">
         <v>1447</v>
       </c>
-      <c r="C94" s="402" t="s">
+      <c r="C93" s="402" t="s">
         <v>1448</v>
       </c>
-      <c r="D94" s="402" t="s">
+      <c r="D93" s="402" t="s">
         <v>1449</v>
       </c>
-      <c r="E94" s="402" t="s">
+      <c r="E93" s="402" t="s">
         <v>1336</v>
       </c>
-      <c r="F94" s="402" t="s">
+      <c r="F93" s="402" t="s">
         <v>172</v>
       </c>
-      <c r="G94" s="402" t="s">
+      <c r="G93" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="402" t="s">
+      <c r="H93" s="402" t="s">
         <v>1263</v>
       </c>
     </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="368">
+        <v>44581</v>
+      </c>
+      <c r="C94" s="370" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D94" s="370" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E94" s="371"/>
+      <c r="F94" s="357" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="403" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H94" s="350" t="s">
+        <v>1578</v>
+      </c>
+    </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="368">
-        <v>44581</v>
-      </c>
-      <c r="C95" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D95" s="370" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E95" s="371"/>
-      <c r="F95" s="357" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="403" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H95" s="350" t="s">
-        <v>1578</v>
-      </c>
+      <c r="F95" s="343"/>
+      <c r="G95" s="343"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="368">
@@ -17717,42 +17699,42 @@
       <c r="E96" s="371" t="s">
         <v>1579</v>
       </c>
-      <c r="F96" s="357" t="s">
-        <v>1580</v>
+      <c r="F96" s="403" t="s">
+        <v>129</v>
       </c>
       <c r="G96" s="354" t="s">
-        <v>1581</v>
+        <v>1454</v>
       </c>
       <c r="H96" s="350" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="97" spans="2:8">
       <c r="B97" s="368">
-        <v>44640</v>
+        <v>44563</v>
       </c>
       <c r="C97" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D97" s="370" t="s">
-        <v>942</v>
+        <v>1346</v>
       </c>
       <c r="E97" s="371" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F97" s="403" t="s">
-        <v>129</v>
+        <v>1355</v>
+      </c>
+      <c r="F97" s="357" t="s">
+        <v>1502</v>
       </c>
       <c r="G97" s="354" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H97" s="350" t="s">
-        <v>1583</v>
+        <v>979</v>
+      </c>
+      <c r="H97" s="404" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="368">
-        <v>44563</v>
+        <v>44581</v>
       </c>
       <c r="C98" s="370" t="s">
         <v>1477</v>
@@ -17761,60 +17743,60 @@
         <v>1346</v>
       </c>
       <c r="E98" s="371" t="s">
-        <v>1355</v>
+        <v>1584</v>
       </c>
       <c r="F98" s="357" t="s">
-        <v>1502</v>
+        <v>1585</v>
       </c>
       <c r="G98" s="354" t="s">
         <v>979</v>
       </c>
-      <c r="H98" s="404" t="s">
-        <v>1357</v>
-      </c>
+      <c r="H98" s="350"/>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="368">
+      <c r="B99" s="405">
         <v>44581</v>
       </c>
-      <c r="C99" s="370" t="s">
+      <c r="C99" s="406" t="s">
         <v>1477</v>
       </c>
-      <c r="D99" s="370" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E99" s="371" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F99" s="357" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G99" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H99" s="350"/>
+      <c r="D99" s="406" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E99" s="407" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F99" s="408" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G99" s="409" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H99" s="410" t="s">
+        <v>1727</v>
+      </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="405">
+      <c r="B100" s="368">
         <v>44581</v>
       </c>
-      <c r="C100" s="406" t="s">
+      <c r="C100" s="370" t="s">
         <v>1477</v>
       </c>
-      <c r="D100" s="406" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E100" s="407" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F100" s="408" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G100" s="409" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H100" s="410" t="s">
-        <v>1730</v>
+      <c r="D100" s="370" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E100" s="371" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F100" s="357" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G100" s="354" t="s">
+        <v>895</v>
+      </c>
+      <c r="H100" s="350" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="101" spans="2:8">
@@ -17831,64 +17813,62 @@
         <v>1587</v>
       </c>
       <c r="F101" s="357" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G101" s="354" t="s">
-        <v>895</v>
+        <v>979</v>
       </c>
       <c r="H101" s="350" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="368">
-        <v>44581</v>
+        <v>44606</v>
       </c>
       <c r="C102" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D102" s="370" t="s">
-        <v>1586</v>
+        <v>1488</v>
       </c>
       <c r="E102" s="371" t="s">
-        <v>1587</v>
+        <v>1489</v>
       </c>
       <c r="F102" s="357" t="s">
-        <v>1590</v>
+        <v>975</v>
       </c>
       <c r="G102" s="354" t="s">
-        <v>979</v>
+        <v>1454</v>
       </c>
       <c r="H102" s="350" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="368">
-        <v>44606</v>
+        <v>44661</v>
       </c>
       <c r="C103" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D103" s="370" t="s">
-        <v>1488</v>
+        <v>1450</v>
       </c>
       <c r="E103" s="371" t="s">
-        <v>1489</v>
+        <v>1463</v>
       </c>
       <c r="F103" s="357" t="s">
-        <v>975</v>
+        <v>1453</v>
       </c>
       <c r="G103" s="354" t="s">
         <v>1454</v>
       </c>
-      <c r="H103" s="350" t="s">
-        <v>1592</v>
-      </c>
+      <c r="H103" s="350"/>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="368">
-        <v>44661</v>
+        <v>44139</v>
       </c>
       <c r="C104" s="370" t="s">
         <v>1477</v>
@@ -17897,38 +17877,36 @@
         <v>1450</v>
       </c>
       <c r="E104" s="371" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="F104" s="357" t="s">
-        <v>1453</v>
+        <v>47</v>
       </c>
       <c r="G104" s="354" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H104" s="350"/>
+        <v>1387</v>
+      </c>
+      <c r="H104" s="350" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="368">
-        <v>44139</v>
-      </c>
+      <c r="B105" s="349"/>
       <c r="C105" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D105" s="370" t="s">
         <v>1450</v>
       </c>
-      <c r="E105" s="371" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F105" s="357" t="s">
-        <v>47</v>
+      <c r="E105" s="350" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F105" s="383" t="s">
+        <v>1410</v>
       </c>
       <c r="G105" s="354" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H105" s="350" t="s">
-        <v>1460</v>
-      </c>
+        <v>1409</v>
+      </c>
+      <c r="H105" s="350"/>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="349"/>
@@ -17939,10 +17917,10 @@
         <v>1450</v>
       </c>
       <c r="E106" s="350" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F106" s="383" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G106" s="354" t="s">
         <v>1409</v>
@@ -17950,107 +17928,111 @@
       <c r="H106" s="350"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="349"/>
+      <c r="B107" s="349">
+        <v>44873</v>
+      </c>
       <c r="C107" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D107" s="370" t="s">
         <v>1450</v>
       </c>
-      <c r="E107" s="350" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F107" s="383" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G107" s="354" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H107" s="350"/>
+      <c r="E107" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="350" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="349">
-        <v>44873</v>
+      <c r="B108" s="368">
+        <v>44652</v>
       </c>
       <c r="C108" s="370" t="s">
         <v>1477</v>
       </c>
       <c r="D108" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="E108" s="371" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F108" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="354" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="350" t="s">
         <v>1450</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F108" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="350" t="s">
-        <v>1745</v>
-      </c>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="368">
-        <v>44652</v>
-      </c>
-      <c r="C109" s="370" t="s">
+      <c r="B109" s="422">
+        <v>44910</v>
+      </c>
+      <c r="C109" s="423" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D109" s="423" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E109" s="424" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F109" s="425"/>
+      <c r="G109" s="426"/>
+      <c r="H109" s="427" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="349"/>
+      <c r="C110" s="350" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D110" s="350" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E110" s="350" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F110" s="354" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G110" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H110" s="350"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="349">
+        <v>44313</v>
+      </c>
+      <c r="C111" s="350" t="s">
         <v>1477</v>
       </c>
-      <c r="D109" s="370" t="s">
-        <v>751</v>
-      </c>
-      <c r="E109" s="371" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F109" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" s="354" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="350" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="422">
-        <v>44910</v>
-      </c>
-      <c r="C110" s="423" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D110" s="423" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E110" s="424" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F110" s="425"/>
-      <c r="G110" s="426"/>
-      <c r="H110" s="427" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="349"/>
-      <c r="C111" s="350" t="s">
-        <v>1733</v>
-      </c>
       <c r="D111" s="350" t="s">
-        <v>1734</v>
+        <v>754</v>
       </c>
       <c r="E111" s="350" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F111" s="354" t="s">
-        <v>1736</v>
+        <v>1527</v>
+      </c>
+      <c r="F111" s="357">
+        <v>1059</v>
       </c>
       <c r="G111" s="352" t="s">
-        <v>979</v>
-      </c>
-      <c r="H111" s="350"/>
+        <v>25</v>
+      </c>
+      <c r="H111" s="350" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="349">
@@ -18065,61 +18047,47 @@
       <c r="E112" s="350" t="s">
         <v>1527</v>
       </c>
-      <c r="F112" s="357">
-        <v>1059</v>
-      </c>
-      <c r="G112" s="352" t="s">
-        <v>25</v>
+      <c r="F112" s="357" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G112" s="368" t="s">
+        <v>883</v>
       </c>
       <c r="H112" s="350" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="349">
-        <v>44313</v>
-      </c>
-      <c r="C113" s="350" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="30">
+      <c r="B113" s="368">
+        <v>44874</v>
+      </c>
+      <c r="C113" s="370" t="s">
         <v>1477</v>
       </c>
-      <c r="D113" s="350" t="s">
-        <v>754</v>
-      </c>
-      <c r="E113" s="350" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F113" s="357" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G113" s="368" t="s">
-        <v>883</v>
-      </c>
-      <c r="H113" s="350" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="30">
-      <c r="B114" s="368">
-        <v>44874</v>
-      </c>
-      <c r="C114" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D114" s="370" t="s">
+      <c r="D113" s="370" t="s">
         <v>1346</v>
       </c>
-      <c r="E114" s="371" t="s">
+      <c r="E113" s="371" t="s">
         <v>752</v>
       </c>
-      <c r="F114" s="415" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G114" s="354" t="s">
+      <c r="F113" s="415" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G113" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="H114" s="363" t="s">
-        <v>1747</v>
-      </c>
+      <c r="H113" s="363" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="368"/>
+      <c r="C114" s="370"/>
+      <c r="D114" s="370"/>
+      <c r="E114" s="371"/>
+      <c r="F114" s="357"/>
+      <c r="G114" s="354"/>
+      <c r="H114" s="350"/>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="368"/>
@@ -18148,10 +18116,10 @@
       <c r="G117" s="354"/>
       <c r="H117" s="350"/>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" ht="15.75">
       <c r="B118" s="368"/>
       <c r="C118" s="370"/>
-      <c r="D118" s="370"/>
+      <c r="D118" s="414"/>
       <c r="E118" s="371"/>
       <c r="F118" s="357"/>
       <c r="G118" s="354"/>
@@ -18160,7 +18128,9 @@
     <row r="119" spans="2:8" ht="15.75">
       <c r="B119" s="368"/>
       <c r="C119" s="370"/>
-      <c r="D119" s="414"/>
+      <c r="D119" s="414" t="s">
+        <v>1735</v>
+      </c>
       <c r="E119" s="371"/>
       <c r="F119" s="357"/>
       <c r="G119" s="354"/>
@@ -18169,28 +18139,28 @@
     <row r="120" spans="2:8" ht="15.75">
       <c r="B120" s="368"/>
       <c r="C120" s="370"/>
-      <c r="D120" s="414" t="s">
-        <v>1738</v>
-      </c>
+      <c r="D120" s="414"/>
       <c r="E120" s="371"/>
       <c r="F120" s="357"/>
       <c r="G120" s="354"/>
       <c r="H120" s="350"/>
     </row>
-    <row r="121" spans="2:8" ht="15.75">
+    <row r="121" spans="2:8">
       <c r="B121" s="368"/>
       <c r="C121" s="370"/>
-      <c r="D121" s="414"/>
+      <c r="D121" s="83" t="s">
+        <v>1736</v>
+      </c>
       <c r="E121" s="371"/>
       <c r="F121" s="357"/>
       <c r="G121" s="354"/>
       <c r="H121" s="350"/>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" ht="15.75">
       <c r="B122" s="368"/>
       <c r="C122" s="370"/>
-      <c r="D122" s="83" t="s">
-        <v>1739</v>
+      <c r="D122" s="414" t="s">
+        <v>1737</v>
       </c>
       <c r="E122" s="371"/>
       <c r="F122" s="357"/>
@@ -18201,7 +18171,7 @@
       <c r="B123" s="368"/>
       <c r="C123" s="370"/>
       <c r="D123" s="414" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E123" s="371"/>
       <c r="F123" s="357"/>
@@ -18211,9 +18181,7 @@
     <row r="124" spans="2:8" ht="15.75">
       <c r="B124" s="368"/>
       <c r="C124" s="370"/>
-      <c r="D124" s="414" t="s">
-        <v>1741</v>
-      </c>
+      <c r="D124" s="414"/>
       <c r="E124" s="371"/>
       <c r="F124" s="357"/>
       <c r="G124" s="354"/>
@@ -18222,7 +18190,9 @@
     <row r="125" spans="2:8" ht="15.75">
       <c r="B125" s="368"/>
       <c r="C125" s="370"/>
-      <c r="D125" s="414"/>
+      <c r="D125" s="414" t="s">
+        <v>1739</v>
+      </c>
       <c r="E125" s="371"/>
       <c r="F125" s="357"/>
       <c r="G125" s="354"/>
@@ -18232,7 +18202,7 @@
       <c r="B126" s="368"/>
       <c r="C126" s="370"/>
       <c r="D126" s="414" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E126" s="371"/>
       <c r="F126" s="357"/>
@@ -18242,18 +18212,18 @@
     <row r="127" spans="2:8" ht="15.75">
       <c r="B127" s="368"/>
       <c r="C127" s="370"/>
-      <c r="D127" s="414" t="s">
-        <v>1743</v>
-      </c>
+      <c r="D127" s="414"/>
       <c r="E127" s="371"/>
       <c r="F127" s="357"/>
       <c r="G127" s="354"/>
       <c r="H127" s="350"/>
     </row>
-    <row r="128" spans="2:8" ht="15.75">
+    <row r="128" spans="2:8">
       <c r="B128" s="368"/>
       <c r="C128" s="370"/>
-      <c r="D128" s="414"/>
+      <c r="D128" s="83" t="s">
+        <v>1741</v>
+      </c>
       <c r="E128" s="371"/>
       <c r="F128" s="357"/>
       <c r="G128" s="354"/>
@@ -18262,46 +18232,35 @@
     <row r="129" spans="2:8">
       <c r="B129" s="368"/>
       <c r="C129" s="370"/>
-      <c r="D129" s="83" t="s">
-        <v>1744</v>
-      </c>
+      <c r="D129" s="370"/>
       <c r="E129" s="371"/>
       <c r="F129" s="357"/>
       <c r="G129" s="354"/>
       <c r="H129" s="350"/>
     </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="368"/>
-      <c r="C130" s="370"/>
-      <c r="D130" s="370"/>
-      <c r="E130" s="371"/>
-      <c r="F130" s="357"/>
-      <c r="G130" s="354"/>
-      <c r="H130" s="350"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B6:H91" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
+  <autoFilter ref="B6:H90" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E40" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
-    <hyperlink ref="F39" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
-    <hyperlink ref="F47" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
-    <hyperlink ref="F30" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
-    <hyperlink ref="E30" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
-    <hyperlink ref="E37" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
-    <hyperlink ref="F37" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
-    <hyperlink ref="F46" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
-    <hyperlink ref="F29" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
-    <hyperlink ref="E69" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
-    <hyperlink ref="F69" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
-    <hyperlink ref="F77" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
-    <hyperlink ref="F41" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
-    <hyperlink ref="E41" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
-    <hyperlink ref="E50" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
-    <hyperlink ref="E49" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
+    <hyperlink ref="F38" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
+    <hyperlink ref="F46" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
+    <hyperlink ref="F29" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
+    <hyperlink ref="E29" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
+    <hyperlink ref="F36" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
+    <hyperlink ref="F45" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
+    <hyperlink ref="F28" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
+    <hyperlink ref="E68" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
+    <hyperlink ref="F68" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
+    <hyperlink ref="F76" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
+    <hyperlink ref="F40" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
+    <hyperlink ref="E40" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
+    <hyperlink ref="E49" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
+    <hyperlink ref="E48" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
     <hyperlink ref="E23" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
     <hyperlink ref="F25" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
     <hyperlink ref="E24" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
@@ -18309,26 +18268,25 @@
     <hyperlink ref="E7" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
     <hyperlink ref="E8" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
     <hyperlink ref="E27" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
-    <hyperlink ref="E54" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
-    <hyperlink ref="E55" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
-    <hyperlink ref="E88" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{E5E197B3-A3ED-41B0-842D-8B890586BA2E}"/>
-    <hyperlink ref="F91" r:id="rId28" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="G95" r:id="rId31" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="F97" r:id="rId32" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="D122" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
-    <hyperlink ref="D129" r:id="rId34" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
-    <hyperlink ref="E108" r:id="rId35" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
+    <hyperlink ref="E53" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
+    <hyperlink ref="E54" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
+    <hyperlink ref="E87" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
+    <hyperlink ref="F90" r:id="rId27" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G94" r:id="rId30" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F96" r:id="rId31" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="D121" r:id="rId32" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
+    <hyperlink ref="D128" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
+    <hyperlink ref="E107" r:id="rId34" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -22480,71 +22438,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="471" t="s">
+      <c r="A2" s="469" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="473" t="s">
+      <c r="C2" s="471" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="475" t="s">
+      <c r="E2" s="473" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="467" t="s">
+      <c r="F2" s="475" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="467" t="s">
+      <c r="G2" s="475" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="469" t="s">
+      <c r="H2" s="467" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="467" t="s">
+      <c r="I2" s="475" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="469" t="s">
+      <c r="J2" s="475"/>
+      <c r="K2" s="475"/>
+      <c r="L2" s="467" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="469" t="s">
+      <c r="M2" s="467" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="467" t="s">
+      <c r="N2" s="475" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="467" t="s">
+      <c r="O2" s="475" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="469" t="s">
+      <c r="P2" s="467" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="467" t="s">
+      <c r="Q2" s="475" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="467" t="s">
+      <c r="R2" s="475" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="469" t="s">
+      <c r="S2" s="467" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="472"/>
+      <c r="A3" s="470"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="474"/>
+      <c r="C3" s="472"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="468"/>
-      <c r="H3" s="470"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22554,14 +22512,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="470"/>
-      <c r="M3" s="470"/>
-      <c r="N3" s="468"/>
-      <c r="O3" s="468"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="468"/>
-      <c r="R3" s="468"/>
-      <c r="S3" s="470"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="468"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26504,12 +26462,6 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26519,6 +26471,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -33127,7 +33085,7 @@
         <v>845</v>
       </c>
       <c r="H179" s="238" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="15">
@@ -33148,7 +33106,7 @@
         <v>20210</v>
       </c>
       <c r="H180" s="238" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
@@ -34449,11 +34407,11 @@
         <v>44889</v>
       </c>
       <c r="E8" s="420" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="110" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -34488,10 +34446,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="110" t="s">
+        <v>1748</v>
+      </c>
+      <c r="S11" t="s">
         <v>1751</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -34520,7 +34478,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="Z14" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -34532,10 +34490,10 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="Y15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="Z15" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34559,7 +34517,7 @@
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34571,7 +34529,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="Y18" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -34586,10 +34544,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="Y19" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34631,7 +34589,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="Y23" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -34643,7 +34601,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="Y24" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -34664,7 +34622,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -34676,7 +34634,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="Y27" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -34735,10 +34693,10 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="Y32" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="AA32" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -34764,10 +34722,10 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="Y34" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="Z34" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="35" spans="1:27">

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10A29C-BB98-405C-99D1-56B7327ADA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7C0C1-FCB3-4FCE-B8F4-DC004DA6F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8310,6 +8310,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8332,12 +8338,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15607,9 +15607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15647,9 +15647,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15682,26 +15682,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15734,26 +15717,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15934,7 +15900,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22438,71 +22404,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="471" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="471" t="s">
+      <c r="C2" s="473" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="473" t="s">
+      <c r="E2" s="475" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="475" t="s">
+      <c r="F2" s="467" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="475" t="s">
+      <c r="G2" s="467" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="467" t="s">
+      <c r="H2" s="469" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="475" t="s">
+      <c r="I2" s="467" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="475"/>
-      <c r="K2" s="475"/>
-      <c r="L2" s="467" t="s">
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="469" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="467" t="s">
+      <c r="M2" s="469" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="475" t="s">
+      <c r="N2" s="467" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="475" t="s">
+      <c r="O2" s="467" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="467" t="s">
+      <c r="P2" s="469" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="475" t="s">
+      <c r="Q2" s="467" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="475" t="s">
+      <c r="R2" s="467" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="467" t="s">
+      <c r="S2" s="469" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="470"/>
+      <c r="A3" s="472"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="472"/>
+      <c r="C3" s="474"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="474"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="468"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="470"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22512,14 +22478,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="468"/>
-      <c r="M3" s="468"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="468"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="468"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="470"/>
+      <c r="Q3" s="468"/>
+      <c r="R3" s="468"/>
+      <c r="S3" s="470"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26462,6 +26428,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26471,12 +26443,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/ZRK SYS.xlsx
+++ b/ZRK SYS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7C0C1-FCB3-4FCE-B8F4-DC004DA6F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2B803-AFE2-413B-A170-E9FD6B80B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -8310,34 +8310,34 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15898,7 +15898,7 @@
   </sheetPr>
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -22404,71 +22404,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="471" t="s">
+      <c r="A2" s="469" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="473" t="s">
+      <c r="C2" s="471" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="475" t="s">
+      <c r="E2" s="473" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="467" t="s">
+      <c r="F2" s="475" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="467" t="s">
+      <c r="G2" s="475" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="469" t="s">
+      <c r="H2" s="467" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="467" t="s">
+      <c r="I2" s="475" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="469" t="s">
+      <c r="J2" s="475"/>
+      <c r="K2" s="475"/>
+      <c r="L2" s="467" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="469" t="s">
+      <c r="M2" s="467" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="467" t="s">
+      <c r="N2" s="475" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="467" t="s">
+      <c r="O2" s="475" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="469" t="s">
+      <c r="P2" s="467" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="467" t="s">
+      <c r="Q2" s="475" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="467" t="s">
+      <c r="R2" s="475" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="469" t="s">
+      <c r="S2" s="467" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="472"/>
+      <c r="A3" s="470"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="474"/>
+      <c r="C3" s="472"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="468"/>
-      <c r="H3" s="470"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22478,14 +22478,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="470"/>
-      <c r="M3" s="470"/>
-      <c r="N3" s="468"/>
-      <c r="O3" s="468"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="468"/>
-      <c r="R3" s="468"/>
-      <c r="S3" s="470"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="468"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26428,12 +26428,6 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26443,6 +26437,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -29408,9 +29408,9 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
